--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -1143,6 +1143,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1182,6 +1185,15 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1203,26 +1215,17 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1233,13 +1236,13 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1386,9 +1389,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1450,7 +1450,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1626,11 +1625,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148253696"/>
-        <c:axId val="148264064"/>
+        <c:axId val="191793408"/>
+        <c:axId val="191799680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148253696"/>
+        <c:axId val="191793408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1652,17 +1651,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148264064"/>
+        <c:crossAx val="191799680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148264064"/>
+        <c:axId val="191799680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,24 +1682,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148253696"/>
+        <c:crossAx val="191793408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1927,11 +1923,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148903424"/>
-        <c:axId val="148905344"/>
+        <c:axId val="192947328"/>
+        <c:axId val="192949248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148903424"/>
+        <c:axId val="192947328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1958,12 +1954,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148905344"/>
+        <c:crossAx val="192949248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148905344"/>
+        <c:axId val="192949248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1990,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148903424"/>
+        <c:crossAx val="192947328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2007,7 +2003,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2225,11 +2221,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148963712"/>
-        <c:axId val="148965632"/>
+        <c:axId val="192991232"/>
+        <c:axId val="192993152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148963712"/>
+        <c:axId val="192991232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2256,12 +2252,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148965632"/>
+        <c:crossAx val="192993152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148965632"/>
+        <c:axId val="192993152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2283,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148963712"/>
+        <c:crossAx val="192991232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2300,7 +2296,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2526,11 +2522,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148982784"/>
-        <c:axId val="148997248"/>
+        <c:axId val="193030784"/>
+        <c:axId val="193045248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148982784"/>
+        <c:axId val="193030784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2557,12 +2553,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148997248"/>
+        <c:crossAx val="193045248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148997248"/>
+        <c:axId val="193045248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2594,7 +2590,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148982784"/>
+        <c:crossAx val="193030784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2607,7 +2603,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2642,7 +2638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2819,11 +2814,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149112704"/>
-        <c:axId val="149118976"/>
+        <c:axId val="193062016"/>
+        <c:axId val="193063936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149112704"/>
+        <c:axId val="193062016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2845,17 +2840,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149118976"/>
+        <c:crossAx val="193063936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149118976"/>
+        <c:axId val="193063936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,24 +2871,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149112704"/>
+        <c:crossAx val="193062016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3114,11 +3106,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149144320"/>
-        <c:axId val="149146240"/>
+        <c:axId val="194993536"/>
+        <c:axId val="195032576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149144320"/>
+        <c:axId val="194993536"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3145,12 +3137,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149146240"/>
+        <c:crossAx val="195032576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149146240"/>
+        <c:axId val="195032576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3182,7 +3174,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149144320"/>
+        <c:crossAx val="194993536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3195,7 +3187,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4196,11 +4188,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149091072"/>
-        <c:axId val="149092608"/>
+        <c:axId val="194686336"/>
+        <c:axId val="195036288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149091072"/>
+        <c:axId val="194686336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4208,12 +4200,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149092608"/>
+        <c:crossAx val="195036288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149092608"/>
+        <c:axId val="195036288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,7 +4213,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149091072"/>
+        <c:crossAx val="194686336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4234,7 +4226,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4382,6 +4374,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4488,6 +4481,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4677,6 +4671,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4866,6 +4861,7 @@
               <a:solidFill>
                 <a:srgbClr val="D6C700"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -5055,6 +5051,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF15EE"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -5233,11 +5230,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149208448"/>
-        <c:axId val="149222528"/>
+        <c:axId val="195086592"/>
+        <c:axId val="195104768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149208448"/>
+        <c:axId val="195086592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5245,12 +5242,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149222528"/>
+        <c:crossAx val="195104768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149222528"/>
+        <c:axId val="195104768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5258,7 +5255,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149208448"/>
+        <c:crossAx val="195086592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5271,7 +5268,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5306,7 +5303,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5652,11 +5648,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148516224"/>
-        <c:axId val="148522496"/>
+        <c:axId val="191809792"/>
+        <c:axId val="189965056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148516224"/>
+        <c:axId val="191809792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5678,17 +5674,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148522496"/>
+        <c:crossAx val="189965056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148522496"/>
+        <c:axId val="189965056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5710,24 +5705,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148516224"/>
+        <c:crossAx val="191809792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5776,7 +5769,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5952,11 +5944,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148543744"/>
-        <c:axId val="94507392"/>
+        <c:axId val="189986304"/>
+        <c:axId val="189988224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148543744"/>
+        <c:axId val="189986304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5978,17 +5970,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94507392"/>
+        <c:crossAx val="189988224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94507392"/>
+        <c:axId val="189988224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6016,24 +6007,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148543744"/>
+        <c:crossAx val="189986304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6079,7 +6068,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6425,11 +6413,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94546560"/>
-        <c:axId val="94556928"/>
+        <c:axId val="191719296"/>
+        <c:axId val="191750144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94546560"/>
+        <c:axId val="191719296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6451,17 +6439,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94556928"/>
+        <c:crossAx val="191750144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94556928"/>
+        <c:axId val="191750144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6489,24 +6476,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94546560"/>
+        <c:crossAx val="191719296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6887,11 +6872,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148675200"/>
-        <c:axId val="148681472"/>
+        <c:axId val="192448768"/>
+        <c:axId val="192459136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148675200"/>
+        <c:axId val="192448768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6918,12 +6903,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148681472"/>
+        <c:crossAx val="192459136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148681472"/>
+        <c:axId val="192459136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6949,7 +6934,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148675200"/>
+        <c:crossAx val="192448768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6962,7 +6947,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7351,11 +7336,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148782080"/>
-        <c:axId val="148808832"/>
+        <c:axId val="192813696"/>
+        <c:axId val="192856832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148782080"/>
+        <c:axId val="192813696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7382,12 +7367,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148808832"/>
+        <c:crossAx val="192856832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148808832"/>
+        <c:axId val="192856832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7419,7 +7404,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148782080"/>
+        <c:crossAx val="192813696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7432,7 +7417,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7813,11 +7798,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148831616"/>
-        <c:axId val="148854272"/>
+        <c:axId val="192879616"/>
+        <c:axId val="192885888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148831616"/>
+        <c:axId val="192879616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7844,12 +7829,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148854272"/>
+        <c:crossAx val="192885888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148854272"/>
+        <c:axId val="192885888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7875,7 +7860,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148831616"/>
+        <c:crossAx val="192879616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7888,7 +7873,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8280,11 +8265,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148885504"/>
-        <c:axId val="148887424"/>
+        <c:axId val="192925056"/>
+        <c:axId val="192931328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148885504"/>
+        <c:axId val="192925056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8311,12 +8296,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148887424"/>
+        <c:crossAx val="192931328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148887424"/>
+        <c:axId val="192931328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8348,7 +8333,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148885504"/>
+        <c:crossAx val="192925056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8361,7 +8346,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8579,11 +8564,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148724352"/>
-        <c:axId val="148738816"/>
+        <c:axId val="192514304"/>
+        <c:axId val="192532864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148724352"/>
+        <c:axId val="192514304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8610,12 +8595,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148738816"/>
+        <c:crossAx val="192532864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148738816"/>
+        <c:axId val="192532864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8641,7 +8626,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148724352"/>
+        <c:crossAx val="192514304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8654,7 +8639,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9464,19 +9449,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -9493,74 +9478,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="163" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="166" t="s">
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="167"/>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="167"/>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="167"/>
-      <c r="BB5" s="167"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="167"/>
-      <c r="BE5" s="167"/>
-      <c r="BF5" s="168"/>
-      <c r="BG5" s="182" t="s">
+      <c r="AS5" s="168"/>
+      <c r="AT5" s="168"/>
+      <c r="AU5" s="168"/>
+      <c r="AV5" s="168"/>
+      <c r="AW5" s="168"/>
+      <c r="AX5" s="168"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="168"/>
+      <c r="BA5" s="168"/>
+      <c r="BB5" s="168"/>
+      <c r="BC5" s="168"/>
+      <c r="BD5" s="168"/>
+      <c r="BE5" s="168"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="183"/>
-      <c r="BI5" s="183"/>
-      <c r="BJ5" s="183"/>
-      <c r="BK5" s="183"/>
-      <c r="BL5" s="183"/>
-      <c r="BM5" s="183"/>
-      <c r="BN5" s="183"/>
-      <c r="BO5" s="183"/>
-      <c r="BP5" s="183"/>
-      <c r="BQ5" s="183"/>
-      <c r="BR5" s="183"/>
-      <c r="BS5" s="183"/>
-      <c r="BT5" s="183"/>
-      <c r="BU5" s="184"/>
+      <c r="BH5" s="177"/>
+      <c r="BI5" s="177"/>
+      <c r="BJ5" s="177"/>
+      <c r="BK5" s="177"/>
+      <c r="BL5" s="177"/>
+      <c r="BM5" s="177"/>
+      <c r="BN5" s="177"/>
+      <c r="BO5" s="177"/>
+      <c r="BP5" s="177"/>
+      <c r="BQ5" s="177"/>
+      <c r="BR5" s="177"/>
+      <c r="BS5" s="177"/>
+      <c r="BT5" s="177"/>
+      <c r="BU5" s="178"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -11283,10 +11268,10 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="4"/>
@@ -11306,74 +11291,74 @@
     <row r="30" spans="1:73" ht="15.75">
       <c r="G30" s="1"/>
       <c r="J30" s="6"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="163" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="164"/>
-      <c r="AF30" s="164"/>
-      <c r="AG30" s="164"/>
-      <c r="AH30" s="164"/>
-      <c r="AI30" s="164"/>
-      <c r="AJ30" s="164"/>
-      <c r="AK30" s="164"/>
-      <c r="AL30" s="164"/>
-      <c r="AM30" s="164"/>
-      <c r="AN30" s="164"/>
-      <c r="AO30" s="164"/>
-      <c r="AP30" s="164"/>
-      <c r="AQ30" s="165"/>
-      <c r="AR30" s="166" t="s">
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
+      <c r="AM30" s="165"/>
+      <c r="AN30" s="165"/>
+      <c r="AO30" s="165"/>
+      <c r="AP30" s="165"/>
+      <c r="AQ30" s="166"/>
+      <c r="AR30" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="167"/>
-      <c r="AT30" s="167"/>
-      <c r="AU30" s="167"/>
-      <c r="AV30" s="167"/>
-      <c r="AW30" s="167"/>
-      <c r="AX30" s="167"/>
-      <c r="AY30" s="167"/>
-      <c r="AZ30" s="167"/>
-      <c r="BA30" s="167"/>
-      <c r="BB30" s="167"/>
-      <c r="BC30" s="167"/>
-      <c r="BD30" s="167"/>
-      <c r="BE30" s="167"/>
-      <c r="BF30" s="168"/>
-      <c r="BG30" s="182" t="s">
+      <c r="AS30" s="168"/>
+      <c r="AT30" s="168"/>
+      <c r="AU30" s="168"/>
+      <c r="AV30" s="168"/>
+      <c r="AW30" s="168"/>
+      <c r="AX30" s="168"/>
+      <c r="AY30" s="168"/>
+      <c r="AZ30" s="168"/>
+      <c r="BA30" s="168"/>
+      <c r="BB30" s="168"/>
+      <c r="BC30" s="168"/>
+      <c r="BD30" s="168"/>
+      <c r="BE30" s="168"/>
+      <c r="BF30" s="169"/>
+      <c r="BG30" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="183"/>
-      <c r="BI30" s="183"/>
-      <c r="BJ30" s="183"/>
-      <c r="BK30" s="183"/>
-      <c r="BL30" s="183"/>
-      <c r="BM30" s="183"/>
-      <c r="BN30" s="183"/>
-      <c r="BO30" s="183"/>
-      <c r="BP30" s="183"/>
-      <c r="BQ30" s="183"/>
-      <c r="BR30" s="183"/>
-      <c r="BS30" s="183"/>
-      <c r="BT30" s="183"/>
-      <c r="BU30" s="184"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="177"/>
+      <c r="BN30" s="177"/>
+      <c r="BO30" s="177"/>
+      <c r="BP30" s="177"/>
+      <c r="BQ30" s="177"/>
+      <c r="BR30" s="177"/>
+      <c r="BS30" s="177"/>
+      <c r="BT30" s="177"/>
+      <c r="BU30" s="178"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -13063,10 +13048,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="4"/>
@@ -13086,108 +13071,108 @@
     <row r="55" spans="1:103" ht="15.75">
       <c r="G55" s="1"/>
       <c r="J55" s="6"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="163" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="164"/>
-      <c r="AE55" s="164"/>
-      <c r="AF55" s="164"/>
-      <c r="AG55" s="164"/>
-      <c r="AH55" s="164"/>
-      <c r="AI55" s="164"/>
-      <c r="AJ55" s="164"/>
-      <c r="AK55" s="164"/>
-      <c r="AL55" s="164"/>
-      <c r="AM55" s="164"/>
-      <c r="AN55" s="164"/>
-      <c r="AO55" s="164"/>
-      <c r="AP55" s="164"/>
-      <c r="AQ55" s="165"/>
-      <c r="AR55" s="166" t="s">
+      <c r="AD55" s="165"/>
+      <c r="AE55" s="165"/>
+      <c r="AF55" s="165"/>
+      <c r="AG55" s="165"/>
+      <c r="AH55" s="165"/>
+      <c r="AI55" s="165"/>
+      <c r="AJ55" s="165"/>
+      <c r="AK55" s="165"/>
+      <c r="AL55" s="165"/>
+      <c r="AM55" s="165"/>
+      <c r="AN55" s="165"/>
+      <c r="AO55" s="165"/>
+      <c r="AP55" s="165"/>
+      <c r="AQ55" s="166"/>
+      <c r="AR55" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="167"/>
-      <c r="AT55" s="167"/>
-      <c r="AU55" s="167"/>
-      <c r="AV55" s="167"/>
-      <c r="AW55" s="167"/>
-      <c r="AX55" s="167"/>
-      <c r="AY55" s="167"/>
-      <c r="AZ55" s="167"/>
-      <c r="BA55" s="167"/>
-      <c r="BB55" s="167"/>
-      <c r="BC55" s="167"/>
-      <c r="BD55" s="167"/>
-      <c r="BE55" s="167"/>
-      <c r="BF55" s="168"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="168"/>
+      <c r="AT55" s="168"/>
+      <c r="AU55" s="168"/>
+      <c r="AV55" s="168"/>
+      <c r="AW55" s="168"/>
+      <c r="AX55" s="168"/>
+      <c r="AY55" s="168"/>
+      <c r="AZ55" s="168"/>
+      <c r="BA55" s="168"/>
+      <c r="BB55" s="168"/>
+      <c r="BC55" s="168"/>
+      <c r="BD55" s="168"/>
+      <c r="BE55" s="168"/>
+      <c r="BF55" s="169"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -13992,7 +13977,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="162" t="s">
+      <c r="U59" s="163" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -14008,7 +13993,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="162" t="s">
+      <c r="AJ59" s="163" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -14024,7 +14009,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="162" t="s">
+      <c r="AY59" s="163" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -14040,7 +14025,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="162" t="s">
+      <c r="BN59" s="163" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -14056,7 +14041,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC59" s="162" t="s">
+      <c r="CC59" s="163" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -14072,7 +14057,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR59" s="162" t="s">
+      <c r="CR59" s="163" t="s">
         <v>57</v>
       </c>
     </row>
@@ -14115,7 +14100,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -14129,7 +14114,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -14143,7 +14128,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -14157,7 +14142,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -14171,7 +14156,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -14185,7 +14170,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -15706,19 +15691,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -15735,74 +15720,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -17520,10 +17505,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -17537,74 +17522,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -19292,10 +19277,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -19309,108 +19294,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -20213,7 +20198,7 @@
         <f t="shared" si="27"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -20229,7 +20214,7 @@
         <f t="shared" si="20"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -20245,7 +20230,7 @@
         <f t="shared" si="21"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -20261,7 +20246,7 @@
         <f t="shared" si="22"/>
         <v>0.96099999999999997</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -20277,7 +20262,7 @@
         <f t="shared" si="23"/>
         <v>0.317</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -20293,7 +20278,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -20336,7 +20321,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -20350,7 +20335,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -20364,7 +20349,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -20378,7 +20363,7 @@
         <f t="shared" si="22"/>
         <v>0.89900000000000002</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -20392,7 +20377,7 @@
         <f t="shared" si="23"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -20406,7 +20391,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -21911,8 +21896,8 @@
   <sheetPr codeName="Foglio11"/>
   <dimension ref="A1:BA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA51" sqref="BA51"/>
+    <sheetView tabSelected="1" topLeftCell="AD38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX80" sqref="AX80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21957,43 +21942,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1">
-      <c r="B1" s="204" t="s">
+      <c r="B1" s="205" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="205"/>
+      <c r="C1" s="206"/>
       <c r="F1">
         <f ca="1">INDIRECT(A6&amp;"!$N$7")</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="232" t="s">
+      <c r="B3" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="196"/>
-      <c r="B4" s="229" t="s">
+      <c r="A4" s="197"/>
+      <c r="B4" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="224" t="s">
+      <c r="C4" s="231"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="197"/>
+      <c r="A5" s="198"/>
       <c r="B5" s="57" t="s">
         <v>26</v>
       </c>
@@ -22218,73 +22203,73 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="222"/>
-      <c r="K17" s="222"/>
-      <c r="L17" s="222"/>
-      <c r="M17" s="222"/>
-      <c r="N17" s="222"/>
-      <c r="O17" s="222"/>
-      <c r="P17" s="222"/>
-      <c r="Q17" s="222"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
-      <c r="W17" s="222"/>
-      <c r="X17" s="222"/>
-      <c r="Y17" s="223"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="224"/>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" s="196"/>
-      <c r="B18" s="218" t="s">
+      <c r="A18" s="197"/>
+      <c r="B18" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="218" t="s">
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="219"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="220"/>
-      <c r="N18" s="218" t="s">
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="O18" s="219"/>
-      <c r="P18" s="219"/>
-      <c r="Q18" s="219"/>
-      <c r="R18" s="219"/>
-      <c r="S18" s="220"/>
-      <c r="T18" s="221" t="s">
+      <c r="O18" s="220"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="222" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="222"/>
-      <c r="V18" s="222"/>
-      <c r="W18" s="222"/>
-      <c r="X18" s="222"/>
-      <c r="Y18" s="223"/>
+      <c r="U18" s="223"/>
+      <c r="V18" s="223"/>
+      <c r="W18" s="223"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="224"/>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" s="197"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="69" t="s">
         <v>26</v>
       </c>
@@ -23273,73 +23258,73 @@
       </c>
     </row>
     <row r="31" spans="1:25">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="215" t="s">
+      <c r="B31" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="216"/>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="216"/>
-      <c r="L31" s="216"/>
-      <c r="M31" s="216"/>
-      <c r="N31" s="216"/>
-      <c r="O31" s="216"/>
-      <c r="P31" s="216"/>
-      <c r="Q31" s="216"/>
-      <c r="R31" s="216"/>
-      <c r="S31" s="216"/>
-      <c r="T31" s="216"/>
-      <c r="U31" s="216"/>
-      <c r="V31" s="216"/>
-      <c r="W31" s="216"/>
-      <c r="X31" s="216"/>
-      <c r="Y31" s="217"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="217"/>
+      <c r="Q31" s="217"/>
+      <c r="R31" s="217"/>
+      <c r="S31" s="217"/>
+      <c r="T31" s="217"/>
+      <c r="U31" s="217"/>
+      <c r="V31" s="217"/>
+      <c r="W31" s="217"/>
+      <c r="X31" s="217"/>
+      <c r="Y31" s="218"/>
     </row>
     <row r="32" spans="1:25">
-      <c r="A32" s="196"/>
-      <c r="B32" s="212" t="s">
+      <c r="A32" s="197"/>
+      <c r="B32" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="213"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="212" t="s">
+      <c r="C32" s="214"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="213"/>
-      <c r="L32" s="213"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="212" t="s">
+      <c r="I32" s="214"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="215"/>
+      <c r="N32" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="213"/>
-      <c r="P32" s="213"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="213"/>
-      <c r="S32" s="214"/>
-      <c r="T32" s="215" t="s">
+      <c r="O32" s="214"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="215"/>
+      <c r="T32" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="U32" s="216"/>
-      <c r="V32" s="216"/>
-      <c r="W32" s="216"/>
-      <c r="X32" s="216"/>
-      <c r="Y32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="218"/>
     </row>
     <row r="33" spans="1:53">
-      <c r="A33" s="197"/>
+      <c r="A33" s="198"/>
       <c r="B33" s="80" t="s">
         <v>26</v>
       </c>
@@ -24336,36 +24321,36 @@
       </c>
     </row>
     <row r="45" spans="1:53">
-      <c r="A45" s="195" t="s">
+      <c r="A45" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="234" t="s">
+      <c r="B45" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="235"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="235"/>
-      <c r="G45" s="235"/>
-      <c r="H45" s="235"/>
-      <c r="I45" s="235"/>
-      <c r="J45" s="235"/>
-      <c r="K45" s="235"/>
-      <c r="L45" s="235"/>
-      <c r="M45" s="235"/>
-      <c r="N45" s="235"/>
-      <c r="O45" s="235"/>
-      <c r="P45" s="235"/>
-      <c r="Q45" s="235"/>
-      <c r="R45" s="235"/>
-      <c r="S45" s="235"/>
-      <c r="T45" s="235"/>
-      <c r="U45" s="235"/>
-      <c r="V45" s="235"/>
-      <c r="W45" s="235"/>
-      <c r="X45" s="235"/>
-      <c r="Y45" s="236"/>
-      <c r="AY45" s="243">
+      <c r="C45" s="236"/>
+      <c r="D45" s="236"/>
+      <c r="E45" s="236"/>
+      <c r="F45" s="236"/>
+      <c r="G45" s="236"/>
+      <c r="H45" s="236"/>
+      <c r="I45" s="236"/>
+      <c r="J45" s="236"/>
+      <c r="K45" s="236"/>
+      <c r="L45" s="236"/>
+      <c r="M45" s="236"/>
+      <c r="N45" s="236"/>
+      <c r="O45" s="236"/>
+      <c r="P45" s="236"/>
+      <c r="Q45" s="236"/>
+      <c r="R45" s="236"/>
+      <c r="S45" s="236"/>
+      <c r="T45" s="236"/>
+      <c r="U45" s="236"/>
+      <c r="V45" s="236"/>
+      <c r="W45" s="236"/>
+      <c r="X45" s="236"/>
+      <c r="Y45" s="237"/>
+      <c r="AY45" s="162">
         <v>0.02</v>
       </c>
       <c r="AZ45">
@@ -24377,40 +24362,40 @@
       </c>
     </row>
     <row r="46" spans="1:53">
-      <c r="A46" s="196"/>
-      <c r="B46" s="226" t="s">
+      <c r="A46" s="197"/>
+      <c r="B46" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="227"/>
-      <c r="D46" s="227"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="226" t="s">
+      <c r="C46" s="228"/>
+      <c r="D46" s="228"/>
+      <c r="E46" s="228"/>
+      <c r="F46" s="228"/>
+      <c r="G46" s="229"/>
+      <c r="H46" s="227" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="227"/>
-      <c r="J46" s="227"/>
-      <c r="K46" s="227"/>
-      <c r="L46" s="227"/>
-      <c r="M46" s="228"/>
-      <c r="N46" s="226" t="s">
+      <c r="I46" s="228"/>
+      <c r="J46" s="228"/>
+      <c r="K46" s="228"/>
+      <c r="L46" s="228"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="227"/>
-      <c r="P46" s="227"/>
-      <c r="Q46" s="227"/>
-      <c r="R46" s="227"/>
-      <c r="S46" s="228"/>
-      <c r="T46" s="234" t="s">
+      <c r="O46" s="228"/>
+      <c r="P46" s="228"/>
+      <c r="Q46" s="228"/>
+      <c r="R46" s="228"/>
+      <c r="S46" s="229"/>
+      <c r="T46" s="235" t="s">
         <v>39</v>
       </c>
-      <c r="U46" s="235"/>
-      <c r="V46" s="235"/>
-      <c r="W46" s="235"/>
-      <c r="X46" s="235"/>
-      <c r="Y46" s="236"/>
-      <c r="AY46" s="243">
+      <c r="U46" s="236"/>
+      <c r="V46" s="236"/>
+      <c r="W46" s="236"/>
+      <c r="X46" s="236"/>
+      <c r="Y46" s="237"/>
+      <c r="AY46" s="162">
         <v>0.01</v>
       </c>
       <c r="AZ46">
@@ -24422,7 +24407,7 @@
       </c>
     </row>
     <row r="47" spans="1:53">
-      <c r="A47" s="197"/>
+      <c r="A47" s="198"/>
       <c r="B47" s="84" t="s">
         <v>26</v>
       </c>
@@ -24479,7 +24464,7 @@
       <c r="Y47" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AY47" s="243">
+      <c r="AY47" s="162">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AZ47">
@@ -24582,7 +24567,7 @@
         <f t="shared" ref="Y48" ca="1" si="35">AVERAGE(M48,S48)</f>
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="AY48" s="243">
+      <c r="AY48" s="162">
         <v>1E-3</v>
       </c>
       <c r="AZ48">
@@ -24685,7 +24670,7 @@
         <f t="shared" ref="Y49:Y57" ca="1" si="51">AVERAGE(M49,S49)</f>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="AY49" s="243">
+      <c r="AY49" s="162">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="AZ49">
@@ -24788,7 +24773,7 @@
         <f t="shared" ca="1" si="51"/>
         <v>2.8549999999999999E-2</v>
       </c>
-      <c r="AY50" s="243">
+      <c r="AY50" s="162">
         <v>1E-4</v>
       </c>
       <c r="AZ50">
@@ -25451,73 +25436,73 @@
       </c>
     </row>
     <row r="59" spans="1:53">
-      <c r="A59" s="195" t="s">
+      <c r="A59" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B59" s="237" t="s">
+      <c r="B59" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="238"/>
-      <c r="D59" s="238"/>
-      <c r="E59" s="238"/>
-      <c r="F59" s="238"/>
-      <c r="G59" s="238"/>
-      <c r="H59" s="238"/>
-      <c r="I59" s="238"/>
-      <c r="J59" s="238"/>
-      <c r="K59" s="238"/>
-      <c r="L59" s="238"/>
-      <c r="M59" s="238"/>
-      <c r="N59" s="238"/>
-      <c r="O59" s="238"/>
-      <c r="P59" s="238"/>
-      <c r="Q59" s="238"/>
-      <c r="R59" s="238"/>
-      <c r="S59" s="238"/>
-      <c r="T59" s="238"/>
-      <c r="U59" s="238"/>
-      <c r="V59" s="238"/>
-      <c r="W59" s="238"/>
-      <c r="X59" s="238"/>
-      <c r="Y59" s="239"/>
+      <c r="C59" s="239"/>
+      <c r="D59" s="239"/>
+      <c r="E59" s="239"/>
+      <c r="F59" s="239"/>
+      <c r="G59" s="239"/>
+      <c r="H59" s="239"/>
+      <c r="I59" s="239"/>
+      <c r="J59" s="239"/>
+      <c r="K59" s="239"/>
+      <c r="L59" s="239"/>
+      <c r="M59" s="239"/>
+      <c r="N59" s="239"/>
+      <c r="O59" s="239"/>
+      <c r="P59" s="239"/>
+      <c r="Q59" s="239"/>
+      <c r="R59" s="239"/>
+      <c r="S59" s="239"/>
+      <c r="T59" s="239"/>
+      <c r="U59" s="239"/>
+      <c r="V59" s="239"/>
+      <c r="W59" s="239"/>
+      <c r="X59" s="239"/>
+      <c r="Y59" s="240"/>
     </row>
     <row r="60" spans="1:53">
-      <c r="A60" s="196"/>
-      <c r="B60" s="240" t="s">
+      <c r="A60" s="197"/>
+      <c r="B60" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="241"/>
-      <c r="D60" s="241"/>
-      <c r="E60" s="241"/>
-      <c r="F60" s="241"/>
-      <c r="G60" s="242"/>
-      <c r="H60" s="240" t="s">
+      <c r="C60" s="242"/>
+      <c r="D60" s="242"/>
+      <c r="E60" s="242"/>
+      <c r="F60" s="242"/>
+      <c r="G60" s="243"/>
+      <c r="H60" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="I60" s="241"/>
-      <c r="J60" s="241"/>
-      <c r="K60" s="241"/>
-      <c r="L60" s="241"/>
-      <c r="M60" s="242"/>
-      <c r="N60" s="240" t="s">
+      <c r="I60" s="242"/>
+      <c r="J60" s="242"/>
+      <c r="K60" s="242"/>
+      <c r="L60" s="242"/>
+      <c r="M60" s="243"/>
+      <c r="N60" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="O60" s="241"/>
-      <c r="P60" s="241"/>
-      <c r="Q60" s="241"/>
-      <c r="R60" s="241"/>
-      <c r="S60" s="242"/>
-      <c r="T60" s="237" t="s">
+      <c r="O60" s="242"/>
+      <c r="P60" s="242"/>
+      <c r="Q60" s="242"/>
+      <c r="R60" s="242"/>
+      <c r="S60" s="243"/>
+      <c r="T60" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="238"/>
-      <c r="V60" s="238"/>
-      <c r="W60" s="238"/>
-      <c r="X60" s="238"/>
-      <c r="Y60" s="239"/>
+      <c r="U60" s="239"/>
+      <c r="V60" s="239"/>
+      <c r="W60" s="239"/>
+      <c r="X60" s="239"/>
+      <c r="Y60" s="240"/>
     </row>
     <row r="61" spans="1:53">
-      <c r="A61" s="197"/>
+      <c r="A61" s="198"/>
       <c r="B61" s="115" t="s">
         <v>26</v>
       </c>
@@ -26266,73 +26251,73 @@
       </c>
     </row>
     <row r="73" spans="1:25">
-      <c r="A73" s="195" t="s">
+      <c r="A73" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="206" t="s">
+      <c r="B73" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="207"/>
-      <c r="D73" s="207"/>
-      <c r="E73" s="207"/>
-      <c r="F73" s="207"/>
-      <c r="G73" s="207"/>
-      <c r="H73" s="207"/>
-      <c r="I73" s="207"/>
-      <c r="J73" s="207"/>
-      <c r="K73" s="207"/>
-      <c r="L73" s="207"/>
-      <c r="M73" s="207"/>
-      <c r="N73" s="207"/>
-      <c r="O73" s="207"/>
-      <c r="P73" s="207"/>
-      <c r="Q73" s="207"/>
-      <c r="R73" s="207"/>
-      <c r="S73" s="207"/>
-      <c r="T73" s="207"/>
-      <c r="U73" s="207"/>
-      <c r="V73" s="207"/>
-      <c r="W73" s="207"/>
-      <c r="X73" s="207"/>
-      <c r="Y73" s="208"/>
+      <c r="C73" s="208"/>
+      <c r="D73" s="208"/>
+      <c r="E73" s="208"/>
+      <c r="F73" s="208"/>
+      <c r="G73" s="208"/>
+      <c r="H73" s="208"/>
+      <c r="I73" s="208"/>
+      <c r="J73" s="208"/>
+      <c r="K73" s="208"/>
+      <c r="L73" s="208"/>
+      <c r="M73" s="208"/>
+      <c r="N73" s="208"/>
+      <c r="O73" s="208"/>
+      <c r="P73" s="208"/>
+      <c r="Q73" s="208"/>
+      <c r="R73" s="208"/>
+      <c r="S73" s="208"/>
+      <c r="T73" s="208"/>
+      <c r="U73" s="208"/>
+      <c r="V73" s="208"/>
+      <c r="W73" s="208"/>
+      <c r="X73" s="208"/>
+      <c r="Y73" s="209"/>
     </row>
     <row r="74" spans="1:25">
-      <c r="A74" s="196"/>
-      <c r="B74" s="209" t="s">
+      <c r="A74" s="197"/>
+      <c r="B74" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="210"/>
-      <c r="D74" s="210"/>
-      <c r="E74" s="210"/>
-      <c r="F74" s="210"/>
-      <c r="G74" s="211"/>
-      <c r="H74" s="209" t="s">
+      <c r="C74" s="211"/>
+      <c r="D74" s="211"/>
+      <c r="E74" s="211"/>
+      <c r="F74" s="211"/>
+      <c r="G74" s="212"/>
+      <c r="H74" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="210"/>
-      <c r="J74" s="210"/>
-      <c r="K74" s="210"/>
-      <c r="L74" s="210"/>
-      <c r="M74" s="211"/>
-      <c r="N74" s="209" t="s">
+      <c r="I74" s="211"/>
+      <c r="J74" s="211"/>
+      <c r="K74" s="211"/>
+      <c r="L74" s="211"/>
+      <c r="M74" s="212"/>
+      <c r="N74" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="O74" s="210"/>
-      <c r="P74" s="210"/>
-      <c r="Q74" s="210"/>
-      <c r="R74" s="210"/>
-      <c r="S74" s="211"/>
-      <c r="T74" s="206" t="s">
+      <c r="O74" s="211"/>
+      <c r="P74" s="211"/>
+      <c r="Q74" s="211"/>
+      <c r="R74" s="211"/>
+      <c r="S74" s="212"/>
+      <c r="T74" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="U74" s="207"/>
-      <c r="V74" s="207"/>
-      <c r="W74" s="207"/>
-      <c r="X74" s="207"/>
-      <c r="Y74" s="208"/>
+      <c r="U74" s="208"/>
+      <c r="V74" s="208"/>
+      <c r="W74" s="208"/>
+      <c r="X74" s="208"/>
+      <c r="Y74" s="209"/>
     </row>
     <row r="75" spans="1:25">
-      <c r="A75" s="197"/>
+      <c r="A75" s="198"/>
       <c r="B75" s="138" t="s">
         <v>26</v>
       </c>
@@ -27081,73 +27066,73 @@
       </c>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="195" t="s">
+      <c r="A87" s="196" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="198" t="s">
+      <c r="B87" s="199" t="s">
         <v>59</v>
       </c>
-      <c r="C87" s="199"/>
-      <c r="D87" s="199"/>
-      <c r="E87" s="199"/>
-      <c r="F87" s="199"/>
-      <c r="G87" s="199"/>
-      <c r="H87" s="199"/>
-      <c r="I87" s="199"/>
-      <c r="J87" s="199"/>
-      <c r="K87" s="199"/>
-      <c r="L87" s="199"/>
-      <c r="M87" s="199"/>
-      <c r="N87" s="199"/>
-      <c r="O87" s="199"/>
-      <c r="P87" s="199"/>
-      <c r="Q87" s="199"/>
-      <c r="R87" s="199"/>
-      <c r="S87" s="199"/>
-      <c r="T87" s="199"/>
-      <c r="U87" s="199"/>
-      <c r="V87" s="199"/>
-      <c r="W87" s="199"/>
-      <c r="X87" s="199"/>
-      <c r="Y87" s="200"/>
+      <c r="C87" s="200"/>
+      <c r="D87" s="200"/>
+      <c r="E87" s="200"/>
+      <c r="F87" s="200"/>
+      <c r="G87" s="200"/>
+      <c r="H87" s="200"/>
+      <c r="I87" s="200"/>
+      <c r="J87" s="200"/>
+      <c r="K87" s="200"/>
+      <c r="L87" s="200"/>
+      <c r="M87" s="200"/>
+      <c r="N87" s="200"/>
+      <c r="O87" s="200"/>
+      <c r="P87" s="200"/>
+      <c r="Q87" s="200"/>
+      <c r="R87" s="200"/>
+      <c r="S87" s="200"/>
+      <c r="T87" s="200"/>
+      <c r="U87" s="200"/>
+      <c r="V87" s="200"/>
+      <c r="W87" s="200"/>
+      <c r="X87" s="200"/>
+      <c r="Y87" s="201"/>
     </row>
     <row r="88" spans="1:25">
-      <c r="A88" s="196"/>
-      <c r="B88" s="201" t="s">
+      <c r="A88" s="197"/>
+      <c r="B88" s="202" t="s">
         <v>29</v>
       </c>
-      <c r="C88" s="202"/>
-      <c r="D88" s="202"/>
-      <c r="E88" s="202"/>
-      <c r="F88" s="202"/>
-      <c r="G88" s="203"/>
-      <c r="H88" s="201" t="s">
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
+      <c r="G88" s="204"/>
+      <c r="H88" s="202" t="s">
         <v>30</v>
       </c>
-      <c r="I88" s="202"/>
-      <c r="J88" s="202"/>
-      <c r="K88" s="202"/>
-      <c r="L88" s="202"/>
-      <c r="M88" s="203"/>
-      <c r="N88" s="201" t="s">
+      <c r="I88" s="203"/>
+      <c r="J88" s="203"/>
+      <c r="K88" s="203"/>
+      <c r="L88" s="203"/>
+      <c r="M88" s="204"/>
+      <c r="N88" s="202" t="s">
         <v>48</v>
       </c>
-      <c r="O88" s="202"/>
-      <c r="P88" s="202"/>
-      <c r="Q88" s="202"/>
-      <c r="R88" s="202"/>
-      <c r="S88" s="203"/>
-      <c r="T88" s="198" t="s">
+      <c r="O88" s="203"/>
+      <c r="P88" s="203"/>
+      <c r="Q88" s="203"/>
+      <c r="R88" s="203"/>
+      <c r="S88" s="204"/>
+      <c r="T88" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="U88" s="199"/>
-      <c r="V88" s="199"/>
-      <c r="W88" s="199"/>
-      <c r="X88" s="199"/>
-      <c r="Y88" s="200"/>
+      <c r="U88" s="200"/>
+      <c r="V88" s="200"/>
+      <c r="W88" s="200"/>
+      <c r="X88" s="200"/>
+      <c r="Y88" s="201"/>
     </row>
     <row r="89" spans="1:25">
-      <c r="A89" s="197"/>
+      <c r="A89" s="198"/>
       <c r="B89" s="142" t="s">
         <v>26</v>
       </c>
@@ -29697,19 +29682,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -29726,74 +29711,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -31505,10 +31490,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -31522,74 +31507,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -33277,10 +33262,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -33294,108 +33279,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -34198,7 +34183,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -34214,7 +34199,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -34230,7 +34215,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -34246,7 +34231,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -34262,7 +34247,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -34278,7 +34263,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -34321,7 +34306,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -34335,7 +34320,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -34349,7 +34334,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -34363,7 +34348,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -34377,7 +34362,7 @@
         <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -34391,7 +34376,7 @@
         <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -35912,19 +35897,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -35941,74 +35926,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -37721,10 +37706,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -37738,74 +37723,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -39493,10 +39478,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -39510,108 +39495,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -40414,7 +40399,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -40430,7 +40415,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -40446,7 +40431,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -40462,7 +40447,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -40478,7 +40463,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -40494,7 +40479,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -40537,7 +40522,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -40551,7 +40536,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -40565,7 +40550,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -40579,7 +40564,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -40593,7 +40578,7 @@
         <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -40607,7 +40592,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -42130,19 +42115,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -42159,74 +42144,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -43944,10 +43929,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -43961,74 +43946,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -45716,10 +45701,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -45733,108 +45718,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -46637,7 +46622,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -46653,7 +46638,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -46669,7 +46654,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -46685,7 +46670,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -46701,7 +46686,7 @@
         <f t="shared" si="25"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -46717,7 +46702,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -46760,7 +46745,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -46774,7 +46759,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -46788,7 +46773,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -46802,7 +46787,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -46816,7 +46801,7 @@
         <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -46830,7 +46815,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -48364,19 +48349,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -48393,74 +48378,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="75">
       <c r="A6" s="3" t="s">
@@ -50178,10 +50163,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -50195,74 +50180,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="75">
       <c r="A31" s="3" t="s">
@@ -51950,10 +51935,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -51967,108 +51952,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="75">
       <c r="A56" s="3" t="s">
@@ -52871,7 +52856,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -52887,7 +52872,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -52903,7 +52888,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -52919,7 +52904,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -52935,7 +52920,7 @@
         <f t="shared" si="26"/>
         <v>0.82</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -52951,7 +52936,7 @@
         <f t="shared" si="27"/>
         <v>0.12</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -52994,7 +52979,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -53008,7 +52993,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -53022,7 +53007,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -53036,7 +53021,7 @@
         <f t="shared" si="25"/>
         <v>0.94</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -53050,7 +53035,7 @@
         <f t="shared" si="26"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -53064,7 +53049,7 @@
         <f t="shared" si="27"/>
         <v>0.04</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -54587,19 +54572,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -54616,74 +54601,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -56401,10 +56386,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -56418,74 +56403,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -58173,10 +58158,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -58190,108 +58175,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -59094,7 +59079,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -59110,7 +59095,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -59126,7 +59111,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -59142,7 +59127,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -59158,7 +59143,7 @@
         <f t="shared" si="24"/>
         <v>0.5625</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -59174,7 +59159,7 @@
         <f t="shared" si="25"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -59217,7 +59202,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -59231,7 +59216,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -59245,7 +59230,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -59259,7 +59244,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -59273,7 +59258,7 @@
         <f t="shared" si="24"/>
         <v>0.625</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -59287,7 +59272,7 @@
         <f t="shared" si="25"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -60809,19 +60794,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -60838,74 +60823,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -62623,10 +62608,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -62640,74 +62625,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -64394,10 +64379,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -64411,108 +64396,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -65315,7 +65300,7 @@
         <f t="shared" si="27"/>
         <v>0.99</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -65331,7 +65316,7 @@
         <f t="shared" si="20"/>
         <v>0.99</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -65347,7 +65332,7 @@
         <f t="shared" si="21"/>
         <v>0.99</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -65363,7 +65348,7 @@
         <f t="shared" si="22"/>
         <v>0.99</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -65379,7 +65364,7 @@
         <f t="shared" si="23"/>
         <v>0.39</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -65395,7 +65380,7 @@
         <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -65438,7 +65423,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -65452,7 +65437,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -65466,7 +65451,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -65480,7 +65465,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -65494,7 +65479,7 @@
         <f t="shared" si="23"/>
         <v>0.52</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -65508,7 +65493,7 @@
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -67034,19 +67019,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -67063,74 +67048,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="163" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -68848,10 +68833,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -68865,74 +68850,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="163" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="164"/>
-      <c r="AF30" s="164"/>
-      <c r="AG30" s="164"/>
-      <c r="AH30" s="164"/>
-      <c r="AI30" s="164"/>
-      <c r="AJ30" s="164"/>
-      <c r="AK30" s="164"/>
-      <c r="AL30" s="164"/>
-      <c r="AM30" s="164"/>
-      <c r="AN30" s="164"/>
-      <c r="AO30" s="164"/>
-      <c r="AP30" s="164"/>
-      <c r="AQ30" s="165"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
+      <c r="AM30" s="165"/>
+      <c r="AN30" s="165"/>
+      <c r="AO30" s="165"/>
+      <c r="AP30" s="165"/>
+      <c r="AQ30" s="166"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -70620,10 +70605,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -70637,108 +70622,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="163" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="164"/>
-      <c r="AE55" s="164"/>
-      <c r="AF55" s="164"/>
-      <c r="AG55" s="164"/>
-      <c r="AH55" s="164"/>
-      <c r="AI55" s="164"/>
-      <c r="AJ55" s="164"/>
-      <c r="AK55" s="164"/>
-      <c r="AL55" s="164"/>
-      <c r="AM55" s="164"/>
-      <c r="AN55" s="164"/>
-      <c r="AO55" s="164"/>
-      <c r="AP55" s="164"/>
-      <c r="AQ55" s="165"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="165"/>
+      <c r="AE55" s="165"/>
+      <c r="AF55" s="165"/>
+      <c r="AG55" s="165"/>
+      <c r="AH55" s="165"/>
+      <c r="AI55" s="165"/>
+      <c r="AJ55" s="165"/>
+      <c r="AK55" s="165"/>
+      <c r="AL55" s="165"/>
+      <c r="AM55" s="165"/>
+      <c r="AN55" s="165"/>
+      <c r="AO55" s="165"/>
+      <c r="AP55" s="165"/>
+      <c r="AQ55" s="166"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -71541,7 +71526,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -71557,7 +71542,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -71573,7 +71558,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -71589,7 +71574,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -71605,7 +71590,7 @@
         <f t="shared" si="23"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -71621,7 +71606,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -71664,7 +71649,7 @@
         <f t="shared" si="27"/>
         <v>0.98</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -71678,7 +71663,7 @@
         <f t="shared" si="20"/>
         <v>0.98</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -71692,7 +71677,7 @@
         <f t="shared" si="21"/>
         <v>0.98</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -71706,7 +71691,7 @@
         <f t="shared" si="22"/>
         <v>0.98</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -71720,7 +71705,7 @@
         <f t="shared" si="23"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -71734,7 +71719,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -73260,19 +73245,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="177"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="178"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>50</v>
       </c>
@@ -73289,74 +73274,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="179" t="s">
+      <c r="N5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="180"/>
-      <c r="Z5" s="180"/>
-      <c r="AA5" s="180"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="189" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="190"/>
-      <c r="AE5" s="190"/>
-      <c r="AF5" s="190"/>
-      <c r="AG5" s="190"/>
-      <c r="AH5" s="190"/>
-      <c r="AI5" s="190"/>
-      <c r="AJ5" s="190"/>
-      <c r="AK5" s="190"/>
-      <c r="AL5" s="190"/>
-      <c r="AM5" s="190"/>
-      <c r="AN5" s="190"/>
-      <c r="AO5" s="190"/>
-      <c r="AP5" s="190"/>
-      <c r="AQ5" s="191"/>
-      <c r="AR5" s="192" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS5" s="193"/>
-      <c r="AT5" s="193"/>
-      <c r="AU5" s="193"/>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="193"/>
-      <c r="AX5" s="193"/>
-      <c r="AY5" s="193"/>
-      <c r="AZ5" s="193"/>
-      <c r="BA5" s="193"/>
-      <c r="BB5" s="193"/>
-      <c r="BC5" s="193"/>
-      <c r="BD5" s="193"/>
-      <c r="BE5" s="193"/>
-      <c r="BF5" s="194"/>
-      <c r="BG5" s="186" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH5" s="187"/>
-      <c r="BI5" s="187"/>
-      <c r="BJ5" s="187"/>
-      <c r="BK5" s="187"/>
-      <c r="BL5" s="187"/>
-      <c r="BM5" s="187"/>
-      <c r="BN5" s="187"/>
-      <c r="BO5" s="187"/>
-      <c r="BP5" s="187"/>
-      <c r="BQ5" s="187"/>
-      <c r="BR5" s="187"/>
-      <c r="BS5" s="187"/>
-      <c r="BT5" s="187"/>
-      <c r="BU5" s="188"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -75074,10 +75059,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="178"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -75091,74 +75076,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="179" t="s">
+      <c r="N30" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="180"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="180"/>
-      <c r="T30" s="180"/>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="189" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD30" s="190"/>
-      <c r="AE30" s="190"/>
-      <c r="AF30" s="190"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="190"/>
-      <c r="AJ30" s="190"/>
-      <c r="AK30" s="190"/>
-      <c r="AL30" s="190"/>
-      <c r="AM30" s="190"/>
-      <c r="AN30" s="190"/>
-      <c r="AO30" s="190"/>
-      <c r="AP30" s="190"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS30" s="193"/>
-      <c r="AT30" s="193"/>
-      <c r="AU30" s="193"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="193"/>
-      <c r="AY30" s="193"/>
-      <c r="AZ30" s="193"/>
-      <c r="BA30" s="193"/>
-      <c r="BB30" s="193"/>
-      <c r="BC30" s="193"/>
-      <c r="BD30" s="193"/>
-      <c r="BE30" s="193"/>
-      <c r="BF30" s="194"/>
-      <c r="BG30" s="186" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="188"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -76847,10 +76832,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="178"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -76864,108 +76849,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="179" t="s">
+      <c r="N55" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="O55" s="180"/>
-      <c r="P55" s="180"/>
-      <c r="Q55" s="180"/>
-      <c r="R55" s="180"/>
-      <c r="S55" s="180"/>
-      <c r="T55" s="180"/>
-      <c r="U55" s="180"/>
-      <c r="V55" s="180"/>
-      <c r="W55" s="180"/>
-      <c r="X55" s="180"/>
-      <c r="Y55" s="180"/>
-      <c r="Z55" s="180"/>
-      <c r="AA55" s="180"/>
-      <c r="AB55" s="181"/>
-      <c r="AC55" s="189" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="AD55" s="190"/>
-      <c r="AE55" s="190"/>
-      <c r="AF55" s="190"/>
-      <c r="AG55" s="190"/>
-      <c r="AH55" s="190"/>
-      <c r="AI55" s="190"/>
-      <c r="AJ55" s="190"/>
-      <c r="AK55" s="190"/>
-      <c r="AL55" s="190"/>
-      <c r="AM55" s="190"/>
-      <c r="AN55" s="190"/>
-      <c r="AO55" s="190"/>
-      <c r="AP55" s="190"/>
-      <c r="AQ55" s="191"/>
-      <c r="AR55" s="192" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="AS55" s="193"/>
-      <c r="AT55" s="193"/>
-      <c r="AU55" s="193"/>
-      <c r="AV55" s="193"/>
-      <c r="AW55" s="193"/>
-      <c r="AX55" s="193"/>
-      <c r="AY55" s="193"/>
-      <c r="AZ55" s="193"/>
-      <c r="BA55" s="193"/>
-      <c r="BB55" s="193"/>
-      <c r="BC55" s="193"/>
-      <c r="BD55" s="193"/>
-      <c r="BE55" s="193"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="182" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="BH55" s="183"/>
-      <c r="BI55" s="183"/>
-      <c r="BJ55" s="183"/>
-      <c r="BK55" s="183"/>
-      <c r="BL55" s="183"/>
-      <c r="BM55" s="183"/>
-      <c r="BN55" s="183"/>
-      <c r="BO55" s="183"/>
-      <c r="BP55" s="183"/>
-      <c r="BQ55" s="183"/>
-      <c r="BR55" s="183"/>
-      <c r="BS55" s="183"/>
-      <c r="BT55" s="183"/>
-      <c r="BU55" s="184"/>
-      <c r="BV55" s="169" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="BW55" s="170"/>
-      <c r="BX55" s="170"/>
-      <c r="BY55" s="170"/>
-      <c r="BZ55" s="170"/>
-      <c r="CA55" s="170"/>
-      <c r="CB55" s="170"/>
-      <c r="CC55" s="170"/>
-      <c r="CD55" s="170"/>
-      <c r="CE55" s="170"/>
-      <c r="CF55" s="170"/>
-      <c r="CG55" s="170"/>
-      <c r="CH55" s="170"/>
-      <c r="CI55" s="170"/>
-      <c r="CJ55" s="171"/>
-      <c r="CK55" s="172" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="CL55" s="173"/>
-      <c r="CM55" s="173"/>
-      <c r="CN55" s="173"/>
-      <c r="CO55" s="173"/>
-      <c r="CP55" s="173"/>
-      <c r="CQ55" s="173"/>
-      <c r="CR55" s="173"/>
-      <c r="CS55" s="173"/>
-      <c r="CT55" s="173"/>
-      <c r="CU55" s="173"/>
-      <c r="CV55" s="173"/>
-      <c r="CW55" s="173"/>
-      <c r="CX55" s="173"/>
-      <c r="CY55" s="174"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -77768,7 +77753,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="185" t="s">
+      <c r="U59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AC59" s="4">
@@ -77784,7 +77769,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="185" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="AR59" s="4">
@@ -77800,7 +77785,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="185" t="s">
+      <c r="AY59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BG59" s="4">
@@ -77816,7 +77801,7 @@
         <f t="shared" si="22"/>
         <v>0.97599999999999998</v>
       </c>
-      <c r="BN59" s="185" t="s">
+      <c r="BN59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="BV59" s="4">
@@ -77832,7 +77817,7 @@
         <f t="shared" si="23"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="CC59" s="185" t="s">
+      <c r="CC59" s="189" t="s">
         <v>57</v>
       </c>
       <c r="CK59" s="4">
@@ -77848,7 +77833,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR59" s="185" t="s">
+      <c r="CR59" s="189" t="s">
         <v>57</v>
       </c>
     </row>
@@ -77891,7 +77876,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="162"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -77905,7 +77890,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="162"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -77919,7 +77904,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="162"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -77933,7 +77918,7 @@
         <f t="shared" si="22"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="BN60" s="162"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -77947,7 +77932,7 @@
         <f t="shared" si="23"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="CC60" s="162"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -77961,7 +77946,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR60" s="162"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">

--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -1450,6 +1450,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1625,11 +1626,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="191793408"/>
-        <c:axId val="191799680"/>
+        <c:axId val="85723392"/>
+        <c:axId val="85758720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191793408"/>
+        <c:axId val="85723392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1651,16 +1652,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191799680"/>
+        <c:crossAx val="85758720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191799680"/>
+        <c:axId val="85758720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,22 +1684,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191793408"/>
+        <c:crossAx val="85723392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1923,11 +1927,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="192947328"/>
-        <c:axId val="192949248"/>
+        <c:axId val="133829760"/>
+        <c:axId val="133831680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192947328"/>
+        <c:axId val="133829760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1954,12 +1958,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192949248"/>
+        <c:crossAx val="133831680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192949248"/>
+        <c:axId val="133831680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +1994,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192947328"/>
+        <c:crossAx val="133829760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2003,7 +2007,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2221,11 +2225,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="192991232"/>
-        <c:axId val="192993152"/>
+        <c:axId val="133853184"/>
+        <c:axId val="133855104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192991232"/>
+        <c:axId val="133853184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2252,12 +2256,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192993152"/>
+        <c:crossAx val="133855104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192993152"/>
+        <c:axId val="133855104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2287,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192991232"/>
+        <c:crossAx val="133853184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2296,7 +2300,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2522,11 +2526,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="193030784"/>
-        <c:axId val="193045248"/>
+        <c:axId val="133884544"/>
+        <c:axId val="135021312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193030784"/>
+        <c:axId val="133884544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2553,12 +2557,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193045248"/>
+        <c:crossAx val="135021312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193045248"/>
+        <c:axId val="135021312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2590,7 +2594,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193030784"/>
+        <c:crossAx val="133884544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2603,7 +2607,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2638,6 +2642,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2814,11 +2819,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="193062016"/>
-        <c:axId val="193063936"/>
+        <c:axId val="135066752"/>
+        <c:axId val="135068672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193062016"/>
+        <c:axId val="135066752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2840,16 +2845,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193063936"/>
+        <c:crossAx val="135068672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193063936"/>
+        <c:axId val="135068672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,22 +2877,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193062016"/>
+        <c:crossAx val="135066752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2914,7 +2922,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>D 0,00001 </a:t>
+              <a:t>D 0,0001 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0">
@@ -3106,11 +3114,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="194993536"/>
-        <c:axId val="195032576"/>
+        <c:axId val="134950272"/>
+        <c:axId val="134972928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194993536"/>
+        <c:axId val="134950272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3137,12 +3145,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195032576"/>
+        <c:crossAx val="134972928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195032576"/>
+        <c:axId val="134972928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3174,7 +3182,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194993536"/>
+        <c:crossAx val="134950272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3187,7 +3195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4188,11 +4196,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="194686336"/>
-        <c:axId val="195036288"/>
+        <c:axId val="135146880"/>
+        <c:axId val="135165056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194686336"/>
+        <c:axId val="135146880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4200,12 +4208,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195036288"/>
+        <c:crossAx val="135165056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195036288"/>
+        <c:axId val="135165056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,7 +4221,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194686336"/>
+        <c:crossAx val="135146880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4226,7 +4234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5230,11 +5238,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="195086592"/>
-        <c:axId val="195104768"/>
+        <c:axId val="136214784"/>
+        <c:axId val="136228864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195086592"/>
+        <c:axId val="136214784"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5242,12 +5250,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195104768"/>
+        <c:crossAx val="136228864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195104768"/>
+        <c:axId val="136228864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5255,7 +5263,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195086592"/>
+        <c:crossAx val="136214784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5268,7 +5276,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5303,6 +5311,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5648,11 +5657,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="191809792"/>
-        <c:axId val="189965056"/>
+        <c:axId val="79698944"/>
+        <c:axId val="79709312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191809792"/>
+        <c:axId val="79698944"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5674,16 +5683,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189965056"/>
+        <c:crossAx val="79709312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189965056"/>
+        <c:axId val="79709312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5705,22 +5715,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191809792"/>
+        <c:crossAx val="79698944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5769,6 +5781,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5944,11 +5957,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="189986304"/>
-        <c:axId val="189988224"/>
+        <c:axId val="79738752"/>
+        <c:axId val="85917696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189986304"/>
+        <c:axId val="79738752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5970,16 +5983,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189988224"/>
+        <c:crossAx val="85917696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189988224"/>
+        <c:axId val="85917696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6007,22 +6021,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189986304"/>
+        <c:crossAx val="79738752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6068,6 +6084,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6413,11 +6430,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="191719296"/>
-        <c:axId val="191750144"/>
+        <c:axId val="85956864"/>
+        <c:axId val="85963136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191719296"/>
+        <c:axId val="85956864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6439,16 +6456,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191750144"/>
+        <c:crossAx val="85963136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191750144"/>
+        <c:axId val="85963136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6476,22 +6494,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191719296"/>
+        <c:crossAx val="85956864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6872,11 +6892,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="192448768"/>
-        <c:axId val="192459136"/>
+        <c:axId val="129309312"/>
+        <c:axId val="129319680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192448768"/>
+        <c:axId val="129309312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6903,12 +6923,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192459136"/>
+        <c:crossAx val="129319680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192459136"/>
+        <c:axId val="129319680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6934,7 +6954,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192448768"/>
+        <c:crossAx val="129309312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6947,7 +6967,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7336,11 +7356,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="192813696"/>
-        <c:axId val="192856832"/>
+        <c:axId val="129358848"/>
+        <c:axId val="126755968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192813696"/>
+        <c:axId val="129358848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7367,12 +7387,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192856832"/>
+        <c:crossAx val="126755968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192856832"/>
+        <c:axId val="126755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7404,7 +7424,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192813696"/>
+        <c:crossAx val="129358848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7417,7 +7437,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7798,11 +7818,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="192879616"/>
-        <c:axId val="192885888"/>
+        <c:axId val="126774656"/>
+        <c:axId val="126801408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192879616"/>
+        <c:axId val="126774656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7829,12 +7849,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192885888"/>
+        <c:crossAx val="126801408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192885888"/>
+        <c:axId val="126801408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7860,7 +7880,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192879616"/>
+        <c:crossAx val="126774656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7873,7 +7893,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8265,11 +8285,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="192925056"/>
-        <c:axId val="192931328"/>
+        <c:axId val="133353472"/>
+        <c:axId val="133355392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192925056"/>
+        <c:axId val="133353472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8296,12 +8316,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192931328"/>
+        <c:crossAx val="133355392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192931328"/>
+        <c:axId val="133355392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8333,7 +8353,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192925056"/>
+        <c:crossAx val="133353472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8346,7 +8366,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8564,11 +8584,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="192514304"/>
-        <c:axId val="192532864"/>
+        <c:axId val="133765376"/>
+        <c:axId val="133775744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192514304"/>
+        <c:axId val="133765376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8595,12 +8615,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192532864"/>
+        <c:crossAx val="133775744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192532864"/>
+        <c:axId val="133775744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8626,7 +8646,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192514304"/>
+        <c:crossAx val="133765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8639,7 +8659,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9418,8 +9438,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:CY76"/>
   <sheetViews>
-    <sheetView topLeftCell="F44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X56" sqref="X56"/>
+    <sheetView topLeftCell="BB43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BM70" sqref="BM70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15673,8 +15693,8 @@
   <sheetPr codeName="Foglio10"/>
   <dimension ref="A1:CY76"/>
   <sheetViews>
-    <sheetView topLeftCell="BA47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X56" sqref="X56"/>
+    <sheetView topLeftCell="BH47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CB75" sqref="CB75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21896,8 +21916,8 @@
   <sheetPr codeName="Foglio11"/>
   <dimension ref="A1:BA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX80" sqref="AX80"/>
+    <sheetView tabSelected="1" topLeftCell="AD55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG58" sqref="AG58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="65">
   <si>
     <t>Dati raccolti dalle simulazioni</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>sec</t>
+  </si>
+  <si>
+    <t>TTT/%nr</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1453,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1626,11 +1628,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85723392"/>
-        <c:axId val="85758720"/>
+        <c:axId val="136860032"/>
+        <c:axId val="136862336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85723392"/>
+        <c:axId val="136860032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1652,17 +1654,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85758720"/>
+        <c:crossAx val="136862336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85758720"/>
+        <c:axId val="136862336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,24 +1685,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85723392"/>
+        <c:crossAx val="136860032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1747,7 +1746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1927,11 +1925,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133829760"/>
-        <c:axId val="133831680"/>
+        <c:axId val="151239680"/>
+        <c:axId val="151344256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133829760"/>
+        <c:axId val="151239680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1953,17 +1951,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133831680"/>
+        <c:crossAx val="151344256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133831680"/>
+        <c:axId val="151344256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,24 +1987,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133829760"/>
+        <c:crossAx val="151239680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2042,7 +2037,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2225,11 +2219,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133853184"/>
-        <c:axId val="133855104"/>
+        <c:axId val="151361408"/>
+        <c:axId val="151371776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133853184"/>
+        <c:axId val="151361408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2251,17 +2245,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133855104"/>
+        <c:crossAx val="151371776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133855104"/>
+        <c:axId val="151371776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,24 +2276,30 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.2393308088359449E-2"/>
+              <c:y val="0.19448379629629634"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133853184"/>
+        <c:crossAx val="151361408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2346,7 +2345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2526,11 +2524,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133884544"/>
-        <c:axId val="135021312"/>
+        <c:axId val="151274240"/>
+        <c:axId val="151276160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133884544"/>
+        <c:axId val="151274240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2552,17 +2550,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135021312"/>
+        <c:crossAx val="151276160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135021312"/>
+        <c:axId val="151276160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2590,24 +2587,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133884544"/>
+        <c:crossAx val="151274240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2642,7 +2637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2819,11 +2813,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="135066752"/>
-        <c:axId val="135068672"/>
+        <c:axId val="151309312"/>
+        <c:axId val="151393408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135066752"/>
+        <c:axId val="151309312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2845,17 +2839,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135068672"/>
+        <c:crossAx val="151393408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135068672"/>
+        <c:axId val="151393408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,24 +2870,30 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8860532414329504E-2"/>
+              <c:y val="0.18272453703703706"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135066752"/>
+        <c:crossAx val="151309312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2940,7 +2939,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3114,11 +3112,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="134950272"/>
-        <c:axId val="134972928"/>
+        <c:axId val="151414272"/>
+        <c:axId val="151416192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134950272"/>
+        <c:axId val="151414272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3140,17 +3138,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134972928"/>
+        <c:crossAx val="151416192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134972928"/>
+        <c:axId val="151416192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3178,24 +3175,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134950272"/>
+        <c:crossAx val="151414272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4196,32 +4191,74 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="135146880"/>
-        <c:axId val="135165056"/>
+        <c:axId val="151516672"/>
+        <c:axId val="151518592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135146880"/>
+        <c:axId val="151516672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Nodi [#]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135165056"/>
+        <c:crossAx val="151518592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135165056"/>
+        <c:axId val="151518592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo Totale di Trasmissione [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135146880"/>
+        <c:crossAx val="151516672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4234,7 +4271,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5238,32 +5275,74 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="136214784"/>
-        <c:axId val="136228864"/>
+        <c:axId val="152634496"/>
+        <c:axId val="152636416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136214784"/>
+        <c:axId val="152634496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero Nodi [#]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136228864"/>
+        <c:crossAx val="152636416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136228864"/>
+        <c:axId val="152636416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>% Nodi Raggiunti</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136214784"/>
+        <c:crossAx val="152634496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5276,7 +5355,639 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Tempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Tx Totale / %num nodi raggiunti</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D0.02</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$20:$Z$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.321008403361343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.55944055944056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.921768707482997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133.09662398137371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172.60174418604655</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216.94915254237287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>241.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288.77005347593581</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>381.31313131313129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>472.92418772563178</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D0.01</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$34:$Z$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.264285714285716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.608527131782942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.146881287726345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160.14388489208636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>217.73729626078617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273.07917888563048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>301.96831493038883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>354.18068858400204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>435.978835978836</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>543.20337197049525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>D.0.008</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$48:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$48:$Z$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.75925925925926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.962809917355365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.978991596638664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.46257359125318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.73428102788409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299.57446808510645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324.30365920262153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.50642784919836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508.04195804195803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>661.44106119987941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>D0.001</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$62:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$62:$Z$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.731958762886606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.87822878228781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.30026109660577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>214.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>318.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>481.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605.60344827586209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>D0.0005</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$76:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$76:$Z$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.337142857142856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.639097744360896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.14814814814818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.85977859778598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>485.38011695906431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>881.14754098360663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1628.4074605451938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2889.5768833849329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>D0.0001</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$90:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$90:$Z$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.8592592592592583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.322580645161292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>518.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>748.27586206896558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1265.1162790697674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3026.3157894736842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6428.5714285714275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="151567360"/>
+        <c:axId val="152691840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="151567360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t>  Nodi  [#]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152691840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152691840"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Tx Totale Normalizzato [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151567360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5311,7 +6022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5657,11 +6367,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79698944"/>
-        <c:axId val="79709312"/>
+        <c:axId val="137716864"/>
+        <c:axId val="137718784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79698944"/>
+        <c:axId val="137716864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5683,17 +6393,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79709312"/>
+        <c:crossAx val="137718784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79709312"/>
+        <c:axId val="137718784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5715,24 +6424,30 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8860532414329504E-2"/>
+              <c:y val="0.15693467965035673"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79698944"/>
+        <c:crossAx val="137716864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5781,7 +6496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5957,11 +6671,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79738752"/>
-        <c:axId val="85917696"/>
+        <c:axId val="137764864"/>
+        <c:axId val="137766784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79738752"/>
+        <c:axId val="137764864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5983,17 +6697,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85917696"/>
+        <c:crossAx val="137766784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85917696"/>
+        <c:axId val="137766784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6021,24 +6734,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79738752"/>
+        <c:crossAx val="137764864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6084,7 +6795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6430,11 +7140,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="85956864"/>
-        <c:axId val="85963136"/>
+        <c:axId val="137802112"/>
+        <c:axId val="137804032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85956864"/>
+        <c:axId val="137802112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6456,17 +7166,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85963136"/>
+        <c:crossAx val="137804032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85963136"/>
+        <c:axId val="137804032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6494,24 +7203,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85956864"/>
+        <c:crossAx val="137802112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6546,7 +7253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6892,11 +7598,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="129309312"/>
-        <c:axId val="129319680"/>
+        <c:axId val="138101504"/>
+        <c:axId val="138103424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129309312"/>
+        <c:axId val="138101504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6918,17 +7624,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129319680"/>
+        <c:crossAx val="138103424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129319680"/>
+        <c:axId val="138103424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,24 +7655,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129309312"/>
+        <c:crossAx val="138101504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7013,7 +7716,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7356,11 +8058,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="129358848"/>
-        <c:axId val="126755968"/>
+        <c:axId val="151139456"/>
+        <c:axId val="151141376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129358848"/>
+        <c:axId val="151139456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7382,17 +8084,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126755968"/>
+        <c:crossAx val="151141376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126755968"/>
+        <c:axId val="151141376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7420,24 +8121,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129358848"/>
+        <c:crossAx val="151139456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7472,7 +8171,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7818,11 +8516,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="126774656"/>
-        <c:axId val="126801408"/>
+        <c:axId val="151172608"/>
+        <c:axId val="151174528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126774656"/>
+        <c:axId val="151172608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7844,17 +8542,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126801408"/>
+        <c:crossAx val="151174528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126801408"/>
+        <c:axId val="151174528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7876,24 +8573,30 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8871550810709747E-2"/>
+              <c:y val="0.15920601851851851"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126774656"/>
+        <c:crossAx val="151172608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7939,7 +8642,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8285,11 +8987,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133353472"/>
-        <c:axId val="133355392"/>
+        <c:axId val="134256512"/>
+        <c:axId val="134270976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133353472"/>
+        <c:axId val="134256512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8311,17 +9013,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133355392"/>
+        <c:crossAx val="134270976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133355392"/>
+        <c:axId val="134270976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8349,24 +9050,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133353472"/>
+        <c:crossAx val="134256512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8401,7 +9100,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -8584,11 +9282,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133765376"/>
-        <c:axId val="133775744"/>
+        <c:axId val="151228800"/>
+        <c:axId val="151230720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133765376"/>
+        <c:axId val="151228800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8610,17 +9308,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133775744"/>
+        <c:crossAx val="151230720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133775744"/>
+        <c:axId val="151230720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8642,24 +9339,30 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8860532414329504E-2"/>
+              <c:y val="0.20624305555555558"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133765376"/>
+        <c:crossAx val="151228800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8669,13 +9372,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>16450</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>585768</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>64499</xdr:rowOff>
@@ -8699,16 +9402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>569318</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>47181</xdr:rowOff>
+      <xdr:rowOff>78443</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8729,13 +9432,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>581023</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>544205</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>81819</xdr:rowOff>
@@ -8759,13 +9462,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>544206</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81818</xdr:rowOff>
@@ -8789,13 +9492,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>601373</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>564555</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>77489</xdr:rowOff>
@@ -8819,13 +9522,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>604404</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>179676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>567586</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>53676</xdr:rowOff>
@@ -8849,13 +9552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>587084</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>175346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>550266</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>49346</xdr:rowOff>
@@ -8879,13 +9582,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>587083</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>149369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>550265</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>23369</xdr:rowOff>
@@ -8909,16 +9612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>164523</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>84553</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>63670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>586636</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>48753</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>38523</xdr:rowOff>
+      <xdr:rowOff>128170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8939,13 +9642,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>17316</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>586635</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>12546</xdr:rowOff>
@@ -8969,16 +9672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>162049</xdr:rowOff>
+      <xdr:rowOff>173255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>569318</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>165906</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>36049</xdr:rowOff>
+      <xdr:rowOff>47255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8999,13 +9702,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>612319</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>569317</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>10072</xdr:rowOff>
@@ -9029,16 +9732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>107620</xdr:rowOff>
+      <xdr:rowOff>130032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>569318</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>172120</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>199523</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>4032</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9059,13 +9762,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>612319</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>569317</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>146143</xdr:rowOff>
@@ -9090,15 +9793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>515469</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>530678</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>339175</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>189265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9120,15 +9823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>92048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>530678</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>417617</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>158048</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9142,6 +9845,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>392207</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>215913</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>166852</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Grafico 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15694,7 +16427,7 @@
   <dimension ref="A1:CY76"/>
   <sheetViews>
     <sheetView topLeftCell="BH47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CB75" sqref="CB75"/>
+      <selection activeCell="BN61" sqref="BN61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21914,10 +22647,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Foglio11"/>
-  <dimension ref="A1:BA99"/>
+  <dimension ref="A1:BD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG58" sqref="AG58"/>
+    <sheetView tabSelected="1" topLeftCell="AQ46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA76" sqref="AA76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21945,20 +22678,20 @@
     <col min="22" max="22" width="7.7109375" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" customWidth="1"/>
     <col min="24" max="24" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" customWidth="1"/>
-    <col min="33" max="35" width="9.140625" customWidth="1"/>
-    <col min="37" max="37" width="9.140625" customWidth="1"/>
-    <col min="39" max="41" width="9.140625" customWidth="1"/>
-    <col min="43" max="43" width="9.140625" customWidth="1"/>
-    <col min="46" max="46" width="9.140625" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" customWidth="1"/>
-    <col min="52" max="52" width="9.140625" customWidth="1"/>
-    <col min="55" max="55" width="9.140625" customWidth="1"/>
-    <col min="58" max="58" width="9.140625" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" customWidth="1"/>
-    <col min="64" max="64" width="9.140625" customWidth="1"/>
+    <col min="25" max="26" width="7.7109375" customWidth="1"/>
+    <col min="27" max="30" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" customWidth="1"/>
+    <col min="34" max="36" width="9.140625" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" customWidth="1"/>
+    <col min="40" max="42" width="9.140625" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" customWidth="1"/>
+    <col min="53" max="53" width="9.140625" customWidth="1"/>
+    <col min="56" max="56" width="9.140625" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" customWidth="1"/>
+    <col min="62" max="62" width="9.140625" customWidth="1"/>
+    <col min="65" max="65" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1">
@@ -22222,7 +22955,7 @@
         <v>2.0000000000000005E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17" s="196" t="s">
         <v>28</v>
       </c>
@@ -22253,7 +22986,7 @@
       <c r="X17" s="223"/>
       <c r="Y17" s="224"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18" s="197"/>
       <c r="B18" s="219" t="s">
         <v>29</v>
@@ -22288,7 +23021,7 @@
       <c r="X18" s="223"/>
       <c r="Y18" s="224"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19" s="198"/>
       <c r="B19" s="69" t="s">
         <v>26</v>
@@ -22346,8 +23079,11 @@
       <c r="Y19" s="54" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="88">
         <v>2</v>
       </c>
@@ -22439,8 +23175,12 @@
         <f ca="1">AVERAGE(M20,S20)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20">
+        <f ca="1">T20/W20</f>
+        <v>13.321008403361343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="89">
         <v>5</v>
       </c>
@@ -22532,8 +23272,12 @@
         <f t="shared" ref="Y21:Y29" ca="1" si="15">AVERAGE(M21,S21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21">
+        <f t="shared" ref="Z21:Z29" ca="1" si="16">T21/W21</f>
+        <v>38.55944055944056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="89">
         <v>10</v>
       </c>
@@ -22625,8 +23369,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <f t="shared" ca="1" si="16"/>
+        <v>63.921768707482997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="89">
         <v>30</v>
       </c>
@@ -22718,8 +23466,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>1.75E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <f t="shared" ca="1" si="16"/>
+        <v>133.09662398137371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="89">
         <v>50</v>
       </c>
@@ -22811,8 +23563,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>1.7100000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <f t="shared" ca="1" si="16"/>
+        <v>172.60174418604655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="89">
         <v>80</v>
       </c>
@@ -22904,8 +23660,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>1.5E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25">
+        <f t="shared" ca="1" si="16"/>
+        <v>216.94915254237287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="89">
         <v>100</v>
       </c>
@@ -22997,8 +23757,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>1.4199999999999998E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26">
+        <f t="shared" ca="1" si="16"/>
+        <v>241.66666666666669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="89">
         <v>200</v>
       </c>
@@ -23090,8 +23854,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>3.2725000000000002E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <f t="shared" ca="1" si="16"/>
+        <v>288.77005347593581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="89">
         <v>500</v>
       </c>
@@ -23183,8 +23951,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>1.9880000000000002E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28">
+        <f t="shared" ca="1" si="16"/>
+        <v>381.31313131313129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="90">
         <v>1000</v>
       </c>
@@ -23276,8 +24048,12 @@
         <f t="shared" ca="1" si="15"/>
         <v>3.1700000000000001E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z29">
+        <f t="shared" ca="1" si="16"/>
+        <v>472.92418772563178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="196" t="s">
         <v>28</v>
       </c>
@@ -23308,7 +24084,7 @@
       <c r="X31" s="217"/>
       <c r="Y31" s="218"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32" s="197"/>
       <c r="B32" s="213" t="s">
         <v>29</v>
@@ -23343,7 +24119,7 @@
       <c r="X32" s="217"/>
       <c r="Y32" s="218"/>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:56">
       <c r="A33" s="198"/>
       <c r="B33" s="80" t="s">
         <v>26</v>
@@ -23401,8 +24177,11 @@
       <c r="Y33" s="56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:53">
+      <c r="Z33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:56">
       <c r="A34" s="88">
         <v>2</v>
       </c>
@@ -23480,7 +24259,7 @@
         <v>42</v>
       </c>
       <c r="V34" s="71">
-        <f t="shared" ref="V34" ca="1" si="16">AVERAGE(J34,P34)</f>
+        <f t="shared" ref="V34" ca="1" si="17">AVERAGE(J34,P34)</f>
         <v>2.0499999999999997E-7</v>
       </c>
       <c r="W34" s="24">
@@ -23491,856 +24270,954 @@
         <v>42</v>
       </c>
       <c r="Y34" s="65">
-        <f t="shared" ref="Y34" ca="1" si="17">AVERAGE(M34,S34)</f>
+        <f t="shared" ref="Y34" ca="1" si="18">AVERAGE(M34,S34)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:53">
+      <c r="Z34">
+        <f ca="1">T34/W34</f>
+        <v>12.264285714285716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
       <c r="A35" s="89">
         <v>5</v>
       </c>
       <c r="B35" s="100">
-        <f t="shared" ref="B35:B43" ca="1" si="18">INDIRECT($A35&amp;"!$AL$7")</f>
+        <f t="shared" ref="B35:B43" ca="1" si="19">INDIRECT($A35&amp;"!$AL$7")</f>
         <v>25.7</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="101">
-        <f t="shared" ref="D35:D43" ca="1" si="19">INDIRECT($A35&amp;"!$AM$7")</f>
+        <f t="shared" ref="D35:D43" ca="1" si="20">INDIRECT($A35&amp;"!$AM$7")</f>
         <v>6.5</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" ref="E35:E43" ca="1" si="20">INDIRECT($A35&amp;"!$AP$7")</f>
+        <f t="shared" ref="E35:E43" ca="1" si="21">INDIRECT($A35&amp;"!$AP$7")</f>
         <v>0.63</v>
       </c>
       <c r="F35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="66">
-        <f t="shared" ref="G35:G43" ca="1" si="21">INDIRECT($A35&amp;"!$AQ$7")</f>
+        <f t="shared" ref="G35:G43" ca="1" si="22">INDIRECT($A35&amp;"!$AQ$7")</f>
         <v>0.11479999999999999</v>
       </c>
       <c r="H35" s="100">
-        <f t="shared" ref="H35:H43" ca="1" si="22">INDIRECT($A35&amp;"!$AL$32")</f>
+        <f t="shared" ref="H35:H43" ca="1" si="23">INDIRECT($A35&amp;"!$AL$32")</f>
         <v>38.799999999999997</v>
       </c>
       <c r="I35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J35" s="101">
-        <f t="shared" ref="J35:J43" ca="1" si="23">INDIRECT($A35&amp;"!$AM$32")</f>
+        <f t="shared" ref="J35:J43" ca="1" si="24">INDIRECT($A35&amp;"!$AM$32")</f>
         <v>3.79</v>
       </c>
       <c r="K35" s="25">
-        <f t="shared" ref="K35:K43" ca="1" si="24">INDIRECT($A35&amp;"!$AP$32")</f>
+        <f t="shared" ref="K35:K43" ca="1" si="25">INDIRECT($A35&amp;"!$AP$32")</f>
         <v>0.95</v>
       </c>
       <c r="L35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="66">
-        <f t="shared" ref="M35:M43" ca="1" si="25">INDIRECT($A35&amp;"!$AQ$32")</f>
+        <f t="shared" ref="M35:M43" ca="1" si="26">INDIRECT($A35&amp;"!$AQ$32")</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="N35" s="100">
-        <f t="shared" ref="N35:N43" ca="1" si="26">INDIRECT($A35&amp;"!$AL$57")</f>
+        <f t="shared" ref="N35:N43" ca="1" si="27">INDIRECT($A35&amp;"!$AL$57")</f>
         <v>37.69</v>
       </c>
       <c r="O35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P35" s="101">
-        <f t="shared" ref="P35:P43" ca="1" si="27">INDIRECT($A35&amp;"!$AM$57")</f>
+        <f t="shared" ref="P35:P43" ca="1" si="28">INDIRECT($A35&amp;"!$AM$57")</f>
         <v>0</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ref="Q35:Q43" ca="1" si="28">INDIRECT($A35&amp;"!$AP$57")</f>
+        <f t="shared" ref="Q35:Q43" ca="1" si="29">INDIRECT($A35&amp;"!$AP$57")</f>
         <v>1</v>
       </c>
       <c r="R35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S35" s="66">
-        <f t="shared" ref="S35:S43" ca="1" si="29">INDIRECT($A35&amp;"!$AQ$57")</f>
+        <f t="shared" ref="S35:S43" ca="1" si="30">INDIRECT($A35&amp;"!$AQ$57")</f>
         <v>0</v>
       </c>
       <c r="T35" s="98">
-        <f t="shared" ref="T35:T43" ca="1" si="30">AVERAGE(B35,H35,N35)</f>
+        <f t="shared" ref="T35:T43" ca="1" si="31">AVERAGE(B35,H35,N35)</f>
         <v>34.063333333333333</v>
       </c>
       <c r="U35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V35" s="72">
-        <f t="shared" ref="V35:V43" ca="1" si="31">AVERAGE(J35,P35)</f>
+        <f t="shared" ref="V35:V43" ca="1" si="32">AVERAGE(J35,P35)</f>
         <v>1.895</v>
       </c>
       <c r="W35" s="25">
-        <f t="shared" ref="W35:W43" ca="1" si="32">AVERAGE(E35,K35,Q35)</f>
+        <f t="shared" ref="W35:W43" ca="1" si="33">AVERAGE(E35,K35,Q35)</f>
         <v>0.86</v>
       </c>
       <c r="X35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y35" s="66">
-        <f t="shared" ref="Y35:Y43" ca="1" si="33">AVERAGE(M35,S35)</f>
+        <f t="shared" ref="Y35:Y43" ca="1" si="34">AVERAGE(M35,S35)</f>
         <v>3.3500000000000002E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:53">
+      <c r="Z35">
+        <f t="shared" ref="Z35:Z43" ca="1" si="35">T35/W35</f>
+        <v>39.608527131782942</v>
+      </c>
+    </row>
+    <row r="36" spans="1:56">
       <c r="A36" s="89">
         <v>10</v>
       </c>
       <c r="B36" s="100">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>42.4</v>
       </c>
       <c r="C36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="101">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>10.9</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.54500000000000004</v>
       </c>
       <c r="F36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G36" s="66">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.129</v>
       </c>
       <c r="H36" s="100">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>64.5</v>
       </c>
       <c r="I36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J36" s="101">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>6.76</v>
       </c>
       <c r="K36" s="25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.94000000000000006</v>
       </c>
       <c r="L36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M36" s="66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="N36" s="100">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>64.930000000000007</v>
       </c>
       <c r="O36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P36" s="101">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="R36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S36" s="66">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="T36" s="98">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>57.276666666666671</v>
       </c>
       <c r="U36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V36" s="72">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>3.38</v>
       </c>
       <c r="W36" s="25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.82833333333333348</v>
       </c>
       <c r="X36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y36" s="66">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>3.075E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:53">
+      <c r="Z36">
+        <f t="shared" ca="1" si="35"/>
+        <v>69.146881287726345</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56">
       <c r="A37" s="89">
         <v>30</v>
       </c>
       <c r="B37" s="100">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>85</v>
       </c>
       <c r="C37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="101">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>23.1</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.44333333333333336</v>
       </c>
       <c r="F37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="66">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.13366666666666666</v>
       </c>
       <c r="H37" s="100">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>114</v>
       </c>
       <c r="I37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="101">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>19.5</v>
       </c>
       <c r="K37" s="25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.87333333333333329</v>
       </c>
       <c r="L37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.129</v>
       </c>
       <c r="N37" s="100">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>172</v>
       </c>
       <c r="O37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P37" s="101">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>1</v>
       </c>
       <c r="R37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S37" s="66">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
       <c r="T37" s="98">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>123.66666666666667</v>
       </c>
       <c r="U37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V37" s="72">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>9.7510399999999997</v>
       </c>
       <c r="W37" s="25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.77222222222222214</v>
       </c>
       <c r="X37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y37" s="66">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>6.4500000000000002E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:53">
+      <c r="Z37">
+        <f t="shared" ca="1" si="35"/>
+        <v>160.14388489208636</v>
+      </c>
+      <c r="BB37" s="162">
+        <v>0.02</v>
+      </c>
+      <c r="BC37">
+        <f ca="1">N29/60</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56">
       <c r="A38" s="89">
         <v>50</v>
       </c>
       <c r="B38" s="100">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>65.2</v>
       </c>
       <c r="C38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="101">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>19.8</v>
       </c>
       <c r="E38" s="25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.214</v>
       </c>
       <c r="F38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G38" s="66">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8.0399999999999985E-2</v>
       </c>
       <c r="H38" s="100">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>148</v>
       </c>
       <c r="I38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J38" s="101">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>23.3</v>
       </c>
       <c r="K38" s="25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.87400000000000011</v>
       </c>
       <c r="L38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M38" s="66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.10859999999999999</v>
       </c>
       <c r="N38" s="100">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>241</v>
       </c>
       <c r="O38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P38" s="101">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>6.41</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0.998</v>
       </c>
       <c r="R38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S38" s="66">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>3.4200000000000003E-3</v>
       </c>
       <c r="T38" s="98">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>151.4</v>
       </c>
       <c r="U38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V38" s="72">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>14.855</v>
       </c>
       <c r="W38" s="25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.69533333333333347</v>
       </c>
       <c r="X38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y38" s="66">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>5.6009999999999997E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:53">
+      <c r="Z38">
+        <f t="shared" ca="1" si="35"/>
+        <v>217.73729626078617</v>
+      </c>
+      <c r="BB38" s="162">
+        <v>0.01</v>
+      </c>
+      <c r="BC38">
+        <f ca="1">N43/60</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56">
       <c r="A39" s="89">
         <v>80</v>
       </c>
       <c r="B39" s="100">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>104</v>
       </c>
       <c r="C39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="101">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>33.799999999999997</v>
       </c>
       <c r="E39" s="25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.22374999999999998</v>
       </c>
       <c r="F39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="66">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>9.1499999999999998E-2</v>
       </c>
       <c r="H39" s="100">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>193</v>
       </c>
       <c r="I39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="101">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>19.899999999999999</v>
       </c>
       <c r="K39" s="25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.91374999999999995</v>
       </c>
       <c r="L39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M39" s="66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="N39" s="100">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>285</v>
       </c>
       <c r="O39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P39" s="101">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>15.4</v>
       </c>
       <c r="Q39" s="25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0.99375000000000002</v>
       </c>
       <c r="R39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S39" s="66">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="T39" s="98">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>194</v>
       </c>
       <c r="U39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V39" s="72">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>17.649999999999999</v>
       </c>
       <c r="W39" s="25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.7104166666666667</v>
       </c>
       <c r="X39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y39" s="66">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:53">
+      <c r="Z39">
+        <f t="shared" ca="1" si="35"/>
+        <v>273.07917888563048</v>
+      </c>
+      <c r="BB39" s="162">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="BC39">
+        <f ca="1">N57/60</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56">
       <c r="A40" s="89">
         <v>100</v>
       </c>
       <c r="B40" s="100">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>104</v>
       </c>
       <c r="C40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="101">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>36.5</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>0.17600000000000002</v>
       </c>
       <c r="F40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="66">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>6.6900000000000001E-2</v>
       </c>
       <c r="H40" s="100">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>225</v>
       </c>
       <c r="I40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J40" s="101">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>27.8</v>
       </c>
       <c r="K40" s="25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.91200000000000003</v>
       </c>
       <c r="L40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M40" s="66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>8.8900000000000007E-2</v>
       </c>
       <c r="N40" s="100">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>300</v>
       </c>
       <c r="O40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P40" s="101">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>10.6</v>
       </c>
       <c r="Q40" s="25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0.995</v>
       </c>
       <c r="R40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S40" s="66">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>2.8399999999999996E-3</v>
       </c>
       <c r="T40" s="98">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>209.66666666666666</v>
       </c>
       <c r="U40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V40" s="72">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>19.2</v>
       </c>
       <c r="W40" s="25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.69433333333333336</v>
       </c>
       <c r="X40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y40" s="66">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4.5870000000000001E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:53">
+      <c r="Z40">
+        <f t="shared" ca="1" si="35"/>
+        <v>301.96831493038883</v>
+      </c>
+      <c r="BB40" s="162">
+        <v>1E-3</v>
+      </c>
+      <c r="BC40">
+        <f ca="1">N71/60</f>
+        <v>9.3666666666666671</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56">
       <c r="A41" s="89">
         <v>200</v>
       </c>
       <c r="B41" s="100">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>99.1</v>
       </c>
       <c r="C41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="101">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>46.4</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="F41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="66">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>4.2549999999999998E-2</v>
       </c>
       <c r="H41" s="100">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>315</v>
       </c>
       <c r="I41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J41" s="101">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>58.1</v>
       </c>
       <c r="K41" s="25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.85499999999999998</v>
       </c>
       <c r="L41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M41" s="66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.13350000000000001</v>
       </c>
       <c r="N41" s="100">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>270</v>
       </c>
       <c r="O41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P41" s="101">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>26.5</v>
       </c>
       <c r="Q41" s="25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0.995</v>
       </c>
       <c r="R41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S41" s="66">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>3.2450000000000001E-3</v>
       </c>
       <c r="T41" s="98">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>228.03333333333333</v>
       </c>
       <c r="U41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V41" s="72">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>42.3</v>
       </c>
       <c r="W41" s="25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.64383333333333337</v>
       </c>
       <c r="X41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y41" s="66">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>6.8372500000000003E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:53">
+      <c r="Z41">
+        <f t="shared" ca="1" si="35"/>
+        <v>354.18068858400204</v>
+      </c>
+      <c r="BB41" s="162">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="BC41">
+        <f ca="1">N85/60</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56">
       <c r="A42" s="89">
         <v>500</v>
       </c>
       <c r="B42" s="100">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>116</v>
       </c>
       <c r="C42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="101">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>52.3</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="66">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>2.46E-2</v>
       </c>
       <c r="H42" s="100">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>476</v>
       </c>
       <c r="I42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J42" s="101">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>62.1</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.84399999999999997</v>
       </c>
       <c r="L42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M42" s="66">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.112</v>
       </c>
       <c r="N42" s="100">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>232</v>
       </c>
       <c r="O42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P42" s="101">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>7</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0.998</v>
       </c>
       <c r="R42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S42" s="66">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>9.1600000000000004E-4</v>
       </c>
       <c r="T42" s="98">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>274.66666666666669</v>
       </c>
       <c r="U42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V42" s="72">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>34.549999999999997</v>
       </c>
       <c r="W42" s="25">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.63</v>
       </c>
       <c r="X42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y42" s="66">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>5.6458000000000001E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:53">
+      <c r="Z42">
+        <f t="shared" ca="1" si="35"/>
+        <v>435.978835978836</v>
+      </c>
+      <c r="BB42" s="162">
+        <v>1E-4</v>
+      </c>
+      <c r="BC42">
+        <f ca="1">N99</f>
+        <v>13.5</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56">
       <c r="A43" s="90">
         <v>1000</v>
       </c>
       <c r="B43" s="102">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="19"/>
         <v>170</v>
       </c>
       <c r="C43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="103">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>62.3</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="F43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="67">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>2.2699999999999998E-2</v>
       </c>
       <c r="H43" s="102">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>611</v>
       </c>
       <c r="I43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="J43" s="103">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>65.3</v>
       </c>
       <c r="K43" s="26">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="L43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M43" s="67">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="N43" s="102">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>250</v>
       </c>
       <c r="O43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P43" s="103">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>16.600000000000001</v>
       </c>
       <c r="Q43" s="26">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0.998</v>
       </c>
       <c r="R43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S43" s="67">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="T43" s="99">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>343.66666666666669</v>
       </c>
       <c r="U43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V43" s="73">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="32"/>
         <v>40.950000000000003</v>
       </c>
       <c r="W43" s="26">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>0.63266666666666671</v>
       </c>
       <c r="X43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y43" s="67">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="34"/>
         <v>4.2275E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:53">
-      <c r="AY44" t="s">
-        <v>60</v>
-      </c>
-      <c r="AZ44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:53">
+      <c r="Z43">
+        <f t="shared" ca="1" si="35"/>
+        <v>543.20337197049525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56">
       <c r="A45" s="196" t="s">
         <v>28</v>
       </c>
@@ -24370,18 +25247,8 @@
       <c r="W45" s="236"/>
       <c r="X45" s="236"/>
       <c r="Y45" s="237"/>
-      <c r="AY45" s="162">
-        <v>0.02</v>
-      </c>
-      <c r="AZ45">
-        <f ca="1">N29/60</f>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:53">
+    </row>
+    <row r="46" spans="1:56">
       <c r="A46" s="197"/>
       <c r="B46" s="227" t="s">
         <v>29</v>
@@ -24415,18 +25282,8 @@
       <c r="W46" s="236"/>
       <c r="X46" s="236"/>
       <c r="Y46" s="237"/>
-      <c r="AY46" s="162">
-        <v>0.01</v>
-      </c>
-      <c r="AZ46">
-        <f ca="1">N43/60</f>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="BA46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:53">
+    </row>
+    <row r="47" spans="1:56">
       <c r="A47" s="198"/>
       <c r="B47" s="84" t="s">
         <v>26</v>
@@ -24484,18 +25341,11 @@
       <c r="Y47" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AY47" s="162">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AZ47">
-        <f ca="1">N57/60</f>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="BA47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:53">
+      <c r="Z47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56">
       <c r="A48" s="88">
         <v>2</v>
       </c>
@@ -24573,7 +25423,7 @@
         <v>42</v>
       </c>
       <c r="V48" s="71">
-        <f t="shared" ref="V48" ca="1" si="34">AVERAGE(J48,P48)</f>
+        <f t="shared" ref="V48" ca="1" si="36">AVERAGE(J48,P48)</f>
         <v>0.69000010249999999</v>
       </c>
       <c r="W48" s="24">
@@ -24584,878 +25434,888 @@
         <v>42</v>
       </c>
       <c r="Y48" s="65">
-        <f t="shared" ref="Y48" ca="1" si="35">AVERAGE(M48,S48)</f>
+        <f t="shared" ref="Y48" ca="1" si="37">AVERAGE(M48,S48)</f>
         <v>2.6249999999999999E-2</v>
       </c>
-      <c r="AY48" s="162">
-        <v>1E-3</v>
-      </c>
-      <c r="AZ48">
-        <f ca="1">N71/60</f>
-        <v>9.3666666666666671</v>
-      </c>
-      <c r="BA48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53">
+      <c r="Z48">
+        <f t="shared" ref="Z48:Z57" ca="1" si="38">T48/W48</f>
+        <v>11.75925925925926</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="89">
         <v>5</v>
       </c>
       <c r="B49" s="100">
-        <f t="shared" ref="B49:B57" ca="1" si="36">INDIRECT($A49&amp;"!$BA$7")</f>
+        <f t="shared" ref="B49:B57" ca="1" si="39">INDIRECT($A49&amp;"!$BA$7")</f>
         <v>22.9</v>
       </c>
       <c r="C49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="101">
-        <f t="shared" ref="D49:D57" ca="1" si="37">INDIRECT($A49&amp;"!$BB$7")</f>
+        <f t="shared" ref="D49:D57" ca="1" si="40">INDIRECT($A49&amp;"!$BB$7")</f>
         <v>6.41</v>
       </c>
       <c r="E49" s="25">
-        <f t="shared" ref="E49:E57" ca="1" si="38">INDIRECT($A49&amp;"!$BE$7")</f>
+        <f t="shared" ref="E49:E57" ca="1" si="41">INDIRECT($A49&amp;"!$BE$7")</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="F49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G49" s="66">
-        <f t="shared" ref="G49:G57" ca="1" si="39">INDIRECT($A49&amp;"!$BF$7")</f>
+        <f t="shared" ref="G49:G57" ca="1" si="42">INDIRECT($A49&amp;"!$BF$7")</f>
         <v>0.1132</v>
       </c>
       <c r="H49" s="100">
-        <f t="shared" ref="H49:H57" ca="1" si="40">INDIRECT($A49&amp;"!$BA$32")</f>
+        <f t="shared" ref="H49:H57" ca="1" si="43">INDIRECT($A49&amp;"!$BA$32")</f>
         <v>33.700000000000003</v>
       </c>
       <c r="I49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J49" s="101">
-        <f t="shared" ref="J49:J57" ca="1" si="41">INDIRECT($A49&amp;"!$BB$32")</f>
+        <f t="shared" ref="J49:J57" ca="1" si="44">INDIRECT($A49&amp;"!$BB$32")</f>
         <v>5.6</v>
       </c>
       <c r="K49" s="25">
-        <f t="shared" ref="K49:K57" ca="1" si="42">INDIRECT($A49&amp;"!$BE$32")</f>
+        <f t="shared" ref="K49:K57" ca="1" si="45">INDIRECT($A49&amp;"!$BE$32")</f>
         <v>0.84000000000000008</v>
       </c>
       <c r="L49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M49" s="66">
-        <f t="shared" ref="M49:M57" ca="1" si="43">INDIRECT($A49&amp;"!$BF$32")</f>
+        <f t="shared" ref="M49:M57" ca="1" si="46">INDIRECT($A49&amp;"!$BF$32")</f>
         <v>0.11599999999999999</v>
       </c>
       <c r="N49" s="100">
-        <f t="shared" ref="N49:N57" ca="1" si="44">INDIRECT($A49&amp;"!$BA$57")</f>
+        <f t="shared" ref="N49:N57" ca="1" si="47">INDIRECT($A49&amp;"!$BA$57")</f>
         <v>37.69</v>
       </c>
       <c r="O49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P49" s="101">
-        <f t="shared" ref="P49:P57" ca="1" si="45">INDIRECT($A49&amp;"!$BB$57")</f>
+        <f t="shared" ref="P49:P57" ca="1" si="48">INDIRECT($A49&amp;"!$BB$57")</f>
         <v>0</v>
       </c>
       <c r="Q49" s="25">
-        <f t="shared" ref="Q49:Q57" ca="1" si="46">INDIRECT($A49&amp;"!$BE$57")</f>
+        <f t="shared" ref="Q49:Q57" ca="1" si="49">INDIRECT($A49&amp;"!$BE$57")</f>
         <v>1</v>
       </c>
       <c r="R49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S49" s="66">
-        <f t="shared" ref="S49:S57" ca="1" si="47">INDIRECT($A49&amp;"!$BF$57")</f>
+        <f t="shared" ref="S49:S57" ca="1" si="50">INDIRECT($A49&amp;"!$BF$57")</f>
         <v>0</v>
       </c>
       <c r="T49" s="98">
-        <f t="shared" ref="T49:T57" ca="1" si="48">AVERAGE(B49,H49,N49)</f>
+        <f t="shared" ref="T49:T57" ca="1" si="51">AVERAGE(B49,H49,N49)</f>
         <v>31.429999999999996</v>
       </c>
       <c r="U49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V49" s="72">
-        <f t="shared" ref="V49:V57" ca="1" si="49">AVERAGE(J49,P49)</f>
+        <f t="shared" ref="V49:V57" ca="1" si="52">AVERAGE(J49,P49)</f>
         <v>2.8</v>
       </c>
       <c r="W49" s="25">
-        <f t="shared" ref="W49:W57" ca="1" si="50">AVERAGE(E49,K49,Q49)</f>
+        <f t="shared" ref="W49:W57" ca="1" si="53">AVERAGE(E49,K49,Q49)</f>
         <v>0.80666666666666664</v>
       </c>
       <c r="X49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y49" s="66">
-        <f t="shared" ref="Y49:Y57" ca="1" si="51">AVERAGE(M49,S49)</f>
+        <f t="shared" ref="Y49:Y57" ca="1" si="54">AVERAGE(M49,S49)</f>
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="AY49" s="162">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AZ49">
-        <f ca="1">N85/60</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="BA49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53">
+      <c r="Z49">
+        <f t="shared" ca="1" si="38"/>
+        <v>38.962809917355365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="89">
         <v>10</v>
       </c>
       <c r="B50" s="100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>34.1</v>
       </c>
       <c r="C50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="101">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>11.3</v>
       </c>
       <c r="E50" s="25">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G50" s="66">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="H50" s="100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>69.900000000000006</v>
       </c>
       <c r="I50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J50" s="101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>6.61</v>
       </c>
       <c r="K50" s="25">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.90500000000000003</v>
       </c>
       <c r="L50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M50" s="66">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="N50" s="100">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>64.930000000000007</v>
       </c>
       <c r="O50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P50" s="101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0</v>
       </c>
       <c r="Q50" s="25">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>1</v>
       </c>
       <c r="R50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S50" s="66">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="T50" s="98">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>56.31</v>
       </c>
       <c r="U50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V50" s="72">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>3.3050000000000002</v>
       </c>
       <c r="W50" s="25">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.79333333333333333</v>
       </c>
       <c r="X50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y50" s="66">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>2.8549999999999999E-2</v>
       </c>
-      <c r="AY50" s="162">
-        <v>1E-4</v>
-      </c>
-      <c r="AZ50">
-        <f ca="1">N99</f>
-        <v>13.5</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:53">
+      <c r="Z50">
+        <f t="shared" ca="1" si="38"/>
+        <v>70.978991596638664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="89">
         <v>30</v>
       </c>
       <c r="B51" s="100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>52.8</v>
       </c>
       <c r="C51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="101">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>17.399999999999999</v>
       </c>
       <c r="E51" s="25">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0.26833333333333337</v>
       </c>
       <c r="F51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="66">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="H51" s="100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>113</v>
       </c>
       <c r="I51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J51" s="101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>25.9</v>
       </c>
       <c r="K51" s="25">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.71333333333333326</v>
       </c>
       <c r="L51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M51" s="66">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.15233333333333335</v>
       </c>
       <c r="N51" s="100">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>172</v>
       </c>
       <c r="O51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P51" s="101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="Q51" s="25">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>1</v>
       </c>
       <c r="R51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S51" s="66">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="T51" s="98">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>112.60000000000001</v>
       </c>
       <c r="U51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V51" s="72">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>12.951039999999999</v>
       </c>
       <c r="W51" s="25">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.66055555555555556</v>
       </c>
       <c r="X51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y51" s="66">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>7.6166666666666674E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:53">
+      <c r="Z51">
+        <f t="shared" ca="1" si="38"/>
+        <v>170.46257359125318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="89">
         <v>50</v>
       </c>
       <c r="B52" s="100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>59.5</v>
       </c>
       <c r="C52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="101">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>21.6</v>
       </c>
       <c r="E52" s="25">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0.17300000000000001</v>
       </c>
       <c r="F52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="66">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="H52" s="100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>127</v>
       </c>
       <c r="I52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J52" s="101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>28.2</v>
       </c>
       <c r="K52" s="25">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.65799999999999992</v>
       </c>
       <c r="L52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M52" s="66">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.1656</v>
       </c>
       <c r="N52" s="100">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>241</v>
       </c>
       <c r="O52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P52" s="101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>6.41</v>
       </c>
       <c r="Q52" s="25">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0.998</v>
       </c>
       <c r="R52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S52" s="66">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>3.4200000000000003E-3</v>
       </c>
       <c r="T52" s="98">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>142.5</v>
       </c>
       <c r="U52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V52" s="72">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>17.305</v>
       </c>
       <c r="W52" s="25">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.60966666666666669</v>
       </c>
       <c r="X52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y52" s="66">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>8.4510000000000002E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:53">
+      <c r="Z52">
+        <f t="shared" ca="1" si="38"/>
+        <v>233.73428102788409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="89">
         <v>80</v>
       </c>
       <c r="B53" s="100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>71.2</v>
       </c>
       <c r="C53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="101">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>26.9</v>
       </c>
       <c r="E53" s="25">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0.14125000000000001</v>
       </c>
       <c r="F53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G53" s="66">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>6.5250000000000002E-2</v>
       </c>
       <c r="H53" s="100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>207</v>
       </c>
       <c r="I53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J53" s="101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>33.200000000000003</v>
       </c>
       <c r="K53" s="25">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.745</v>
       </c>
       <c r="L53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M53" s="66">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.12875</v>
       </c>
       <c r="N53" s="100">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>285</v>
       </c>
       <c r="O53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P53" s="101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>15.4</v>
       </c>
       <c r="Q53" s="25">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0.99375000000000002</v>
       </c>
       <c r="R53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S53" s="66">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="T53" s="98">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>187.73333333333335</v>
       </c>
       <c r="U53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V53" s="72">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>24.3</v>
       </c>
       <c r="W53" s="25">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.62666666666666659</v>
       </c>
       <c r="X53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y53" s="66">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>6.5875000000000003E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:53">
+      <c r="Z53">
+        <f t="shared" ca="1" si="38"/>
+        <v>299.57446808510645</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="89">
         <v>100</v>
       </c>
       <c r="B54" s="100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>66.8</v>
       </c>
       <c r="C54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="101">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>20.9</v>
       </c>
       <c r="E54" s="25">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>0.11</v>
       </c>
       <c r="F54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="66">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="H54" s="100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>227</v>
       </c>
       <c r="I54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J54" s="101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>41.4</v>
       </c>
       <c r="K54" s="25">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.72599999999999998</v>
       </c>
       <c r="L54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M54" s="66">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N54" s="100">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>300</v>
       </c>
       <c r="O54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P54" s="101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>10.6</v>
       </c>
       <c r="Q54" s="25">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0.995</v>
       </c>
       <c r="R54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S54" s="66">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2.8399999999999996E-3</v>
       </c>
       <c r="T54" s="98">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>197.93333333333331</v>
       </c>
       <c r="U54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V54" s="72">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>26</v>
       </c>
       <c r="W54" s="25">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.61033333333333328</v>
       </c>
       <c r="X54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y54" s="66">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>7.1420000000000011E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:53">
+      <c r="Z54">
+        <f t="shared" ca="1" si="38"/>
+        <v>324.30365920262153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="89">
         <v>200</v>
       </c>
       <c r="B55" s="100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>60.1</v>
       </c>
       <c r="C55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="101">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>22.7</v>
       </c>
       <c r="E55" s="25">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>4.0750000000000001E-2</v>
       </c>
       <c r="F55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G55" s="66">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1.6399999999999998E-2</v>
       </c>
       <c r="H55" s="100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>325</v>
       </c>
       <c r="I55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J55" s="101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>67.7</v>
       </c>
       <c r="K55" s="25">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.69499999999999995</v>
       </c>
       <c r="L55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M55" s="66">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.152</v>
       </c>
       <c r="N55" s="100">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>270</v>
       </c>
       <c r="O55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P55" s="101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>26.5</v>
       </c>
       <c r="Q55" s="25">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0.995</v>
       </c>
       <c r="R55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S55" s="66">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>3.2450000000000001E-3</v>
       </c>
       <c r="T55" s="98">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>218.36666666666667</v>
       </c>
       <c r="U55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V55" s="72">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>47.1</v>
       </c>
       <c r="W55" s="25">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.57691666666666663</v>
       </c>
       <c r="X55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y55" s="66">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>7.7622499999999997E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:53">
+      <c r="Z55">
+        <f t="shared" ca="1" si="38"/>
+        <v>378.50642784919836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="89">
         <v>500</v>
       </c>
       <c r="B56" s="100">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>79.8</v>
       </c>
       <c r="C56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="101">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>34.4</v>
       </c>
       <c r="E56" s="25">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G56" s="66">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>1.3779999999999999E-2</v>
       </c>
       <c r="H56" s="100">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>560</v>
       </c>
       <c r="I56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J56" s="101">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>82.5</v>
       </c>
       <c r="K56" s="25">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.69199999999999995</v>
       </c>
       <c r="L56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M56" s="66">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>0.1046</v>
       </c>
       <c r="N56" s="100">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>232</v>
       </c>
       <c r="O56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P56" s="101">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>7</v>
       </c>
       <c r="Q56" s="25">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0.998</v>
       </c>
       <c r="R56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S56" s="66">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>9.1600000000000004E-4</v>
       </c>
       <c r="T56" s="98">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>290.59999999999997</v>
       </c>
       <c r="U56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V56" s="72">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>44.75</v>
       </c>
       <c r="W56" s="25">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.57199999999999995</v>
       </c>
       <c r="X56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y56" s="66">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>5.2757999999999999E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:53">
+      <c r="Z56">
+        <f t="shared" ca="1" si="38"/>
+        <v>508.04195804195803</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="90">
         <v>1000</v>
       </c>
       <c r="B57" s="102">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="39"/>
         <v>108</v>
       </c>
       <c r="C57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="103">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="40"/>
         <v>33.5</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="41"/>
         <v>1.55E-2</v>
       </c>
       <c r="F57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="G57" s="67">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="42"/>
         <v>5.7800000000000004E-3</v>
       </c>
       <c r="H57" s="102">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="43"/>
         <v>739</v>
       </c>
       <c r="I57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="J57" s="103">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="44"/>
         <v>80.8</v>
       </c>
       <c r="K57" s="26">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="45"/>
         <v>0.64500000000000002</v>
       </c>
       <c r="L57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M57" s="67">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="46"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="N57" s="102">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="47"/>
         <v>250</v>
       </c>
       <c r="O57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P57" s="103">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="48"/>
         <v>16.600000000000001</v>
       </c>
       <c r="Q57" s="26">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="49"/>
         <v>0.998</v>
       </c>
       <c r="R57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S57" s="67">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="50"/>
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="T57" s="99">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="51"/>
         <v>365.66666666666669</v>
       </c>
       <c r="U57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V57" s="73">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="52"/>
         <v>48.7</v>
       </c>
       <c r="W57" s="26">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="53"/>
         <v>0.5528333333333334</v>
       </c>
       <c r="X57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y57" s="67">
-        <f t="shared" ca="1" si="51"/>
+        <f t="shared" ca="1" si="54"/>
         <v>4.1425000000000003E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:53">
+      <c r="Z57">
+        <f t="shared" ca="1" si="38"/>
+        <v>661.44106119987941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="196" t="s">
         <v>28</v>
       </c>
@@ -25486,7 +26346,7 @@
       <c r="X59" s="239"/>
       <c r="Y59" s="240"/>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:26">
       <c r="A60" s="197"/>
       <c r="B60" s="241" t="s">
         <v>29</v>
@@ -25521,7 +26381,7 @@
       <c r="X60" s="239"/>
       <c r="Y60" s="240"/>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:26">
       <c r="A61" s="198"/>
       <c r="B61" s="115" t="s">
         <v>26</v>
@@ -25579,8 +26439,11 @@
       <c r="Y61" s="114" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:53">
+      <c r="Z61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="88">
         <v>2</v>
       </c>
@@ -25648,8 +26511,12 @@
         <f ca="1">S62</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:53">
+      <c r="Z62">
+        <f t="shared" ref="Z62:Z71" ca="1" si="55">T62/W62</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="89">
         <v>5</v>
       </c>
@@ -25674,51 +26541,55 @@
       </c>
       <c r="M63" s="66"/>
       <c r="N63" s="100">
-        <f t="shared" ref="N63:N71" ca="1" si="52">INDIRECT($A63&amp;"!$BP$57")</f>
+        <f t="shared" ref="N63:N71" ca="1" si="56">INDIRECT($A63&amp;"!$BP$57")</f>
         <v>39.200000000000003</v>
       </c>
       <c r="O63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P63" s="101">
-        <f t="shared" ref="P63:P71" ca="1" si="53">INDIRECT($A63&amp;"!$BQ$57")</f>
+        <f t="shared" ref="P63:P71" ca="1" si="57">INDIRECT($A63&amp;"!$BQ$57")</f>
         <v>3.69</v>
       </c>
       <c r="Q63" s="25">
-        <f t="shared" ref="Q63:Q71" ca="1" si="54">INDIRECT($A63&amp;"!$BT$57")</f>
+        <f t="shared" ref="Q63:Q71" ca="1" si="58">INDIRECT($A63&amp;"!$BT$57")</f>
         <v>0.96</v>
       </c>
       <c r="R63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S63" s="66">
-        <f t="shared" ref="S63:S71" ca="1" si="55">INDIRECT($A63&amp;"!$BU$57")</f>
+        <f t="shared" ref="S63:S71" ca="1" si="59">INDIRECT($A63&amp;"!$BU$57")</f>
         <v>6.5200000000000008E-2</v>
       </c>
       <c r="T63" s="98">
-        <f t="shared" ref="T63:T71" ca="1" si="56">AVERAGE(N63)</f>
+        <f t="shared" ref="T63:T71" ca="1" si="60">AVERAGE(N63)</f>
         <v>39.200000000000003</v>
       </c>
       <c r="U63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V63" s="72">
-        <f t="shared" ref="V63:V71" ca="1" si="57">P63</f>
+        <f t="shared" ref="V63:V71" ca="1" si="61">P63</f>
         <v>3.69</v>
       </c>
       <c r="W63" s="25">
-        <f t="shared" ref="W63:W71" ca="1" si="58">AVERAGE(Q63)</f>
+        <f t="shared" ref="W63:W71" ca="1" si="62">AVERAGE(Q63)</f>
         <v>0.96</v>
       </c>
       <c r="X63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y63" s="66">
-        <f t="shared" ref="Y63:Y71" ca="1" si="59">S63</f>
+        <f t="shared" ref="Y63:Y71" ca="1" si="63">S63</f>
         <v>6.5200000000000008E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:53">
+      <c r="Z63">
+        <f t="shared" ca="1" si="55"/>
+        <v>40.833333333333336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="89">
         <v>10</v>
       </c>
@@ -25743,51 +26614,55 @@
       </c>
       <c r="M64" s="66"/>
       <c r="N64" s="100">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>65.7</v>
       </c>
       <c r="O64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P64" s="101">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>5.27</v>
       </c>
       <c r="Q64" s="25">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.97</v>
       </c>
       <c r="R64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S64" s="66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>5.28E-2</v>
       </c>
       <c r="T64" s="98">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>65.7</v>
       </c>
       <c r="U64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V64" s="72">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>5.27</v>
       </c>
       <c r="W64" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.97</v>
       </c>
       <c r="X64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y64" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>5.28E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64">
+        <f t="shared" ca="1" si="55"/>
+        <v>67.731958762886606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="89">
         <v>30</v>
       </c>
@@ -25812,51 +26687,55 @@
       </c>
       <c r="M65" s="66"/>
       <c r="N65" s="100">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>111</v>
       </c>
       <c r="O65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P65" s="101">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>18.2</v>
       </c>
       <c r="Q65" s="25">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.90333333333333343</v>
       </c>
       <c r="R65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S65" s="66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>0.125</v>
       </c>
       <c r="T65" s="98">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>111</v>
       </c>
       <c r="U65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V65" s="72">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>18.2</v>
       </c>
       <c r="W65" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.90333333333333343</v>
       </c>
       <c r="X65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y65" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65">
+        <f t="shared" ca="1" si="55"/>
+        <v>122.87822878228781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" s="89">
         <v>50</v>
       </c>
@@ -25881,51 +26760,55 @@
       </c>
       <c r="M66" s="66"/>
       <c r="N66" s="100">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>143</v>
       </c>
       <c r="O66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P66" s="101">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>20.399999999999999</v>
       </c>
       <c r="Q66" s="25">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.9</v>
       </c>
       <c r="R66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S66" s="66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>0.10800000000000001</v>
       </c>
       <c r="T66" s="98">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>143</v>
       </c>
       <c r="U66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V66" s="72">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>20.399999999999999</v>
       </c>
       <c r="W66" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.9</v>
       </c>
       <c r="X66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y66" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>0.10800000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66">
+        <f t="shared" ca="1" si="55"/>
+        <v>158.88888888888889</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="89">
         <v>80</v>
       </c>
@@ -25950,51 +26833,55 @@
       </c>
       <c r="M67" s="66"/>
       <c r="N67" s="100">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>187</v>
       </c>
       <c r="O67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P67" s="101">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>14.8</v>
       </c>
       <c r="Q67" s="25">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.95749999999999991</v>
       </c>
       <c r="R67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S67" s="66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>4.2249999999999996E-2</v>
       </c>
       <c r="T67" s="98">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>187</v>
       </c>
       <c r="U67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V67" s="72">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>14.8</v>
       </c>
       <c r="W67" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.95749999999999991</v>
       </c>
       <c r="X67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y67" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>4.2249999999999996E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67">
+        <f t="shared" ca="1" si="55"/>
+        <v>195.30026109660577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="89">
         <v>100</v>
       </c>
@@ -26019,51 +26906,55 @@
       </c>
       <c r="M68" s="66"/>
       <c r="N68" s="100">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>210</v>
       </c>
       <c r="O68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P68" s="101">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>13.8</v>
       </c>
       <c r="Q68" s="25">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.98</v>
       </c>
       <c r="R68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S68" s="66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>1.44E-2</v>
       </c>
       <c r="T68" s="98">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>210</v>
       </c>
       <c r="U68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V68" s="72">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>13.8</v>
       </c>
       <c r="W68" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.98</v>
       </c>
       <c r="X68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y68" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>1.44E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68">
+        <f t="shared" ca="1" si="55"/>
+        <v>214.28571428571428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="89">
         <v>200</v>
       </c>
@@ -26088,51 +26979,55 @@
       </c>
       <c r="M69" s="66"/>
       <c r="N69" s="100">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>279</v>
       </c>
       <c r="O69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P69" s="101">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>45.7</v>
       </c>
       <c r="Q69" s="25">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.875</v>
       </c>
       <c r="R69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S69" s="66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="T69" s="98">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>279</v>
       </c>
       <c r="U69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V69" s="72">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>45.7</v>
       </c>
       <c r="W69" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.875</v>
       </c>
       <c r="X69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y69" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69">
+        <f t="shared" ca="1" si="55"/>
+        <v>318.85714285714283</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="89">
         <v>500</v>
       </c>
@@ -26157,51 +27052,55 @@
       </c>
       <c r="M70" s="66"/>
       <c r="N70" s="100">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>433</v>
       </c>
       <c r="O70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P70" s="101">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>47.5</v>
       </c>
       <c r="Q70" s="25">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.9</v>
       </c>
       <c r="R70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S70" s="66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="T70" s="98">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>433</v>
       </c>
       <c r="U70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V70" s="72">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>47.5</v>
       </c>
       <c r="W70" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.9</v>
       </c>
       <c r="X70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y70" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70">
+        <f t="shared" ca="1" si="55"/>
+        <v>481.11111111111109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" s="90">
         <v>1000</v>
       </c>
@@ -26226,51 +27125,55 @@
       </c>
       <c r="M71" s="67"/>
       <c r="N71" s="102">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="56"/>
         <v>562</v>
       </c>
       <c r="O71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P71" s="103">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="57"/>
         <v>43.7</v>
       </c>
       <c r="Q71" s="26">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="58"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="R71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S71" s="67">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="59"/>
         <v>1.3300000000000001E-2</v>
       </c>
       <c r="T71" s="99">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="60"/>
         <v>562</v>
       </c>
       <c r="U71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V71" s="73">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="61"/>
         <v>43.7</v>
       </c>
       <c r="W71" s="26">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="X71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y71" s="67">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="63"/>
         <v>1.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z71">
+        <f t="shared" ca="1" si="55"/>
+        <v>605.60344827586209</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="196" t="s">
         <v>28</v>
       </c>
@@ -26301,7 +27204,7 @@
       <c r="X73" s="208"/>
       <c r="Y73" s="209"/>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:26">
       <c r="A74" s="197"/>
       <c r="B74" s="210" t="s">
         <v>29</v>
@@ -26336,7 +27239,7 @@
       <c r="X74" s="208"/>
       <c r="Y74" s="209"/>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:26">
       <c r="A75" s="198"/>
       <c r="B75" s="138" t="s">
         <v>26</v>
@@ -26394,8 +27297,11 @@
       <c r="Y75" s="153" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="88">
         <v>2</v>
       </c>
@@ -26449,7 +27355,7 @@
         <v>42</v>
       </c>
       <c r="V76" s="71">
-        <f t="shared" ref="V76:V85" ca="1" si="60">P76</f>
+        <f t="shared" ref="V76:V85" ca="1" si="64">P76</f>
         <v>2.75</v>
       </c>
       <c r="W76" s="24">
@@ -26460,11 +27366,15 @@
         <v>42</v>
       </c>
       <c r="Y76" s="71">
-        <f t="shared" ref="Y76:Y85" ca="1" si="61">S76</f>
+        <f t="shared" ref="Y76:Y85" ca="1" si="65">S76</f>
         <v>0.104</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76">
+        <f ca="1">T76/W76</f>
+        <v>11.337142857142856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="89">
         <v>5</v>
       </c>
@@ -26489,51 +27399,55 @@
       </c>
       <c r="M77" s="66"/>
       <c r="N77" s="100">
-        <f t="shared" ref="N77:N85" ca="1" si="62">INDIRECT($A77&amp;"!$CE$57")</f>
+        <f t="shared" ref="N77:N85" ca="1" si="66">INDIRECT($A77&amp;"!$CE$57")</f>
         <v>29.6</v>
       </c>
       <c r="O77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P77" s="101">
-        <f t="shared" ref="P77:P85" ca="1" si="63">INDIRECT($A77&amp;"!$CF$57")</f>
+        <f t="shared" ref="P77:P85" ca="1" si="67">INDIRECT($A77&amp;"!$CF$57")</f>
         <v>5.99</v>
       </c>
       <c r="Q77" s="25">
-        <f t="shared" ref="Q77:Q85" ca="1" si="64">INDIRECT($A77&amp;"!$CI$57")</f>
+        <f t="shared" ref="Q77:Q85" ca="1" si="68">INDIRECT($A77&amp;"!$CI$57")</f>
         <v>0.72</v>
       </c>
       <c r="R77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S77" s="95">
-        <f t="shared" ref="S77:S85" ca="1" si="65">INDIRECT($A77&amp;"!$CJ$57")</f>
+        <f t="shared" ref="S77:S85" ca="1" si="69">INDIRECT($A77&amp;"!$CJ$57")</f>
         <v>0.1152</v>
       </c>
       <c r="T77" s="160">
-        <f t="shared" ref="T77:T85" ca="1" si="66">AVERAGE(N77)</f>
+        <f t="shared" ref="T77:T85" ca="1" si="70">AVERAGE(N77)</f>
         <v>29.6</v>
       </c>
       <c r="U77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V77" s="72">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="64"/>
         <v>5.99</v>
       </c>
       <c r="W77" s="25">
-        <f t="shared" ref="W77:W85" ca="1" si="67">AVERAGE(Q77)</f>
+        <f t="shared" ref="W77:W85" ca="1" si="71">AVERAGE(Q77)</f>
         <v>0.72</v>
       </c>
       <c r="X77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y77" s="66">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.1152</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77">
+        <f t="shared" ref="Z77:Z85" ca="1" si="72">T77/W77</f>
+        <v>41.111111111111114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="89">
         <v>10</v>
       </c>
@@ -26558,51 +27472,55 @@
       </c>
       <c r="M78" s="66"/>
       <c r="N78" s="100">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>50.3</v>
       </c>
       <c r="O78" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P78" s="101">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>9.89</v>
       </c>
       <c r="Q78" s="25">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>0.66500000000000004</v>
       </c>
       <c r="R78" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S78" s="95">
+        <f t="shared" ca="1" si="69"/>
+        <v>0.128</v>
+      </c>
+      <c r="T78" s="160">
+        <f t="shared" ca="1" si="70"/>
+        <v>50.3</v>
+      </c>
+      <c r="U78" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V78" s="72">
+        <f t="shared" ca="1" si="64"/>
+        <v>9.89</v>
+      </c>
+      <c r="W78" s="25">
+        <f t="shared" ca="1" si="71"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="X78" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y78" s="66">
         <f t="shared" ca="1" si="65"/>
         <v>0.128</v>
       </c>
-      <c r="T78" s="160">
-        <f t="shared" ca="1" si="66"/>
-        <v>50.3</v>
-      </c>
-      <c r="U78" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V78" s="72">
-        <f t="shared" ca="1" si="60"/>
-        <v>9.89</v>
-      </c>
-      <c r="W78" s="25">
-        <f t="shared" ca="1" si="67"/>
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="X78" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y78" s="66">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78">
+        <f t="shared" ca="1" si="72"/>
+        <v>75.639097744360896</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="89">
         <v>30</v>
       </c>
@@ -26627,51 +27545,55 @@
       </c>
       <c r="M79" s="66"/>
       <c r="N79" s="100">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>93.5</v>
       </c>
       <c r="O79" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P79" s="101">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>20.399999999999999</v>
       </c>
       <c r="Q79" s="25">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>0.53999999999999992</v>
       </c>
       <c r="R79" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S79" s="95">
+        <f t="shared" ca="1" si="69"/>
+        <v>0.13833333333333334</v>
+      </c>
+      <c r="T79" s="160">
+        <f t="shared" ca="1" si="70"/>
+        <v>93.5</v>
+      </c>
+      <c r="U79" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V79" s="72">
+        <f t="shared" ca="1" si="64"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W79" s="25">
+        <f t="shared" ca="1" si="71"/>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="X79" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y79" s="66">
         <f t="shared" ca="1" si="65"/>
         <v>0.13833333333333334</v>
       </c>
-      <c r="T79" s="160">
-        <f t="shared" ca="1" si="66"/>
-        <v>93.5</v>
-      </c>
-      <c r="U79" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V79" s="72">
-        <f t="shared" ca="1" si="60"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="W79" s="25">
-        <f t="shared" ca="1" si="67"/>
-        <v>0.53999999999999992</v>
-      </c>
-      <c r="X79" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y79" s="66">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.13833333333333334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79">
+        <f t="shared" ca="1" si="72"/>
+        <v>173.14814814814818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" s="89">
         <v>50</v>
       </c>
@@ -26696,51 +27618,55 @@
       </c>
       <c r="M80" s="66"/>
       <c r="N80" s="100">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>97.1</v>
       </c>
       <c r="O80" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P80" s="101">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>30.4</v>
       </c>
       <c r="Q80" s="25">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>0.35</v>
       </c>
       <c r="R80" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S80" s="95">
+        <f t="shared" ca="1" si="69"/>
+        <v>0.1176</v>
+      </c>
+      <c r="T80" s="160">
+        <f t="shared" ca="1" si="70"/>
+        <v>97.1</v>
+      </c>
+      <c r="U80" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V80" s="72">
+        <f t="shared" ca="1" si="64"/>
+        <v>30.4</v>
+      </c>
+      <c r="W80" s="25">
+        <f t="shared" ca="1" si="71"/>
+        <v>0.35</v>
+      </c>
+      <c r="X80" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y80" s="66">
         <f t="shared" ca="1" si="65"/>
         <v>0.1176</v>
       </c>
-      <c r="T80" s="160">
-        <f t="shared" ca="1" si="66"/>
-        <v>97.1</v>
-      </c>
-      <c r="U80" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V80" s="72">
-        <f t="shared" ca="1" si="60"/>
-        <v>30.4</v>
-      </c>
-      <c r="W80" s="25">
-        <f t="shared" ca="1" si="67"/>
-        <v>0.35</v>
-      </c>
-      <c r="X80" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y80" s="66">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.1176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80">
+        <f t="shared" ca="1" si="72"/>
+        <v>277.42857142857144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" s="89">
         <v>80</v>
       </c>
@@ -26765,51 +27691,55 @@
       </c>
       <c r="M81" s="66"/>
       <c r="N81" s="100">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>128</v>
       </c>
       <c r="O81" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P81" s="101">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>36.799999999999997</v>
       </c>
       <c r="Q81" s="25">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>0.33875</v>
       </c>
       <c r="R81" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S81" s="95">
+        <f t="shared" ca="1" si="69"/>
+        <v>0.122125</v>
+      </c>
+      <c r="T81" s="160">
+        <f t="shared" ca="1" si="70"/>
+        <v>128</v>
+      </c>
+      <c r="U81" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V81" s="72">
+        <f t="shared" ca="1" si="64"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="W81" s="25">
+        <f t="shared" ca="1" si="71"/>
+        <v>0.33875</v>
+      </c>
+      <c r="X81" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y81" s="66">
         <f t="shared" ca="1" si="65"/>
         <v>0.122125</v>
       </c>
-      <c r="T81" s="160">
-        <f t="shared" ca="1" si="66"/>
-        <v>128</v>
-      </c>
-      <c r="U81" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V81" s="72">
-        <f t="shared" ca="1" si="60"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="W81" s="25">
-        <f t="shared" ca="1" si="67"/>
-        <v>0.33875</v>
-      </c>
-      <c r="X81" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y81" s="66">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.122125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81">
+        <f t="shared" ca="1" si="72"/>
+        <v>377.85977859778598</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="89">
         <v>100</v>
       </c>
@@ -26834,51 +27764,55 @@
       </c>
       <c r="M82" s="66"/>
       <c r="N82" s="100">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>166</v>
       </c>
       <c r="O82" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P82" s="101">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>50.4</v>
       </c>
       <c r="Q82" s="25">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="R82" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S82" s="95">
+        <f t="shared" ca="1" si="69"/>
+        <v>0.105</v>
+      </c>
+      <c r="T82" s="160">
+        <f t="shared" ca="1" si="70"/>
+        <v>166</v>
+      </c>
+      <c r="U82" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V82" s="72">
+        <f t="shared" ca="1" si="64"/>
+        <v>50.4</v>
+      </c>
+      <c r="W82" s="25">
+        <f t="shared" ca="1" si="71"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="X82" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y82" s="66">
         <f t="shared" ca="1" si="65"/>
         <v>0.105</v>
       </c>
-      <c r="T82" s="160">
-        <f t="shared" ca="1" si="66"/>
-        <v>166</v>
-      </c>
-      <c r="U82" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V82" s="72">
-        <f t="shared" ca="1" si="60"/>
-        <v>50.4</v>
-      </c>
-      <c r="W82" s="25">
-        <f t="shared" ca="1" si="67"/>
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="X82" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y82" s="66">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82">
+        <f t="shared" ca="1" si="72"/>
+        <v>485.38011695906431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="89">
         <v>200</v>
       </c>
@@ -26903,51 +27837,55 @@
       </c>
       <c r="M83" s="66"/>
       <c r="N83" s="100">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>215</v>
       </c>
       <c r="O83" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P83" s="101">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>86.8</v>
       </c>
       <c r="Q83" s="25">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>0.24399999999999999</v>
       </c>
       <c r="R83" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S83" s="95">
+        <f t="shared" ca="1" si="69"/>
+        <v>0.111</v>
+      </c>
+      <c r="T83" s="160">
+        <f t="shared" ca="1" si="70"/>
+        <v>215</v>
+      </c>
+      <c r="U83" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V83" s="72">
+        <f t="shared" ca="1" si="64"/>
+        <v>86.8</v>
+      </c>
+      <c r="W83" s="25">
+        <f t="shared" ca="1" si="71"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="X83" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y83" s="66">
         <f t="shared" ca="1" si="65"/>
         <v>0.111</v>
       </c>
-      <c r="T83" s="160">
-        <f t="shared" ca="1" si="66"/>
-        <v>215</v>
-      </c>
-      <c r="U83" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V83" s="72">
-        <f t="shared" ca="1" si="60"/>
-        <v>86.8</v>
-      </c>
-      <c r="W83" s="25">
-        <f t="shared" ca="1" si="67"/>
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="X83" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y83" s="66">
-        <f t="shared" ca="1" si="61"/>
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83">
+        <f t="shared" ca="1" si="72"/>
+        <v>881.14754098360663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="89">
         <v>500</v>
       </c>
@@ -26972,51 +27910,55 @@
       </c>
       <c r="M84" s="66"/>
       <c r="N84" s="100">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>227</v>
       </c>
       <c r="O84" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P84" s="101">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>75</v>
       </c>
       <c r="Q84" s="25">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>0.1394</v>
       </c>
       <c r="R84" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S84" s="95">
+        <f t="shared" ca="1" si="69"/>
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="T84" s="160">
+        <f t="shared" ca="1" si="70"/>
+        <v>227</v>
+      </c>
+      <c r="U84" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V84" s="72">
+        <f t="shared" ca="1" si="64"/>
+        <v>75</v>
+      </c>
+      <c r="W84" s="25">
+        <f t="shared" ca="1" si="71"/>
+        <v>0.1394</v>
+      </c>
+      <c r="X84" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y84" s="66">
         <f t="shared" ca="1" si="65"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="T84" s="160">
-        <f t="shared" ca="1" si="66"/>
-        <v>227</v>
-      </c>
-      <c r="U84" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V84" s="72">
-        <f t="shared" ca="1" si="60"/>
-        <v>75</v>
-      </c>
-      <c r="W84" s="25">
-        <f t="shared" ca="1" si="67"/>
-        <v>0.1394</v>
-      </c>
-      <c r="X84" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y84" s="66">
-        <f t="shared" ca="1" si="61"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84">
+        <f t="shared" ca="1" si="72"/>
+        <v>1628.4074605451938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="90">
         <v>1000</v>
       </c>
@@ -27041,51 +27983,55 @@
       </c>
       <c r="M85" s="67"/>
       <c r="N85" s="102">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="66"/>
         <v>280</v>
       </c>
       <c r="O85" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P85" s="103">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="67"/>
         <v>87.8</v>
       </c>
       <c r="Q85" s="26">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>9.69E-2</v>
       </c>
       <c r="R85" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S85" s="96">
+        <f t="shared" ca="1" si="69"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="T85" s="161">
+        <f t="shared" ca="1" si="70"/>
+        <v>280</v>
+      </c>
+      <c r="U85" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="V85" s="73">
+        <f t="shared" ca="1" si="64"/>
+        <v>87.8</v>
+      </c>
+      <c r="W85" s="26">
+        <f t="shared" ca="1" si="71"/>
+        <v>9.69E-2</v>
+      </c>
+      <c r="X85" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y85" s="67">
         <f t="shared" ca="1" si="65"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="T85" s="161">
-        <f t="shared" ca="1" si="66"/>
-        <v>280</v>
-      </c>
-      <c r="U85" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="V85" s="73">
-        <f t="shared" ca="1" si="60"/>
-        <v>87.8</v>
-      </c>
-      <c r="W85" s="26">
-        <f t="shared" ca="1" si="67"/>
-        <v>9.69E-2</v>
-      </c>
-      <c r="X85" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y85" s="67">
-        <f t="shared" ca="1" si="61"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z85">
+        <f t="shared" ca="1" si="72"/>
+        <v>2889.5768833849329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="196" t="s">
         <v>28</v>
       </c>
@@ -27116,7 +28062,7 @@
       <c r="X87" s="200"/>
       <c r="Y87" s="201"/>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:26">
       <c r="A88" s="197"/>
       <c r="B88" s="202" t="s">
         <v>29</v>
@@ -27151,7 +28097,7 @@
       <c r="X88" s="200"/>
       <c r="Y88" s="201"/>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:26">
       <c r="A89" s="198"/>
       <c r="B89" s="142" t="s">
         <v>26</v>
@@ -27209,8 +28155,11 @@
       <c r="Y89" s="154" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="88">
         <v>2</v>
       </c>
@@ -27264,7 +28213,7 @@
         <v>42</v>
       </c>
       <c r="V90" s="71">
-        <f t="shared" ref="V90:V99" ca="1" si="68">P90</f>
+        <f t="shared" ref="V90:V99" ca="1" si="73">P90</f>
         <v>3.03</v>
       </c>
       <c r="W90" s="24">
@@ -27275,11 +28224,15 @@
         <v>42</v>
       </c>
       <c r="Y90" s="71">
-        <f t="shared" ref="Y90:Y99" ca="1" si="69">S90</f>
+        <f t="shared" ref="Y90:Y99" ca="1" si="74">S90</f>
         <v>0.1145</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90">
+        <f ca="1">T90/W90</f>
+        <v>6.8592592592592583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="89">
         <v>5</v>
       </c>
@@ -27304,51 +28257,55 @@
       </c>
       <c r="M91" s="66"/>
       <c r="N91" s="100">
-        <f t="shared" ref="N91:N99" ca="1" si="70">INDIRECT($A91&amp;"!$CT$57")</f>
+        <f t="shared" ref="N91:N99" ca="1" si="75">INDIRECT($A91&amp;"!$CT$57")</f>
         <v>7.23</v>
       </c>
       <c r="O91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P91" s="101">
-        <f t="shared" ref="P91:P99" ca="1" si="71">INDIRECT($A91&amp;"!$CU$57")</f>
+        <f t="shared" ref="P91:P99" ca="1" si="76">INDIRECT($A91&amp;"!$CU$57")</f>
         <v>3.69</v>
       </c>
       <c r="Q91" s="25">
-        <f t="shared" ref="Q91:Q99" ca="1" si="72">INDIRECT($A91&amp;"!$CX$57")</f>
+        <f t="shared" ref="Q91:Q99" ca="1" si="77">INDIRECT($A91&amp;"!$CX$57")</f>
         <v>0.31</v>
       </c>
       <c r="R91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S91" s="95">
-        <f t="shared" ref="S91:S99" ca="1" si="73">INDIRECT($A91&amp;"!$CY$57")</f>
+        <f t="shared" ref="S91:S99" ca="1" si="78">INDIRECT($A91&amp;"!$CY$57")</f>
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="T91" s="160">
-        <f t="shared" ref="T91:T99" ca="1" si="74">AVERAGE(N91)</f>
+        <f t="shared" ref="T91:T99" ca="1" si="79">AVERAGE(N91)</f>
         <v>7.23</v>
       </c>
       <c r="U91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V91" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>3.69</v>
       </c>
       <c r="W91" s="25">
-        <f t="shared" ref="W91:W99" ca="1" si="75">AVERAGE(Q91)</f>
+        <f t="shared" ref="W91:W99" ca="1" si="80">AVERAGE(Q91)</f>
         <v>0.31</v>
       </c>
       <c r="X91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y91" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>5.6599999999999998E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91">
+        <f t="shared" ref="Z91:Z98" ca="1" si="81">T91/W91</f>
+        <v>23.322580645161292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="89">
         <v>10</v>
       </c>
@@ -27373,51 +28330,55 @@
       </c>
       <c r="M92" s="66"/>
       <c r="N92" s="100">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>6.52</v>
       </c>
       <c r="O92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P92" s="101">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>4.16</v>
       </c>
       <c r="Q92" s="25">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>0.15</v>
       </c>
       <c r="R92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S92" s="95">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="T92" s="160">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>6.52</v>
       </c>
       <c r="U92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V92" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>4.16</v>
       </c>
       <c r="W92" s="25">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>0.15</v>
       </c>
       <c r="X92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y92" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>3.2199999999999999E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92">
+        <f t="shared" ca="1" si="81"/>
+        <v>43.466666666666669</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="89">
         <v>30</v>
       </c>
@@ -27442,51 +28403,55 @@
       </c>
       <c r="M93" s="66"/>
       <c r="N93" s="100">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>17.399999999999999</v>
       </c>
       <c r="O93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P93" s="101">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>8.85</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S93" s="95">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>2.7033333333333336E-2</v>
       </c>
       <c r="T93" s="160">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>17.399999999999999</v>
       </c>
       <c r="U93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V93" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>8.85</v>
       </c>
       <c r="W93" s="25">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y93" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>2.7033333333333336E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93">
+        <f t="shared" ca="1" si="81"/>
+        <v>208.79999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="89">
         <v>50</v>
       </c>
@@ -27511,51 +28476,55 @@
       </c>
       <c r="M94" s="66"/>
       <c r="N94" s="100">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>11</v>
       </c>
       <c r="O94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P94" s="101">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>9.5299999999999994</v>
       </c>
       <c r="Q94" s="25">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>0.04</v>
       </c>
       <c r="R94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S94" s="95">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>1.8959999999999998E-2</v>
       </c>
       <c r="T94" s="160">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>11</v>
       </c>
       <c r="U94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V94" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>9.5299999999999994</v>
       </c>
       <c r="W94" s="25">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>0.04</v>
       </c>
       <c r="X94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y94" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>1.8959999999999998E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94">
+        <f t="shared" ca="1" si="81"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="89">
         <v>80</v>
       </c>
@@ -27580,51 +28549,55 @@
       </c>
       <c r="M95" s="66"/>
       <c r="N95" s="100">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>16.2</v>
       </c>
       <c r="O95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P95" s="101">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>7.19</v>
       </c>
       <c r="Q95" s="25">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>3.125E-2</v>
       </c>
       <c r="R95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S95" s="95">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="T95" s="160">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>16.2</v>
       </c>
       <c r="U95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V95" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>7.19</v>
       </c>
       <c r="W95" s="25">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>3.125E-2</v>
       </c>
       <c r="X95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y95" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>9.4000000000000004E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95">
+        <f t="shared" ca="1" si="81"/>
+        <v>518.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="89">
         <v>100</v>
       </c>
@@ -27649,51 +28622,55 @@
       </c>
       <c r="M96" s="66"/>
       <c r="N96" s="100">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>21.7</v>
       </c>
       <c r="O96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P96" s="101">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>12.3</v>
       </c>
       <c r="Q96" s="25">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="R96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S96" s="95">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>1.18E-2</v>
       </c>
       <c r="T96" s="160">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>21.7</v>
       </c>
       <c r="U96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V96" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>12.3</v>
       </c>
       <c r="W96" s="25">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="X96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y96" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>1.18E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96">
+        <f t="shared" ca="1" si="81"/>
+        <v>748.27586206896558</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="89">
         <v>200</v>
       </c>
@@ -27718,51 +28695,55 @@
       </c>
       <c r="M97" s="66"/>
       <c r="N97" s="100">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>13.6</v>
       </c>
       <c r="O97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P97" s="101">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>6.91</v>
       </c>
       <c r="Q97" s="25">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="R97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S97" s="95">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>4.065E-3</v>
       </c>
       <c r="T97" s="160">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>13.6</v>
       </c>
       <c r="U97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V97" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>6.91</v>
       </c>
       <c r="W97" s="25">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="X97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y97" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>4.065E-3</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97">
+        <f t="shared" ca="1" si="81"/>
+        <v>1265.1162790697674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="89">
         <v>500</v>
       </c>
@@ -27787,51 +28768,55 @@
       </c>
       <c r="M98" s="66"/>
       <c r="N98" s="100">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>11.5</v>
       </c>
       <c r="O98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P98" s="101">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>7.82</v>
       </c>
       <c r="Q98" s="25">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>3.8E-3</v>
       </c>
       <c r="R98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S98" s="95">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>1.248E-3</v>
       </c>
       <c r="T98" s="160">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>11.5</v>
       </c>
       <c r="U98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V98" s="72">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>7.82</v>
       </c>
       <c r="W98" s="25">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>3.8E-3</v>
       </c>
       <c r="X98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y98" s="66">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>1.248E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98">
+        <f t="shared" ca="1" si="81"/>
+        <v>3026.3157894736842</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" s="90">
         <v>1000</v>
       </c>
@@ -27856,48 +28841,52 @@
       </c>
       <c r="M99" s="67"/>
       <c r="N99" s="102">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="75"/>
         <v>13.5</v>
       </c>
       <c r="O99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P99" s="103">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="76"/>
         <v>5.6</v>
       </c>
       <c r="Q99" s="26">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="77"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="R99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S99" s="96">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>4.7799999999999996E-4</v>
       </c>
       <c r="T99" s="161">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>13.5</v>
       </c>
       <c r="U99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V99" s="73">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="73"/>
         <v>5.6</v>
       </c>
       <c r="W99" s="26">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="X99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y99" s="67">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="74"/>
         <v>4.7799999999999996E-4</v>
+      </c>
+      <c r="Z99">
+        <f ca="1">T99/W99</f>
+        <v>6428.5714285714275</v>
       </c>
     </row>
   </sheetData>

--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" tabRatio="619" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="7335" tabRatio="619" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3624" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="66">
   <si>
     <t>Dati raccolti dalle simulazioni</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>TTT/%nr</t>
+  </si>
+  <si>
+    <t>#nc / ttt</t>
   </si>
 </sst>
 </file>
@@ -1400,8 +1403,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF15EE"/>
       <color rgb="FFD6C700"/>
-      <color rgb="FFFF15EE"/>
       <color rgb="FFFFFF7D"/>
       <color rgb="FFFFB7F5"/>
       <color rgb="FFFFFFB3"/>
@@ -1453,6 +1456,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1628,11 +1632,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="136860032"/>
-        <c:axId val="136862336"/>
+        <c:axId val="91359488"/>
+        <c:axId val="91386624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136860032"/>
+        <c:axId val="91359488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1654,16 +1658,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136862336"/>
+        <c:crossAx val="91386624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136862336"/>
+        <c:axId val="91386624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,22 +1690,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136860032"/>
+        <c:crossAx val="91359488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1746,6 +1753,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1925,11 +1933,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151239680"/>
-        <c:axId val="151344256"/>
+        <c:axId val="92079232"/>
+        <c:axId val="92081152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151239680"/>
+        <c:axId val="92079232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1951,16 +1959,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151344256"/>
+        <c:crossAx val="92081152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151344256"/>
+        <c:axId val="92081152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,22 +1996,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151239680"/>
+        <c:crossAx val="92079232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2037,6 +2048,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2219,11 +2231,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151361408"/>
-        <c:axId val="151371776"/>
+        <c:axId val="92033024"/>
+        <c:axId val="92034944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151361408"/>
+        <c:axId val="92033024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2245,16 +2257,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151371776"/>
+        <c:crossAx val="92034944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151371776"/>
+        <c:axId val="92034944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,25 +2294,26 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2393308088359449E-2"/>
-              <c:y val="0.19448379629629634"/>
+              <c:y val="0.19448379629629639"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151361408"/>
+        <c:crossAx val="92033024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2345,6 +2359,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2524,11 +2539,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151274240"/>
-        <c:axId val="151276160"/>
+        <c:axId val="92138112"/>
+        <c:axId val="92558080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151274240"/>
+        <c:axId val="92138112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2550,16 +2565,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151276160"/>
+        <c:crossAx val="92558080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151276160"/>
+        <c:axId val="92558080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2587,22 +2603,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151274240"/>
+        <c:crossAx val="92138112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2637,6 +2655,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2813,11 +2832,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151309312"/>
-        <c:axId val="151393408"/>
+        <c:axId val="92595328"/>
+        <c:axId val="92597248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151309312"/>
+        <c:axId val="92595328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2839,16 +2858,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151393408"/>
+        <c:crossAx val="92597248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151393408"/>
+        <c:axId val="92597248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,26 +2894,27 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329504E-2"/>
-              <c:y val="0.18272453703703706"/>
+              <c:x val="3.8860532414329518E-2"/>
+              <c:y val="0.18272453703703712"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151309312"/>
+        <c:crossAx val="92595328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2939,6 +2960,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3112,11 +3134,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151414272"/>
-        <c:axId val="151416192"/>
+        <c:axId val="92478848"/>
+        <c:axId val="92493312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151414272"/>
+        <c:axId val="92478848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3138,16 +3160,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151416192"/>
+        <c:crossAx val="92493312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151416192"/>
+        <c:axId val="92493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3175,22 +3198,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151414272"/>
+        <c:crossAx val="92478848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3211,7 +3236,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>E[TxTime]</a:t>
+              <a:t>Tempo di</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Contagio Totale</a:t>
             </a:r>
             <a:endParaRPr lang="el-GR"/>
           </a:p>
@@ -3340,6 +3369,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3446,6 +3476,7 @@
               <a:solidFill>
                 <a:srgbClr val="C0504D"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3635,6 +3666,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3824,6 +3856,7 @@
               <a:solidFill>
                 <a:srgbClr val="D6C700"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4013,6 +4046,7 @@
               <a:solidFill>
                 <a:srgbClr val="FF15EE"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4191,16 +4225,18 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151516672"/>
-        <c:axId val="151518592"/>
+        <c:axId val="97811840"/>
+        <c:axId val="97838592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151516672"/>
+        <c:axId val="97811840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4227,14 +4263,16 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151518592"/>
+        <c:crossAx val="97838592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151518592"/>
+        <c:axId val="97838592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="620"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -4258,9 +4296,10 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151516672"/>
+        <c:crossAx val="97811840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4271,7 +4310,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4291,12 +4330,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>%Nodi</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Raggiunti</a:t>
+              <a:t>Nodi raggiunti dal messaggio</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5275,16 +5310,18 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="152634496"/>
-        <c:axId val="152636416"/>
+        <c:axId val="97766400"/>
+        <c:axId val="97911936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152634496"/>
+        <c:axId val="97766400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5306,14 +5343,16 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152636416"/>
+        <c:crossAx val="97911936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152636416"/>
+        <c:axId val="97911936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -5342,7 +5381,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152634496"/>
+        <c:crossAx val="97766400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5355,7 +5394,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5376,12 +5415,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Tempo</a:t>
+              <a:t>Rapporto Tempo_Copertura/%Copertura</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Tx Totale / %num nodi raggiunti</a:t>
-            </a:r>
+            <a:endParaRPr lang="it-IT" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5397,6 +5433,27 @@
           <c:tx>
             <c:v>D0.02</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Grafici!$A$20:$A$29</c:f>
@@ -5443,34 +5500,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.321008403361343</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.55944055944056</c:v>
+                  <c:v>37.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.921768707482997</c:v>
+                  <c:v>61.115000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>133.09662398137371</c:v>
+                  <c:v>131.05000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172.60174418604655</c:v>
+                  <c:v>177.17717717717719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>216.94915254237287</c:v>
+                  <c:v>210.15673981191225</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>241.66666666666669</c:v>
+                  <c:v>223.05764411027567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>288.77005347593581</c:v>
+                  <c:v>236.18090452261308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>381.31313131313129</c:v>
+                  <c:v>261.08870967741933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>472.92418772563178</c:v>
+                  <c:v>316.61600810536981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5482,6 +5539,26 @@
           <c:tx>
             <c:v>D0.01</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Grafici!$A$34:$A$43</c:f>
@@ -5528,34 +5605,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.264285714285716</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.608527131782942</c:v>
+                  <c:v>39.225641025641025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.146881287726345</c:v>
+                  <c:v>66.716494845360828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160.14388489208636</c:v>
+                  <c:v>152.66903914590748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>217.73729626078617</c:v>
+                  <c:v>207.79914529914529</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.07917888563048</c:v>
+                  <c:v>250.58977719528178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>301.96831493038883</c:v>
+                  <c:v>275.30152071316201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>354.18068858400204</c:v>
+                  <c:v>316.2162162162162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>435.978835978836</c:v>
+                  <c:v>384.3648208469055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>543.20337197049525</c:v>
+                  <c:v>463.65105008077546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5567,6 +5644,26 @@
           <c:tx>
             <c:v>D.0.008</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Grafici!$A$48:$A$57</c:f>
@@ -5613,34 +5710,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.75925925925926</c:v>
+                  <c:v>13.063291139240505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.962809917355365</c:v>
+                  <c:v>38.798913043478258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.978991596638664</c:v>
+                  <c:v>70.776902887139116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170.46257359125318</c:v>
+                  <c:v>166.34241245136187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>233.73428102788409</c:v>
+                  <c:v>222.22222222222223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>299.57446808510645</c:v>
+                  <c:v>282.96189791516895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>324.30365920262153</c:v>
+                  <c:v>306.21731551423591</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>378.50642784919836</c:v>
+                  <c:v>352.07100591715977</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>508.04195804195803</c:v>
+                  <c:v>468.6390532544379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>661.44106119987941</c:v>
+                  <c:v>601.94765672550216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5652,6 +5749,14 @@
           <c:tx>
             <c:v>D0.001</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>Grafici!$A$62:$A$71</c:f>
@@ -5737,6 +5842,23 @@
           <c:tx>
             <c:v>D0.0005</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D6C700"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="D6C700"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Grafici!$A$76:$A$85</c:f>
@@ -5822,6 +5944,26 @@
           <c:tx>
             <c:v>D0.0001</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF15EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Grafici!$A$90:$A$99</c:f>
@@ -5901,11 +6043,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151567360"/>
-        <c:axId val="152691840"/>
+        <c:axId val="97972992"/>
+        <c:axId val="97975296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151567360"/>
+        <c:axId val="97972992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5937,12 +6079,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152691840"/>
+        <c:crossAx val="97975296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152691840"/>
+        <c:axId val="97975296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5973,8 +6115,9 @@
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151567360"/>
+        <c:crossAx val="97972992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5987,7 +6130,1473 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Rapporto Tempo_Copertura/%Copertura</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D0.02</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$20:$Z$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.115000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177.17717717717719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210.15673981191225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>223.05764411027567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236.18090452261308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>261.08870967741933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>316.61600810536981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$34:$Z$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.225641025641025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.716494845360828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152.66903914590748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>207.79914529914529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.58977719528178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275.30152071316201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>316.2162162162162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>384.3648208469055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>463.65105008077546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>D.0.008</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$48:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$48:$Z$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.063291139240505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.798913043478258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.776902887139116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166.34241245136187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>222.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>282.96189791516895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>306.21731551423591</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>352.07100591715977</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>468.6390532544379</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>601.94765672550216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>D0.001</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$62:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$62:$Z$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.731958762886606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.87822878228781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>195.30026109660577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>214.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>318.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>481.11111111111109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605.60344827586209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>D0.0005</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D6C700"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="D6C700"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$76:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$76:$Z$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.337142857142856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.639097744360896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.14814814814818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>277.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.85977859778598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>485.38011695906431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>881.14754098360663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1628.4074605451938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2889.5768833849329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>D0.0001</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF15EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$90:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$Z$90:$Z$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.8592592592592583</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.322580645161292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.466666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>208.79999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>518.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>748.27586206896558</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1265.1162790697674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3026.3157894736842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6428.5714285714275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="135309952"/>
+        <c:axId val="135324800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="135309952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t>  Nodi  [#]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135324800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="135324800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Tx Totale Normalizzato [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="135309952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>Fattore di Efficienza</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D0.02</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$20:$AA$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13266118333775537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16362595107584063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22892025944296068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28220338983050847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38066825775656327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44831460674157303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84680851063829787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.915057915057915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1583999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$34:$AA$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12746764282912801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14988797033145326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19650349650349649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24061696658097689</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31924686192468615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36323809523809519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63247863247863245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3008474576271187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1567944250871078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>D0.008</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$48:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$48:$AA$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15310077519379847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12886958957837233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14128903063116516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18035087719298246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28272357723577235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3265654648956357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56806722689075628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0669191919191918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6612740141557127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>D0.001</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$62:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$62:$AA$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12244897959183672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14764079147640791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24414414414414415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31468531468531469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40962566844919784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62724014336917566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0392609699769053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6512455516014235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>D0.0005</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D6C700"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="D6C700"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$76:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$76:$AA$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17641129032258066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1216216216216216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13220675944333998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17326203208556148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18022657054582905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21171875000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2060240963855422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22697674418604649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30704845814977977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34607142857142859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>D0.0001</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF15EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$90:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$90:$AA$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29157667386609076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21438450899031811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23006134969325154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14367816091954025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15432098765432101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13364055299539171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15808823529411764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16521739130434782</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15555555555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="81524992"/>
+        <c:axId val="81539840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="81524992"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t>  Nodi  [#]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81539840"/>
+        <c:crossesAt val="0.1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81539840"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Fattore di Efficienza</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81524992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6022,6 +7631,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6334,44 +7944,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.209999999999999</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.76</c:v>
+                  <c:v>37.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.643333333333338</c:v>
+                  <c:v>61.115000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.03333333333335</c:v>
+                  <c:v>131.05000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.33333333333334</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202.66666666666666</c:v>
+                  <c:v>209.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>232</c:v>
+                  <c:v>222.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>352.33333333333331</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>436.66666666666669</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137716864"/>
-        <c:axId val="137718784"/>
+        <c:axId val="91827200"/>
+        <c:axId val="91845760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137716864"/>
+        <c:axId val="91827200"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6393,16 +8003,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137718784"/>
+        <c:crossAx val="91845760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137718784"/>
+        <c:axId val="91845760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6428,26 +8039,762 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329504E-2"/>
+              <c:x val="3.8860532414329518E-2"/>
               <c:y val="0.15693467965035673"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137716864"/>
+        <c:crossAx val="91827200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>Fattore di Efficienza</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D0.02</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$20:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$20:$AA$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13266118333775537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16362595107584063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22892025944296068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28220338983050847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38066825775656327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44831460674157303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84680851063829787</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.915057915057915</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1583999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D0.01</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$34:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$34:$AA$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12746764282912801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14988797033145326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19650349650349649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24061696658097689</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31924686192468615</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36323809523809519</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63247863247863245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3008474576271187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1567944250871078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>D0.008</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$48:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$48:$AA$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15310077519379847</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12886958957837233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14128903063116516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18035087719298246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28272357723577235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3265654648956357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56806722689075628</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0669191919191918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6612740141557127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>D0.001</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$62:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$62:$AA$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12244897959183672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14764079147640791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24414414414414415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31468531468531469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40962566844919784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62724014336917566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0392609699769053</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6512455516014235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>D0.0005</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="D6C700"/>
+              </a:solidFill>
+              <a:prstDash val="dashDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="D6C700"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$76:$A$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$76:$AA$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17641129032258066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1216216216216216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13220675944333998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17326203208556148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18022657054582905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21171875000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2060240963855422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22697674418604649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30704845814977977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34607142857142859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>D0.0001</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF15EE"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF15EE"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Grafici!$A$90:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Grafici!$AA$90:$AA$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29157667386609076</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21438450899031811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23006134969325154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14367816091954025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15432098765432101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13364055299539171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15808823529411764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16521739130434782</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15555555555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73744768"/>
+        <c:axId val="73767552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73744768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t>  Nodi  [#]</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73767552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73767552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Fattore</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> di Efficienza</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73744768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6496,6 +8843,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6671,11 +9019,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137764864"/>
-        <c:axId val="137766784"/>
+        <c:axId val="90961792"/>
+        <c:axId val="91865088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137764864"/>
+        <c:axId val="90961792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6697,16 +9045,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137766784"/>
+        <c:crossAx val="91865088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137766784"/>
+        <c:axId val="91865088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6734,22 +9083,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137764864"/>
+        <c:crossAx val="90961792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6795,6 +9146,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7107,44 +9459,44 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.9916666666666667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95333333333333325</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95444444444444443</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91733333333333322</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9341666666666667</c:v>
+                  <c:v>0.99687499999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96</c:v>
+                  <c:v>0.99750000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93500000000000005</c:v>
+                  <c:v>0.995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92400000000000004</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92333333333333334</c:v>
+                  <c:v>0.98699999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="137802112"/>
-        <c:axId val="137804032"/>
+        <c:axId val="87857408"/>
+        <c:axId val="87867776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137802112"/>
+        <c:axId val="87857408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7166,16 +9518,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137804032"/>
+        <c:crossAx val="87867776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137804032"/>
+        <c:axId val="87867776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7203,22 +9556,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137802112"/>
+        <c:crossAx val="87857408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7253,6 +9608,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7565,44 +9921,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11.446666666666667</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.063333333333333</c:v>
+                  <c:v>38.244999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.276666666666671</c:v>
+                  <c:v>64.715000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123.66666666666667</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>151.4</c:v>
+                  <c:v>194.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.66666666666666</c:v>
+                  <c:v>262.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>228.03333333333333</c:v>
+                  <c:v>292.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>274.66666666666669</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>343.66666666666669</c:v>
+                  <c:v>430.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="138101504"/>
-        <c:axId val="138103424"/>
+        <c:axId val="91957888"/>
+        <c:axId val="91968256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="138101504"/>
+        <c:axId val="91957888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7624,16 +9980,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138103424"/>
+        <c:crossAx val="91968256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="138103424"/>
+        <c:axId val="91968256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,22 +10012,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138101504"/>
+        <c:crossAx val="91957888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7716,6 +10075,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8025,44 +10385,44 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.93333333333333324</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>0.97499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82833333333333348</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77222222222222214</c:v>
+                  <c:v>0.93666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69533333333333347</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7104166666666667</c:v>
+                  <c:v>0.95374999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69433333333333336</c:v>
+                  <c:v>0.95350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64383333333333337</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63</c:v>
+                  <c:v>0.92100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63266666666666671</c:v>
+                  <c:v>0.92849999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151139456"/>
-        <c:axId val="151141376"/>
+        <c:axId val="92007424"/>
+        <c:axId val="91886720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151139456"/>
+        <c:axId val="92007424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8084,16 +10444,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151141376"/>
+        <c:crossAx val="91886720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151141376"/>
+        <c:axId val="91886720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8121,22 +10482,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151139456"/>
+        <c:crossAx val="92007424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8171,6 +10534,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8483,44 +10847,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.583333333333334</c:v>
+                  <c:v>12.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.429999999999996</c:v>
+                  <c:v>35.695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.31</c:v>
+                  <c:v>67.415000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.60000000000001</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142.5</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.73333333333335</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.93333333333331</c:v>
+                  <c:v>263.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>218.36666666666667</c:v>
+                  <c:v>297.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>290.59999999999997</c:v>
+                  <c:v>396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>365.66666666666669</c:v>
+                  <c:v>494.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151172608"/>
-        <c:axId val="151174528"/>
+        <c:axId val="91913600"/>
+        <c:axId val="91936256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151172608"/>
+        <c:axId val="91913600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8542,16 +10906,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151174528"/>
+        <c:crossAx val="91936256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151174528"/>
+        <c:axId val="91936256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8577,26 +10942,27 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8871550810709747E-2"/>
+              <c:x val="3.8871550810709761E-2"/>
               <c:y val="0.15920601851851851"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151172608"/>
+        <c:crossAx val="91913600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8642,6 +11008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8954,44 +11321,44 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.98750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80666666666666664</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79333333333333333</c:v>
+                  <c:v>0.95250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66055555555555556</c:v>
+                  <c:v>0.85666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60966666666666669</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62666666666666659</c:v>
+                  <c:v>0.86937500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61033333333333328</c:v>
+                  <c:v>0.86050000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.57691666666666663</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57199999999999995</c:v>
+                  <c:v>0.84499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5528333333333334</c:v>
+                  <c:v>0.82150000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="134256512"/>
-        <c:axId val="134270976"/>
+        <c:axId val="92065792"/>
+        <c:axId val="92067712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134256512"/>
+        <c:axId val="92065792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9013,16 +11380,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134270976"/>
+        <c:crossAx val="92067712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134270976"/>
+        <c:axId val="92067712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9050,22 +11418,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134256512"/>
+        <c:crossAx val="92065792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9100,6 +11470,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -9282,11 +11653,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151228800"/>
-        <c:axId val="151230720"/>
+        <c:axId val="92145920"/>
+        <c:axId val="92172672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151228800"/>
+        <c:axId val="92145920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9308,16 +11679,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151230720"/>
+        <c:crossAx val="92172672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151230720"/>
+        <c:axId val="92172672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9343,26 +11715,27 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329504E-2"/>
-              <c:y val="0.20624305555555558"/>
+              <c:x val="3.8860532414329518E-2"/>
+              <c:y val="0.20624305555555564"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151228800"/>
+        <c:crossAx val="92145920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9372,13 +11745,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>16450</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>585768</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>64499</xdr:rowOff>
@@ -9402,13 +11775,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>569318</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78443</xdr:rowOff>
@@ -9432,13 +11805,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>581023</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>17319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>544205</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>81819</xdr:rowOff>
@@ -9462,13 +11835,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>544206</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81818</xdr:rowOff>
@@ -9492,13 +11865,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>601373</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>12989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>564555</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>77489</xdr:rowOff>
@@ -9522,13 +11895,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>604404</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>179676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>567586</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>53676</xdr:rowOff>
@@ -9552,13 +11925,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>587084</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>175346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>550266</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>49346</xdr:rowOff>
@@ -9582,13 +11955,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>587083</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>149369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>550265</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>23369</xdr:rowOff>
@@ -9612,13 +11985,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>84553</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>63670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>48753</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>128170</xdr:rowOff>
@@ -9642,13 +12015,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>17316</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>586635</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>12546</xdr:rowOff>
@@ -9672,13 +12045,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>173255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>165906</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>47255</xdr:rowOff>
@@ -9702,13 +12075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>612319</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>569317</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>10072</xdr:rowOff>
@@ -9732,13 +12105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>235323</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>130032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>199523</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>4032</xdr:rowOff>
@@ -9762,13 +12135,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>612319</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>569317</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>146143</xdr:rowOff>
@@ -9792,13 +12165,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>515469</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>339175</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>189265</xdr:rowOff>
@@ -9822,13 +12195,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>593911</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>92048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>417617</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>158048</xdr:rowOff>
@@ -9852,16 +12225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>392207</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>416606</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>3726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>215913</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>166852</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>240312</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>69726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9875,6 +12248,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>238325</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>54794</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Grafico 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>231920</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>106821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Grafico 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>231920</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>120428</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Grafico 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22647,10 +25110,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Foglio11"/>
-  <dimension ref="A1:BD99"/>
+  <dimension ref="A1:BE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA76" sqref="AA76"/>
+    <sheetView tabSelected="1" topLeftCell="AX83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BX106" sqref="BX106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22678,20 +25141,22 @@
     <col min="22" max="22" width="7.7109375" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" customWidth="1"/>
     <col min="24" max="24" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="7.7109375" customWidth="1"/>
-    <col min="27" max="30" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" customWidth="1"/>
-    <col min="34" max="36" width="9.140625" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" customWidth="1"/>
-    <col min="40" max="42" width="9.140625" customWidth="1"/>
-    <col min="44" max="44" width="9.140625" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" customWidth="1"/>
-    <col min="53" max="53" width="9.140625" customWidth="1"/>
-    <col min="56" max="56" width="9.140625" customWidth="1"/>
-    <col min="59" max="59" width="9.140625" customWidth="1"/>
-    <col min="62" max="62" width="9.140625" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" customWidth="1"/>
+    <col min="25" max="25" width="7.7109375" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" customWidth="1"/>
+    <col min="28" max="31" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" customWidth="1"/>
+    <col min="35" max="37" width="9.140625" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" customWidth="1"/>
+    <col min="41" max="43" width="9.140625" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" customWidth="1"/>
+    <col min="48" max="48" width="9.140625" customWidth="1"/>
+    <col min="51" max="51" width="9.140625" customWidth="1"/>
+    <col min="54" max="54" width="9.140625" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" customWidth="1"/>
+    <col min="66" max="66" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1">
@@ -22955,7 +25420,7 @@
         <v>2.0000000000000005E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:27">
       <c r="A17" s="196" t="s">
         <v>28</v>
       </c>
@@ -22986,7 +25451,7 @@
       <c r="X17" s="223"/>
       <c r="Y17" s="224"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:27">
       <c r="A18" s="197"/>
       <c r="B18" s="219" t="s">
         <v>29</v>
@@ -23021,7 +25486,7 @@
       <c r="X18" s="223"/>
       <c r="Y18" s="224"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:27">
       <c r="A19" s="198"/>
       <c r="B19" s="69" t="s">
         <v>26</v>
@@ -23082,8 +25547,11 @@
       <c r="Z19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="88">
         <v>2</v>
       </c>
@@ -23154,8 +25622,8 @@
         <v>0</v>
       </c>
       <c r="T20" s="97">
-        <f ca="1">AVERAGE(B20,H20,N20)</f>
-        <v>13.209999999999999</v>
+        <f ca="1">AVERAGE(H20,N20)</f>
+        <v>13.2</v>
       </c>
       <c r="U20" s="76" t="s">
         <v>42</v>
@@ -23165,8 +25633,8 @@
         <v>2.0499999999999997E-7</v>
       </c>
       <c r="W20" s="24">
-        <f ca="1">AVERAGE(E20,K20,Q20)</f>
-        <v>0.9916666666666667</v>
+        <f ca="1">AVERAGE(K20,Q20)</f>
+        <v>1</v>
       </c>
       <c r="X20" s="76" t="s">
         <v>42</v>
@@ -23177,10 +25645,14 @@
       </c>
       <c r="Z20">
         <f ca="1">T20/W20</f>
-        <v>13.321008403361343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>13.2</v>
+      </c>
+      <c r="AA20">
+        <f ca="1">(W20*A20)/T20</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="89">
         <v>5</v>
       </c>
@@ -23251,8 +25723,8 @@
         <v>0</v>
       </c>
       <c r="T21" s="98">
-        <f t="shared" ref="T21:T29" ca="1" si="12">AVERAGE(B21,H21,N21)</f>
-        <v>36.76</v>
+        <f t="shared" ref="T21:T29" ca="1" si="12">AVERAGE(H21,N21)</f>
+        <v>37.69</v>
       </c>
       <c r="U21" s="77" t="s">
         <v>42</v>
@@ -23262,8 +25734,8 @@
         <v>0</v>
       </c>
       <c r="W21" s="25">
-        <f t="shared" ref="W21:W29" ca="1" si="14">AVERAGE(E21,K21,Q21)</f>
-        <v>0.95333333333333325</v>
+        <f t="shared" ref="W21:W29" ca="1" si="14">AVERAGE(K21,Q21)</f>
+        <v>1</v>
       </c>
       <c r="X21" s="77" t="s">
         <v>42</v>
@@ -23274,10 +25746,14 @@
       </c>
       <c r="Z21">
         <f t="shared" ref="Z21:Z29" ca="1" si="16">T21/W21</f>
-        <v>38.55944055944056</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>37.69</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ref="AA21:AA29" ca="1" si="17">(W21*A21)/T21</f>
+        <v>0.13266118333775537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="89">
         <v>10</v>
       </c>
@@ -23349,7 +25825,7 @@
       </c>
       <c r="T22" s="98">
         <f t="shared" ca="1" si="12"/>
-        <v>62.643333333333338</v>
+        <v>61.115000000000002</v>
       </c>
       <c r="U22" s="77" t="s">
         <v>42</v>
@@ -23360,7 +25836,7 @@
       </c>
       <c r="W22" s="25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="X22" s="77" t="s">
         <v>42</v>
@@ -23371,10 +25847,14 @@
       </c>
       <c r="Z22">
         <f t="shared" ca="1" si="16"/>
-        <v>63.921768707482997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>61.115000000000002</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.16362595107584063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="89">
         <v>30</v>
       </c>
@@ -23446,7 +25926,7 @@
       </c>
       <c r="T23" s="98">
         <f t="shared" ca="1" si="12"/>
-        <v>127.03333333333335</v>
+        <v>131.05000000000001</v>
       </c>
       <c r="U23" s="77" t="s">
         <v>42</v>
@@ -23457,7 +25937,7 @@
       </c>
       <c r="W23" s="25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.95444444444444443</v>
+        <v>1</v>
       </c>
       <c r="X23" s="77" t="s">
         <v>42</v>
@@ -23468,10 +25948,14 @@
       </c>
       <c r="Z23">
         <f t="shared" ca="1" si="16"/>
-        <v>133.09662398137371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>131.05000000000001</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.22892025944296068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="89">
         <v>50</v>
       </c>
@@ -23543,7 +26027,7 @@
       </c>
       <c r="T24" s="98">
         <f t="shared" ca="1" si="12"/>
-        <v>158.33333333333334</v>
+        <v>177</v>
       </c>
       <c r="U24" s="77" t="s">
         <v>42</v>
@@ -23554,7 +26038,7 @@
       </c>
       <c r="W24" s="25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.91733333333333322</v>
+        <v>0.999</v>
       </c>
       <c r="X24" s="77" t="s">
         <v>42</v>
@@ -23565,10 +26049,14 @@
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="16"/>
-        <v>172.60174418604655</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>177.17717717717719</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.28220338983050847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="89">
         <v>80</v>
       </c>
@@ -23640,7 +26128,7 @@
       </c>
       <c r="T25" s="98">
         <f t="shared" ca="1" si="12"/>
-        <v>202.66666666666666</v>
+        <v>209.5</v>
       </c>
       <c r="U25" s="77" t="s">
         <v>42</v>
@@ -23651,7 +26139,7 @@
       </c>
       <c r="W25" s="25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.9341666666666667</v>
+        <v>0.99687499999999996</v>
       </c>
       <c r="X25" s="77" t="s">
         <v>42</v>
@@ -23662,10 +26150,14 @@
       </c>
       <c r="Z25">
         <f t="shared" ca="1" si="16"/>
-        <v>216.94915254237287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>210.15673981191225</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.38066825775656327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="89">
         <v>100</v>
       </c>
@@ -23737,7 +26229,7 @@
       </c>
       <c r="T26" s="98">
         <f t="shared" ca="1" si="12"/>
-        <v>232</v>
+        <v>222.5</v>
       </c>
       <c r="U26" s="77" t="s">
         <v>42</v>
@@ -23748,7 +26240,7 @@
       </c>
       <c r="W26" s="25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.96</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="X26" s="77" t="s">
         <v>42</v>
@@ -23759,10 +26251,14 @@
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="16"/>
-        <v>241.66666666666669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>223.05764411027567</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.44831460674157303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="89">
         <v>200</v>
       </c>
@@ -23834,7 +26330,7 @@
       </c>
       <c r="T27" s="98">
         <f t="shared" ca="1" si="12"/>
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="U27" s="77" t="s">
         <v>42</v>
@@ -23845,7 +26341,7 @@
       </c>
       <c r="W27" s="25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.93500000000000005</v>
+        <v>0.995</v>
       </c>
       <c r="X27" s="77" t="s">
         <v>42</v>
@@ -23856,10 +26352,14 @@
       </c>
       <c r="Z27">
         <f t="shared" ca="1" si="16"/>
-        <v>288.77005347593581</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>236.18090452261308</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.84680851063829787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="89">
         <v>500</v>
       </c>
@@ -23931,7 +26431,7 @@
       </c>
       <c r="T28" s="98">
         <f t="shared" ca="1" si="12"/>
-        <v>352.33333333333331</v>
+        <v>259</v>
       </c>
       <c r="U28" s="77" t="s">
         <v>42</v>
@@ -23942,7 +26442,7 @@
       </c>
       <c r="W28" s="25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.92400000000000004</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="X28" s="77" t="s">
         <v>42</v>
@@ -23953,10 +26453,14 @@
       </c>
       <c r="Z28">
         <f t="shared" ca="1" si="16"/>
-        <v>381.31313131313129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>261.08870967741933</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" ca="1" si="17"/>
+        <v>1.915057915057915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="90">
         <v>1000</v>
       </c>
@@ -24028,7 +26532,7 @@
       </c>
       <c r="T29" s="99">
         <f t="shared" ca="1" si="12"/>
-        <v>436.66666666666669</v>
+        <v>312.5</v>
       </c>
       <c r="U29" s="78" t="s">
         <v>42</v>
@@ -24039,7 +26543,7 @@
       </c>
       <c r="W29" s="26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.92333333333333334</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="X29" s="78" t="s">
         <v>42</v>
@@ -24050,10 +26554,14 @@
       </c>
       <c r="Z29">
         <f t="shared" ca="1" si="16"/>
-        <v>472.92418772563178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>316.61600810536981</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" ca="1" si="17"/>
+        <v>3.1583999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="196" t="s">
         <v>28</v>
       </c>
@@ -24084,7 +26592,7 @@
       <c r="X31" s="217"/>
       <c r="Y31" s="218"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:27">
       <c r="A32" s="197"/>
       <c r="B32" s="213" t="s">
         <v>29</v>
@@ -24119,7 +26627,7 @@
       <c r="X32" s="217"/>
       <c r="Y32" s="218"/>
     </row>
-    <row r="33" spans="1:56">
+    <row r="33" spans="1:57">
       <c r="A33" s="198"/>
       <c r="B33" s="80" t="s">
         <v>26</v>
@@ -24180,8 +26688,11 @@
       <c r="Z33" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:56">
+      <c r="AA33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57">
       <c r="A34" s="88">
         <v>2</v>
       </c>
@@ -24252,972 +26763,1012 @@
         <v>0</v>
       </c>
       <c r="T34" s="97">
-        <f ca="1">AVERAGE(B34,H34,N34)</f>
-        <v>11.446666666666667</v>
+        <f ca="1">AVERAGE(H34,N34)</f>
+        <v>13.2</v>
       </c>
       <c r="U34" s="76" t="s">
         <v>42</v>
       </c>
       <c r="V34" s="71">
-        <f t="shared" ref="V34" ca="1" si="17">AVERAGE(J34,P34)</f>
+        <f t="shared" ref="V34" ca="1" si="18">AVERAGE(J34,P34)</f>
         <v>2.0499999999999997E-7</v>
       </c>
       <c r="W34" s="24">
-        <f ca="1">AVERAGE(E34,K34,Q34)</f>
-        <v>0.93333333333333324</v>
+        <f ca="1">AVERAGE(K34,Q34)</f>
+        <v>1</v>
       </c>
       <c r="X34" s="76" t="s">
         <v>42</v>
       </c>
       <c r="Y34" s="65">
-        <f t="shared" ref="Y34" ca="1" si="18">AVERAGE(M34,S34)</f>
+        <f t="shared" ref="Y34" ca="1" si="19">AVERAGE(M34,S34)</f>
         <v>0</v>
       </c>
       <c r="Z34">
         <f ca="1">T34/W34</f>
-        <v>12.264285714285716</v>
-      </c>
-    </row>
-    <row r="35" spans="1:56">
+        <v>13.2</v>
+      </c>
+      <c r="AA34">
+        <f ca="1">(W34*A34)/T34</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57">
       <c r="A35" s="89">
         <v>5</v>
       </c>
       <c r="B35" s="100">
-        <f t="shared" ref="B35:B43" ca="1" si="19">INDIRECT($A35&amp;"!$AL$7")</f>
+        <f t="shared" ref="B35:B43" ca="1" si="20">INDIRECT($A35&amp;"!$AL$7")</f>
         <v>25.7</v>
       </c>
       <c r="C35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="101">
-        <f t="shared" ref="D35:D43" ca="1" si="20">INDIRECT($A35&amp;"!$AM$7")</f>
+        <f t="shared" ref="D35:D43" ca="1" si="21">INDIRECT($A35&amp;"!$AM$7")</f>
         <v>6.5</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" ref="E35:E43" ca="1" si="21">INDIRECT($A35&amp;"!$AP$7")</f>
+        <f t="shared" ref="E35:E43" ca="1" si="22">INDIRECT($A35&amp;"!$AP$7")</f>
         <v>0.63</v>
       </c>
       <c r="F35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="66">
-        <f t="shared" ref="G35:G43" ca="1" si="22">INDIRECT($A35&amp;"!$AQ$7")</f>
+        <f t="shared" ref="G35:G43" ca="1" si="23">INDIRECT($A35&amp;"!$AQ$7")</f>
         <v>0.11479999999999999</v>
       </c>
       <c r="H35" s="100">
-        <f t="shared" ref="H35:H43" ca="1" si="23">INDIRECT($A35&amp;"!$AL$32")</f>
+        <f t="shared" ref="H35:H43" ca="1" si="24">INDIRECT($A35&amp;"!$AL$32")</f>
         <v>38.799999999999997</v>
       </c>
       <c r="I35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J35" s="101">
-        <f t="shared" ref="J35:J43" ca="1" si="24">INDIRECT($A35&amp;"!$AM$32")</f>
+        <f t="shared" ref="J35:J43" ca="1" si="25">INDIRECT($A35&amp;"!$AM$32")</f>
         <v>3.79</v>
       </c>
       <c r="K35" s="25">
-        <f t="shared" ref="K35:K43" ca="1" si="25">INDIRECT($A35&amp;"!$AP$32")</f>
+        <f t="shared" ref="K35:K43" ca="1" si="26">INDIRECT($A35&amp;"!$AP$32")</f>
         <v>0.95</v>
       </c>
       <c r="L35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M35" s="66">
-        <f t="shared" ref="M35:M43" ca="1" si="26">INDIRECT($A35&amp;"!$AQ$32")</f>
+        <f t="shared" ref="M35:M43" ca="1" si="27">INDIRECT($A35&amp;"!$AQ$32")</f>
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="N35" s="100">
-        <f t="shared" ref="N35:N43" ca="1" si="27">INDIRECT($A35&amp;"!$AL$57")</f>
+        <f t="shared" ref="N35:N43" ca="1" si="28">INDIRECT($A35&amp;"!$AL$57")</f>
         <v>37.69</v>
       </c>
       <c r="O35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P35" s="101">
-        <f t="shared" ref="P35:P43" ca="1" si="28">INDIRECT($A35&amp;"!$AM$57")</f>
+        <f t="shared" ref="P35:P43" ca="1" si="29">INDIRECT($A35&amp;"!$AM$57")</f>
         <v>0</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ref="Q35:Q43" ca="1" si="29">INDIRECT($A35&amp;"!$AP$57")</f>
+        <f t="shared" ref="Q35:Q43" ca="1" si="30">INDIRECT($A35&amp;"!$AP$57")</f>
         <v>1</v>
       </c>
       <c r="R35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S35" s="66">
-        <f t="shared" ref="S35:S43" ca="1" si="30">INDIRECT($A35&amp;"!$AQ$57")</f>
+        <f t="shared" ref="S35:S43" ca="1" si="31">INDIRECT($A35&amp;"!$AQ$57")</f>
         <v>0</v>
       </c>
       <c r="T35" s="98">
-        <f t="shared" ref="T35:T43" ca="1" si="31">AVERAGE(B35,H35,N35)</f>
-        <v>34.063333333333333</v>
+        <f t="shared" ref="T35:T43" ca="1" si="32">AVERAGE(H35,N35)</f>
+        <v>38.244999999999997</v>
       </c>
       <c r="U35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V35" s="72">
-        <f t="shared" ref="V35:V43" ca="1" si="32">AVERAGE(J35,P35)</f>
+        <f t="shared" ref="V35:V43" ca="1" si="33">AVERAGE(J35,P35)</f>
         <v>1.895</v>
       </c>
       <c r="W35" s="25">
-        <f t="shared" ref="W35:W43" ca="1" si="33">AVERAGE(E35,K35,Q35)</f>
-        <v>0.86</v>
+        <f t="shared" ref="W35:W43" ca="1" si="34">AVERAGE(K35,Q35)</f>
+        <v>0.97499999999999998</v>
       </c>
       <c r="X35" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y35" s="66">
-        <f t="shared" ref="Y35:Y43" ca="1" si="34">AVERAGE(M35,S35)</f>
+        <f t="shared" ref="Y35:Y43" ca="1" si="35">AVERAGE(M35,S35)</f>
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="Z35">
-        <f t="shared" ref="Z35:Z43" ca="1" si="35">T35/W35</f>
-        <v>39.608527131782942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:56">
+        <f t="shared" ref="Z35:Z43" ca="1" si="36">T35/W35</f>
+        <v>39.225641025641025</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ref="AA35:AA43" ca="1" si="37">(W35*A35)/T35</f>
+        <v>0.12746764282912801</v>
+      </c>
+    </row>
+    <row r="36" spans="1:57">
       <c r="A36" s="89">
         <v>10</v>
       </c>
       <c r="B36" s="100">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>42.4</v>
       </c>
       <c r="C36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="101">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>10.9</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.54500000000000004</v>
       </c>
       <c r="F36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G36" s="66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0.129</v>
       </c>
       <c r="H36" s="100">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>64.5</v>
       </c>
       <c r="I36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J36" s="101">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>6.76</v>
       </c>
       <c r="K36" s="25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.94000000000000006</v>
       </c>
       <c r="L36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M36" s="66">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="N36" s="100">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>64.930000000000007</v>
       </c>
       <c r="O36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P36" s="101">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>0</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>1</v>
       </c>
       <c r="R36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S36" s="66">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="T36" s="98">
-        <f t="shared" ca="1" si="31"/>
-        <v>57.276666666666671</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>64.715000000000003</v>
       </c>
       <c r="U36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V36" s="72">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>3.38</v>
       </c>
       <c r="W36" s="25">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.82833333333333348</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.97</v>
       </c>
       <c r="X36" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y36" s="66">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>3.075E-2</v>
       </c>
       <c r="Z36">
-        <f t="shared" ca="1" si="35"/>
-        <v>69.146881287726345</v>
-      </c>
-      <c r="BB36" t="s">
+        <f t="shared" ca="1" si="36"/>
+        <v>66.716494845360828</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.14988797033145326</v>
+      </c>
+      <c r="BC36" t="s">
         <v>60</v>
       </c>
-      <c r="BC36" t="s">
+      <c r="BD36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:56">
+    <row r="37" spans="1:57">
       <c r="A37" s="89">
         <v>30</v>
       </c>
       <c r="B37" s="100">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>85</v>
       </c>
       <c r="C37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="101">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>23.1</v>
       </c>
       <c r="E37" s="25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.44333333333333336</v>
       </c>
       <c r="F37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G37" s="66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0.13366666666666666</v>
       </c>
       <c r="H37" s="100">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>114</v>
       </c>
       <c r="I37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J37" s="101">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>19.5</v>
       </c>
       <c r="K37" s="25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.87333333333333329</v>
       </c>
       <c r="L37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M37" s="66">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0.129</v>
       </c>
       <c r="N37" s="100">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>172</v>
       </c>
       <c r="O37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P37" s="101">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>1</v>
       </c>
       <c r="R37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S37" s="66">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
       <c r="T37" s="98">
-        <f t="shared" ca="1" si="31"/>
-        <v>123.66666666666667</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>143</v>
       </c>
       <c r="U37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V37" s="72">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>9.7510399999999997</v>
       </c>
       <c r="W37" s="25">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.77222222222222214</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.93666666666666665</v>
       </c>
       <c r="X37" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y37" s="66">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>6.4500000000000002E-2</v>
       </c>
       <c r="Z37">
-        <f t="shared" ca="1" si="35"/>
-        <v>160.14388489208636</v>
-      </c>
-      <c r="BB37" s="162">
+        <f t="shared" ca="1" si="36"/>
+        <v>152.66903914590748</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.19650349650349649</v>
+      </c>
+      <c r="BC37" s="162">
         <v>0.02</v>
       </c>
-      <c r="BC37">
+      <c r="BD37">
         <f ca="1">N29/60</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="BD37" t="s">
+      <c r="BE37" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:56">
+    <row r="38" spans="1:57">
       <c r="A38" s="89">
         <v>50</v>
       </c>
       <c r="B38" s="100">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>65.2</v>
       </c>
       <c r="C38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="101">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>19.8</v>
       </c>
       <c r="E38" s="25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.214</v>
       </c>
       <c r="F38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G38" s="66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>8.0399999999999985E-2</v>
       </c>
       <c r="H38" s="100">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>148</v>
       </c>
       <c r="I38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J38" s="101">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>23.3</v>
       </c>
       <c r="K38" s="25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.87400000000000011</v>
       </c>
       <c r="L38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M38" s="66">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0.10859999999999999</v>
       </c>
       <c r="N38" s="100">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>241</v>
       </c>
       <c r="O38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P38" s="101">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>6.41</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0.998</v>
       </c>
       <c r="R38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S38" s="66">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>3.4200000000000003E-3</v>
       </c>
       <c r="T38" s="98">
-        <f t="shared" ca="1" si="31"/>
-        <v>151.4</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>194.5</v>
       </c>
       <c r="U38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V38" s="72">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>14.855</v>
       </c>
       <c r="W38" s="25">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.69533333333333347</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.93600000000000005</v>
       </c>
       <c r="X38" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y38" s="66">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>5.6009999999999997E-2</v>
       </c>
       <c r="Z38">
-        <f t="shared" ca="1" si="35"/>
-        <v>217.73729626078617</v>
-      </c>
-      <c r="BB38" s="162">
+        <f t="shared" ca="1" si="36"/>
+        <v>207.79914529914529</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.24061696658097689</v>
+      </c>
+      <c r="BC38" s="162">
         <v>0.01</v>
       </c>
-      <c r="BC38">
+      <c r="BD38">
         <f ca="1">N43/60</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="BD38" t="s">
+      <c r="BE38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:56">
+    <row r="39" spans="1:57">
       <c r="A39" s="89">
         <v>80</v>
       </c>
       <c r="B39" s="100">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>104</v>
       </c>
       <c r="C39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="101">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>33.799999999999997</v>
       </c>
       <c r="E39" s="25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.22374999999999998</v>
       </c>
       <c r="F39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>9.1499999999999998E-2</v>
       </c>
       <c r="H39" s="100">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>193</v>
       </c>
       <c r="I39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="101">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>19.899999999999999</v>
       </c>
       <c r="K39" s="25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.91374999999999995</v>
       </c>
       <c r="L39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M39" s="66">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="N39" s="100">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>285</v>
       </c>
       <c r="O39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P39" s="101">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>15.4</v>
       </c>
       <c r="Q39" s="25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0.99375000000000002</v>
       </c>
       <c r="R39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S39" s="66">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="T39" s="98">
-        <f t="shared" ca="1" si="31"/>
-        <v>194</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>239</v>
       </c>
       <c r="U39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V39" s="72">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>17.649999999999999</v>
       </c>
       <c r="W39" s="25">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.7104166666666667</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.95374999999999999</v>
       </c>
       <c r="X39" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y39" s="66">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>4.7E-2</v>
       </c>
       <c r="Z39">
-        <f t="shared" ca="1" si="35"/>
-        <v>273.07917888563048</v>
-      </c>
-      <c r="BB39" s="162">
+        <f t="shared" ca="1" si="36"/>
+        <v>250.58977719528178</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.31924686192468615</v>
+      </c>
+      <c r="BC39" s="162">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="BC39">
+      <c r="BD39">
         <f ca="1">N57/60</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="BD39" t="s">
+      <c r="BE39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:56">
+    <row r="40" spans="1:57">
       <c r="A40" s="89">
         <v>100</v>
       </c>
       <c r="B40" s="100">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>104</v>
       </c>
       <c r="C40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="101">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>36.5</v>
       </c>
       <c r="E40" s="25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>0.17600000000000002</v>
       </c>
       <c r="F40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>6.6900000000000001E-2</v>
       </c>
       <c r="H40" s="100">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>225</v>
       </c>
       <c r="I40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J40" s="101">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>27.8</v>
       </c>
       <c r="K40" s="25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.91200000000000003</v>
       </c>
       <c r="L40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M40" s="66">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>8.8900000000000007E-2</v>
       </c>
       <c r="N40" s="100">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>300</v>
       </c>
       <c r="O40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P40" s="101">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>10.6</v>
       </c>
       <c r="Q40" s="25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0.995</v>
       </c>
       <c r="R40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S40" s="66">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>2.8399999999999996E-3</v>
       </c>
       <c r="T40" s="98">
-        <f t="shared" ca="1" si="31"/>
-        <v>209.66666666666666</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>262.5</v>
       </c>
       <c r="U40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V40" s="72">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>19.2</v>
       </c>
       <c r="W40" s="25">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.69433333333333336</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.95350000000000001</v>
       </c>
       <c r="X40" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y40" s="66">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>4.5870000000000001E-2</v>
       </c>
       <c r="Z40">
-        <f t="shared" ca="1" si="35"/>
-        <v>301.96831493038883</v>
-      </c>
-      <c r="BB40" s="162">
+        <f t="shared" ca="1" si="36"/>
+        <v>275.30152071316201</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.36323809523809519</v>
+      </c>
+      <c r="BC40" s="162">
         <v>1E-3</v>
       </c>
-      <c r="BC40">
+      <c r="BD40">
         <f ca="1">N71/60</f>
         <v>9.3666666666666671</v>
       </c>
-      <c r="BD40" t="s">
+      <c r="BE40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:56">
+    <row r="41" spans="1:57">
       <c r="A41" s="89">
         <v>200</v>
       </c>
       <c r="B41" s="100">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>99.1</v>
       </c>
       <c r="C41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="101">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>46.4</v>
       </c>
       <c r="E41" s="25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="F41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>4.2549999999999998E-2</v>
       </c>
       <c r="H41" s="100">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>315</v>
       </c>
       <c r="I41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J41" s="101">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>58.1</v>
       </c>
       <c r="K41" s="25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.85499999999999998</v>
       </c>
       <c r="L41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M41" s="66">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0.13350000000000001</v>
       </c>
       <c r="N41" s="100">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>270</v>
       </c>
       <c r="O41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P41" s="101">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>26.5</v>
       </c>
       <c r="Q41" s="25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0.995</v>
       </c>
       <c r="R41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S41" s="66">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>3.2450000000000001E-3</v>
       </c>
       <c r="T41" s="98">
-        <f t="shared" ca="1" si="31"/>
-        <v>228.03333333333333</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>292.5</v>
       </c>
       <c r="U41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V41" s="72">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>42.3</v>
       </c>
       <c r="W41" s="25">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.64383333333333337</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.92500000000000004</v>
       </c>
       <c r="X41" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y41" s="66">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>6.8372500000000003E-2</v>
       </c>
       <c r="Z41">
-        <f t="shared" ca="1" si="35"/>
-        <v>354.18068858400204</v>
-      </c>
-      <c r="BB41" s="162">
+        <f t="shared" ca="1" si="36"/>
+        <v>316.2162162162162</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.63247863247863245</v>
+      </c>
+      <c r="BC41" s="162">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="BC41">
+      <c r="BD41">
         <f ca="1">N85/60</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="BD41" t="s">
+      <c r="BE41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:56">
+    <row r="42" spans="1:57">
       <c r="A42" s="89">
         <v>500</v>
       </c>
       <c r="B42" s="100">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>116</v>
       </c>
       <c r="C42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="101">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>52.3</v>
       </c>
       <c r="E42" s="25">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="F42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.46E-2</v>
       </c>
       <c r="H42" s="100">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>476</v>
       </c>
       <c r="I42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J42" s="101">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>62.1</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.84399999999999997</v>
       </c>
       <c r="L42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M42" s="66">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0.112</v>
       </c>
       <c r="N42" s="100">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>232</v>
       </c>
       <c r="O42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P42" s="101">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>7</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0.998</v>
       </c>
       <c r="R42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S42" s="66">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>9.1600000000000004E-4</v>
       </c>
       <c r="T42" s="98">
-        <f t="shared" ca="1" si="31"/>
-        <v>274.66666666666669</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>354</v>
       </c>
       <c r="U42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V42" s="72">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>34.549999999999997</v>
       </c>
       <c r="W42" s="25">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.63</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.92100000000000004</v>
       </c>
       <c r="X42" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y42" s="66">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>5.6458000000000001E-2</v>
       </c>
       <c r="Z42">
-        <f t="shared" ca="1" si="35"/>
-        <v>435.978835978836</v>
-      </c>
-      <c r="BB42" s="162">
+        <f t="shared" ca="1" si="36"/>
+        <v>384.3648208469055</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" ca="1" si="37"/>
+        <v>1.3008474576271187</v>
+      </c>
+      <c r="BC42" s="162">
         <v>1E-4</v>
       </c>
-      <c r="BC42">
+      <c r="BD42">
         <f ca="1">N99</f>
         <v>13.5</v>
       </c>
-      <c r="BD42" t="s">
+      <c r="BE42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:56">
+    <row r="43" spans="1:57">
       <c r="A43" s="90">
         <v>1000</v>
       </c>
       <c r="B43" s="102">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="20"/>
         <v>170</v>
       </c>
       <c r="C43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="103">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="21"/>
         <v>62.3</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="22"/>
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="F43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="67">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>2.2699999999999998E-2</v>
       </c>
       <c r="H43" s="102">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="24"/>
         <v>611</v>
       </c>
       <c r="I43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="J43" s="103">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v>65.3</v>
       </c>
       <c r="K43" s="26">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="26"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="L43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M43" s="67">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v>8.3199999999999996E-2</v>
       </c>
       <c r="N43" s="102">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="28"/>
         <v>250</v>
       </c>
       <c r="O43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P43" s="103">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="29"/>
         <v>16.600000000000001</v>
       </c>
       <c r="Q43" s="26">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="30"/>
         <v>0.998</v>
       </c>
       <c r="R43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S43" s="67">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="31"/>
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="T43" s="99">
-        <f t="shared" ca="1" si="31"/>
-        <v>343.66666666666669</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>430.5</v>
       </c>
       <c r="U43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V43" s="73">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="33"/>
         <v>40.950000000000003</v>
       </c>
       <c r="W43" s="26">
-        <f t="shared" ca="1" si="33"/>
-        <v>0.63266666666666671</v>
+        <f t="shared" ca="1" si="34"/>
+        <v>0.92849999999999999</v>
       </c>
       <c r="X43" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y43" s="67">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="35"/>
         <v>4.2275E-2</v>
       </c>
       <c r="Z43">
-        <f t="shared" ca="1" si="35"/>
-        <v>543.20337197049525</v>
-      </c>
-    </row>
-    <row r="45" spans="1:56">
+        <f t="shared" ca="1" si="36"/>
+        <v>463.65105008077546</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" ca="1" si="37"/>
+        <v>2.1567944250871078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:57">
       <c r="A45" s="196" t="s">
         <v>28</v>
       </c>
@@ -25248,7 +27799,7 @@
       <c r="X45" s="236"/>
       <c r="Y45" s="237"/>
     </row>
-    <row r="46" spans="1:56">
+    <row r="46" spans="1:57">
       <c r="A46" s="197"/>
       <c r="B46" s="227" t="s">
         <v>29</v>
@@ -25283,7 +27834,7 @@
       <c r="X46" s="236"/>
       <c r="Y46" s="237"/>
     </row>
-    <row r="47" spans="1:56">
+    <row r="47" spans="1:57">
       <c r="A47" s="198"/>
       <c r="B47" s="84" t="s">
         <v>26</v>
@@ -25344,8 +27895,11 @@
       <c r="Z47" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:56">
+      <c r="AA47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:57">
       <c r="A48" s="88">
         <v>2</v>
       </c>
@@ -25416,906 +27970,946 @@
         <v>0</v>
       </c>
       <c r="T48" s="97">
-        <f ca="1">AVERAGE(B48,H48,N48)</f>
-        <v>10.583333333333334</v>
+        <f ca="1">AVERAGE(H48,N48)</f>
+        <v>12.899999999999999</v>
       </c>
       <c r="U48" s="76" t="s">
         <v>42</v>
       </c>
       <c r="V48" s="71">
-        <f t="shared" ref="V48" ca="1" si="36">AVERAGE(J48,P48)</f>
+        <f t="shared" ref="V48" ca="1" si="38">AVERAGE(J48,P48)</f>
         <v>0.69000010249999999</v>
       </c>
       <c r="W48" s="24">
-        <f ca="1">AVERAGE(E48,K48,Q48)</f>
-        <v>0.9</v>
+        <f ca="1">AVERAGE(K48,Q48)</f>
+        <v>0.98750000000000004</v>
       </c>
       <c r="X48" s="76" t="s">
         <v>42</v>
       </c>
       <c r="Y48" s="65">
-        <f t="shared" ref="Y48" ca="1" si="37">AVERAGE(M48,S48)</f>
+        <f t="shared" ref="Y48" ca="1" si="39">AVERAGE(M48,S48)</f>
         <v>2.6249999999999999E-2</v>
       </c>
       <c r="Z48">
-        <f t="shared" ref="Z48:Z57" ca="1" si="38">T48/W48</f>
-        <v>11.75925925925926</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <f t="shared" ref="Z48:Z57" ca="1" si="40">T48/W48</f>
+        <v>13.063291139240505</v>
+      </c>
+      <c r="AA48">
+        <f ca="1">(W48*A48)/T48</f>
+        <v>0.15310077519379847</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="89">
         <v>5</v>
       </c>
       <c r="B49" s="100">
-        <f t="shared" ref="B49:B57" ca="1" si="39">INDIRECT($A49&amp;"!$BA$7")</f>
+        <f t="shared" ref="B49:B57" ca="1" si="41">INDIRECT($A49&amp;"!$BA$7")</f>
         <v>22.9</v>
       </c>
       <c r="C49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="101">
-        <f t="shared" ref="D49:D57" ca="1" si="40">INDIRECT($A49&amp;"!$BB$7")</f>
+        <f t="shared" ref="D49:D57" ca="1" si="42">INDIRECT($A49&amp;"!$BB$7")</f>
         <v>6.41</v>
       </c>
       <c r="E49" s="25">
-        <f t="shared" ref="E49:E57" ca="1" si="41">INDIRECT($A49&amp;"!$BE$7")</f>
+        <f t="shared" ref="E49:E57" ca="1" si="43">INDIRECT($A49&amp;"!$BE$7")</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="F49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G49" s="66">
-        <f t="shared" ref="G49:G57" ca="1" si="42">INDIRECT($A49&amp;"!$BF$7")</f>
+        <f t="shared" ref="G49:G57" ca="1" si="44">INDIRECT($A49&amp;"!$BF$7")</f>
         <v>0.1132</v>
       </c>
       <c r="H49" s="100">
-        <f t="shared" ref="H49:H57" ca="1" si="43">INDIRECT($A49&amp;"!$BA$32")</f>
+        <f t="shared" ref="H49:H57" ca="1" si="45">INDIRECT($A49&amp;"!$BA$32")</f>
         <v>33.700000000000003</v>
       </c>
       <c r="I49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J49" s="101">
-        <f t="shared" ref="J49:J57" ca="1" si="44">INDIRECT($A49&amp;"!$BB$32")</f>
+        <f t="shared" ref="J49:J57" ca="1" si="46">INDIRECT($A49&amp;"!$BB$32")</f>
         <v>5.6</v>
       </c>
       <c r="K49" s="25">
-        <f t="shared" ref="K49:K57" ca="1" si="45">INDIRECT($A49&amp;"!$BE$32")</f>
+        <f t="shared" ref="K49:K57" ca="1" si="47">INDIRECT($A49&amp;"!$BE$32")</f>
         <v>0.84000000000000008</v>
       </c>
       <c r="L49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M49" s="66">
-        <f t="shared" ref="M49:M57" ca="1" si="46">INDIRECT($A49&amp;"!$BF$32")</f>
+        <f t="shared" ref="M49:M57" ca="1" si="48">INDIRECT($A49&amp;"!$BF$32")</f>
         <v>0.11599999999999999</v>
       </c>
       <c r="N49" s="100">
-        <f t="shared" ref="N49:N57" ca="1" si="47">INDIRECT($A49&amp;"!$BA$57")</f>
+        <f t="shared" ref="N49:N57" ca="1" si="49">INDIRECT($A49&amp;"!$BA$57")</f>
         <v>37.69</v>
       </c>
       <c r="O49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P49" s="101">
-        <f t="shared" ref="P49:P57" ca="1" si="48">INDIRECT($A49&amp;"!$BB$57")</f>
+        <f t="shared" ref="P49:P57" ca="1" si="50">INDIRECT($A49&amp;"!$BB$57")</f>
         <v>0</v>
       </c>
       <c r="Q49" s="25">
-        <f t="shared" ref="Q49:Q57" ca="1" si="49">INDIRECT($A49&amp;"!$BE$57")</f>
+        <f t="shared" ref="Q49:Q57" ca="1" si="51">INDIRECT($A49&amp;"!$BE$57")</f>
         <v>1</v>
       </c>
       <c r="R49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S49" s="66">
-        <f t="shared" ref="S49:S57" ca="1" si="50">INDIRECT($A49&amp;"!$BF$57")</f>
+        <f t="shared" ref="S49:S57" ca="1" si="52">INDIRECT($A49&amp;"!$BF$57")</f>
         <v>0</v>
       </c>
       <c r="T49" s="98">
-        <f t="shared" ref="T49:T57" ca="1" si="51">AVERAGE(B49,H49,N49)</f>
-        <v>31.429999999999996</v>
+        <f t="shared" ref="T49:T57" ca="1" si="53">AVERAGE(H49,N49)</f>
+        <v>35.695</v>
       </c>
       <c r="U49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V49" s="72">
-        <f t="shared" ref="V49:V57" ca="1" si="52">AVERAGE(J49,P49)</f>
+        <f t="shared" ref="V49:V57" ca="1" si="54">AVERAGE(J49,P49)</f>
         <v>2.8</v>
       </c>
       <c r="W49" s="25">
-        <f t="shared" ref="W49:W57" ca="1" si="53">AVERAGE(E49,K49,Q49)</f>
-        <v>0.80666666666666664</v>
+        <f t="shared" ref="W49:W57" ca="1" si="55">AVERAGE(K49,Q49)</f>
+        <v>0.92</v>
       </c>
       <c r="X49" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y49" s="66">
-        <f t="shared" ref="Y49:Y57" ca="1" si="54">AVERAGE(M49,S49)</f>
+        <f t="shared" ref="Y49:Y57" ca="1" si="56">AVERAGE(M49,S49)</f>
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="Z49">
-        <f t="shared" ca="1" si="38"/>
-        <v>38.962809917355365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>38.798913043478258</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" ref="AA49:AA57" ca="1" si="57">(W49*A49)/T49</f>
+        <v>0.12886958957837233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="89">
         <v>10</v>
       </c>
       <c r="B50" s="100">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>34.1</v>
       </c>
       <c r="C50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D50" s="101">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>11.3</v>
       </c>
       <c r="E50" s="25">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="F50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G50" s="66">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="H50" s="100">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>69.900000000000006</v>
       </c>
       <c r="I50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J50" s="101">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>6.61</v>
       </c>
       <c r="K50" s="25">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.90500000000000003</v>
       </c>
       <c r="L50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M50" s="66">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="N50" s="100">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>64.930000000000007</v>
       </c>
       <c r="O50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P50" s="101">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>0</v>
       </c>
       <c r="Q50" s="25">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1</v>
       </c>
       <c r="R50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S50" s="66">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>0</v>
       </c>
       <c r="T50" s="98">
-        <f t="shared" ca="1" si="51"/>
-        <v>56.31</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>67.415000000000006</v>
       </c>
       <c r="U50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V50" s="72">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>3.3050000000000002</v>
       </c>
       <c r="W50" s="25">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.79333333333333333</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.95250000000000001</v>
       </c>
       <c r="X50" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y50" s="66">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>2.8549999999999999E-2</v>
       </c>
       <c r="Z50">
-        <f t="shared" ca="1" si="38"/>
-        <v>70.978991596638664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>70.776902887139116</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.14128903063116516</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="89">
         <v>30</v>
       </c>
       <c r="B51" s="100">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>52.8</v>
       </c>
       <c r="C51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D51" s="101">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>17.399999999999999</v>
       </c>
       <c r="E51" s="25">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.26833333333333337</v>
       </c>
       <c r="F51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="66">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="H51" s="100">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>113</v>
       </c>
       <c r="I51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J51" s="101">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>25.9</v>
       </c>
       <c r="K51" s="25">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.71333333333333326</v>
       </c>
       <c r="L51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M51" s="66">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0.15233333333333335</v>
       </c>
       <c r="N51" s="100">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>172</v>
       </c>
       <c r="O51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P51" s="101">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>2.0799999999999998E-3</v>
       </c>
       <c r="Q51" s="25">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>1</v>
       </c>
       <c r="R51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S51" s="66">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>0</v>
       </c>
       <c r="T51" s="98">
-        <f t="shared" ca="1" si="51"/>
-        <v>112.60000000000001</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>142.5</v>
       </c>
       <c r="U51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V51" s="72">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>12.951039999999999</v>
       </c>
       <c r="W51" s="25">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.66055555555555556</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.85666666666666669</v>
       </c>
       <c r="X51" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y51" s="66">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>7.6166666666666674E-2</v>
       </c>
       <c r="Z51">
-        <f t="shared" ca="1" si="38"/>
-        <v>170.46257359125318</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>166.34241245136187</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.18035087719298246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="89">
         <v>50</v>
       </c>
       <c r="B52" s="100">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>59.5</v>
       </c>
       <c r="C52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D52" s="101">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>21.6</v>
       </c>
       <c r="E52" s="25">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.17300000000000001</v>
       </c>
       <c r="F52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="66">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>7.0599999999999996E-2</v>
       </c>
       <c r="H52" s="100">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>127</v>
       </c>
       <c r="I52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J52" s="101">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>28.2</v>
       </c>
       <c r="K52" s="25">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.65799999999999992</v>
       </c>
       <c r="L52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M52" s="66">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0.1656</v>
       </c>
       <c r="N52" s="100">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>241</v>
       </c>
       <c r="O52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P52" s="101">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>6.41</v>
       </c>
       <c r="Q52" s="25">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0.998</v>
       </c>
       <c r="R52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S52" s="66">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>3.4200000000000003E-3</v>
       </c>
       <c r="T52" s="98">
-        <f t="shared" ca="1" si="51"/>
-        <v>142.5</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>184</v>
       </c>
       <c r="U52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V52" s="72">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>17.305</v>
       </c>
       <c r="W52" s="25">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.60966666666666669</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.82799999999999996</v>
       </c>
       <c r="X52" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y52" s="66">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>8.4510000000000002E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" ca="1" si="38"/>
-        <v>233.73428102788409</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>222.22222222222223</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="89">
         <v>80</v>
       </c>
       <c r="B53" s="100">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>71.2</v>
       </c>
       <c r="C53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="101">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>26.9</v>
       </c>
       <c r="E53" s="25">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.14125000000000001</v>
       </c>
       <c r="F53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G53" s="66">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>6.5250000000000002E-2</v>
       </c>
       <c r="H53" s="100">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>207</v>
       </c>
       <c r="I53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J53" s="101">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>33.200000000000003</v>
       </c>
       <c r="K53" s="25">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.745</v>
       </c>
       <c r="L53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M53" s="66">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0.12875</v>
       </c>
       <c r="N53" s="100">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>285</v>
       </c>
       <c r="O53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P53" s="101">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>15.4</v>
       </c>
       <c r="Q53" s="25">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0.99375000000000002</v>
       </c>
       <c r="R53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S53" s="66">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="T53" s="98">
-        <f t="shared" ca="1" si="51"/>
-        <v>187.73333333333335</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>246</v>
       </c>
       <c r="U53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V53" s="72">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>24.3</v>
       </c>
       <c r="W53" s="25">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.62666666666666659</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.86937500000000001</v>
       </c>
       <c r="X53" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y53" s="66">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>6.5875000000000003E-2</v>
       </c>
       <c r="Z53">
-        <f t="shared" ca="1" si="38"/>
-        <v>299.57446808510645</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>282.96189791516895</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.28272357723577235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="89">
         <v>100</v>
       </c>
       <c r="B54" s="100">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>66.8</v>
       </c>
       <c r="C54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="101">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>20.9</v>
       </c>
       <c r="E54" s="25">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>0.11</v>
       </c>
       <c r="F54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G54" s="66">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="H54" s="100">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>227</v>
       </c>
       <c r="I54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J54" s="101">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>41.4</v>
       </c>
       <c r="K54" s="25">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.72599999999999998</v>
       </c>
       <c r="L54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M54" s="66">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="N54" s="100">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>300</v>
       </c>
       <c r="O54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P54" s="101">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>10.6</v>
       </c>
       <c r="Q54" s="25">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0.995</v>
       </c>
       <c r="R54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S54" s="66">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>2.8399999999999996E-3</v>
       </c>
       <c r="T54" s="98">
-        <f t="shared" ca="1" si="51"/>
-        <v>197.93333333333331</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>263.5</v>
       </c>
       <c r="U54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V54" s="72">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>26</v>
       </c>
       <c r="W54" s="25">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.61033333333333328</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.86050000000000004</v>
       </c>
       <c r="X54" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y54" s="66">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>7.1420000000000011E-2</v>
       </c>
       <c r="Z54">
-        <f t="shared" ca="1" si="38"/>
-        <v>324.30365920262153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>306.21731551423591</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.3265654648956357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="89">
         <v>200</v>
       </c>
       <c r="B55" s="100">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>60.1</v>
       </c>
       <c r="C55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="101">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>22.7</v>
       </c>
       <c r="E55" s="25">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>4.0750000000000001E-2</v>
       </c>
       <c r="F55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G55" s="66">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>1.6399999999999998E-2</v>
       </c>
       <c r="H55" s="100">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>325</v>
       </c>
       <c r="I55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J55" s="101">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>67.7</v>
       </c>
       <c r="K55" s="25">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.69499999999999995</v>
       </c>
       <c r="L55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M55" s="66">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0.152</v>
       </c>
       <c r="N55" s="100">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>270</v>
       </c>
       <c r="O55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P55" s="101">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>26.5</v>
       </c>
       <c r="Q55" s="25">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0.995</v>
       </c>
       <c r="R55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S55" s="66">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>3.2450000000000001E-3</v>
       </c>
       <c r="T55" s="98">
-        <f t="shared" ca="1" si="51"/>
-        <v>218.36666666666667</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>297.5</v>
       </c>
       <c r="U55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V55" s="72">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>47.1</v>
       </c>
       <c r="W55" s="25">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.57691666666666663</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.84499999999999997</v>
       </c>
       <c r="X55" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y55" s="66">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>7.7622499999999997E-2</v>
       </c>
       <c r="Z55">
-        <f t="shared" ca="1" si="38"/>
-        <v>378.50642784919836</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>352.07100591715977</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" ca="1" si="57"/>
+        <v>0.56806722689075628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="89">
         <v>500</v>
       </c>
       <c r="B56" s="100">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>79.8</v>
       </c>
       <c r="C56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="D56" s="101">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>34.4</v>
       </c>
       <c r="E56" s="25">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="F56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="G56" s="66">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>1.3779999999999999E-2</v>
       </c>
       <c r="H56" s="100">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>560</v>
       </c>
       <c r="I56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="J56" s="101">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>82.5</v>
       </c>
       <c r="K56" s="25">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.69199999999999995</v>
       </c>
       <c r="L56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="M56" s="66">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>0.1046</v>
       </c>
       <c r="N56" s="100">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>232</v>
       </c>
       <c r="O56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P56" s="101">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>7</v>
       </c>
       <c r="Q56" s="25">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0.998</v>
       </c>
       <c r="R56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S56" s="66">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>9.1600000000000004E-4</v>
       </c>
       <c r="T56" s="98">
-        <f t="shared" ca="1" si="51"/>
-        <v>290.59999999999997</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>396</v>
       </c>
       <c r="U56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V56" s="72">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>44.75</v>
       </c>
       <c r="W56" s="25">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.57199999999999995</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.84499999999999997</v>
       </c>
       <c r="X56" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y56" s="66">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>5.2757999999999999E-2</v>
       </c>
       <c r="Z56">
-        <f t="shared" ca="1" si="38"/>
-        <v>508.04195804195803</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>468.6390532544379</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" ca="1" si="57"/>
+        <v>1.0669191919191918</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="90">
         <v>1000</v>
       </c>
       <c r="B57" s="102">
-        <f t="shared" ca="1" si="39"/>
+        <f t="shared" ca="1" si="41"/>
         <v>108</v>
       </c>
       <c r="C57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="D57" s="103">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>33.5</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>1.55E-2</v>
       </c>
       <c r="F57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="G57" s="67">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>5.7800000000000004E-3</v>
       </c>
       <c r="H57" s="102">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>739</v>
       </c>
       <c r="I57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="J57" s="103">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>80.8</v>
       </c>
       <c r="K57" s="26">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>0.64500000000000002</v>
       </c>
       <c r="L57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="M57" s="67">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>8.1500000000000003E-2</v>
       </c>
       <c r="N57" s="102">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="49"/>
         <v>250</v>
       </c>
       <c r="O57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P57" s="103">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>16.600000000000001</v>
       </c>
       <c r="Q57" s="26">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>0.998</v>
       </c>
       <c r="R57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S57" s="67">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>1.3500000000000001E-3</v>
       </c>
       <c r="T57" s="99">
-        <f t="shared" ca="1" si="51"/>
-        <v>365.66666666666669</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>494.5</v>
       </c>
       <c r="U57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V57" s="73">
-        <f t="shared" ca="1" si="52"/>
+        <f t="shared" ca="1" si="54"/>
         <v>48.7</v>
       </c>
       <c r="W57" s="26">
-        <f t="shared" ca="1" si="53"/>
-        <v>0.5528333333333334</v>
+        <f t="shared" ca="1" si="55"/>
+        <v>0.82150000000000001</v>
       </c>
       <c r="X57" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y57" s="67">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>4.1425000000000003E-2</v>
       </c>
       <c r="Z57">
-        <f t="shared" ca="1" si="38"/>
-        <v>661.44106119987941</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <f t="shared" ca="1" si="40"/>
+        <v>601.94765672550216</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" ca="1" si="57"/>
+        <v>1.6612740141557127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="196" t="s">
         <v>28</v>
       </c>
@@ -26346,7 +28940,7 @@
       <c r="X59" s="239"/>
       <c r="Y59" s="240"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:27">
       <c r="A60" s="197"/>
       <c r="B60" s="241" t="s">
         <v>29</v>
@@ -26381,7 +28975,7 @@
       <c r="X60" s="239"/>
       <c r="Y60" s="240"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:27">
       <c r="A61" s="198"/>
       <c r="B61" s="115" t="s">
         <v>26</v>
@@ -26442,8 +29036,11 @@
       <c r="Z61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="88">
         <v>2</v>
       </c>
@@ -26512,11 +29109,15 @@
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="shared" ref="Z62:Z71" ca="1" si="55">T62/W62</f>
+        <f t="shared" ref="Z62:Z71" ca="1" si="58">T62/W62</f>
         <v>13.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62">
+        <f ca="1">(W62*A62)/T62</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="89">
         <v>5</v>
       </c>
@@ -26541,55 +29142,59 @@
       </c>
       <c r="M63" s="66"/>
       <c r="N63" s="100">
-        <f t="shared" ref="N63:N71" ca="1" si="56">INDIRECT($A63&amp;"!$BP$57")</f>
+        <f t="shared" ref="N63:N71" ca="1" si="59">INDIRECT($A63&amp;"!$BP$57")</f>
         <v>39.200000000000003</v>
       </c>
       <c r="O63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P63" s="101">
-        <f t="shared" ref="P63:P71" ca="1" si="57">INDIRECT($A63&amp;"!$BQ$57")</f>
+        <f t="shared" ref="P63:P71" ca="1" si="60">INDIRECT($A63&amp;"!$BQ$57")</f>
         <v>3.69</v>
       </c>
       <c r="Q63" s="25">
-        <f t="shared" ref="Q63:Q71" ca="1" si="58">INDIRECT($A63&amp;"!$BT$57")</f>
+        <f t="shared" ref="Q63:Q71" ca="1" si="61">INDIRECT($A63&amp;"!$BT$57")</f>
         <v>0.96</v>
       </c>
       <c r="R63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S63" s="66">
-        <f t="shared" ref="S63:S71" ca="1" si="59">INDIRECT($A63&amp;"!$BU$57")</f>
+        <f t="shared" ref="S63:S71" ca="1" si="62">INDIRECT($A63&amp;"!$BU$57")</f>
         <v>6.5200000000000008E-2</v>
       </c>
       <c r="T63" s="98">
-        <f t="shared" ref="T63:T71" ca="1" si="60">AVERAGE(N63)</f>
+        <f t="shared" ref="T63:T71" ca="1" si="63">AVERAGE(N63)</f>
         <v>39.200000000000003</v>
       </c>
       <c r="U63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V63" s="72">
-        <f t="shared" ref="V63:V71" ca="1" si="61">P63</f>
+        <f t="shared" ref="V63:V71" ca="1" si="64">P63</f>
         <v>3.69</v>
       </c>
       <c r="W63" s="25">
-        <f t="shared" ref="W63:W71" ca="1" si="62">AVERAGE(Q63)</f>
+        <f t="shared" ref="W63:W71" ca="1" si="65">AVERAGE(Q63)</f>
         <v>0.96</v>
       </c>
       <c r="X63" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y63" s="66">
-        <f t="shared" ref="Y63:Y71" ca="1" si="63">S63</f>
+        <f t="shared" ref="Y63:Y71" ca="1" si="66">S63</f>
         <v>6.5200000000000008E-2</v>
       </c>
       <c r="Z63">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>40.833333333333336</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63">
+        <f t="shared" ref="AA63:AA71" ca="1" si="67">(W63*A63)/T63</f>
+        <v>0.12244897959183672</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="89">
         <v>10</v>
       </c>
@@ -26614,55 +29219,59 @@
       </c>
       <c r="M64" s="66"/>
       <c r="N64" s="100">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>65.7</v>
       </c>
       <c r="O64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P64" s="101">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>5.27</v>
       </c>
       <c r="Q64" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.97</v>
       </c>
       <c r="R64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S64" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>5.28E-2</v>
       </c>
       <c r="T64" s="98">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>65.7</v>
       </c>
       <c r="U64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V64" s="72">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>5.27</v>
       </c>
       <c r="W64" s="25">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.97</v>
       </c>
       <c r="X64" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y64" s="66">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>5.28E-2</v>
       </c>
       <c r="Z64">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>67.731958762886606</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.14764079147640791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="89">
         <v>30</v>
       </c>
@@ -26687,55 +29296,59 @@
       </c>
       <c r="M65" s="66"/>
       <c r="N65" s="100">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>111</v>
       </c>
       <c r="O65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P65" s="101">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>18.2</v>
       </c>
       <c r="Q65" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.90333333333333343</v>
       </c>
       <c r="R65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S65" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.125</v>
       </c>
       <c r="T65" s="98">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>111</v>
       </c>
       <c r="U65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V65" s="72">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>18.2</v>
       </c>
       <c r="W65" s="25">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.90333333333333343</v>
       </c>
       <c r="X65" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y65" s="66">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0.125</v>
       </c>
       <c r="Z65">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>122.87822878228781</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.24414414414414415</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="89">
         <v>50</v>
       </c>
@@ -26760,55 +29373,59 @@
       </c>
       <c r="M66" s="66"/>
       <c r="N66" s="100">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>143</v>
       </c>
       <c r="O66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P66" s="101">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>20.399999999999999</v>
       </c>
       <c r="Q66" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.9</v>
       </c>
       <c r="R66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S66" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.10800000000000001</v>
       </c>
       <c r="T66" s="98">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>143</v>
       </c>
       <c r="U66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V66" s="72">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>20.399999999999999</v>
       </c>
       <c r="W66" s="25">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.9</v>
       </c>
       <c r="X66" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y66" s="66">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0.10800000000000001</v>
       </c>
       <c r="Z66">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>158.88888888888889</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.31468531468531469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="89">
         <v>80</v>
       </c>
@@ -26833,55 +29450,59 @@
       </c>
       <c r="M67" s="66"/>
       <c r="N67" s="100">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>187</v>
       </c>
       <c r="O67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P67" s="101">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>14.8</v>
       </c>
       <c r="Q67" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.95749999999999991</v>
       </c>
       <c r="R67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S67" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>4.2249999999999996E-2</v>
       </c>
       <c r="T67" s="98">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>187</v>
       </c>
       <c r="U67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V67" s="72">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>14.8</v>
       </c>
       <c r="W67" s="25">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.95749999999999991</v>
       </c>
       <c r="X67" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y67" s="66">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>4.2249999999999996E-2</v>
       </c>
       <c r="Z67">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>195.30026109660577</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.40962566844919784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="89">
         <v>100</v>
       </c>
@@ -26906,55 +29527,59 @@
       </c>
       <c r="M68" s="66"/>
       <c r="N68" s="100">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>210</v>
       </c>
       <c r="O68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P68" s="101">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>13.8</v>
       </c>
       <c r="Q68" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.98</v>
       </c>
       <c r="R68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S68" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>1.44E-2</v>
       </c>
       <c r="T68" s="98">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>210</v>
       </c>
       <c r="U68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V68" s="72">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>13.8</v>
       </c>
       <c r="W68" s="25">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.98</v>
       </c>
       <c r="X68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y68" s="66">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>1.44E-2</v>
       </c>
       <c r="Z68">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>214.28571428571428</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="89">
         <v>200</v>
       </c>
@@ -26979,55 +29604,59 @@
       </c>
       <c r="M69" s="66"/>
       <c r="N69" s="100">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>279</v>
       </c>
       <c r="O69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P69" s="101">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>45.7</v>
       </c>
       <c r="Q69" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.875</v>
       </c>
       <c r="R69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S69" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="T69" s="98">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>279</v>
       </c>
       <c r="U69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V69" s="72">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>45.7</v>
       </c>
       <c r="W69" s="25">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.875</v>
       </c>
       <c r="X69" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y69" s="66">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>0.13600000000000001</v>
       </c>
       <c r="Z69">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>318.85714285714283</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69">
+        <f t="shared" ca="1" si="67"/>
+        <v>0.62724014336917566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="89">
         <v>500</v>
       </c>
@@ -27052,55 +29681,59 @@
       </c>
       <c r="M70" s="66"/>
       <c r="N70" s="100">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>433</v>
       </c>
       <c r="O70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P70" s="101">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>47.5</v>
       </c>
       <c r="Q70" s="25">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.9</v>
       </c>
       <c r="R70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S70" s="66">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="T70" s="98">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>433</v>
       </c>
       <c r="U70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V70" s="72">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>47.5</v>
       </c>
       <c r="W70" s="25">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.9</v>
       </c>
       <c r="X70" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y70" s="66">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="Z70">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>481.11111111111109</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.0392609699769053</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" s="90">
         <v>1000</v>
       </c>
@@ -27125,55 +29758,59 @@
       </c>
       <c r="M71" s="67"/>
       <c r="N71" s="102">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="59"/>
         <v>562</v>
       </c>
       <c r="O71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P71" s="103">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="60"/>
         <v>43.7</v>
       </c>
       <c r="Q71" s="26">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="61"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="R71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S71" s="67">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="62"/>
         <v>1.3300000000000001E-2</v>
       </c>
       <c r="T71" s="99">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="63"/>
         <v>562</v>
       </c>
       <c r="U71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V71" s="73">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="64"/>
         <v>43.7</v>
       </c>
       <c r="W71" s="26">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="65"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="X71" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y71" s="67">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="66"/>
         <v>1.3300000000000001E-2</v>
       </c>
       <c r="Z71">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="58"/>
         <v>605.60344827586209</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA71">
+        <f t="shared" ca="1" si="67"/>
+        <v>1.6512455516014235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="196" t="s">
         <v>28</v>
       </c>
@@ -27204,7 +29841,7 @@
       <c r="X73" s="208"/>
       <c r="Y73" s="209"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:27">
       <c r="A74" s="197"/>
       <c r="B74" s="210" t="s">
         <v>29</v>
@@ -27239,7 +29876,7 @@
       <c r="X74" s="208"/>
       <c r="Y74" s="209"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:27">
       <c r="A75" s="198"/>
       <c r="B75" s="138" t="s">
         <v>26</v>
@@ -27300,8 +29937,11 @@
       <c r="Z75" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="88">
         <v>2</v>
       </c>
@@ -27355,7 +29995,7 @@
         <v>42</v>
       </c>
       <c r="V76" s="71">
-        <f t="shared" ref="V76:V85" ca="1" si="64">P76</f>
+        <f t="shared" ref="V76:V85" ca="1" si="68">P76</f>
         <v>2.75</v>
       </c>
       <c r="W76" s="24">
@@ -27366,15 +30006,19 @@
         <v>42</v>
       </c>
       <c r="Y76" s="71">
-        <f t="shared" ref="Y76:Y85" ca="1" si="65">S76</f>
+        <f t="shared" ref="Y76:Y85" ca="1" si="69">S76</f>
         <v>0.104</v>
       </c>
       <c r="Z76">
         <f ca="1">T76/W76</f>
         <v>11.337142857142856</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76">
+        <f ca="1">(W76*A76)/T76</f>
+        <v>0.17641129032258066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="89">
         <v>5</v>
       </c>
@@ -27399,55 +30043,59 @@
       </c>
       <c r="M77" s="66"/>
       <c r="N77" s="100">
-        <f t="shared" ref="N77:N85" ca="1" si="66">INDIRECT($A77&amp;"!$CE$57")</f>
+        <f t="shared" ref="N77:N85" ca="1" si="70">INDIRECT($A77&amp;"!$CE$57")</f>
         <v>29.6</v>
       </c>
       <c r="O77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P77" s="101">
-        <f t="shared" ref="P77:P85" ca="1" si="67">INDIRECT($A77&amp;"!$CF$57")</f>
+        <f t="shared" ref="P77:P85" ca="1" si="71">INDIRECT($A77&amp;"!$CF$57")</f>
         <v>5.99</v>
       </c>
       <c r="Q77" s="25">
-        <f t="shared" ref="Q77:Q85" ca="1" si="68">INDIRECT($A77&amp;"!$CI$57")</f>
+        <f t="shared" ref="Q77:Q85" ca="1" si="72">INDIRECT($A77&amp;"!$CI$57")</f>
         <v>0.72</v>
       </c>
       <c r="R77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S77" s="95">
-        <f t="shared" ref="S77:S85" ca="1" si="69">INDIRECT($A77&amp;"!$CJ$57")</f>
+        <f t="shared" ref="S77:S85" ca="1" si="73">INDIRECT($A77&amp;"!$CJ$57")</f>
         <v>0.1152</v>
       </c>
       <c r="T77" s="160">
-        <f t="shared" ref="T77:T85" ca="1" si="70">AVERAGE(N77)</f>
+        <f t="shared" ref="T77:T85" ca="1" si="74">AVERAGE(N77)</f>
         <v>29.6</v>
       </c>
       <c r="U77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V77" s="72">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="68"/>
         <v>5.99</v>
       </c>
       <c r="W77" s="25">
-        <f t="shared" ref="W77:W85" ca="1" si="71">AVERAGE(Q77)</f>
+        <f t="shared" ref="W77:W85" ca="1" si="75">AVERAGE(Q77)</f>
         <v>0.72</v>
       </c>
       <c r="X77" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y77" s="66">
-        <f t="shared" ca="1" si="65"/>
+        <f t="shared" ca="1" si="69"/>
         <v>0.1152</v>
       </c>
       <c r="Z77">
-        <f t="shared" ref="Z77:Z85" ca="1" si="72">T77/W77</f>
+        <f t="shared" ref="Z77:Z85" ca="1" si="76">T77/W77</f>
         <v>41.111111111111114</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77">
+        <f t="shared" ref="AA77:AA85" ca="1" si="77">(W77*A77)/T77</f>
+        <v>0.1216216216216216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" s="89">
         <v>10</v>
       </c>
@@ -27472,55 +30120,59 @@
       </c>
       <c r="M78" s="66"/>
       <c r="N78" s="100">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>50.3</v>
       </c>
       <c r="O78" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P78" s="101">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>9.89</v>
       </c>
       <c r="Q78" s="25">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0.66500000000000004</v>
       </c>
       <c r="R78" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S78" s="95">
+        <f t="shared" ca="1" si="73"/>
+        <v>0.128</v>
+      </c>
+      <c r="T78" s="160">
+        <f t="shared" ca="1" si="74"/>
+        <v>50.3</v>
+      </c>
+      <c r="U78" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V78" s="72">
+        <f t="shared" ca="1" si="68"/>
+        <v>9.89</v>
+      </c>
+      <c r="W78" s="25">
+        <f t="shared" ca="1" si="75"/>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="X78" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y78" s="66">
         <f t="shared" ca="1" si="69"/>
         <v>0.128</v>
       </c>
-      <c r="T78" s="160">
-        <f t="shared" ca="1" si="70"/>
-        <v>50.3</v>
-      </c>
-      <c r="U78" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V78" s="72">
-        <f t="shared" ca="1" si="64"/>
-        <v>9.89</v>
-      </c>
-      <c r="W78" s="25">
-        <f t="shared" ca="1" si="71"/>
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="X78" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y78" s="66">
-        <f t="shared" ca="1" si="65"/>
-        <v>0.128</v>
-      </c>
       <c r="Z78">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>75.639097744360896</v>
       </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.13220675944333998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="89">
         <v>30</v>
       </c>
@@ -27545,55 +30197,59 @@
       </c>
       <c r="M79" s="66"/>
       <c r="N79" s="100">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>93.5</v>
       </c>
       <c r="O79" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P79" s="101">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>20.399999999999999</v>
       </c>
       <c r="Q79" s="25">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0.53999999999999992</v>
       </c>
       <c r="R79" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S79" s="95">
+        <f t="shared" ca="1" si="73"/>
+        <v>0.13833333333333334</v>
+      </c>
+      <c r="T79" s="160">
+        <f t="shared" ca="1" si="74"/>
+        <v>93.5</v>
+      </c>
+      <c r="U79" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V79" s="72">
+        <f t="shared" ca="1" si="68"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W79" s="25">
+        <f t="shared" ca="1" si="75"/>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="X79" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y79" s="66">
         <f t="shared" ca="1" si="69"/>
         <v>0.13833333333333334</v>
       </c>
-      <c r="T79" s="160">
-        <f t="shared" ca="1" si="70"/>
-        <v>93.5</v>
-      </c>
-      <c r="U79" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V79" s="72">
-        <f t="shared" ca="1" si="64"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="W79" s="25">
-        <f t="shared" ca="1" si="71"/>
-        <v>0.53999999999999992</v>
-      </c>
-      <c r="X79" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y79" s="66">
-        <f t="shared" ca="1" si="65"/>
-        <v>0.13833333333333334</v>
-      </c>
       <c r="Z79">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>173.14814814814818</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.17326203208556148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="89">
         <v>50</v>
       </c>
@@ -27618,55 +30274,59 @@
       </c>
       <c r="M80" s="66"/>
       <c r="N80" s="100">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>97.1</v>
       </c>
       <c r="O80" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P80" s="101">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>30.4</v>
       </c>
       <c r="Q80" s="25">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0.35</v>
       </c>
       <c r="R80" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S80" s="95">
+        <f t="shared" ca="1" si="73"/>
+        <v>0.1176</v>
+      </c>
+      <c r="T80" s="160">
+        <f t="shared" ca="1" si="74"/>
+        <v>97.1</v>
+      </c>
+      <c r="U80" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V80" s="72">
+        <f t="shared" ca="1" si="68"/>
+        <v>30.4</v>
+      </c>
+      <c r="W80" s="25">
+        <f t="shared" ca="1" si="75"/>
+        <v>0.35</v>
+      </c>
+      <c r="X80" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y80" s="66">
         <f t="shared" ca="1" si="69"/>
         <v>0.1176</v>
       </c>
-      <c r="T80" s="160">
-        <f t="shared" ca="1" si="70"/>
-        <v>97.1</v>
-      </c>
-      <c r="U80" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V80" s="72">
-        <f t="shared" ca="1" si="64"/>
-        <v>30.4</v>
-      </c>
-      <c r="W80" s="25">
-        <f t="shared" ca="1" si="71"/>
-        <v>0.35</v>
-      </c>
-      <c r="X80" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y80" s="66">
-        <f t="shared" ca="1" si="65"/>
-        <v>0.1176</v>
-      </c>
       <c r="Z80">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>277.42857142857144</v>
       </c>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.18022657054582905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" s="89">
         <v>80</v>
       </c>
@@ -27691,55 +30351,59 @@
       </c>
       <c r="M81" s="66"/>
       <c r="N81" s="100">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>128</v>
       </c>
       <c r="O81" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P81" s="101">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>36.799999999999997</v>
       </c>
       <c r="Q81" s="25">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0.33875</v>
       </c>
       <c r="R81" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S81" s="95">
+        <f t="shared" ca="1" si="73"/>
+        <v>0.122125</v>
+      </c>
+      <c r="T81" s="160">
+        <f t="shared" ca="1" si="74"/>
+        <v>128</v>
+      </c>
+      <c r="U81" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V81" s="72">
+        <f t="shared" ca="1" si="68"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="W81" s="25">
+        <f t="shared" ca="1" si="75"/>
+        <v>0.33875</v>
+      </c>
+      <c r="X81" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y81" s="66">
         <f t="shared" ca="1" si="69"/>
         <v>0.122125</v>
       </c>
-      <c r="T81" s="160">
-        <f t="shared" ca="1" si="70"/>
-        <v>128</v>
-      </c>
-      <c r="U81" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V81" s="72">
-        <f t="shared" ca="1" si="64"/>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="W81" s="25">
-        <f t="shared" ca="1" si="71"/>
-        <v>0.33875</v>
-      </c>
-      <c r="X81" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y81" s="66">
-        <f t="shared" ca="1" si="65"/>
-        <v>0.122125</v>
-      </c>
       <c r="Z81">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>377.85977859778598</v>
       </c>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.21171875000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" s="89">
         <v>100</v>
       </c>
@@ -27764,55 +30428,59 @@
       </c>
       <c r="M82" s="66"/>
       <c r="N82" s="100">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>166</v>
       </c>
       <c r="O82" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P82" s="101">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>50.4</v>
       </c>
       <c r="Q82" s="25">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="R82" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S82" s="95">
+        <f t="shared" ca="1" si="73"/>
+        <v>0.105</v>
+      </c>
+      <c r="T82" s="160">
+        <f t="shared" ca="1" si="74"/>
+        <v>166</v>
+      </c>
+      <c r="U82" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V82" s="72">
+        <f t="shared" ca="1" si="68"/>
+        <v>50.4</v>
+      </c>
+      <c r="W82" s="25">
+        <f t="shared" ca="1" si="75"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="X82" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y82" s="66">
         <f t="shared" ca="1" si="69"/>
         <v>0.105</v>
       </c>
-      <c r="T82" s="160">
-        <f t="shared" ca="1" si="70"/>
-        <v>166</v>
-      </c>
-      <c r="U82" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V82" s="72">
-        <f t="shared" ca="1" si="64"/>
-        <v>50.4</v>
-      </c>
-      <c r="W82" s="25">
-        <f t="shared" ca="1" si="71"/>
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="X82" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y82" s="66">
-        <f t="shared" ca="1" si="65"/>
-        <v>0.105</v>
-      </c>
       <c r="Z82">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>485.38011695906431</v>
       </c>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.2060240963855422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" s="89">
         <v>200</v>
       </c>
@@ -27837,55 +30505,59 @@
       </c>
       <c r="M83" s="66"/>
       <c r="N83" s="100">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>215</v>
       </c>
       <c r="O83" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P83" s="101">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>86.8</v>
       </c>
       <c r="Q83" s="25">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0.24399999999999999</v>
       </c>
       <c r="R83" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S83" s="95">
+        <f t="shared" ca="1" si="73"/>
+        <v>0.111</v>
+      </c>
+      <c r="T83" s="160">
+        <f t="shared" ca="1" si="74"/>
+        <v>215</v>
+      </c>
+      <c r="U83" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V83" s="72">
+        <f t="shared" ca="1" si="68"/>
+        <v>86.8</v>
+      </c>
+      <c r="W83" s="25">
+        <f t="shared" ca="1" si="75"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="X83" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y83" s="66">
         <f t="shared" ca="1" si="69"/>
         <v>0.111</v>
       </c>
-      <c r="T83" s="160">
-        <f t="shared" ca="1" si="70"/>
-        <v>215</v>
-      </c>
-      <c r="U83" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V83" s="72">
-        <f t="shared" ca="1" si="64"/>
-        <v>86.8</v>
-      </c>
-      <c r="W83" s="25">
-        <f t="shared" ca="1" si="71"/>
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="X83" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y83" s="66">
-        <f t="shared" ca="1" si="65"/>
-        <v>0.111</v>
-      </c>
       <c r="Z83">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>881.14754098360663</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.22697674418604649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" s="89">
         <v>500</v>
       </c>
@@ -27910,55 +30582,59 @@
       </c>
       <c r="M84" s="66"/>
       <c r="N84" s="100">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>227</v>
       </c>
       <c r="O84" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P84" s="101">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>75</v>
       </c>
       <c r="Q84" s="25">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>0.1394</v>
       </c>
       <c r="R84" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S84" s="95">
+        <f t="shared" ca="1" si="73"/>
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="T84" s="160">
+        <f t="shared" ca="1" si="74"/>
+        <v>227</v>
+      </c>
+      <c r="U84" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="V84" s="72">
+        <f t="shared" ca="1" si="68"/>
+        <v>75</v>
+      </c>
+      <c r="W84" s="25">
+        <f t="shared" ca="1" si="75"/>
+        <v>0.1394</v>
+      </c>
+      <c r="X84" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y84" s="66">
         <f t="shared" ca="1" si="69"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="T84" s="160">
-        <f t="shared" ca="1" si="70"/>
-        <v>227</v>
-      </c>
-      <c r="U84" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="V84" s="72">
-        <f t="shared" ca="1" si="64"/>
-        <v>75</v>
-      </c>
-      <c r="W84" s="25">
-        <f t="shared" ca="1" si="71"/>
-        <v>0.1394</v>
-      </c>
-      <c r="X84" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y84" s="66">
-        <f t="shared" ca="1" si="65"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
       <c r="Z84">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>1628.4074605451938</v>
       </c>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.30704845814977977</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" s="90">
         <v>1000</v>
       </c>
@@ -27983,55 +30659,59 @@
       </c>
       <c r="M85" s="67"/>
       <c r="N85" s="102">
-        <f t="shared" ca="1" si="66"/>
+        <f t="shared" ca="1" si="70"/>
         <v>280</v>
       </c>
       <c r="O85" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P85" s="103">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="71"/>
         <v>87.8</v>
       </c>
       <c r="Q85" s="26">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="72"/>
         <v>9.69E-2</v>
       </c>
       <c r="R85" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S85" s="96">
+        <f t="shared" ca="1" si="73"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="T85" s="161">
+        <f t="shared" ca="1" si="74"/>
+        <v>280</v>
+      </c>
+      <c r="U85" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="V85" s="73">
+        <f t="shared" ca="1" si="68"/>
+        <v>87.8</v>
+      </c>
+      <c r="W85" s="26">
+        <f t="shared" ca="1" si="75"/>
+        <v>9.69E-2</v>
+      </c>
+      <c r="X85" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y85" s="67">
         <f t="shared" ca="1" si="69"/>
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="T85" s="161">
-        <f t="shared" ca="1" si="70"/>
-        <v>280</v>
-      </c>
-      <c r="U85" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="V85" s="73">
-        <f t="shared" ca="1" si="64"/>
-        <v>87.8</v>
-      </c>
-      <c r="W85" s="26">
-        <f t="shared" ca="1" si="71"/>
-        <v>9.69E-2</v>
-      </c>
-      <c r="X85" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y85" s="67">
-        <f t="shared" ca="1" si="65"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
       <c r="Z85">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="76"/>
         <v>2889.5768833849329</v>
       </c>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA85">
+        <f t="shared" ca="1" si="77"/>
+        <v>0.34607142857142859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="196" t="s">
         <v>28</v>
       </c>
@@ -28062,7 +30742,7 @@
       <c r="X87" s="200"/>
       <c r="Y87" s="201"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:27">
       <c r="A88" s="197"/>
       <c r="B88" s="202" t="s">
         <v>29</v>
@@ -28097,7 +30777,7 @@
       <c r="X88" s="200"/>
       <c r="Y88" s="201"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:27">
       <c r="A89" s="198"/>
       <c r="B89" s="142" t="s">
         <v>26</v>
@@ -28158,8 +30838,11 @@
       <c r="Z89" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" s="88">
         <v>2</v>
       </c>
@@ -28213,7 +30896,7 @@
         <v>42</v>
       </c>
       <c r="V90" s="71">
-        <f t="shared" ref="V90:V99" ca="1" si="73">P90</f>
+        <f t="shared" ref="V90:V99" ca="1" si="78">P90</f>
         <v>3.03</v>
       </c>
       <c r="W90" s="24">
@@ -28224,15 +30907,19 @@
         <v>42</v>
       </c>
       <c r="Y90" s="71">
-        <f t="shared" ref="Y90:Y99" ca="1" si="74">S90</f>
+        <f t="shared" ref="Y90:Y99" ca="1" si="79">S90</f>
         <v>0.1145</v>
       </c>
       <c r="Z90">
         <f ca="1">T90/W90</f>
         <v>6.8592592592592583</v>
       </c>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90">
+        <f ca="1">(W90*A90)/T90</f>
+        <v>0.29157667386609076</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" s="89">
         <v>5</v>
       </c>
@@ -28257,55 +30944,59 @@
       </c>
       <c r="M91" s="66"/>
       <c r="N91" s="100">
-        <f t="shared" ref="N91:N99" ca="1" si="75">INDIRECT($A91&amp;"!$CT$57")</f>
+        <f t="shared" ref="N91:N99" ca="1" si="80">INDIRECT($A91&amp;"!$CT$57")</f>
         <v>7.23</v>
       </c>
       <c r="O91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P91" s="101">
-        <f t="shared" ref="P91:P99" ca="1" si="76">INDIRECT($A91&amp;"!$CU$57")</f>
+        <f t="shared" ref="P91:P99" ca="1" si="81">INDIRECT($A91&amp;"!$CU$57")</f>
         <v>3.69</v>
       </c>
       <c r="Q91" s="25">
-        <f t="shared" ref="Q91:Q99" ca="1" si="77">INDIRECT($A91&amp;"!$CX$57")</f>
+        <f t="shared" ref="Q91:Q99" ca="1" si="82">INDIRECT($A91&amp;"!$CX$57")</f>
         <v>0.31</v>
       </c>
       <c r="R91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S91" s="95">
-        <f t="shared" ref="S91:S99" ca="1" si="78">INDIRECT($A91&amp;"!$CY$57")</f>
+        <f t="shared" ref="S91:S99" ca="1" si="83">INDIRECT($A91&amp;"!$CY$57")</f>
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="T91" s="160">
-        <f t="shared" ref="T91:T99" ca="1" si="79">AVERAGE(N91)</f>
+        <f t="shared" ref="T91:T99" ca="1" si="84">AVERAGE(N91)</f>
         <v>7.23</v>
       </c>
       <c r="U91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V91" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>3.69</v>
       </c>
       <c r="W91" s="25">
-        <f t="shared" ref="W91:W99" ca="1" si="80">AVERAGE(Q91)</f>
+        <f t="shared" ref="W91:W99" ca="1" si="85">AVERAGE(Q91)</f>
         <v>0.31</v>
       </c>
       <c r="X91" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y91" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="Z91">
-        <f t="shared" ref="Z91:Z98" ca="1" si="81">T91/W91</f>
+        <f t="shared" ref="Z91:Z98" ca="1" si="86">T91/W91</f>
         <v>23.322580645161292</v>
       </c>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91">
+        <f t="shared" ref="AA91:AA99" ca="1" si="87">(W91*A91)/T91</f>
+        <v>0.21438450899031811</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" s="89">
         <v>10</v>
       </c>
@@ -28330,55 +31021,59 @@
       </c>
       <c r="M92" s="66"/>
       <c r="N92" s="100">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>6.52</v>
       </c>
       <c r="O92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P92" s="101">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>4.16</v>
       </c>
       <c r="Q92" s="25">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>0.15</v>
       </c>
       <c r="R92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S92" s="95">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="T92" s="160">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>6.52</v>
       </c>
       <c r="U92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V92" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>4.16</v>
       </c>
       <c r="W92" s="25">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0.15</v>
       </c>
       <c r="X92" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y92" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="Z92">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="86"/>
         <v>43.466666666666669</v>
       </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.23006134969325154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" s="89">
         <v>30</v>
       </c>
@@ -28403,55 +31098,59 @@
       </c>
       <c r="M93" s="66"/>
       <c r="N93" s="100">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>17.399999999999999</v>
       </c>
       <c r="O93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P93" s="101">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>8.85</v>
       </c>
       <c r="Q93" s="25">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="R93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S93" s="95">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>2.7033333333333336E-2</v>
       </c>
       <c r="T93" s="160">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>17.399999999999999</v>
       </c>
       <c r="U93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V93" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>8.85</v>
       </c>
       <c r="W93" s="25">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="X93" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y93" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>2.7033333333333336E-2</v>
       </c>
       <c r="Z93">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="86"/>
         <v>208.79999999999998</v>
       </c>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.14367816091954025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" s="89">
         <v>50</v>
       </c>
@@ -28476,55 +31175,59 @@
       </c>
       <c r="M94" s="66"/>
       <c r="N94" s="100">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>11</v>
       </c>
       <c r="O94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P94" s="101">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>9.5299999999999994</v>
       </c>
       <c r="Q94" s="25">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>0.04</v>
       </c>
       <c r="R94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S94" s="95">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1.8959999999999998E-2</v>
       </c>
       <c r="T94" s="160">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>11</v>
       </c>
       <c r="U94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V94" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>9.5299999999999994</v>
       </c>
       <c r="W94" s="25">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>0.04</v>
       </c>
       <c r="X94" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y94" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>1.8959999999999998E-2</v>
       </c>
       <c r="Z94">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="86"/>
         <v>275</v>
       </c>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" s="89">
         <v>80</v>
       </c>
@@ -28549,55 +31252,59 @@
       </c>
       <c r="M95" s="66"/>
       <c r="N95" s="100">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>16.2</v>
       </c>
       <c r="O95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P95" s="101">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>7.19</v>
       </c>
       <c r="Q95" s="25">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>3.125E-2</v>
       </c>
       <c r="R95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S95" s="95">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="T95" s="160">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>16.2</v>
       </c>
       <c r="U95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V95" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>7.19</v>
       </c>
       <c r="W95" s="25">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>3.125E-2</v>
       </c>
       <c r="X95" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y95" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="Z95">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="86"/>
         <v>518.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.15432098765432101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" s="89">
         <v>100</v>
       </c>
@@ -28622,55 +31329,59 @@
       </c>
       <c r="M96" s="66"/>
       <c r="N96" s="100">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>21.7</v>
       </c>
       <c r="O96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P96" s="101">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>12.3</v>
       </c>
       <c r="Q96" s="25">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="R96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S96" s="95">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1.18E-2</v>
       </c>
       <c r="T96" s="160">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>21.7</v>
       </c>
       <c r="U96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V96" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>12.3</v>
       </c>
       <c r="W96" s="25">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="X96" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y96" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>1.18E-2</v>
       </c>
       <c r="Z96">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="86"/>
         <v>748.27586206896558</v>
       </c>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.13364055299539171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" s="89">
         <v>200</v>
       </c>
@@ -28695,55 +31406,59 @@
       </c>
       <c r="M97" s="66"/>
       <c r="N97" s="100">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>13.6</v>
       </c>
       <c r="O97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P97" s="101">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>6.91</v>
       </c>
       <c r="Q97" s="25">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="R97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S97" s="95">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>4.065E-3</v>
       </c>
       <c r="T97" s="160">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>13.6</v>
       </c>
       <c r="U97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V97" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>6.91</v>
       </c>
       <c r="W97" s="25">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>1.0749999999999999E-2</v>
       </c>
       <c r="X97" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y97" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>4.065E-3</v>
       </c>
       <c r="Z97">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="86"/>
         <v>1265.1162790697674</v>
       </c>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AA97">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.15808823529411764</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" s="89">
         <v>500</v>
       </c>
@@ -28768,55 +31483,59 @@
       </c>
       <c r="M98" s="66"/>
       <c r="N98" s="100">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>11.5</v>
       </c>
       <c r="O98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="P98" s="101">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>7.82</v>
       </c>
       <c r="Q98" s="25">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>3.8E-3</v>
       </c>
       <c r="R98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="S98" s="95">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>1.248E-3</v>
       </c>
       <c r="T98" s="160">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>11.5</v>
       </c>
       <c r="U98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="V98" s="72">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>7.82</v>
       </c>
       <c r="W98" s="25">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>3.8E-3</v>
       </c>
       <c r="X98" s="77" t="s">
         <v>42</v>
       </c>
       <c r="Y98" s="66">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>1.248E-3</v>
       </c>
       <c r="Z98">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="86"/>
         <v>3026.3157894736842</v>
       </c>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.16521739130434782</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" s="90">
         <v>1000</v>
       </c>
@@ -28841,52 +31560,56 @@
       </c>
       <c r="M99" s="67"/>
       <c r="N99" s="102">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="80"/>
         <v>13.5</v>
       </c>
       <c r="O99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="P99" s="103">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="81"/>
         <v>5.6</v>
       </c>
       <c r="Q99" s="26">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="82"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="R99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="S99" s="96">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="83"/>
         <v>4.7799999999999996E-4</v>
       </c>
       <c r="T99" s="161">
-        <f t="shared" ca="1" si="79"/>
+        <f t="shared" ca="1" si="84"/>
         <v>13.5</v>
       </c>
       <c r="U99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="V99" s="73">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="78"/>
         <v>5.6</v>
       </c>
       <c r="W99" s="26">
-        <f t="shared" ca="1" si="80"/>
+        <f t="shared" ca="1" si="85"/>
         <v>2.1000000000000003E-3</v>
       </c>
       <c r="X99" s="78" t="s">
         <v>42</v>
       </c>
       <c r="Y99" s="67">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="79"/>
         <v>4.7799999999999996E-4</v>
       </c>
       <c r="Z99">
         <f ca="1">T99/W99</f>
         <v>6428.5714285714275</v>
+      </c>
+      <c r="AA99">
+        <f t="shared" ca="1" si="87"/>
+        <v>0.15555555555555556</v>
       </c>
     </row>
   </sheetData>

--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="7335" tabRatio="619" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="7335" tabRatio="619" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="4" r:id="rId1"/>
@@ -1137,6 +1137,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,34 +1206,13 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,18 +1224,6 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1245,22 +1245,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,97 +1356,28 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,11 +1616,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101652736"/>
-        <c:axId val="101683968"/>
+        <c:axId val="178480256"/>
+        <c:axId val="178482560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101652736"/>
+        <c:axId val="178480256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1646,12 +1646,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101683968"/>
+        <c:crossAx val="178482560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101683968"/>
+        <c:axId val="178482560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1676,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101652736"/>
+        <c:crossAx val="178480256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,7 +1688,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1734,6 +1734,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1913,11 +1914,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106374272"/>
-        <c:axId val="106376192"/>
+        <c:axId val="186916864"/>
+        <c:axId val="186918784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106374272"/>
+        <c:axId val="186916864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1939,16 +1940,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106376192"/>
+        <c:crossAx val="186918784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106376192"/>
+        <c:axId val="186918784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,22 +1977,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106374272"/>
+        <c:crossAx val="186916864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2025,6 +2029,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2207,11 +2212,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106409984"/>
-        <c:axId val="106411904"/>
+        <c:axId val="186940032"/>
+        <c:axId val="186958592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106409984"/>
+        <c:axId val="186940032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2233,16 +2238,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106411904"/>
+        <c:crossAx val="186958592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106411904"/>
+        <c:axId val="186958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,25 +2275,26 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2393308088359449E-2"/>
-              <c:y val="0.19448379629629645"/>
+              <c:y val="0.19448379629629647"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106409984"/>
+        <c:crossAx val="186940032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2333,6 +2340,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2512,11 +2520,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106404480"/>
-        <c:axId val="106525440"/>
+        <c:axId val="186971648"/>
+        <c:axId val="186973568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106404480"/>
+        <c:axId val="186971648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2538,16 +2546,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106525440"/>
+        <c:crossAx val="186973568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106525440"/>
+        <c:axId val="186973568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2575,22 +2584,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106404480"/>
+        <c:crossAx val="186971648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2625,6 +2636,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2801,11 +2813,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106431616"/>
-        <c:axId val="106433536"/>
+        <c:axId val="187084800"/>
+        <c:axId val="187086720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106431616"/>
+        <c:axId val="187084800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2827,16 +2839,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106433536"/>
+        <c:crossAx val="187086720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106433536"/>
+        <c:axId val="187086720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,26 +2875,27 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329539E-2"/>
-              <c:y val="0.18272453703703723"/>
+              <c:x val="3.8860532414329546E-2"/>
+              <c:y val="0.18272453703703725"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106431616"/>
+        <c:crossAx val="187084800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2927,6 +2941,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3100,11 +3115,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106442112"/>
-        <c:axId val="106468864"/>
+        <c:axId val="187099392"/>
+        <c:axId val="187113856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106442112"/>
+        <c:axId val="187099392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3126,16 +3141,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106468864"/>
+        <c:crossAx val="187113856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106468864"/>
+        <c:axId val="187113856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3163,22 +3179,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106442112"/>
+        <c:crossAx val="187099392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3209,6 +3227,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4187,11 +4206,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107707776"/>
-        <c:axId val="107734528"/>
+        <c:axId val="187169024"/>
+        <c:axId val="187253120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107707776"/>
+        <c:axId val="187169024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4220,16 +4239,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107734528"/>
+        <c:crossAx val="187253120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107734528"/>
+        <c:axId val="187253120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="620"/>
@@ -4253,10 +4273,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107707776"/>
+        <c:crossAx val="187169024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -4264,12 +4285,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4290,11 +4312,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>Nodi raggiunti dal messaggio</a:t>
+              <a:t>Copertura</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5268,11 +5291,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106626048"/>
-        <c:axId val="107816064"/>
+        <c:axId val="187299712"/>
+        <c:axId val="187379712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106626048"/>
+        <c:axId val="187299712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5296,16 +5319,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107816064"/>
+        <c:crossAx val="187379712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107816064"/>
+        <c:axId val="187379712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5334,22 +5358,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106626048"/>
+        <c:crossAx val="187299712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5376,6 +5402,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5997,11 +6024,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107877120"/>
-        <c:axId val="107879424"/>
+        <c:axId val="187411840"/>
+        <c:axId val="187426688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107877120"/>
+        <c:axId val="187411840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6028,16 +6055,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107879424"/>
+        <c:crossAx val="187426688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107879424"/>
+        <c:axId val="187426688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6065,23 +6093,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107877120"/>
+        <c:crossAx val="187411840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6108,6 +6138,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6729,11 +6760,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107924096"/>
-        <c:axId val="107938944"/>
+        <c:axId val="187463168"/>
+        <c:axId val="187482112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107924096"/>
+        <c:axId val="187463168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6759,16 +6790,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107938944"/>
+        <c:crossAx val="187482112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107938944"/>
+        <c:axId val="187482112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,22 +6827,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107924096"/>
+        <c:crossAx val="187463168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6836,6 +6870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7457,11 +7492,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="107983616"/>
-        <c:axId val="107985920"/>
+        <c:axId val="187522432"/>
+        <c:axId val="187529088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107983616"/>
+        <c:axId val="187522432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7490,16 +7525,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107985920"/>
+        <c:crossAx val="187529088"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107985920"/>
+        <c:axId val="187529088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7523,23 +7559,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107983616"/>
+        <c:crossAx val="187522432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7574,6 +7612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7919,11 +7958,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101858304"/>
-        <c:axId val="101876864"/>
+        <c:axId val="184391936"/>
+        <c:axId val="184451456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101858304"/>
+        <c:axId val="184391936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7945,16 +7984,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101876864"/>
+        <c:crossAx val="184451456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101876864"/>
+        <c:axId val="184451456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7980,26 +8020,27 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329539E-2"/>
+              <c:x val="3.8860532414329546E-2"/>
               <c:y val="0.15693467965035673"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101858304"/>
+        <c:crossAx val="184391936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8025,6 +8066,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8646,11 +8688,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="109083648"/>
-        <c:axId val="109106688"/>
+        <c:axId val="187578240"/>
+        <c:axId val="187588992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109083648"/>
+        <c:axId val="187578240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -8677,16 +8719,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109106688"/>
+        <c:crossAx val="187588992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109106688"/>
+        <c:axId val="187588992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8714,23 +8757,25 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109083648"/>
+        <c:crossAx val="187578240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8954,11 +8999,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101648256"/>
-        <c:axId val="101892096"/>
+        <c:axId val="186864768"/>
+        <c:axId val="186866688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101648256"/>
+        <c:axId val="186864768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8984,12 +9029,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101892096"/>
+        <c:crossAx val="186866688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101892096"/>
+        <c:axId val="186866688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9020,7 +9065,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101648256"/>
+        <c:crossAx val="186864768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9032,7 +9077,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9078,6 +9123,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -9423,11 +9469,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="97564928"/>
-        <c:axId val="97575296"/>
+        <c:axId val="193833216"/>
+        <c:axId val="193900544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97564928"/>
+        <c:axId val="193833216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9449,16 +9495,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97575296"/>
+        <c:crossAx val="193900544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97575296"/>
+        <c:axId val="193900544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9486,22 +9533,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97564928"/>
+        <c:crossAx val="193833216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9536,6 +9585,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -9881,11 +9931,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="104876672"/>
-        <c:axId val="104887040"/>
+        <c:axId val="178947200"/>
+        <c:axId val="178949120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104876672"/>
+        <c:axId val="178947200"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9907,16 +9957,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104887040"/>
+        <c:crossAx val="178949120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104887040"/>
+        <c:axId val="178949120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9938,22 +9989,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104876672"/>
+        <c:crossAx val="178947200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9999,6 +10052,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -10341,11 +10395,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="104922112"/>
-        <c:axId val="106247296"/>
+        <c:axId val="186451456"/>
+        <c:axId val="186453376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104922112"/>
+        <c:axId val="186451456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10367,16 +10421,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106247296"/>
+        <c:crossAx val="186453376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106247296"/>
+        <c:axId val="186453376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10404,22 +10459,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104922112"/>
+        <c:crossAx val="186451456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10454,6 +10511,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -10799,11 +10857,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106274176"/>
-        <c:axId val="106292736"/>
+        <c:axId val="186492800"/>
+        <c:axId val="186494976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106274176"/>
+        <c:axId val="186492800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10825,16 +10883,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106292736"/>
+        <c:crossAx val="186494976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106292736"/>
+        <c:axId val="186494976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10860,26 +10919,27 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8871550810709782E-2"/>
+              <c:x val="3.8871550810709789E-2"/>
               <c:y val="0.15920601851851851"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106274176"/>
+        <c:crossAx val="186492800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10925,6 +10985,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -11270,11 +11331,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="103276544"/>
-        <c:axId val="103278464"/>
+        <c:axId val="186513664"/>
+        <c:axId val="186995072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103276544"/>
+        <c:axId val="186513664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11296,16 +11357,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103278464"/>
+        <c:crossAx val="186995072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103278464"/>
+        <c:axId val="186995072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11333,22 +11395,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103276544"/>
+        <c:crossAx val="186513664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11383,6 +11447,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -11565,11 +11630,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106309888"/>
-        <c:axId val="106336640"/>
+        <c:axId val="187004032"/>
+        <c:axId val="187005952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106309888"/>
+        <c:axId val="187004032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11591,16 +11656,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106336640"/>
+        <c:crossAx val="187005952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106336640"/>
+        <c:axId val="187005952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11626,26 +11692,27 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329539E-2"/>
-              <c:y val="0.20624305555555572"/>
+              <c:x val="3.8860532414329546E-2"/>
+              <c:y val="0.20624305555555575"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106309888"/>
+        <c:crossAx val="187004032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12575,19 +12642,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -12604,74 +12671,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="164" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="167" t="s">
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="168"/>
-      <c r="AU5" s="168"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="168"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="168"/>
-      <c r="BB5" s="168"/>
-      <c r="BC5" s="168"/>
-      <c r="BD5" s="168"/>
-      <c r="BE5" s="168"/>
-      <c r="BF5" s="169"/>
-      <c r="BG5" s="176" t="s">
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="178"/>
+      <c r="AU5" s="178"/>
+      <c r="AV5" s="178"/>
+      <c r="AW5" s="178"/>
+      <c r="AX5" s="178"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="178"/>
+      <c r="BB5" s="178"/>
+      <c r="BC5" s="178"/>
+      <c r="BD5" s="178"/>
+      <c r="BE5" s="178"/>
+      <c r="BF5" s="179"/>
+      <c r="BG5" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="177"/>
-      <c r="BI5" s="177"/>
-      <c r="BJ5" s="177"/>
-      <c r="BK5" s="177"/>
-      <c r="BL5" s="177"/>
-      <c r="BM5" s="177"/>
-      <c r="BN5" s="177"/>
-      <c r="BO5" s="177"/>
-      <c r="BP5" s="177"/>
-      <c r="BQ5" s="177"/>
-      <c r="BR5" s="177"/>
-      <c r="BS5" s="177"/>
-      <c r="BT5" s="177"/>
-      <c r="BU5" s="178"/>
+      <c r="BH5" s="164"/>
+      <c r="BI5" s="164"/>
+      <c r="BJ5" s="164"/>
+      <c r="BK5" s="164"/>
+      <c r="BL5" s="164"/>
+      <c r="BM5" s="164"/>
+      <c r="BN5" s="164"/>
+      <c r="BO5" s="164"/>
+      <c r="BP5" s="164"/>
+      <c r="BQ5" s="164"/>
+      <c r="BR5" s="164"/>
+      <c r="BS5" s="164"/>
+      <c r="BT5" s="164"/>
+      <c r="BU5" s="165"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -14394,10 +14461,10 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="4"/>
@@ -14417,74 +14484,74 @@
     <row r="30" spans="1:73" ht="15.75">
       <c r="G30" s="1"/>
       <c r="J30" s="6"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="164" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="166"/>
-      <c r="AR30" s="167" t="s">
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="175"/>
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="175"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="168"/>
-      <c r="AT30" s="168"/>
-      <c r="AU30" s="168"/>
-      <c r="AV30" s="168"/>
-      <c r="AW30" s="168"/>
-      <c r="AX30" s="168"/>
-      <c r="AY30" s="168"/>
-      <c r="AZ30" s="168"/>
-      <c r="BA30" s="168"/>
-      <c r="BB30" s="168"/>
-      <c r="BC30" s="168"/>
-      <c r="BD30" s="168"/>
-      <c r="BE30" s="168"/>
-      <c r="BF30" s="169"/>
-      <c r="BG30" s="176" t="s">
+      <c r="AS30" s="178"/>
+      <c r="AT30" s="178"/>
+      <c r="AU30" s="178"/>
+      <c r="AV30" s="178"/>
+      <c r="AW30" s="178"/>
+      <c r="AX30" s="178"/>
+      <c r="AY30" s="178"/>
+      <c r="AZ30" s="178"/>
+      <c r="BA30" s="178"/>
+      <c r="BB30" s="178"/>
+      <c r="BC30" s="178"/>
+      <c r="BD30" s="178"/>
+      <c r="BE30" s="178"/>
+      <c r="BF30" s="179"/>
+      <c r="BG30" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="177"/>
-      <c r="BI30" s="177"/>
-      <c r="BJ30" s="177"/>
-      <c r="BK30" s="177"/>
-      <c r="BL30" s="177"/>
-      <c r="BM30" s="177"/>
-      <c r="BN30" s="177"/>
-      <c r="BO30" s="177"/>
-      <c r="BP30" s="177"/>
-      <c r="BQ30" s="177"/>
-      <c r="BR30" s="177"/>
-      <c r="BS30" s="177"/>
-      <c r="BT30" s="177"/>
-      <c r="BU30" s="178"/>
+      <c r="BH30" s="164"/>
+      <c r="BI30" s="164"/>
+      <c r="BJ30" s="164"/>
+      <c r="BK30" s="164"/>
+      <c r="BL30" s="164"/>
+      <c r="BM30" s="164"/>
+      <c r="BN30" s="164"/>
+      <c r="BO30" s="164"/>
+      <c r="BP30" s="164"/>
+      <c r="BQ30" s="164"/>
+      <c r="BR30" s="164"/>
+      <c r="BS30" s="164"/>
+      <c r="BT30" s="164"/>
+      <c r="BU30" s="165"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -16174,10 +16241,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="4"/>
@@ -16197,108 +16264,108 @@
     <row r="55" spans="1:103" ht="15.75">
       <c r="G55" s="1"/>
       <c r="J55" s="6"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="164" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="165"/>
-      <c r="AE55" s="165"/>
-      <c r="AF55" s="165"/>
-      <c r="AG55" s="165"/>
-      <c r="AH55" s="165"/>
-      <c r="AI55" s="165"/>
-      <c r="AJ55" s="165"/>
-      <c r="AK55" s="165"/>
-      <c r="AL55" s="165"/>
-      <c r="AM55" s="165"/>
-      <c r="AN55" s="165"/>
-      <c r="AO55" s="165"/>
-      <c r="AP55" s="165"/>
-      <c r="AQ55" s="166"/>
-      <c r="AR55" s="167" t="s">
+      <c r="AD55" s="175"/>
+      <c r="AE55" s="175"/>
+      <c r="AF55" s="175"/>
+      <c r="AG55" s="175"/>
+      <c r="AH55" s="175"/>
+      <c r="AI55" s="175"/>
+      <c r="AJ55" s="175"/>
+      <c r="AK55" s="175"/>
+      <c r="AL55" s="175"/>
+      <c r="AM55" s="175"/>
+      <c r="AN55" s="175"/>
+      <c r="AO55" s="175"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="176"/>
+      <c r="AR55" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="168"/>
-      <c r="AT55" s="168"/>
-      <c r="AU55" s="168"/>
-      <c r="AV55" s="168"/>
-      <c r="AW55" s="168"/>
-      <c r="AX55" s="168"/>
-      <c r="AY55" s="168"/>
-      <c r="AZ55" s="168"/>
-      <c r="BA55" s="168"/>
-      <c r="BB55" s="168"/>
-      <c r="BC55" s="168"/>
-      <c r="BD55" s="168"/>
-      <c r="BE55" s="168"/>
-      <c r="BF55" s="169"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="178"/>
+      <c r="AT55" s="178"/>
+      <c r="AU55" s="178"/>
+      <c r="AV55" s="178"/>
+      <c r="AW55" s="178"/>
+      <c r="AX55" s="178"/>
+      <c r="AY55" s="178"/>
+      <c r="AZ55" s="178"/>
+      <c r="BA55" s="178"/>
+      <c r="BB55" s="178"/>
+      <c r="BC55" s="178"/>
+      <c r="BD55" s="178"/>
+      <c r="BE55" s="178"/>
+      <c r="BF55" s="179"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -17103,7 +17170,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="163" t="s">
+      <c r="U59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -17119,7 +17186,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="163" t="s">
+      <c r="AJ59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -17135,7 +17202,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="163" t="s">
+      <c r="AY59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -17151,7 +17218,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="163" t="s">
+      <c r="BN59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -17167,7 +17234,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC59" s="163" t="s">
+      <c r="CC59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -17183,7 +17250,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR59" s="163" t="s">
+      <c r="CR59" s="173" t="s">
         <v>52</v>
       </c>
     </row>
@@ -17226,7 +17293,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -17240,7 +17307,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -17254,7 +17321,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -17268,7 +17335,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -17282,7 +17349,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -17296,7 +17363,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -18764,14 +18831,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
@@ -18788,6 +18847,14 @@
     <mergeCell ref="AR55:BF55"/>
     <mergeCell ref="BG5:BU5"/>
     <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -18817,19 +18884,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -18846,74 +18913,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -20631,10 +20698,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -20648,74 +20715,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -22403,10 +22470,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -22420,108 +22487,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -23324,7 +23391,7 @@
         <f t="shared" si="27"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -23340,7 +23407,7 @@
         <f t="shared" si="20"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -23356,7 +23423,7 @@
         <f t="shared" si="21"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -23372,7 +23439,7 @@
         <f t="shared" si="22"/>
         <v>0.96099999999999997</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -23388,7 +23455,7 @@
         <f t="shared" si="23"/>
         <v>0.317</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -23404,7 +23471,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -23447,7 +23514,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -23461,7 +23528,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -23475,7 +23542,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -23489,7 +23556,7 @@
         <f t="shared" si="22"/>
         <v>0.89900000000000002</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -23503,7 +23570,7 @@
         <f t="shared" si="23"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -23517,7 +23584,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -24987,18 +25054,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="N5:AB5"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -25011,6 +25066,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -25022,8 +25089,8 @@
   <sheetPr codeName="Foglio11"/>
   <dimension ref="A1:BE99"/>
   <sheetViews>
-    <sheetView topLeftCell="AX83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BX106" sqref="BX106"/>
+    <sheetView tabSelected="1" topLeftCell="AG68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA63" sqref="BA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25070,10 +25137,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="206"/>
+      <c r="C1" s="229"/>
       <c r="F1">
         <f ca="1">INDIRECT(A6&amp;"!$N$7")</f>
         <v>1</v>
@@ -25083,27 +25150,27 @@
       <c r="A3" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="197"/>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="225" t="s">
+      <c r="C4" s="218"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="198"/>
@@ -25334,67 +25401,67 @@
       <c r="A17" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="224"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="227"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="197"/>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="219" t="s">
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="219" t="s">
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="220"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="220"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="222" t="s">
+      <c r="O18" s="206"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="206"/>
+      <c r="R18" s="206"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="223"/>
-      <c r="V18" s="223"/>
-      <c r="W18" s="223"/>
-      <c r="X18" s="223"/>
-      <c r="Y18" s="224"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="227"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="198"/>
@@ -26475,67 +26542,67 @@
       <c r="A31" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="217"/>
-      <c r="M31" s="217"/>
-      <c r="N31" s="217"/>
-      <c r="O31" s="217"/>
-      <c r="P31" s="217"/>
-      <c r="Q31" s="217"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="218"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
+      <c r="R31" s="215"/>
+      <c r="S31" s="215"/>
+      <c r="T31" s="215"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="215"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="216"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="197"/>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="214"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="213" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="215"/>
-      <c r="N32" s="213" t="s">
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="O32" s="214"/>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="215"/>
-      <c r="T32" s="216" t="s">
+      <c r="O32" s="209"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="209"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="218"/>
+      <c r="U32" s="215"/>
+      <c r="V32" s="215"/>
+      <c r="W32" s="215"/>
+      <c r="X32" s="215"/>
+      <c r="Y32" s="216"/>
     </row>
     <row r="33" spans="1:57">
       <c r="A33" s="198"/>
@@ -27682,67 +27749,67 @@
       <c r="A45" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="235" t="s">
+      <c r="B45" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="236"/>
-      <c r="M45" s="236"/>
-      <c r="N45" s="236"/>
-      <c r="O45" s="236"/>
-      <c r="P45" s="236"/>
-      <c r="Q45" s="236"/>
-      <c r="R45" s="236"/>
-      <c r="S45" s="236"/>
-      <c r="T45" s="236"/>
-      <c r="U45" s="236"/>
-      <c r="V45" s="236"/>
-      <c r="W45" s="236"/>
-      <c r="X45" s="236"/>
-      <c r="Y45" s="237"/>
+      <c r="C45" s="223"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="223"/>
+      <c r="G45" s="223"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="223"/>
+      <c r="K45" s="223"/>
+      <c r="L45" s="223"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="223"/>
+      <c r="O45" s="223"/>
+      <c r="P45" s="223"/>
+      <c r="Q45" s="223"/>
+      <c r="R45" s="223"/>
+      <c r="S45" s="223"/>
+      <c r="T45" s="223"/>
+      <c r="U45" s="223"/>
+      <c r="V45" s="223"/>
+      <c r="W45" s="223"/>
+      <c r="X45" s="223"/>
+      <c r="Y45" s="224"/>
     </row>
     <row r="46" spans="1:57">
       <c r="A46" s="197"/>
-      <c r="B46" s="227" t="s">
+      <c r="B46" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="228"/>
-      <c r="D46" s="228"/>
-      <c r="E46" s="228"/>
-      <c r="F46" s="228"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="227" t="s">
+      <c r="C46" s="212"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="228"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="228"/>
-      <c r="L46" s="228"/>
-      <c r="M46" s="229"/>
-      <c r="N46" s="227" t="s">
+      <c r="I46" s="212"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="212"/>
+      <c r="L46" s="212"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="228"/>
-      <c r="P46" s="228"/>
-      <c r="Q46" s="228"/>
-      <c r="R46" s="228"/>
-      <c r="S46" s="229"/>
-      <c r="T46" s="235" t="s">
+      <c r="O46" s="212"/>
+      <c r="P46" s="212"/>
+      <c r="Q46" s="212"/>
+      <c r="R46" s="212"/>
+      <c r="S46" s="213"/>
+      <c r="T46" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="236"/>
-      <c r="V46" s="236"/>
-      <c r="W46" s="236"/>
-      <c r="X46" s="236"/>
-      <c r="Y46" s="237"/>
+      <c r="U46" s="223"/>
+      <c r="V46" s="223"/>
+      <c r="W46" s="223"/>
+      <c r="X46" s="223"/>
+      <c r="Y46" s="224"/>
     </row>
     <row r="47" spans="1:57">
       <c r="A47" s="198"/>
@@ -28823,67 +28890,67 @@
       <c r="A59" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="238" t="s">
+      <c r="B59" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="239"/>
-      <c r="D59" s="239"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="239"/>
-      <c r="G59" s="239"/>
-      <c r="H59" s="239"/>
-      <c r="I59" s="239"/>
-      <c r="J59" s="239"/>
-      <c r="K59" s="239"/>
-      <c r="L59" s="239"/>
-      <c r="M59" s="239"/>
-      <c r="N59" s="239"/>
-      <c r="O59" s="239"/>
-      <c r="P59" s="239"/>
-      <c r="Q59" s="239"/>
-      <c r="R59" s="239"/>
-      <c r="S59" s="239"/>
-      <c r="T59" s="239"/>
-      <c r="U59" s="239"/>
-      <c r="V59" s="239"/>
-      <c r="W59" s="239"/>
-      <c r="X59" s="239"/>
-      <c r="Y59" s="240"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="200"/>
+      <c r="G59" s="200"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="200"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="200"/>
+      <c r="N59" s="200"/>
+      <c r="O59" s="200"/>
+      <c r="P59" s="200"/>
+      <c r="Q59" s="200"/>
+      <c r="R59" s="200"/>
+      <c r="S59" s="200"/>
+      <c r="T59" s="200"/>
+      <c r="U59" s="200"/>
+      <c r="V59" s="200"/>
+      <c r="W59" s="200"/>
+      <c r="X59" s="200"/>
+      <c r="Y59" s="201"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="197"/>
-      <c r="B60" s="241" t="s">
+      <c r="B60" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="242"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="242"/>
-      <c r="F60" s="242"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="241" t="s">
+      <c r="C60" s="203"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="203"/>
+      <c r="F60" s="203"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
-      <c r="K60" s="242"/>
-      <c r="L60" s="242"/>
-      <c r="M60" s="243"/>
-      <c r="N60" s="241" t="s">
+      <c r="I60" s="203"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="203"/>
+      <c r="L60" s="203"/>
+      <c r="M60" s="204"/>
+      <c r="N60" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="242"/>
-      <c r="P60" s="242"/>
-      <c r="Q60" s="242"/>
-      <c r="R60" s="242"/>
-      <c r="S60" s="243"/>
-      <c r="T60" s="238" t="s">
+      <c r="O60" s="203"/>
+      <c r="P60" s="203"/>
+      <c r="Q60" s="203"/>
+      <c r="R60" s="203"/>
+      <c r="S60" s="204"/>
+      <c r="T60" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="U60" s="239"/>
-      <c r="V60" s="239"/>
-      <c r="W60" s="239"/>
-      <c r="X60" s="239"/>
-      <c r="Y60" s="240"/>
+      <c r="U60" s="200"/>
+      <c r="V60" s="200"/>
+      <c r="W60" s="200"/>
+      <c r="X60" s="200"/>
+      <c r="Y60" s="201"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="198"/>
@@ -29724,67 +29791,67 @@
       <c r="A73" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="207" t="s">
+      <c r="B73" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="208"/>
-      <c r="D73" s="208"/>
-      <c r="E73" s="208"/>
-      <c r="F73" s="208"/>
-      <c r="G73" s="208"/>
-      <c r="H73" s="208"/>
-      <c r="I73" s="208"/>
-      <c r="J73" s="208"/>
-      <c r="K73" s="208"/>
-      <c r="L73" s="208"/>
-      <c r="M73" s="208"/>
-      <c r="N73" s="208"/>
-      <c r="O73" s="208"/>
-      <c r="P73" s="208"/>
-      <c r="Q73" s="208"/>
-      <c r="R73" s="208"/>
-      <c r="S73" s="208"/>
-      <c r="T73" s="208"/>
-      <c r="U73" s="208"/>
-      <c r="V73" s="208"/>
-      <c r="W73" s="208"/>
-      <c r="X73" s="208"/>
-      <c r="Y73" s="209"/>
+      <c r="C73" s="231"/>
+      <c r="D73" s="231"/>
+      <c r="E73" s="231"/>
+      <c r="F73" s="231"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="231"/>
+      <c r="I73" s="231"/>
+      <c r="J73" s="231"/>
+      <c r="K73" s="231"/>
+      <c r="L73" s="231"/>
+      <c r="M73" s="231"/>
+      <c r="N73" s="231"/>
+      <c r="O73" s="231"/>
+      <c r="P73" s="231"/>
+      <c r="Q73" s="231"/>
+      <c r="R73" s="231"/>
+      <c r="S73" s="231"/>
+      <c r="T73" s="231"/>
+      <c r="U73" s="231"/>
+      <c r="V73" s="231"/>
+      <c r="W73" s="231"/>
+      <c r="X73" s="231"/>
+      <c r="Y73" s="232"/>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="197"/>
-      <c r="B74" s="210" t="s">
+      <c r="B74" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="211"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="211"/>
-      <c r="F74" s="211"/>
-      <c r="G74" s="212"/>
-      <c r="H74" s="210" t="s">
+      <c r="C74" s="234"/>
+      <c r="D74" s="234"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="234"/>
+      <c r="G74" s="235"/>
+      <c r="H74" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="211"/>
-      <c r="J74" s="211"/>
-      <c r="K74" s="211"/>
-      <c r="L74" s="211"/>
-      <c r="M74" s="212"/>
-      <c r="N74" s="210" t="s">
+      <c r="I74" s="234"/>
+      <c r="J74" s="234"/>
+      <c r="K74" s="234"/>
+      <c r="L74" s="234"/>
+      <c r="M74" s="235"/>
+      <c r="N74" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="211"/>
-      <c r="P74" s="211"/>
-      <c r="Q74" s="211"/>
-      <c r="R74" s="211"/>
-      <c r="S74" s="212"/>
-      <c r="T74" s="207" t="s">
+      <c r="O74" s="234"/>
+      <c r="P74" s="234"/>
+      <c r="Q74" s="234"/>
+      <c r="R74" s="234"/>
+      <c r="S74" s="235"/>
+      <c r="T74" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="U74" s="208"/>
-      <c r="V74" s="208"/>
-      <c r="W74" s="208"/>
-      <c r="X74" s="208"/>
-      <c r="Y74" s="209"/>
+      <c r="U74" s="231"/>
+      <c r="V74" s="231"/>
+      <c r="W74" s="231"/>
+      <c r="X74" s="231"/>
+      <c r="Y74" s="232"/>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="198"/>
@@ -30625,67 +30692,67 @@
       <c r="A87" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="199" t="s">
+      <c r="B87" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="200"/>
-      <c r="D87" s="200"/>
-      <c r="E87" s="200"/>
-      <c r="F87" s="200"/>
-      <c r="G87" s="200"/>
-      <c r="H87" s="200"/>
-      <c r="I87" s="200"/>
-      <c r="J87" s="200"/>
-      <c r="K87" s="200"/>
-      <c r="L87" s="200"/>
-      <c r="M87" s="200"/>
-      <c r="N87" s="200"/>
-      <c r="O87" s="200"/>
-      <c r="P87" s="200"/>
-      <c r="Q87" s="200"/>
-      <c r="R87" s="200"/>
-      <c r="S87" s="200"/>
-      <c r="T87" s="200"/>
-      <c r="U87" s="200"/>
-      <c r="V87" s="200"/>
-      <c r="W87" s="200"/>
-      <c r="X87" s="200"/>
-      <c r="Y87" s="201"/>
+      <c r="C87" s="239"/>
+      <c r="D87" s="239"/>
+      <c r="E87" s="239"/>
+      <c r="F87" s="239"/>
+      <c r="G87" s="239"/>
+      <c r="H87" s="239"/>
+      <c r="I87" s="239"/>
+      <c r="J87" s="239"/>
+      <c r="K87" s="239"/>
+      <c r="L87" s="239"/>
+      <c r="M87" s="239"/>
+      <c r="N87" s="239"/>
+      <c r="O87" s="239"/>
+      <c r="P87" s="239"/>
+      <c r="Q87" s="239"/>
+      <c r="R87" s="239"/>
+      <c r="S87" s="239"/>
+      <c r="T87" s="239"/>
+      <c r="U87" s="239"/>
+      <c r="V87" s="239"/>
+      <c r="W87" s="239"/>
+      <c r="X87" s="239"/>
+      <c r="Y87" s="240"/>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="197"/>
-      <c r="B88" s="202" t="s">
+      <c r="B88" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
-      <c r="G88" s="204"/>
-      <c r="H88" s="202" t="s">
+      <c r="C88" s="242"/>
+      <c r="D88" s="242"/>
+      <c r="E88" s="242"/>
+      <c r="F88" s="242"/>
+      <c r="G88" s="243"/>
+      <c r="H88" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="203"/>
-      <c r="J88" s="203"/>
-      <c r="K88" s="203"/>
-      <c r="L88" s="203"/>
-      <c r="M88" s="204"/>
-      <c r="N88" s="202" t="s">
+      <c r="I88" s="242"/>
+      <c r="J88" s="242"/>
+      <c r="K88" s="242"/>
+      <c r="L88" s="242"/>
+      <c r="M88" s="243"/>
+      <c r="N88" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="203"/>
-      <c r="P88" s="203"/>
-      <c r="Q88" s="203"/>
-      <c r="R88" s="203"/>
-      <c r="S88" s="204"/>
-      <c r="T88" s="199" t="s">
+      <c r="O88" s="242"/>
+      <c r="P88" s="242"/>
+      <c r="Q88" s="242"/>
+      <c r="R88" s="242"/>
+      <c r="S88" s="243"/>
+      <c r="T88" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="U88" s="200"/>
-      <c r="V88" s="200"/>
-      <c r="W88" s="200"/>
-      <c r="X88" s="200"/>
-      <c r="Y88" s="201"/>
+      <c r="U88" s="239"/>
+      <c r="V88" s="239"/>
+      <c r="W88" s="239"/>
+      <c r="X88" s="239"/>
+      <c r="Y88" s="240"/>
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="198"/>
@@ -31524,25 +31591,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:Y59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="N60:S60"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="N46:S46"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B45:Y45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:Y87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="N88:S88"/>
+    <mergeCell ref="T88:Y88"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:Y73"/>
@@ -31559,12 +31613,25 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:Y87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="N88:S88"/>
-    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="N46:S46"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B45:Y45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:Y59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="N60:S60"/>
+    <mergeCell ref="T60:Y60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31577,8 +31644,8 @@
   <sheetPr codeName="Foglio12"/>
   <dimension ref="A3:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33324,19 +33391,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -33353,74 +33420,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -35132,10 +35199,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -35149,74 +35216,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -36904,10 +36971,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -36921,108 +36988,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -37825,7 +37892,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -37841,7 +37908,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -37857,7 +37924,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -37873,7 +37940,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -37889,7 +37956,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -37905,7 +37972,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -37948,7 +38015,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -37962,7 +38029,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -37976,7 +38043,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -37990,7 +38057,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -38004,7 +38071,7 @@
         <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -38018,7 +38085,7 @@
         <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -39488,6 +39555,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AR5:BF5"/>
+    <mergeCell ref="AR30:BF30"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="CC59:CC60"/>
+    <mergeCell ref="CR59:CR60"/>
+    <mergeCell ref="BN59:BN60"/>
+    <mergeCell ref="AY59:AY60"/>
+    <mergeCell ref="AJ59:AJ60"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A28:B28"/>
@@ -39504,14 +39579,6 @@
     <mergeCell ref="N30:AB30"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
-    <mergeCell ref="AR5:BF5"/>
-    <mergeCell ref="AR30:BF30"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="CC59:CC60"/>
-    <mergeCell ref="CR59:CR60"/>
-    <mergeCell ref="BN59:BN60"/>
-    <mergeCell ref="AY59:AY60"/>
-    <mergeCell ref="AJ59:AJ60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39539,19 +39606,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -39568,74 +39635,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -41348,10 +41415,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -41365,74 +41432,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -43120,10 +43187,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -43137,108 +43204,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -44041,7 +44108,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -44057,7 +44124,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -44073,7 +44140,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -44089,7 +44156,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -44105,7 +44172,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -44121,7 +44188,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -44164,7 +44231,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -44178,7 +44245,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -44192,7 +44259,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -44206,7 +44273,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -44220,7 +44287,7 @@
         <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -44234,7 +44301,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -45704,18 +45771,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -45728,6 +45783,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -45757,19 +45824,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -45786,74 +45853,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -47571,10 +47638,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -47588,74 +47655,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -49343,10 +49410,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -49360,108 +49427,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -50264,7 +50331,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -50280,7 +50347,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -50296,7 +50363,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -50312,7 +50379,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -50328,7 +50395,7 @@
         <f t="shared" si="25"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -50344,7 +50411,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -50387,7 +50454,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -50401,7 +50468,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -50415,7 +50482,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -50429,7 +50496,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -50443,7 +50510,7 @@
         <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -50457,7 +50524,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -51927,18 +51994,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -51951,6 +52006,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -51991,19 +52058,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -52020,74 +52087,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="75">
       <c r="A6" s="3" t="s">
@@ -53805,10 +53872,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -53822,74 +53889,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="75">
       <c r="A31" s="3" t="s">
@@ -55577,10 +55644,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -55594,108 +55661,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="75">
       <c r="A56" s="3" t="s">
@@ -56498,7 +56565,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -56514,7 +56581,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -56530,7 +56597,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -56546,7 +56613,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -56562,7 +56629,7 @@
         <f t="shared" si="26"/>
         <v>0.82</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -56578,7 +56645,7 @@
         <f t="shared" si="27"/>
         <v>0.12</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -56621,7 +56688,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -56635,7 +56702,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -56649,7 +56716,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -56663,7 +56730,7 @@
         <f t="shared" si="25"/>
         <v>0.94</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -56677,7 +56744,7 @@
         <f t="shared" si="26"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -56691,7 +56758,7 @@
         <f t="shared" si="27"/>
         <v>0.04</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -58162,18 +58229,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -58186,6 +58241,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -58214,19 +58281,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -58243,74 +58310,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -60028,10 +60095,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -60045,74 +60112,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -61800,10 +61867,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -61817,108 +61884,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -62721,7 +62788,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -62737,7 +62804,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -62753,7 +62820,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -62769,7 +62836,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -62785,7 +62852,7 @@
         <f t="shared" si="24"/>
         <v>0.5625</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -62801,7 +62868,7 @@
         <f t="shared" si="25"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -62844,7 +62911,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -62858,7 +62925,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -62872,7 +62939,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -62886,7 +62953,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -62900,7 +62967,7 @@
         <f t="shared" si="24"/>
         <v>0.625</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -62914,7 +62981,7 @@
         <f t="shared" si="25"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -64384,18 +64451,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -64408,6 +64463,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64436,19 +64503,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -64465,74 +64532,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -66250,10 +66317,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -66267,74 +66334,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -68021,10 +68088,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -68038,108 +68105,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -68942,7 +69009,7 @@
         <f t="shared" si="27"/>
         <v>0.99</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -68958,7 +69025,7 @@
         <f t="shared" si="20"/>
         <v>0.99</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -68974,7 +69041,7 @@
         <f t="shared" si="21"/>
         <v>0.99</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -68990,7 +69057,7 @@
         <f t="shared" si="22"/>
         <v>0.99</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -69006,7 +69073,7 @@
         <f t="shared" si="23"/>
         <v>0.39</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -69022,7 +69089,7 @@
         <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -69065,7 +69132,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -69079,7 +69146,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -69093,7 +69160,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -69107,7 +69174,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -69121,7 +69188,7 @@
         <f t="shared" si="23"/>
         <v>0.52</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -69135,7 +69202,7 @@
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -70609,18 +70676,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -70633,6 +70688,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70661,19 +70728,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -70690,74 +70757,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="164" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -72475,10 +72542,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -72492,74 +72559,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="164" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="166"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="175"/>
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="175"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -74247,10 +74314,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -74264,108 +74331,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="164" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="165"/>
-      <c r="AE55" s="165"/>
-      <c r="AF55" s="165"/>
-      <c r="AG55" s="165"/>
-      <c r="AH55" s="165"/>
-      <c r="AI55" s="165"/>
-      <c r="AJ55" s="165"/>
-      <c r="AK55" s="165"/>
-      <c r="AL55" s="165"/>
-      <c r="AM55" s="165"/>
-      <c r="AN55" s="165"/>
-      <c r="AO55" s="165"/>
-      <c r="AP55" s="165"/>
-      <c r="AQ55" s="166"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="175"/>
+      <c r="AE55" s="175"/>
+      <c r="AF55" s="175"/>
+      <c r="AG55" s="175"/>
+      <c r="AH55" s="175"/>
+      <c r="AI55" s="175"/>
+      <c r="AJ55" s="175"/>
+      <c r="AK55" s="175"/>
+      <c r="AL55" s="175"/>
+      <c r="AM55" s="175"/>
+      <c r="AN55" s="175"/>
+      <c r="AO55" s="175"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="176"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -75168,7 +75235,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -75184,7 +75251,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -75200,7 +75267,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -75216,7 +75283,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -75232,7 +75299,7 @@
         <f t="shared" si="23"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -75248,7 +75315,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -75291,7 +75358,7 @@
         <f t="shared" si="27"/>
         <v>0.98</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -75305,7 +75372,7 @@
         <f t="shared" si="20"/>
         <v>0.98</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -75319,7 +75386,7 @@
         <f t="shared" si="21"/>
         <v>0.98</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -75333,7 +75400,7 @@
         <f t="shared" si="22"/>
         <v>0.98</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -75347,7 +75414,7 @@
         <f t="shared" si="23"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -75361,7 +75428,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -76836,18 +76903,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -76860,6 +76915,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -76887,19 +76954,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -76916,74 +76983,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -78701,10 +78768,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -78718,74 +78785,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -80474,10 +80541,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -80491,108 +80558,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -81395,7 +81462,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -81411,7 +81478,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -81427,7 +81494,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -81443,7 +81510,7 @@
         <f t="shared" si="22"/>
         <v>0.97599999999999998</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -81459,7 +81526,7 @@
         <f t="shared" si="23"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -81475,7 +81542,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -81518,7 +81585,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -81532,7 +81599,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -81546,7 +81613,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -81560,7 +81627,7 @@
         <f t="shared" si="22"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -81574,7 +81641,7 @@
         <f t="shared" si="23"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -81588,7 +81655,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -83060,18 +83127,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -83084,6 +83139,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -1137,36 +1137,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1206,13 +1176,34 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1224,6 +1215,18 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,9 +1235,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1245,22 +1245,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1272,14 +1314,20 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1288,15 +1336,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,61 +1362,22 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,11 +1616,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="178480256"/>
-        <c:axId val="178482560"/>
+        <c:axId val="59440128"/>
+        <c:axId val="75929088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178480256"/>
+        <c:axId val="59440128"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1646,12 +1646,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178482560"/>
+        <c:crossAx val="75929088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178482560"/>
+        <c:axId val="75929088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1676,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178480256"/>
+        <c:crossAx val="59440128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,7 +1688,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1914,11 +1914,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186916864"/>
-        <c:axId val="186918784"/>
+        <c:axId val="78688640"/>
+        <c:axId val="78690560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186916864"/>
+        <c:axId val="78688640"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1945,12 +1945,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186918784"/>
+        <c:crossAx val="78690560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186918784"/>
+        <c:axId val="78690560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1981,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186916864"/>
+        <c:crossAx val="78688640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,7 +1994,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2212,11 +2212,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186940032"/>
-        <c:axId val="186958592"/>
+        <c:axId val="78720000"/>
+        <c:axId val="78742656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186940032"/>
+        <c:axId val="78720000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2243,12 +2243,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186958592"/>
+        <c:crossAx val="78742656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186958592"/>
+        <c:axId val="78742656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,13 +2275,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2393308088359449E-2"/>
-              <c:y val="0.19448379629629647"/>
+              <c:y val="0.1944837962962965"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186940032"/>
+        <c:crossAx val="78720000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2294,7 +2294,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2520,11 +2520,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186971648"/>
-        <c:axId val="186973568"/>
+        <c:axId val="78788480"/>
+        <c:axId val="78798848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186971648"/>
+        <c:axId val="78788480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2551,12 +2551,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186973568"/>
+        <c:crossAx val="78798848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186973568"/>
+        <c:axId val="78798848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2588,7 +2588,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186971648"/>
+        <c:crossAx val="78788480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2601,7 +2601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2813,11 +2813,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187084800"/>
-        <c:axId val="187086720"/>
+        <c:axId val="78823808"/>
+        <c:axId val="78825728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187084800"/>
+        <c:axId val="78823808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2844,12 +2844,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187086720"/>
+        <c:crossAx val="78825728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187086720"/>
+        <c:axId val="78825728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,14 +2875,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329546E-2"/>
-              <c:y val="0.18272453703703725"/>
+              <c:x val="3.8860532414329553E-2"/>
+              <c:y val="0.18272453703703728"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187084800"/>
+        <c:crossAx val="78823808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2895,7 +2895,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3115,11 +3115,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187099392"/>
-        <c:axId val="187113856"/>
+        <c:axId val="79006336"/>
+        <c:axId val="79008512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187099392"/>
+        <c:axId val="79006336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3146,12 +3146,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187113856"/>
+        <c:crossAx val="79008512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187113856"/>
+        <c:axId val="79008512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3183,7 +3183,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187099392"/>
+        <c:crossAx val="79006336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3196,7 +3196,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4206,11 +4206,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187169024"/>
-        <c:axId val="187253120"/>
+        <c:axId val="79108736"/>
+        <c:axId val="79520512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187169024"/>
+        <c:axId val="79108736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4244,12 +4244,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187253120"/>
+        <c:crossAx val="79520512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187253120"/>
+        <c:axId val="79520512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="620"/>
@@ -4277,7 +4277,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187169024"/>
+        <c:crossAx val="79108736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -4291,7 +4291,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5291,11 +5291,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187299712"/>
-        <c:axId val="187379712"/>
+        <c:axId val="79915264"/>
+        <c:axId val="79933824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187299712"/>
+        <c:axId val="79915264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5324,12 +5324,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187379712"/>
+        <c:crossAx val="79933824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187379712"/>
+        <c:axId val="79933824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5362,7 +5362,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187299712"/>
+        <c:crossAx val="79915264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5375,7 +5375,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6024,11 +6024,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187411840"/>
-        <c:axId val="187426688"/>
+        <c:axId val="80715776"/>
+        <c:axId val="80718080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187411840"/>
+        <c:axId val="80715776"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6060,12 +6060,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187426688"/>
+        <c:crossAx val="80718080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187426688"/>
+        <c:axId val="80718080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6098,7 +6098,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187411840"/>
+        <c:crossAx val="80715776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6111,7 +6111,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6760,11 +6760,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187463168"/>
-        <c:axId val="187482112"/>
+        <c:axId val="84162432"/>
+        <c:axId val="84169088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187463168"/>
+        <c:axId val="84162432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,12 +6795,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187482112"/>
+        <c:crossAx val="84169088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187482112"/>
+        <c:axId val="84169088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6831,7 +6831,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187463168"/>
+        <c:crossAx val="84162432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6844,7 +6844,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7492,11 +7492,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187522432"/>
-        <c:axId val="187529088"/>
+        <c:axId val="84328448"/>
+        <c:axId val="84330752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187522432"/>
+        <c:axId val="84328448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7530,12 +7530,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187529088"/>
+        <c:crossAx val="84330752"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187529088"/>
+        <c:axId val="84330752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7564,7 +7564,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187522432"/>
+        <c:crossAx val="84328448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7577,7 +7577,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7612,7 +7612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7958,11 +7957,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="184391936"/>
-        <c:axId val="184451456"/>
+        <c:axId val="78747136"/>
+        <c:axId val="78832384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184391936"/>
+        <c:axId val="78747136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7984,17 +7983,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184451456"/>
+        <c:crossAx val="78832384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184451456"/>
+        <c:axId val="78832384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8020,27 +8018,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329546E-2"/>
+              <c:x val="3.8860532414329553E-2"/>
               <c:y val="0.15693467965035673"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184391936"/>
+        <c:crossAx val="78747136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8688,11 +8685,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187578240"/>
-        <c:axId val="187588992"/>
+        <c:axId val="84678912"/>
+        <c:axId val="84718336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187578240"/>
+        <c:axId val="84678912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -8724,12 +8721,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187588992"/>
+        <c:crossAx val="84718336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187588992"/>
+        <c:axId val="84718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8762,7 +8759,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187578240"/>
+        <c:crossAx val="84678912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8775,7 +8772,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8999,11 +8996,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186864768"/>
-        <c:axId val="186866688"/>
+        <c:axId val="79142272"/>
+        <c:axId val="79501952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186864768"/>
+        <c:axId val="79142272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9029,12 +9026,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186866688"/>
+        <c:crossAx val="79501952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186866688"/>
+        <c:axId val="79501952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9065,7 +9062,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186864768"/>
+        <c:crossAx val="79142272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9077,7 +9074,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9469,11 +9466,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="193833216"/>
-        <c:axId val="193900544"/>
+        <c:axId val="76367360"/>
+        <c:axId val="76369280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193833216"/>
+        <c:axId val="76367360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9500,12 +9497,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193900544"/>
+        <c:crossAx val="76369280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193900544"/>
+        <c:axId val="76369280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9537,7 +9534,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193833216"/>
+        <c:crossAx val="76367360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9550,7 +9547,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9585,7 +9582,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -9931,11 +9927,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="178947200"/>
-        <c:axId val="178949120"/>
+        <c:axId val="76494720"/>
+        <c:axId val="76513280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178947200"/>
+        <c:axId val="76494720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9957,17 +9953,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178949120"/>
+        <c:crossAx val="76513280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178949120"/>
+        <c:axId val="76513280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9989,24 +9984,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178947200"/>
+        <c:crossAx val="76494720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10395,11 +10388,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186451456"/>
-        <c:axId val="186453376"/>
+        <c:axId val="78006528"/>
+        <c:axId val="78020992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186451456"/>
+        <c:axId val="78006528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10426,12 +10419,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186453376"/>
+        <c:crossAx val="78020992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186453376"/>
+        <c:axId val="78020992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10463,7 +10456,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186451456"/>
+        <c:crossAx val="78006528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10476,7 +10469,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10511,7 +10504,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -10857,11 +10849,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186492800"/>
-        <c:axId val="186494976"/>
+        <c:axId val="78088832"/>
+        <c:axId val="78172928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186492800"/>
+        <c:axId val="78088832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10883,17 +10875,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186494976"/>
+        <c:crossAx val="78172928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186494976"/>
+        <c:axId val="78172928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10919,27 +10910,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8871550810709789E-2"/>
+              <c:x val="3.8871550810709796E-2"/>
               <c:y val="0.15920601851851851"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186492800"/>
+        <c:crossAx val="78088832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11331,11 +11321,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="186513664"/>
-        <c:axId val="186995072"/>
+        <c:axId val="78187520"/>
+        <c:axId val="78201984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186513664"/>
+        <c:axId val="78187520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11362,12 +11352,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186995072"/>
+        <c:crossAx val="78201984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186995072"/>
+        <c:axId val="78201984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11399,7 +11389,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186513664"/>
+        <c:crossAx val="78187520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11412,7 +11402,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11630,11 +11620,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="187004032"/>
-        <c:axId val="187005952"/>
+        <c:axId val="78235136"/>
+        <c:axId val="78237056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187004032"/>
+        <c:axId val="78235136"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11661,12 +11651,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187005952"/>
+        <c:crossAx val="78237056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187005952"/>
+        <c:axId val="78237056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11692,14 +11682,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329546E-2"/>
-              <c:y val="0.20624305555555575"/>
+              <c:x val="3.8860532414329553E-2"/>
+              <c:y val="0.20624305555555578"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187004032"/>
+        <c:crossAx val="78235136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11712,7 +11702,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12642,19 +12632,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -12671,74 +12661,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="174" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="175"/>
-      <c r="AL5" s="175"/>
-      <c r="AM5" s="175"/>
-      <c r="AN5" s="175"/>
-      <c r="AO5" s="175"/>
-      <c r="AP5" s="175"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="177" t="s">
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="178"/>
-      <c r="AT5" s="178"/>
-      <c r="AU5" s="178"/>
-      <c r="AV5" s="178"/>
-      <c r="AW5" s="178"/>
-      <c r="AX5" s="178"/>
-      <c r="AY5" s="178"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="178"/>
-      <c r="BB5" s="178"/>
-      <c r="BC5" s="178"/>
-      <c r="BD5" s="178"/>
-      <c r="BE5" s="178"/>
-      <c r="BF5" s="179"/>
-      <c r="BG5" s="163" t="s">
+      <c r="AS5" s="168"/>
+      <c r="AT5" s="168"/>
+      <c r="AU5" s="168"/>
+      <c r="AV5" s="168"/>
+      <c r="AW5" s="168"/>
+      <c r="AX5" s="168"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="168"/>
+      <c r="BA5" s="168"/>
+      <c r="BB5" s="168"/>
+      <c r="BC5" s="168"/>
+      <c r="BD5" s="168"/>
+      <c r="BE5" s="168"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="164"/>
-      <c r="BJ5" s="164"/>
-      <c r="BK5" s="164"/>
-      <c r="BL5" s="164"/>
-      <c r="BM5" s="164"/>
-      <c r="BN5" s="164"/>
-      <c r="BO5" s="164"/>
-      <c r="BP5" s="164"/>
-      <c r="BQ5" s="164"/>
-      <c r="BR5" s="164"/>
-      <c r="BS5" s="164"/>
-      <c r="BT5" s="164"/>
-      <c r="BU5" s="165"/>
+      <c r="BH5" s="177"/>
+      <c r="BI5" s="177"/>
+      <c r="BJ5" s="177"/>
+      <c r="BK5" s="177"/>
+      <c r="BL5" s="177"/>
+      <c r="BM5" s="177"/>
+      <c r="BN5" s="177"/>
+      <c r="BO5" s="177"/>
+      <c r="BP5" s="177"/>
+      <c r="BQ5" s="177"/>
+      <c r="BR5" s="177"/>
+      <c r="BS5" s="177"/>
+      <c r="BT5" s="177"/>
+      <c r="BU5" s="178"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -14461,10 +14451,10 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="4"/>
@@ -14484,74 +14474,74 @@
     <row r="30" spans="1:73" ht="15.75">
       <c r="G30" s="1"/>
       <c r="J30" s="6"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="174" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="175"/>
-      <c r="AE30" s="175"/>
-      <c r="AF30" s="175"/>
-      <c r="AG30" s="175"/>
-      <c r="AH30" s="175"/>
-      <c r="AI30" s="175"/>
-      <c r="AJ30" s="175"/>
-      <c r="AK30" s="175"/>
-      <c r="AL30" s="175"/>
-      <c r="AM30" s="175"/>
-      <c r="AN30" s="175"/>
-      <c r="AO30" s="175"/>
-      <c r="AP30" s="175"/>
-      <c r="AQ30" s="176"/>
-      <c r="AR30" s="177" t="s">
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
+      <c r="AM30" s="165"/>
+      <c r="AN30" s="165"/>
+      <c r="AO30" s="165"/>
+      <c r="AP30" s="165"/>
+      <c r="AQ30" s="166"/>
+      <c r="AR30" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="178"/>
-      <c r="AT30" s="178"/>
-      <c r="AU30" s="178"/>
-      <c r="AV30" s="178"/>
-      <c r="AW30" s="178"/>
-      <c r="AX30" s="178"/>
-      <c r="AY30" s="178"/>
-      <c r="AZ30" s="178"/>
-      <c r="BA30" s="178"/>
-      <c r="BB30" s="178"/>
-      <c r="BC30" s="178"/>
-      <c r="BD30" s="178"/>
-      <c r="BE30" s="178"/>
-      <c r="BF30" s="179"/>
-      <c r="BG30" s="163" t="s">
+      <c r="AS30" s="168"/>
+      <c r="AT30" s="168"/>
+      <c r="AU30" s="168"/>
+      <c r="AV30" s="168"/>
+      <c r="AW30" s="168"/>
+      <c r="AX30" s="168"/>
+      <c r="AY30" s="168"/>
+      <c r="AZ30" s="168"/>
+      <c r="BA30" s="168"/>
+      <c r="BB30" s="168"/>
+      <c r="BC30" s="168"/>
+      <c r="BD30" s="168"/>
+      <c r="BE30" s="168"/>
+      <c r="BF30" s="169"/>
+      <c r="BG30" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="164"/>
-      <c r="BI30" s="164"/>
-      <c r="BJ30" s="164"/>
-      <c r="BK30" s="164"/>
-      <c r="BL30" s="164"/>
-      <c r="BM30" s="164"/>
-      <c r="BN30" s="164"/>
-      <c r="BO30" s="164"/>
-      <c r="BP30" s="164"/>
-      <c r="BQ30" s="164"/>
-      <c r="BR30" s="164"/>
-      <c r="BS30" s="164"/>
-      <c r="BT30" s="164"/>
-      <c r="BU30" s="165"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="177"/>
+      <c r="BN30" s="177"/>
+      <c r="BO30" s="177"/>
+      <c r="BP30" s="177"/>
+      <c r="BQ30" s="177"/>
+      <c r="BR30" s="177"/>
+      <c r="BS30" s="177"/>
+      <c r="BT30" s="177"/>
+      <c r="BU30" s="178"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -16241,10 +16231,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="4"/>
@@ -16264,108 +16254,108 @@
     <row r="55" spans="1:103" ht="15.75">
       <c r="G55" s="1"/>
       <c r="J55" s="6"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="174" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="175"/>
-      <c r="AE55" s="175"/>
-      <c r="AF55" s="175"/>
-      <c r="AG55" s="175"/>
-      <c r="AH55" s="175"/>
-      <c r="AI55" s="175"/>
-      <c r="AJ55" s="175"/>
-      <c r="AK55" s="175"/>
-      <c r="AL55" s="175"/>
-      <c r="AM55" s="175"/>
-      <c r="AN55" s="175"/>
-      <c r="AO55" s="175"/>
-      <c r="AP55" s="175"/>
-      <c r="AQ55" s="176"/>
-      <c r="AR55" s="177" t="s">
+      <c r="AD55" s="165"/>
+      <c r="AE55" s="165"/>
+      <c r="AF55" s="165"/>
+      <c r="AG55" s="165"/>
+      <c r="AH55" s="165"/>
+      <c r="AI55" s="165"/>
+      <c r="AJ55" s="165"/>
+      <c r="AK55" s="165"/>
+      <c r="AL55" s="165"/>
+      <c r="AM55" s="165"/>
+      <c r="AN55" s="165"/>
+      <c r="AO55" s="165"/>
+      <c r="AP55" s="165"/>
+      <c r="AQ55" s="166"/>
+      <c r="AR55" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="178"/>
-      <c r="AT55" s="178"/>
-      <c r="AU55" s="178"/>
-      <c r="AV55" s="178"/>
-      <c r="AW55" s="178"/>
-      <c r="AX55" s="178"/>
-      <c r="AY55" s="178"/>
-      <c r="AZ55" s="178"/>
-      <c r="BA55" s="178"/>
-      <c r="BB55" s="178"/>
-      <c r="BC55" s="178"/>
-      <c r="BD55" s="178"/>
-      <c r="BE55" s="178"/>
-      <c r="BF55" s="179"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="168"/>
+      <c r="AT55" s="168"/>
+      <c r="AU55" s="168"/>
+      <c r="AV55" s="168"/>
+      <c r="AW55" s="168"/>
+      <c r="AX55" s="168"/>
+      <c r="AY55" s="168"/>
+      <c r="AZ55" s="168"/>
+      <c r="BA55" s="168"/>
+      <c r="BB55" s="168"/>
+      <c r="BC55" s="168"/>
+      <c r="BD55" s="168"/>
+      <c r="BE55" s="168"/>
+      <c r="BF55" s="169"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -17170,7 +17160,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="173" t="s">
+      <c r="U59" s="163" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -17186,7 +17176,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="173" t="s">
+      <c r="AJ59" s="163" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -17202,7 +17192,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="173" t="s">
+      <c r="AY59" s="163" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -17218,7 +17208,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="173" t="s">
+      <c r="BN59" s="163" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -17234,7 +17224,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC59" s="173" t="s">
+      <c r="CC59" s="163" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -17250,7 +17240,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR59" s="173" t="s">
+      <c r="CR59" s="163" t="s">
         <v>52</v>
       </c>
     </row>
@@ -17293,7 +17283,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -17307,7 +17297,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -17321,7 +17311,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -17335,7 +17325,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -17349,7 +17339,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -17363,7 +17353,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -18831,6 +18821,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
@@ -18847,14 +18845,6 @@
     <mergeCell ref="AR55:BF55"/>
     <mergeCell ref="BG5:BU5"/>
     <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -18884,19 +18874,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -18913,74 +18903,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -20698,10 +20688,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -20715,74 +20705,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -22470,10 +22460,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -22487,108 +22477,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -23391,7 +23381,7 @@
         <f t="shared" si="27"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -23407,7 +23397,7 @@
         <f t="shared" si="20"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -23423,7 +23413,7 @@
         <f t="shared" si="21"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -23439,7 +23429,7 @@
         <f t="shared" si="22"/>
         <v>0.96099999999999997</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -23455,7 +23445,7 @@
         <f t="shared" si="23"/>
         <v>0.317</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -23471,7 +23461,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -23514,7 +23504,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -23528,7 +23518,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -23542,7 +23532,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -23556,7 +23546,7 @@
         <f t="shared" si="22"/>
         <v>0.89900000000000002</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -23570,7 +23560,7 @@
         <f t="shared" si="23"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -23584,7 +23574,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -25054,6 +25044,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="N5:AB5"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -25066,18 +25068,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -25089,7 +25079,7 @@
   <sheetPr codeName="Foglio11"/>
   <dimension ref="A1:BE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AM32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BA63" sqref="BA63"/>
     </sheetView>
   </sheetViews>
@@ -25137,10 +25127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1">
-      <c r="B1" s="228" t="s">
+      <c r="B1" s="205" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="229"/>
+      <c r="C1" s="206"/>
       <c r="F1">
         <f ca="1">INDIRECT(A6&amp;"!$N$7")</f>
         <v>1</v>
@@ -25150,27 +25140,27 @@
       <c r="A3" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="220" t="s">
+      <c r="B3" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="197"/>
-      <c r="B4" s="217" t="s">
+      <c r="B4" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="218"/>
-      <c r="D4" s="219"/>
-      <c r="E4" s="236" t="s">
+      <c r="C4" s="231"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="198"/>
@@ -25401,67 +25391,67 @@
       <c r="A17" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="225" t="s">
+      <c r="B17" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="226"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="226"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="226"/>
-      <c r="L17" s="226"/>
-      <c r="M17" s="226"/>
-      <c r="N17" s="226"/>
-      <c r="O17" s="226"/>
-      <c r="P17" s="226"/>
-      <c r="Q17" s="226"/>
-      <c r="R17" s="226"/>
-      <c r="S17" s="226"/>
-      <c r="T17" s="226"/>
-      <c r="U17" s="226"/>
-      <c r="V17" s="226"/>
-      <c r="W17" s="226"/>
-      <c r="X17" s="226"/>
-      <c r="Y17" s="227"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="223"/>
+      <c r="T17" s="223"/>
+      <c r="U17" s="223"/>
+      <c r="V17" s="223"/>
+      <c r="W17" s="223"/>
+      <c r="X17" s="223"/>
+      <c r="Y17" s="224"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="197"/>
-      <c r="B18" s="205" t="s">
+      <c r="B18" s="219" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="206"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="205" t="s">
+      <c r="C18" s="220"/>
+      <c r="D18" s="220"/>
+      <c r="E18" s="220"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="206"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="206"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="205" t="s">
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="219" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="206"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="206"/>
-      <c r="R18" s="206"/>
-      <c r="S18" s="207"/>
-      <c r="T18" s="225" t="s">
+      <c r="O18" s="220"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="226"/>
-      <c r="V18" s="226"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="226"/>
-      <c r="Y18" s="227"/>
+      <c r="U18" s="223"/>
+      <c r="V18" s="223"/>
+      <c r="W18" s="223"/>
+      <c r="X18" s="223"/>
+      <c r="Y18" s="224"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="198"/>
@@ -26542,67 +26532,67 @@
       <c r="A31" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="215"/>
-      <c r="K31" s="215"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="215"/>
-      <c r="N31" s="215"/>
-      <c r="O31" s="215"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="215"/>
-      <c r="R31" s="215"/>
-      <c r="S31" s="215"/>
-      <c r="T31" s="215"/>
-      <c r="U31" s="215"/>
-      <c r="V31" s="215"/>
-      <c r="W31" s="215"/>
-      <c r="X31" s="215"/>
-      <c r="Y31" s="216"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="217"/>
+      <c r="Q31" s="217"/>
+      <c r="R31" s="217"/>
+      <c r="S31" s="217"/>
+      <c r="T31" s="217"/>
+      <c r="U31" s="217"/>
+      <c r="V31" s="217"/>
+      <c r="W31" s="217"/>
+      <c r="X31" s="217"/>
+      <c r="Y31" s="218"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="197"/>
-      <c r="B32" s="208" t="s">
+      <c r="B32" s="213" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="209"/>
-      <c r="D32" s="209"/>
-      <c r="E32" s="209"/>
-      <c r="F32" s="209"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="208" t="s">
+      <c r="C32" s="214"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="209"/>
-      <c r="J32" s="209"/>
-      <c r="K32" s="209"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="210"/>
-      <c r="N32" s="208" t="s">
+      <c r="I32" s="214"/>
+      <c r="J32" s="214"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="215"/>
+      <c r="N32" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="O32" s="209"/>
-      <c r="P32" s="209"/>
-      <c r="Q32" s="209"/>
-      <c r="R32" s="209"/>
-      <c r="S32" s="210"/>
-      <c r="T32" s="214" t="s">
+      <c r="O32" s="214"/>
+      <c r="P32" s="214"/>
+      <c r="Q32" s="214"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="215"/>
+      <c r="T32" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="215"/>
-      <c r="V32" s="215"/>
-      <c r="W32" s="215"/>
-      <c r="X32" s="215"/>
-      <c r="Y32" s="216"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="218"/>
     </row>
     <row r="33" spans="1:57">
       <c r="A33" s="198"/>
@@ -27749,67 +27739,67 @@
       <c r="A45" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="222" t="s">
+      <c r="B45" s="235" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="223"/>
-      <c r="D45" s="223"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="223"/>
-      <c r="G45" s="223"/>
-      <c r="H45" s="223"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="223"/>
-      <c r="K45" s="223"/>
-      <c r="L45" s="223"/>
-      <c r="M45" s="223"/>
-      <c r="N45" s="223"/>
-      <c r="O45" s="223"/>
-      <c r="P45" s="223"/>
-      <c r="Q45" s="223"/>
-      <c r="R45" s="223"/>
-      <c r="S45" s="223"/>
-      <c r="T45" s="223"/>
-      <c r="U45" s="223"/>
-      <c r="V45" s="223"/>
-      <c r="W45" s="223"/>
-      <c r="X45" s="223"/>
-      <c r="Y45" s="224"/>
+      <c r="C45" s="236"/>
+      <c r="D45" s="236"/>
+      <c r="E45" s="236"/>
+      <c r="F45" s="236"/>
+      <c r="G45" s="236"/>
+      <c r="H45" s="236"/>
+      <c r="I45" s="236"/>
+      <c r="J45" s="236"/>
+      <c r="K45" s="236"/>
+      <c r="L45" s="236"/>
+      <c r="M45" s="236"/>
+      <c r="N45" s="236"/>
+      <c r="O45" s="236"/>
+      <c r="P45" s="236"/>
+      <c r="Q45" s="236"/>
+      <c r="R45" s="236"/>
+      <c r="S45" s="236"/>
+      <c r="T45" s="236"/>
+      <c r="U45" s="236"/>
+      <c r="V45" s="236"/>
+      <c r="W45" s="236"/>
+      <c r="X45" s="236"/>
+      <c r="Y45" s="237"/>
     </row>
     <row r="46" spans="1:57">
       <c r="A46" s="197"/>
-      <c r="B46" s="211" t="s">
+      <c r="B46" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="212"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="212"/>
-      <c r="F46" s="212"/>
-      <c r="G46" s="213"/>
-      <c r="H46" s="211" t="s">
+      <c r="C46" s="228"/>
+      <c r="D46" s="228"/>
+      <c r="E46" s="228"/>
+      <c r="F46" s="228"/>
+      <c r="G46" s="229"/>
+      <c r="H46" s="227" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="212"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="212"/>
-      <c r="L46" s="212"/>
-      <c r="M46" s="213"/>
-      <c r="N46" s="211" t="s">
+      <c r="I46" s="228"/>
+      <c r="J46" s="228"/>
+      <c r="K46" s="228"/>
+      <c r="L46" s="228"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="212"/>
-      <c r="P46" s="212"/>
-      <c r="Q46" s="212"/>
-      <c r="R46" s="212"/>
-      <c r="S46" s="213"/>
-      <c r="T46" s="222" t="s">
+      <c r="O46" s="228"/>
+      <c r="P46" s="228"/>
+      <c r="Q46" s="228"/>
+      <c r="R46" s="228"/>
+      <c r="S46" s="229"/>
+      <c r="T46" s="235" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="223"/>
-      <c r="V46" s="223"/>
-      <c r="W46" s="223"/>
-      <c r="X46" s="223"/>
-      <c r="Y46" s="224"/>
+      <c r="U46" s="236"/>
+      <c r="V46" s="236"/>
+      <c r="W46" s="236"/>
+      <c r="X46" s="236"/>
+      <c r="Y46" s="237"/>
     </row>
     <row r="47" spans="1:57">
       <c r="A47" s="198"/>
@@ -28890,67 +28880,67 @@
       <c r="A59" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="199" t="s">
+      <c r="B59" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="200"/>
-      <c r="D59" s="200"/>
-      <c r="E59" s="200"/>
-      <c r="F59" s="200"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="200"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="200"/>
-      <c r="L59" s="200"/>
-      <c r="M59" s="200"/>
-      <c r="N59" s="200"/>
-      <c r="O59" s="200"/>
-      <c r="P59" s="200"/>
-      <c r="Q59" s="200"/>
-      <c r="R59" s="200"/>
-      <c r="S59" s="200"/>
-      <c r="T59" s="200"/>
-      <c r="U59" s="200"/>
-      <c r="V59" s="200"/>
-      <c r="W59" s="200"/>
-      <c r="X59" s="200"/>
-      <c r="Y59" s="201"/>
+      <c r="C59" s="239"/>
+      <c r="D59" s="239"/>
+      <c r="E59" s="239"/>
+      <c r="F59" s="239"/>
+      <c r="G59" s="239"/>
+      <c r="H59" s="239"/>
+      <c r="I59" s="239"/>
+      <c r="J59" s="239"/>
+      <c r="K59" s="239"/>
+      <c r="L59" s="239"/>
+      <c r="M59" s="239"/>
+      <c r="N59" s="239"/>
+      <c r="O59" s="239"/>
+      <c r="P59" s="239"/>
+      <c r="Q59" s="239"/>
+      <c r="R59" s="239"/>
+      <c r="S59" s="239"/>
+      <c r="T59" s="239"/>
+      <c r="U59" s="239"/>
+      <c r="V59" s="239"/>
+      <c r="W59" s="239"/>
+      <c r="X59" s="239"/>
+      <c r="Y59" s="240"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="197"/>
-      <c r="B60" s="202" t="s">
+      <c r="B60" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="203"/>
-      <c r="D60" s="203"/>
-      <c r="E60" s="203"/>
-      <c r="F60" s="203"/>
-      <c r="G60" s="204"/>
-      <c r="H60" s="202" t="s">
+      <c r="C60" s="242"/>
+      <c r="D60" s="242"/>
+      <c r="E60" s="242"/>
+      <c r="F60" s="242"/>
+      <c r="G60" s="243"/>
+      <c r="H60" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="203"/>
-      <c r="J60" s="203"/>
-      <c r="K60" s="203"/>
-      <c r="L60" s="203"/>
-      <c r="M60" s="204"/>
-      <c r="N60" s="202" t="s">
+      <c r="I60" s="242"/>
+      <c r="J60" s="242"/>
+      <c r="K60" s="242"/>
+      <c r="L60" s="242"/>
+      <c r="M60" s="243"/>
+      <c r="N60" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="203"/>
-      <c r="P60" s="203"/>
-      <c r="Q60" s="203"/>
-      <c r="R60" s="203"/>
-      <c r="S60" s="204"/>
-      <c r="T60" s="199" t="s">
+      <c r="O60" s="242"/>
+      <c r="P60" s="242"/>
+      <c r="Q60" s="242"/>
+      <c r="R60" s="242"/>
+      <c r="S60" s="243"/>
+      <c r="T60" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="U60" s="200"/>
-      <c r="V60" s="200"/>
-      <c r="W60" s="200"/>
-      <c r="X60" s="200"/>
-      <c r="Y60" s="201"/>
+      <c r="U60" s="239"/>
+      <c r="V60" s="239"/>
+      <c r="W60" s="239"/>
+      <c r="X60" s="239"/>
+      <c r="Y60" s="240"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="198"/>
@@ -29791,67 +29781,67 @@
       <c r="A73" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="230" t="s">
+      <c r="B73" s="207" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="231"/>
-      <c r="D73" s="231"/>
-      <c r="E73" s="231"/>
-      <c r="F73" s="231"/>
-      <c r="G73" s="231"/>
-      <c r="H73" s="231"/>
-      <c r="I73" s="231"/>
-      <c r="J73" s="231"/>
-      <c r="K73" s="231"/>
-      <c r="L73" s="231"/>
-      <c r="M73" s="231"/>
-      <c r="N73" s="231"/>
-      <c r="O73" s="231"/>
-      <c r="P73" s="231"/>
-      <c r="Q73" s="231"/>
-      <c r="R73" s="231"/>
-      <c r="S73" s="231"/>
-      <c r="T73" s="231"/>
-      <c r="U73" s="231"/>
-      <c r="V73" s="231"/>
-      <c r="W73" s="231"/>
-      <c r="X73" s="231"/>
-      <c r="Y73" s="232"/>
+      <c r="C73" s="208"/>
+      <c r="D73" s="208"/>
+      <c r="E73" s="208"/>
+      <c r="F73" s="208"/>
+      <c r="G73" s="208"/>
+      <c r="H73" s="208"/>
+      <c r="I73" s="208"/>
+      <c r="J73" s="208"/>
+      <c r="K73" s="208"/>
+      <c r="L73" s="208"/>
+      <c r="M73" s="208"/>
+      <c r="N73" s="208"/>
+      <c r="O73" s="208"/>
+      <c r="P73" s="208"/>
+      <c r="Q73" s="208"/>
+      <c r="R73" s="208"/>
+      <c r="S73" s="208"/>
+      <c r="T73" s="208"/>
+      <c r="U73" s="208"/>
+      <c r="V73" s="208"/>
+      <c r="W73" s="208"/>
+      <c r="X73" s="208"/>
+      <c r="Y73" s="209"/>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="197"/>
-      <c r="B74" s="233" t="s">
+      <c r="B74" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="234"/>
-      <c r="D74" s="234"/>
-      <c r="E74" s="234"/>
-      <c r="F74" s="234"/>
-      <c r="G74" s="235"/>
-      <c r="H74" s="233" t="s">
+      <c r="C74" s="211"/>
+      <c r="D74" s="211"/>
+      <c r="E74" s="211"/>
+      <c r="F74" s="211"/>
+      <c r="G74" s="212"/>
+      <c r="H74" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="234"/>
-      <c r="J74" s="234"/>
-      <c r="K74" s="234"/>
-      <c r="L74" s="234"/>
-      <c r="M74" s="235"/>
-      <c r="N74" s="233" t="s">
+      <c r="I74" s="211"/>
+      <c r="J74" s="211"/>
+      <c r="K74" s="211"/>
+      <c r="L74" s="211"/>
+      <c r="M74" s="212"/>
+      <c r="N74" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="234"/>
-      <c r="P74" s="234"/>
-      <c r="Q74" s="234"/>
-      <c r="R74" s="234"/>
-      <c r="S74" s="235"/>
-      <c r="T74" s="230" t="s">
+      <c r="O74" s="211"/>
+      <c r="P74" s="211"/>
+      <c r="Q74" s="211"/>
+      <c r="R74" s="211"/>
+      <c r="S74" s="212"/>
+      <c r="T74" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="U74" s="231"/>
-      <c r="V74" s="231"/>
-      <c r="W74" s="231"/>
-      <c r="X74" s="231"/>
-      <c r="Y74" s="232"/>
+      <c r="U74" s="208"/>
+      <c r="V74" s="208"/>
+      <c r="W74" s="208"/>
+      <c r="X74" s="208"/>
+      <c r="Y74" s="209"/>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="198"/>
@@ -30692,67 +30682,67 @@
       <c r="A87" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="238" t="s">
+      <c r="B87" s="199" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="239"/>
-      <c r="D87" s="239"/>
-      <c r="E87" s="239"/>
-      <c r="F87" s="239"/>
-      <c r="G87" s="239"/>
-      <c r="H87" s="239"/>
-      <c r="I87" s="239"/>
-      <c r="J87" s="239"/>
-      <c r="K87" s="239"/>
-      <c r="L87" s="239"/>
-      <c r="M87" s="239"/>
-      <c r="N87" s="239"/>
-      <c r="O87" s="239"/>
-      <c r="P87" s="239"/>
-      <c r="Q87" s="239"/>
-      <c r="R87" s="239"/>
-      <c r="S87" s="239"/>
-      <c r="T87" s="239"/>
-      <c r="U87" s="239"/>
-      <c r="V87" s="239"/>
-      <c r="W87" s="239"/>
-      <c r="X87" s="239"/>
-      <c r="Y87" s="240"/>
+      <c r="C87" s="200"/>
+      <c r="D87" s="200"/>
+      <c r="E87" s="200"/>
+      <c r="F87" s="200"/>
+      <c r="G87" s="200"/>
+      <c r="H87" s="200"/>
+      <c r="I87" s="200"/>
+      <c r="J87" s="200"/>
+      <c r="K87" s="200"/>
+      <c r="L87" s="200"/>
+      <c r="M87" s="200"/>
+      <c r="N87" s="200"/>
+      <c r="O87" s="200"/>
+      <c r="P87" s="200"/>
+      <c r="Q87" s="200"/>
+      <c r="R87" s="200"/>
+      <c r="S87" s="200"/>
+      <c r="T87" s="200"/>
+      <c r="U87" s="200"/>
+      <c r="V87" s="200"/>
+      <c r="W87" s="200"/>
+      <c r="X87" s="200"/>
+      <c r="Y87" s="201"/>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="197"/>
-      <c r="B88" s="241" t="s">
+      <c r="B88" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="242"/>
-      <c r="D88" s="242"/>
-      <c r="E88" s="242"/>
-      <c r="F88" s="242"/>
-      <c r="G88" s="243"/>
-      <c r="H88" s="241" t="s">
+      <c r="C88" s="203"/>
+      <c r="D88" s="203"/>
+      <c r="E88" s="203"/>
+      <c r="F88" s="203"/>
+      <c r="G88" s="204"/>
+      <c r="H88" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="242"/>
-      <c r="J88" s="242"/>
-      <c r="K88" s="242"/>
-      <c r="L88" s="242"/>
-      <c r="M88" s="243"/>
-      <c r="N88" s="241" t="s">
+      <c r="I88" s="203"/>
+      <c r="J88" s="203"/>
+      <c r="K88" s="203"/>
+      <c r="L88" s="203"/>
+      <c r="M88" s="204"/>
+      <c r="N88" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="242"/>
-      <c r="P88" s="242"/>
-      <c r="Q88" s="242"/>
-      <c r="R88" s="242"/>
-      <c r="S88" s="243"/>
-      <c r="T88" s="238" t="s">
+      <c r="O88" s="203"/>
+      <c r="P88" s="203"/>
+      <c r="Q88" s="203"/>
+      <c r="R88" s="203"/>
+      <c r="S88" s="204"/>
+      <c r="T88" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="U88" s="239"/>
-      <c r="V88" s="239"/>
-      <c r="W88" s="239"/>
-      <c r="X88" s="239"/>
-      <c r="Y88" s="240"/>
+      <c r="U88" s="200"/>
+      <c r="V88" s="200"/>
+      <c r="W88" s="200"/>
+      <c r="X88" s="200"/>
+      <c r="Y88" s="201"/>
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="198"/>
@@ -31591,12 +31581,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:Y87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="N88:S88"/>
-    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:Y59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="N60:S60"/>
+    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="N46:S46"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B45:Y45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="B17:Y17"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:Y73"/>
@@ -31613,25 +31616,12 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="N46:S46"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B45:Y45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="B17:Y17"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:Y59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="N60:S60"/>
-    <mergeCell ref="T60:Y60"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:Y87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="N88:S88"/>
+    <mergeCell ref="T88:Y88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -33391,19 +33381,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -33420,74 +33410,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -35199,10 +35189,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -35216,74 +35206,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -36971,10 +36961,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -36988,108 +36978,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -37892,7 +37882,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -37908,7 +37898,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -37924,7 +37914,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -37940,7 +37930,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -37956,7 +37946,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -37972,7 +37962,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -38015,7 +38005,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -38029,7 +38019,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -38043,7 +38033,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -38057,7 +38047,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -38071,7 +38061,7 @@
         <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -38085,7 +38075,7 @@
         <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -39555,14 +39545,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AR5:BF5"/>
-    <mergeCell ref="AR30:BF30"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="CC59:CC60"/>
-    <mergeCell ref="CR59:CR60"/>
-    <mergeCell ref="BN59:BN60"/>
-    <mergeCell ref="AY59:AY60"/>
-    <mergeCell ref="AJ59:AJ60"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A28:B28"/>
@@ -39579,6 +39561,14 @@
     <mergeCell ref="N30:AB30"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
+    <mergeCell ref="AR5:BF5"/>
+    <mergeCell ref="AR30:BF30"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="CC59:CC60"/>
+    <mergeCell ref="CR59:CR60"/>
+    <mergeCell ref="BN59:BN60"/>
+    <mergeCell ref="AY59:AY60"/>
+    <mergeCell ref="AJ59:AJ60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39606,19 +39596,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -39635,74 +39625,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -41415,10 +41405,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -41432,74 +41422,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -43187,10 +43177,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -43204,108 +43194,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -44108,7 +44098,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -44124,7 +44114,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -44140,7 +44130,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -44156,7 +44146,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -44172,7 +44162,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -44188,7 +44178,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -44231,7 +44221,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -44245,7 +44235,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -44259,7 +44249,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -44273,7 +44263,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -44287,7 +44277,7 @@
         <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -44301,7 +44291,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -45771,6 +45761,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -45783,18 +45785,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -45824,19 +45814,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -45853,74 +45843,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -47638,10 +47628,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -47655,74 +47645,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -49410,10 +49400,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -49427,108 +49417,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -50331,7 +50321,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -50347,7 +50337,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -50363,7 +50353,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -50379,7 +50369,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -50395,7 +50385,7 @@
         <f t="shared" si="25"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -50411,7 +50401,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -50454,7 +50444,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -50468,7 +50458,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -50482,7 +50472,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -50496,7 +50486,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -50510,7 +50500,7 @@
         <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -50524,7 +50514,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -51994,6 +51984,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -52006,18 +52008,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -52058,19 +52048,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -52087,74 +52077,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="75">
       <c r="A6" s="3" t="s">
@@ -53872,10 +53862,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -53889,74 +53879,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="75">
       <c r="A31" s="3" t="s">
@@ -55644,10 +55634,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -55661,108 +55651,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="75">
       <c r="A56" s="3" t="s">
@@ -56565,7 +56555,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -56581,7 +56571,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -56597,7 +56587,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -56613,7 +56603,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -56629,7 +56619,7 @@
         <f t="shared" si="26"/>
         <v>0.82</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -56645,7 +56635,7 @@
         <f t="shared" si="27"/>
         <v>0.12</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -56688,7 +56678,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -56702,7 +56692,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -56716,7 +56706,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -56730,7 +56720,7 @@
         <f t="shared" si="25"/>
         <v>0.94</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -56744,7 +56734,7 @@
         <f t="shared" si="26"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -56758,7 +56748,7 @@
         <f t="shared" si="27"/>
         <v>0.04</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -58229,6 +58219,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -58241,18 +58243,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -58281,19 +58271,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -58310,74 +58300,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -60095,10 +60085,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -60112,74 +60102,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -61867,10 +61857,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -61884,108 +61874,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -62788,7 +62778,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -62804,7 +62794,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -62820,7 +62810,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -62836,7 +62826,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -62852,7 +62842,7 @@
         <f t="shared" si="24"/>
         <v>0.5625</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -62868,7 +62858,7 @@
         <f t="shared" si="25"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -62911,7 +62901,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -62925,7 +62915,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -62939,7 +62929,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -62953,7 +62943,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -62967,7 +62957,7 @@
         <f t="shared" si="24"/>
         <v>0.625</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -62981,7 +62971,7 @@
         <f t="shared" si="25"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -64451,6 +64441,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -64463,18 +64465,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64503,19 +64493,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -64532,74 +64522,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -66317,10 +66307,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -66334,74 +66324,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -68088,10 +68078,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -68105,108 +68095,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -69009,7 +68999,7 @@
         <f t="shared" si="27"/>
         <v>0.99</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -69025,7 +69015,7 @@
         <f t="shared" si="20"/>
         <v>0.99</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -69041,7 +69031,7 @@
         <f t="shared" si="21"/>
         <v>0.99</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -69057,7 +69047,7 @@
         <f t="shared" si="22"/>
         <v>0.99</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -69073,7 +69063,7 @@
         <f t="shared" si="23"/>
         <v>0.39</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -69089,7 +69079,7 @@
         <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -69132,7 +69122,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -69146,7 +69136,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -69160,7 +69150,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -69174,7 +69164,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -69188,7 +69178,7 @@
         <f t="shared" si="23"/>
         <v>0.52</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -69202,7 +69192,7 @@
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -70676,6 +70666,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -70688,18 +70690,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70728,19 +70718,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -70757,74 +70747,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="174" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="175"/>
-      <c r="AE5" s="175"/>
-      <c r="AF5" s="175"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="175"/>
-      <c r="AI5" s="175"/>
-      <c r="AJ5" s="175"/>
-      <c r="AK5" s="175"/>
-      <c r="AL5" s="175"/>
-      <c r="AM5" s="175"/>
-      <c r="AN5" s="175"/>
-      <c r="AO5" s="175"/>
-      <c r="AP5" s="175"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="165"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="165"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -72542,10 +72532,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -72559,74 +72549,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="174" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="175"/>
-      <c r="AE30" s="175"/>
-      <c r="AF30" s="175"/>
-      <c r="AG30" s="175"/>
-      <c r="AH30" s="175"/>
-      <c r="AI30" s="175"/>
-      <c r="AJ30" s="175"/>
-      <c r="AK30" s="175"/>
-      <c r="AL30" s="175"/>
-      <c r="AM30" s="175"/>
-      <c r="AN30" s="175"/>
-      <c r="AO30" s="175"/>
-      <c r="AP30" s="175"/>
-      <c r="AQ30" s="176"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="165"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="165"/>
+      <c r="AG30" s="165"/>
+      <c r="AH30" s="165"/>
+      <c r="AI30" s="165"/>
+      <c r="AJ30" s="165"/>
+      <c r="AK30" s="165"/>
+      <c r="AL30" s="165"/>
+      <c r="AM30" s="165"/>
+      <c r="AN30" s="165"/>
+      <c r="AO30" s="165"/>
+      <c r="AP30" s="165"/>
+      <c r="AQ30" s="166"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -74314,10 +74304,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -74331,108 +74321,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="174" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="175"/>
-      <c r="AE55" s="175"/>
-      <c r="AF55" s="175"/>
-      <c r="AG55" s="175"/>
-      <c r="AH55" s="175"/>
-      <c r="AI55" s="175"/>
-      <c r="AJ55" s="175"/>
-      <c r="AK55" s="175"/>
-      <c r="AL55" s="175"/>
-      <c r="AM55" s="175"/>
-      <c r="AN55" s="175"/>
-      <c r="AO55" s="175"/>
-      <c r="AP55" s="175"/>
-      <c r="AQ55" s="176"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="165"/>
+      <c r="AE55" s="165"/>
+      <c r="AF55" s="165"/>
+      <c r="AG55" s="165"/>
+      <c r="AH55" s="165"/>
+      <c r="AI55" s="165"/>
+      <c r="AJ55" s="165"/>
+      <c r="AK55" s="165"/>
+      <c r="AL55" s="165"/>
+      <c r="AM55" s="165"/>
+      <c r="AN55" s="165"/>
+      <c r="AO55" s="165"/>
+      <c r="AP55" s="165"/>
+      <c r="AQ55" s="166"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -75235,7 +75225,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -75251,7 +75241,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -75267,7 +75257,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -75283,7 +75273,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -75299,7 +75289,7 @@
         <f t="shared" si="23"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -75315,7 +75305,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -75358,7 +75348,7 @@
         <f t="shared" si="27"/>
         <v>0.98</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -75372,7 +75362,7 @@
         <f t="shared" si="20"/>
         <v>0.98</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -75386,7 +75376,7 @@
         <f t="shared" si="21"/>
         <v>0.98</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -75400,7 +75390,7 @@
         <f t="shared" si="22"/>
         <v>0.98</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -75414,7 +75404,7 @@
         <f t="shared" si="23"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -75428,7 +75418,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -76903,6 +76893,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -76915,18 +76917,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -76954,19 +76944,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="169"/>
+      <c r="B3" s="182"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -76983,74 +76973,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="170" t="s">
+      <c r="N5" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="186" t="s">
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
+      <c r="AA5" s="184"/>
+      <c r="AB5" s="185"/>
+      <c r="AC5" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="187"/>
-      <c r="AE5" s="187"/>
-      <c r="AF5" s="187"/>
-      <c r="AG5" s="187"/>
-      <c r="AH5" s="187"/>
-      <c r="AI5" s="187"/>
-      <c r="AJ5" s="187"/>
-      <c r="AK5" s="187"/>
-      <c r="AL5" s="187"/>
-      <c r="AM5" s="187"/>
-      <c r="AN5" s="187"/>
-      <c r="AO5" s="187"/>
-      <c r="AP5" s="187"/>
-      <c r="AQ5" s="188"/>
-      <c r="AR5" s="189" t="s">
+      <c r="AD5" s="191"/>
+      <c r="AE5" s="191"/>
+      <c r="AF5" s="191"/>
+      <c r="AG5" s="191"/>
+      <c r="AH5" s="191"/>
+      <c r="AI5" s="191"/>
+      <c r="AJ5" s="191"/>
+      <c r="AK5" s="191"/>
+      <c r="AL5" s="191"/>
+      <c r="AM5" s="191"/>
+      <c r="AN5" s="191"/>
+      <c r="AO5" s="191"/>
+      <c r="AP5" s="191"/>
+      <c r="AQ5" s="192"/>
+      <c r="AR5" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="190"/>
-      <c r="AT5" s="190"/>
-      <c r="AU5" s="190"/>
-      <c r="AV5" s="190"/>
-      <c r="AW5" s="190"/>
-      <c r="AX5" s="190"/>
-      <c r="AY5" s="190"/>
-      <c r="AZ5" s="190"/>
-      <c r="BA5" s="190"/>
-      <c r="BB5" s="190"/>
-      <c r="BC5" s="190"/>
-      <c r="BD5" s="190"/>
-      <c r="BE5" s="190"/>
-      <c r="BF5" s="191"/>
-      <c r="BG5" s="192" t="s">
+      <c r="AS5" s="187"/>
+      <c r="AT5" s="187"/>
+      <c r="AU5" s="187"/>
+      <c r="AV5" s="187"/>
+      <c r="AW5" s="187"/>
+      <c r="AX5" s="187"/>
+      <c r="AY5" s="187"/>
+      <c r="AZ5" s="187"/>
+      <c r="BA5" s="187"/>
+      <c r="BB5" s="187"/>
+      <c r="BC5" s="187"/>
+      <c r="BD5" s="187"/>
+      <c r="BE5" s="187"/>
+      <c r="BF5" s="188"/>
+      <c r="BG5" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="193"/>
-      <c r="BI5" s="193"/>
-      <c r="BJ5" s="193"/>
-      <c r="BK5" s="193"/>
-      <c r="BL5" s="193"/>
-      <c r="BM5" s="193"/>
-      <c r="BN5" s="193"/>
-      <c r="BO5" s="193"/>
-      <c r="BP5" s="193"/>
-      <c r="BQ5" s="193"/>
-      <c r="BR5" s="193"/>
-      <c r="BS5" s="193"/>
-      <c r="BT5" s="193"/>
-      <c r="BU5" s="194"/>
+      <c r="BH5" s="194"/>
+      <c r="BI5" s="194"/>
+      <c r="BJ5" s="194"/>
+      <c r="BK5" s="194"/>
+      <c r="BL5" s="194"/>
+      <c r="BM5" s="194"/>
+      <c r="BN5" s="194"/>
+      <c r="BO5" s="194"/>
+      <c r="BP5" s="194"/>
+      <c r="BQ5" s="194"/>
+      <c r="BR5" s="194"/>
+      <c r="BS5" s="194"/>
+      <c r="BT5" s="194"/>
+      <c r="BU5" s="195"/>
     </row>
     <row r="6" spans="1:73" ht="60">
       <c r="A6" s="3" t="s">
@@ -78768,10 +78758,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="169" t="s">
+      <c r="A28" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="169"/>
+      <c r="B28" s="182"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -78785,74 +78775,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.75">
       <c r="H30" s="1"/>
-      <c r="N30" s="170" t="s">
+      <c r="N30" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="171"/>
-      <c r="P30" s="171"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="171"/>
-      <c r="S30" s="171"/>
-      <c r="T30" s="171"/>
-      <c r="U30" s="171"/>
-      <c r="V30" s="171"/>
-      <c r="W30" s="171"/>
-      <c r="X30" s="171"/>
-      <c r="Y30" s="171"/>
-      <c r="Z30" s="171"/>
-      <c r="AA30" s="171"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="186" t="s">
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
+      <c r="W30" s="184"/>
+      <c r="X30" s="184"/>
+      <c r="Y30" s="184"/>
+      <c r="Z30" s="184"/>
+      <c r="AA30" s="184"/>
+      <c r="AB30" s="185"/>
+      <c r="AC30" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="187"/>
-      <c r="AG30" s="187"/>
-      <c r="AH30" s="187"/>
-      <c r="AI30" s="187"/>
-      <c r="AJ30" s="187"/>
-      <c r="AK30" s="187"/>
-      <c r="AL30" s="187"/>
-      <c r="AM30" s="187"/>
-      <c r="AN30" s="187"/>
-      <c r="AO30" s="187"/>
-      <c r="AP30" s="187"/>
-      <c r="AQ30" s="188"/>
-      <c r="AR30" s="189" t="s">
+      <c r="AD30" s="191"/>
+      <c r="AE30" s="191"/>
+      <c r="AF30" s="191"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="191"/>
+      <c r="AJ30" s="191"/>
+      <c r="AK30" s="191"/>
+      <c r="AL30" s="191"/>
+      <c r="AM30" s="191"/>
+      <c r="AN30" s="191"/>
+      <c r="AO30" s="191"/>
+      <c r="AP30" s="191"/>
+      <c r="AQ30" s="192"/>
+      <c r="AR30" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="190"/>
-      <c r="AT30" s="190"/>
-      <c r="AU30" s="190"/>
-      <c r="AV30" s="190"/>
-      <c r="AW30" s="190"/>
-      <c r="AX30" s="190"/>
-      <c r="AY30" s="190"/>
-      <c r="AZ30" s="190"/>
-      <c r="BA30" s="190"/>
-      <c r="BB30" s="190"/>
-      <c r="BC30" s="190"/>
-      <c r="BD30" s="190"/>
-      <c r="BE30" s="190"/>
-      <c r="BF30" s="191"/>
-      <c r="BG30" s="192" t="s">
+      <c r="AS30" s="187"/>
+      <c r="AT30" s="187"/>
+      <c r="AU30" s="187"/>
+      <c r="AV30" s="187"/>
+      <c r="AW30" s="187"/>
+      <c r="AX30" s="187"/>
+      <c r="AY30" s="187"/>
+      <c r="AZ30" s="187"/>
+      <c r="BA30" s="187"/>
+      <c r="BB30" s="187"/>
+      <c r="BC30" s="187"/>
+      <c r="BD30" s="187"/>
+      <c r="BE30" s="187"/>
+      <c r="BF30" s="188"/>
+      <c r="BG30" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="193"/>
-      <c r="BI30" s="193"/>
-      <c r="BJ30" s="193"/>
-      <c r="BK30" s="193"/>
-      <c r="BL30" s="193"/>
-      <c r="BM30" s="193"/>
-      <c r="BN30" s="193"/>
-      <c r="BO30" s="193"/>
-      <c r="BP30" s="193"/>
-      <c r="BQ30" s="193"/>
-      <c r="BR30" s="193"/>
-      <c r="BS30" s="193"/>
-      <c r="BT30" s="193"/>
-      <c r="BU30" s="194"/>
+      <c r="BH30" s="194"/>
+      <c r="BI30" s="194"/>
+      <c r="BJ30" s="194"/>
+      <c r="BK30" s="194"/>
+      <c r="BL30" s="194"/>
+      <c r="BM30" s="194"/>
+      <c r="BN30" s="194"/>
+      <c r="BO30" s="194"/>
+      <c r="BP30" s="194"/>
+      <c r="BQ30" s="194"/>
+      <c r="BR30" s="194"/>
+      <c r="BS30" s="194"/>
+      <c r="BT30" s="194"/>
+      <c r="BU30" s="195"/>
     </row>
     <row r="31" spans="1:73" ht="60">
       <c r="A31" s="3" t="s">
@@ -80541,10 +80531,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="169"/>
+      <c r="B53" s="182"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -80558,108 +80548,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.75">
       <c r="H55" s="1"/>
-      <c r="N55" s="170" t="s">
+      <c r="N55" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="171"/>
-      <c r="AB55" s="172"/>
-      <c r="AC55" s="186" t="s">
+      <c r="O55" s="184"/>
+      <c r="P55" s="184"/>
+      <c r="Q55" s="184"/>
+      <c r="R55" s="184"/>
+      <c r="S55" s="184"/>
+      <c r="T55" s="184"/>
+      <c r="U55" s="184"/>
+      <c r="V55" s="184"/>
+      <c r="W55" s="184"/>
+      <c r="X55" s="184"/>
+      <c r="Y55" s="184"/>
+      <c r="Z55" s="184"/>
+      <c r="AA55" s="184"/>
+      <c r="AB55" s="185"/>
+      <c r="AC55" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="187"/>
-      <c r="AE55" s="187"/>
-      <c r="AF55" s="187"/>
-      <c r="AG55" s="187"/>
-      <c r="AH55" s="187"/>
-      <c r="AI55" s="187"/>
-      <c r="AJ55" s="187"/>
-      <c r="AK55" s="187"/>
-      <c r="AL55" s="187"/>
-      <c r="AM55" s="187"/>
-      <c r="AN55" s="187"/>
-      <c r="AO55" s="187"/>
-      <c r="AP55" s="187"/>
-      <c r="AQ55" s="188"/>
-      <c r="AR55" s="189" t="s">
+      <c r="AD55" s="191"/>
+      <c r="AE55" s="191"/>
+      <c r="AF55" s="191"/>
+      <c r="AG55" s="191"/>
+      <c r="AH55" s="191"/>
+      <c r="AI55" s="191"/>
+      <c r="AJ55" s="191"/>
+      <c r="AK55" s="191"/>
+      <c r="AL55" s="191"/>
+      <c r="AM55" s="191"/>
+      <c r="AN55" s="191"/>
+      <c r="AO55" s="191"/>
+      <c r="AP55" s="191"/>
+      <c r="AQ55" s="192"/>
+      <c r="AR55" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="190"/>
-      <c r="AT55" s="190"/>
-      <c r="AU55" s="190"/>
-      <c r="AV55" s="190"/>
-      <c r="AW55" s="190"/>
-      <c r="AX55" s="190"/>
-      <c r="AY55" s="190"/>
-      <c r="AZ55" s="190"/>
-      <c r="BA55" s="190"/>
-      <c r="BB55" s="190"/>
-      <c r="BC55" s="190"/>
-      <c r="BD55" s="190"/>
-      <c r="BE55" s="190"/>
-      <c r="BF55" s="191"/>
-      <c r="BG55" s="163" t="s">
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="188"/>
+      <c r="BG55" s="176" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="164"/>
-      <c r="BI55" s="164"/>
-      <c r="BJ55" s="164"/>
-      <c r="BK55" s="164"/>
-      <c r="BL55" s="164"/>
-      <c r="BM55" s="164"/>
-      <c r="BN55" s="164"/>
-      <c r="BO55" s="164"/>
-      <c r="BP55" s="164"/>
-      <c r="BQ55" s="164"/>
-      <c r="BR55" s="164"/>
-      <c r="BS55" s="164"/>
-      <c r="BT55" s="164"/>
-      <c r="BU55" s="165"/>
-      <c r="BV55" s="180" t="s">
+      <c r="BH55" s="177"/>
+      <c r="BI55" s="177"/>
+      <c r="BJ55" s="177"/>
+      <c r="BK55" s="177"/>
+      <c r="BL55" s="177"/>
+      <c r="BM55" s="177"/>
+      <c r="BN55" s="177"/>
+      <c r="BO55" s="177"/>
+      <c r="BP55" s="177"/>
+      <c r="BQ55" s="177"/>
+      <c r="BR55" s="177"/>
+      <c r="BS55" s="177"/>
+      <c r="BT55" s="177"/>
+      <c r="BU55" s="178"/>
+      <c r="BV55" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="181"/>
-      <c r="BX55" s="181"/>
-      <c r="BY55" s="181"/>
-      <c r="BZ55" s="181"/>
-      <c r="CA55" s="181"/>
-      <c r="CB55" s="181"/>
-      <c r="CC55" s="181"/>
-      <c r="CD55" s="181"/>
-      <c r="CE55" s="181"/>
-      <c r="CF55" s="181"/>
-      <c r="CG55" s="181"/>
-      <c r="CH55" s="181"/>
-      <c r="CI55" s="181"/>
-      <c r="CJ55" s="182"/>
-      <c r="CK55" s="183" t="s">
+      <c r="BW55" s="171"/>
+      <c r="BX55" s="171"/>
+      <c r="BY55" s="171"/>
+      <c r="BZ55" s="171"/>
+      <c r="CA55" s="171"/>
+      <c r="CB55" s="171"/>
+      <c r="CC55" s="171"/>
+      <c r="CD55" s="171"/>
+      <c r="CE55" s="171"/>
+      <c r="CF55" s="171"/>
+      <c r="CG55" s="171"/>
+      <c r="CH55" s="171"/>
+      <c r="CI55" s="171"/>
+      <c r="CJ55" s="172"/>
+      <c r="CK55" s="173" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="184"/>
-      <c r="CM55" s="184"/>
-      <c r="CN55" s="184"/>
-      <c r="CO55" s="184"/>
-      <c r="CP55" s="184"/>
-      <c r="CQ55" s="184"/>
-      <c r="CR55" s="184"/>
-      <c r="CS55" s="184"/>
-      <c r="CT55" s="184"/>
-      <c r="CU55" s="184"/>
-      <c r="CV55" s="184"/>
-      <c r="CW55" s="184"/>
-      <c r="CX55" s="184"/>
-      <c r="CY55" s="185"/>
+      <c r="CL55" s="174"/>
+      <c r="CM55" s="174"/>
+      <c r="CN55" s="174"/>
+      <c r="CO55" s="174"/>
+      <c r="CP55" s="174"/>
+      <c r="CQ55" s="174"/>
+      <c r="CR55" s="174"/>
+      <c r="CS55" s="174"/>
+      <c r="CT55" s="174"/>
+      <c r="CU55" s="174"/>
+      <c r="CV55" s="174"/>
+      <c r="CW55" s="174"/>
+      <c r="CX55" s="174"/>
+      <c r="CY55" s="175"/>
     </row>
     <row r="56" spans="1:103" ht="60">
       <c r="A56" s="3" t="s">
@@ -81462,7 +81452,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="195" t="s">
+      <c r="U59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -81478,7 +81468,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="195" t="s">
+      <c r="AJ59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -81494,7 +81484,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="195" t="s">
+      <c r="AY59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -81510,7 +81500,7 @@
         <f t="shared" si="22"/>
         <v>0.97599999999999998</v>
       </c>
-      <c r="BN59" s="195" t="s">
+      <c r="BN59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -81526,7 +81516,7 @@
         <f t="shared" si="23"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="CC59" s="195" t="s">
+      <c r="CC59" s="189" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -81542,7 +81532,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR59" s="195" t="s">
+      <c r="CR59" s="189" t="s">
         <v>52</v>
       </c>
     </row>
@@ -81585,7 +81575,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="173"/>
+      <c r="U60" s="163"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -81599,7 +81589,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="173"/>
+      <c r="AJ60" s="163"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -81613,7 +81603,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="173"/>
+      <c r="AY60" s="163"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -81627,7 +81617,7 @@
         <f t="shared" si="22"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="BN60" s="173"/>
+      <c r="BN60" s="163"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -81641,7 +81631,7 @@
         <f t="shared" si="23"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="CC60" s="173"/>
+      <c r="CC60" s="163"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -81655,7 +81645,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR60" s="173"/>
+      <c r="CR60" s="163"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -83127,6 +83117,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -83139,18 +83141,6 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="7335" tabRatio="619" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18738" windowHeight="7338" tabRatio="619" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Grafici" sheetId="13" r:id="rId11"/>
     <sheet name="Foglio9" sheetId="9" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1137,6 +1137,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1176,34 +1206,13 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1215,18 +1224,6 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1235,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1245,22 +1245,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1287,97 +1356,28 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1616,11 +1616,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="59440128"/>
-        <c:axId val="75929088"/>
+        <c:axId val="115881472"/>
+        <c:axId val="115892224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59440128"/>
+        <c:axId val="115881472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1646,12 +1646,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75929088"/>
+        <c:crossAx val="115892224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75929088"/>
+        <c:axId val="115892224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1676,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59440128"/>
+        <c:crossAx val="115881472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1688,7 +1688,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1914,11 +1914,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78688640"/>
-        <c:axId val="78690560"/>
+        <c:axId val="118268672"/>
+        <c:axId val="118270592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78688640"/>
+        <c:axId val="118268672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1945,12 +1945,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78690560"/>
+        <c:crossAx val="118270592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78690560"/>
+        <c:axId val="118270592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1981,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78688640"/>
+        <c:crossAx val="118268672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,7 +1994,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2029,7 +2029,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2212,11 +2211,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78720000"/>
-        <c:axId val="78742656"/>
+        <c:axId val="139599232"/>
+        <c:axId val="139621888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78720000"/>
+        <c:axId val="139599232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2238,17 +2237,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78742656"/>
+        <c:crossAx val="139621888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78742656"/>
+        <c:axId val="139621888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,26 +2273,25 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2393308088359449E-2"/>
-              <c:y val="0.1944837962962965"/>
+              <c:y val="0.19448379629629653"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78720000"/>
+        <c:crossAx val="139599232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2340,7 +2337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2520,11 +2516,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78788480"/>
-        <c:axId val="78798848"/>
+        <c:axId val="139651328"/>
+        <c:axId val="139661696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78788480"/>
+        <c:axId val="139651328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2546,17 +2542,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78798848"/>
+        <c:crossAx val="139661696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78798848"/>
+        <c:axId val="139661696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2584,24 +2579,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78788480"/>
+        <c:crossAx val="139651328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2636,7 +2629,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -2813,11 +2805,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78823808"/>
-        <c:axId val="78825728"/>
+        <c:axId val="139686656"/>
+        <c:axId val="139688576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78823808"/>
+        <c:axId val="139686656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2839,17 +2831,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78825728"/>
+        <c:crossAx val="139688576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78825728"/>
+        <c:axId val="139688576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,27 +2866,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329553E-2"/>
-              <c:y val="0.18272453703703728"/>
+              <c:x val="3.886053241432956E-2"/>
+              <c:y val="0.18272453703703731"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78823808"/>
+        <c:crossAx val="139686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2941,7 +2931,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3115,11 +3104,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79006336"/>
-        <c:axId val="79008512"/>
+        <c:axId val="139709440"/>
+        <c:axId val="139797632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79006336"/>
+        <c:axId val="139709440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3141,17 +3130,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79008512"/>
+        <c:crossAx val="139797632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79008512"/>
+        <c:axId val="139797632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3179,24 +3167,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79006336"/>
+        <c:crossAx val="139709440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4206,11 +4192,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79108736"/>
-        <c:axId val="79520512"/>
+        <c:axId val="139951104"/>
+        <c:axId val="139961472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79108736"/>
+        <c:axId val="139951104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4244,12 +4230,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79520512"/>
+        <c:crossAx val="139961472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79520512"/>
+        <c:axId val="139961472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="620"/>
@@ -4277,7 +4263,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79108736"/>
+        <c:crossAx val="139951104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -4291,7 +4277,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5291,11 +5277,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79915264"/>
-        <c:axId val="79933824"/>
+        <c:axId val="139778688"/>
+        <c:axId val="139846400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79915264"/>
+        <c:axId val="139778688"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5324,12 +5310,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79933824"/>
+        <c:crossAx val="139846400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79933824"/>
+        <c:axId val="139846400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5362,7 +5348,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79915264"/>
+        <c:crossAx val="139778688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5375,7 +5361,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6024,11 +6010,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80715776"/>
-        <c:axId val="80718080"/>
+        <c:axId val="140022144"/>
+        <c:axId val="140024448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80715776"/>
+        <c:axId val="140022144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6060,12 +6046,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80718080"/>
+        <c:crossAx val="140024448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80718080"/>
+        <c:axId val="140024448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6098,7 +6084,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80715776"/>
+        <c:crossAx val="140022144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6111,7 +6097,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6138,7 +6124,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6760,11 +6745,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84162432"/>
-        <c:axId val="84169088"/>
+        <c:axId val="140081408"/>
+        <c:axId val="140092160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84162432"/>
+        <c:axId val="140081408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6790,17 +6775,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84169088"/>
+        <c:crossAx val="140092160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84169088"/>
+        <c:axId val="140092160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,24 +6811,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84162432"/>
+        <c:crossAx val="140081408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6870,7 +6852,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7492,11 +7473,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84328448"/>
-        <c:axId val="84330752"/>
+        <c:axId val="140284288"/>
+        <c:axId val="140286592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84328448"/>
+        <c:axId val="140284288"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7525,17 +7506,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84330752"/>
+        <c:crossAx val="140286592"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84330752"/>
+        <c:axId val="140286592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7559,25 +7539,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84328448"/>
+        <c:crossAx val="140284288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7957,11 +7935,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78747136"/>
-        <c:axId val="78832384"/>
+        <c:axId val="116185344"/>
+        <c:axId val="99033472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78747136"/>
+        <c:axId val="116185344"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7987,12 +7965,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78832384"/>
+        <c:crossAx val="99033472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78832384"/>
+        <c:axId val="99033472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8018,14 +7996,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329553E-2"/>
+              <c:x val="3.886053241432956E-2"/>
               <c:y val="0.15693467965035673"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78747136"/>
+        <c:crossAx val="116185344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8037,7 +8015,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8063,7 +8041,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -8685,11 +8662,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84678912"/>
-        <c:axId val="84718336"/>
+        <c:axId val="140216960"/>
+        <c:axId val="140235904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84678912"/>
+        <c:axId val="140216960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -8716,17 +8693,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84718336"/>
+        <c:crossAx val="140235904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84718336"/>
+        <c:axId val="140235904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8754,25 +8730,23 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84678912"/>
+        <c:crossAx val="140216960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8996,11 +8970,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79142272"/>
-        <c:axId val="79501952"/>
+        <c:axId val="99058816"/>
+        <c:axId val="99060736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79142272"/>
+        <c:axId val="99058816"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9026,12 +9000,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79501952"/>
+        <c:crossAx val="99060736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79501952"/>
+        <c:axId val="99060736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9062,7 +9036,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79142272"/>
+        <c:crossAx val="99058816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9074,7 +9048,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9120,7 +9094,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -9466,11 +9439,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76367360"/>
-        <c:axId val="76369280"/>
+        <c:axId val="117978624"/>
+        <c:axId val="117980544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76367360"/>
+        <c:axId val="117978624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9492,17 +9465,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76369280"/>
+        <c:crossAx val="117980544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76369280"/>
+        <c:axId val="117980544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9530,24 +9502,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76367360"/>
+        <c:crossAx val="117978624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9927,11 +9897,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76494720"/>
-        <c:axId val="76513280"/>
+        <c:axId val="117901184"/>
+        <c:axId val="117911552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76494720"/>
+        <c:axId val="117901184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9957,12 +9927,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76513280"/>
+        <c:crossAx val="117911552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76513280"/>
+        <c:axId val="117911552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9987,7 +9957,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76494720"/>
+        <c:crossAx val="117901184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9999,7 +9969,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10388,11 +10358,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78006528"/>
-        <c:axId val="78020992"/>
+        <c:axId val="118098176"/>
+        <c:axId val="118104448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78006528"/>
+        <c:axId val="118098176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10419,12 +10389,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78020992"/>
+        <c:crossAx val="118104448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78020992"/>
+        <c:axId val="118104448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10456,7 +10426,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78006528"/>
+        <c:crossAx val="118098176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10469,7 +10439,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10849,11 +10819,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78088832"/>
-        <c:axId val="78172928"/>
+        <c:axId val="118131328"/>
+        <c:axId val="118162176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78088832"/>
+        <c:axId val="118131328"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10879,12 +10849,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78172928"/>
+        <c:crossAx val="118162176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78172928"/>
+        <c:axId val="118162176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10910,14 +10880,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8871550810709796E-2"/>
+              <c:x val="3.8871550810709803E-2"/>
               <c:y val="0.15920601851851851"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78088832"/>
+        <c:crossAx val="118131328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10929,7 +10899,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11321,11 +11291,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78187520"/>
-        <c:axId val="78201984"/>
+        <c:axId val="118180864"/>
+        <c:axId val="118191232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78187520"/>
+        <c:axId val="118180864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11352,12 +11322,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78201984"/>
+        <c:crossAx val="118191232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78201984"/>
+        <c:axId val="118191232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11389,7 +11359,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78187520"/>
+        <c:crossAx val="118180864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11402,7 +11372,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11437,7 +11407,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:spPr>
         <a:noFill/>
       </c:spPr>
@@ -11620,11 +11589,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78235136"/>
-        <c:axId val="78237056"/>
+        <c:axId val="118224768"/>
+        <c:axId val="118239232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78235136"/>
+        <c:axId val="118224768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11646,17 +11615,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78237056"/>
+        <c:crossAx val="118239232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78237056"/>
+        <c:axId val="118239232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11682,27 +11650,26 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329553E-2"/>
-              <c:y val="0.20624305555555578"/>
+              <c:x val="3.886053241432956E-2"/>
+              <c:y val="0.2062430555555558"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78235136"/>
+        <c:crossAx val="118224768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12605,46 +12572,46 @@
       <selection activeCell="BM70" sqref="BM70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.15625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="37" width="8.85546875" customWidth="1"/>
-    <col min="39" max="39" width="8.28515625" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="52" width="8.85546875" customWidth="1"/>
-    <col min="58" max="58" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.42578125" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" customWidth="1"/>
+    <col min="17" max="17" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83984375" customWidth="1"/>
+    <col min="21" max="21" width="10.578125" customWidth="1"/>
+    <col min="24" max="24" width="8.41796875" customWidth="1"/>
+    <col min="26" max="26" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="29" max="37" width="8.83984375" customWidth="1"/>
+    <col min="39" max="39" width="8.26171875" customWidth="1"/>
+    <col min="42" max="42" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="44" max="52" width="8.83984375" customWidth="1"/>
+    <col min="58" max="58" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.41796875" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -12660,77 +12627,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="164" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="167" t="s">
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="168"/>
-      <c r="AU5" s="168"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="168"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="168"/>
-      <c r="BB5" s="168"/>
-      <c r="BC5" s="168"/>
-      <c r="BD5" s="168"/>
-      <c r="BE5" s="168"/>
-      <c r="BF5" s="169"/>
-      <c r="BG5" s="176" t="s">
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="178"/>
+      <c r="AU5" s="178"/>
+      <c r="AV5" s="178"/>
+      <c r="AW5" s="178"/>
+      <c r="AX5" s="178"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="178"/>
+      <c r="BB5" s="178"/>
+      <c r="BC5" s="178"/>
+      <c r="BD5" s="178"/>
+      <c r="BE5" s="178"/>
+      <c r="BF5" s="179"/>
+      <c r="BG5" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="177"/>
-      <c r="BI5" s="177"/>
-      <c r="BJ5" s="177"/>
-      <c r="BK5" s="177"/>
-      <c r="BL5" s="177"/>
-      <c r="BM5" s="177"/>
-      <c r="BN5" s="177"/>
-      <c r="BO5" s="177"/>
-      <c r="BP5" s="177"/>
-      <c r="BQ5" s="177"/>
-      <c r="BR5" s="177"/>
-      <c r="BS5" s="177"/>
-      <c r="BT5" s="177"/>
-      <c r="BU5" s="178"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="164"/>
+      <c r="BI5" s="164"/>
+      <c r="BJ5" s="164"/>
+      <c r="BK5" s="164"/>
+      <c r="BL5" s="164"/>
+      <c r="BM5" s="164"/>
+      <c r="BN5" s="164"/>
+      <c r="BO5" s="164"/>
+      <c r="BP5" s="164"/>
+      <c r="BQ5" s="164"/>
+      <c r="BR5" s="164"/>
+      <c r="BS5" s="164"/>
+      <c r="BT5" s="164"/>
+      <c r="BU5" s="165"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -14451,10 +14418,10 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="4"/>
@@ -14471,79 +14438,79 @@
       <c r="G29" s="1"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="G30" s="1"/>
       <c r="J30" s="6"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="164" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="166"/>
-      <c r="AR30" s="167" t="s">
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="175"/>
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="175"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="168"/>
-      <c r="AT30" s="168"/>
-      <c r="AU30" s="168"/>
-      <c r="AV30" s="168"/>
-      <c r="AW30" s="168"/>
-      <c r="AX30" s="168"/>
-      <c r="AY30" s="168"/>
-      <c r="AZ30" s="168"/>
-      <c r="BA30" s="168"/>
-      <c r="BB30" s="168"/>
-      <c r="BC30" s="168"/>
-      <c r="BD30" s="168"/>
-      <c r="BE30" s="168"/>
-      <c r="BF30" s="169"/>
-      <c r="BG30" s="176" t="s">
+      <c r="AS30" s="178"/>
+      <c r="AT30" s="178"/>
+      <c r="AU30" s="178"/>
+      <c r="AV30" s="178"/>
+      <c r="AW30" s="178"/>
+      <c r="AX30" s="178"/>
+      <c r="AY30" s="178"/>
+      <c r="AZ30" s="178"/>
+      <c r="BA30" s="178"/>
+      <c r="BB30" s="178"/>
+      <c r="BC30" s="178"/>
+      <c r="BD30" s="178"/>
+      <c r="BE30" s="178"/>
+      <c r="BF30" s="179"/>
+      <c r="BG30" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="177"/>
-      <c r="BI30" s="177"/>
-      <c r="BJ30" s="177"/>
-      <c r="BK30" s="177"/>
-      <c r="BL30" s="177"/>
-      <c r="BM30" s="177"/>
-      <c r="BN30" s="177"/>
-      <c r="BO30" s="177"/>
-      <c r="BP30" s="177"/>
-      <c r="BQ30" s="177"/>
-      <c r="BR30" s="177"/>
-      <c r="BS30" s="177"/>
-      <c r="BT30" s="177"/>
-      <c r="BU30" s="178"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="164"/>
+      <c r="BI30" s="164"/>
+      <c r="BJ30" s="164"/>
+      <c r="BK30" s="164"/>
+      <c r="BL30" s="164"/>
+      <c r="BM30" s="164"/>
+      <c r="BN30" s="164"/>
+      <c r="BO30" s="164"/>
+      <c r="BP30" s="164"/>
+      <c r="BQ30" s="164"/>
+      <c r="BR30" s="164"/>
+      <c r="BS30" s="164"/>
+      <c r="BT30" s="164"/>
+      <c r="BU30" s="165"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -16231,10 +16198,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="4"/>
@@ -16251,113 +16218,113 @@
       <c r="G54" s="1"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="G55" s="1"/>
       <c r="J55" s="6"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="164" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="165"/>
-      <c r="AE55" s="165"/>
-      <c r="AF55" s="165"/>
-      <c r="AG55" s="165"/>
-      <c r="AH55" s="165"/>
-      <c r="AI55" s="165"/>
-      <c r="AJ55" s="165"/>
-      <c r="AK55" s="165"/>
-      <c r="AL55" s="165"/>
-      <c r="AM55" s="165"/>
-      <c r="AN55" s="165"/>
-      <c r="AO55" s="165"/>
-      <c r="AP55" s="165"/>
-      <c r="AQ55" s="166"/>
-      <c r="AR55" s="167" t="s">
+      <c r="AD55" s="175"/>
+      <c r="AE55" s="175"/>
+      <c r="AF55" s="175"/>
+      <c r="AG55" s="175"/>
+      <c r="AH55" s="175"/>
+      <c r="AI55" s="175"/>
+      <c r="AJ55" s="175"/>
+      <c r="AK55" s="175"/>
+      <c r="AL55" s="175"/>
+      <c r="AM55" s="175"/>
+      <c r="AN55" s="175"/>
+      <c r="AO55" s="175"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="176"/>
+      <c r="AR55" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="168"/>
-      <c r="AT55" s="168"/>
-      <c r="AU55" s="168"/>
-      <c r="AV55" s="168"/>
-      <c r="AW55" s="168"/>
-      <c r="AX55" s="168"/>
-      <c r="AY55" s="168"/>
-      <c r="AZ55" s="168"/>
-      <c r="BA55" s="168"/>
-      <c r="BB55" s="168"/>
-      <c r="BC55" s="168"/>
-      <c r="BD55" s="168"/>
-      <c r="BE55" s="168"/>
-      <c r="BF55" s="169"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="178"/>
+      <c r="AT55" s="178"/>
+      <c r="AU55" s="178"/>
+      <c r="AV55" s="178"/>
+      <c r="AW55" s="178"/>
+      <c r="AX55" s="178"/>
+      <c r="AY55" s="178"/>
+      <c r="AZ55" s="178"/>
+      <c r="BA55" s="178"/>
+      <c r="BB55" s="178"/>
+      <c r="BC55" s="178"/>
+      <c r="BD55" s="178"/>
+      <c r="BE55" s="178"/>
+      <c r="BF55" s="179"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -17160,7 +17127,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="163" t="s">
+      <c r="U59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -17176,7 +17143,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="163" t="s">
+      <c r="AJ59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -17192,7 +17159,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="163" t="s">
+      <c r="AY59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -17208,7 +17175,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="163" t="s">
+      <c r="BN59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -17224,7 +17191,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC59" s="163" t="s">
+      <c r="CC59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -17240,7 +17207,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR59" s="163" t="s">
+      <c r="CR59" s="173" t="s">
         <v>52</v>
       </c>
     </row>
@@ -17283,7 +17250,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -17297,7 +17264,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -17311,7 +17278,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -17325,7 +17292,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -17339,7 +17306,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -17353,7 +17320,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -18821,14 +18788,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
@@ -18845,6 +18804,14 @@
     <mergeCell ref="AR55:BF55"/>
     <mergeCell ref="BG5:BU5"/>
     <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -18860,33 +18827,33 @@
       <selection activeCell="BN61" sqref="BN61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -18902,77 +18869,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -20688,10 +20655,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -20703,78 +20670,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -22460,10 +22427,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -22475,112 +22442,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -23381,7 +23348,7 @@
         <f t="shared" si="27"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -23397,7 +23364,7 @@
         <f t="shared" si="20"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -23413,7 +23380,7 @@
         <f t="shared" si="21"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -23429,7 +23396,7 @@
         <f t="shared" si="22"/>
         <v>0.96099999999999997</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -23445,7 +23412,7 @@
         <f t="shared" si="23"/>
         <v>0.317</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -23461,7 +23428,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -23504,7 +23471,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -23518,7 +23485,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -23532,7 +23499,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -23546,7 +23513,7 @@
         <f t="shared" si="22"/>
         <v>0.89900000000000002</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -23560,7 +23527,7 @@
         <f t="shared" si="23"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -23574,7 +23541,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -25044,18 +25011,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="N5:AB5"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -25068,6 +25023,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -25083,54 +25050,54 @@
       <selection activeCell="BA63" sqref="BA63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" customWidth="1"/>
+    <col min="3" max="3" width="2.68359375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.68359375" customWidth="1"/>
     <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83984375" customWidth="1"/>
+    <col min="8" max="8" width="9.15625" customWidth="1"/>
+    <col min="9" max="9" width="2.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.15625" customWidth="1"/>
+    <col min="11" max="11" width="11.68359375" customWidth="1"/>
+    <col min="12" max="12" width="2.68359375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.15625" customWidth="1"/>
+    <col min="15" max="15" width="2.68359375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.68359375" customWidth="1"/>
+    <col min="18" max="18" width="2.68359375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
-    <col min="24" max="24" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" customWidth="1"/>
-    <col min="28" max="31" width="9.140625" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" customWidth="1"/>
-    <col min="35" max="37" width="9.140625" customWidth="1"/>
-    <col min="39" max="39" width="9.140625" customWidth="1"/>
-    <col min="41" max="43" width="9.140625" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" customWidth="1"/>
-    <col min="54" max="54" width="9.140625" customWidth="1"/>
-    <col min="57" max="57" width="9.140625" customWidth="1"/>
-    <col min="60" max="60" width="9.140625" customWidth="1"/>
-    <col min="63" max="63" width="9.140625" customWidth="1"/>
-    <col min="66" max="66" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.578125" customWidth="1"/>
+    <col min="21" max="21" width="2.68359375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.68359375" customWidth="1"/>
+    <col min="23" max="23" width="11.68359375" customWidth="1"/>
+    <col min="24" max="24" width="2.68359375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.68359375" customWidth="1"/>
+    <col min="26" max="26" width="10.41796875" customWidth="1"/>
+    <col min="27" max="27" width="10.578125" customWidth="1"/>
+    <col min="28" max="31" width="9.15625" customWidth="1"/>
+    <col min="33" max="33" width="9.15625" customWidth="1"/>
+    <col min="35" max="37" width="9.15625" customWidth="1"/>
+    <col min="39" max="39" width="9.15625" customWidth="1"/>
+    <col min="41" max="43" width="9.15625" customWidth="1"/>
+    <col min="45" max="45" width="9.15625" customWidth="1"/>
+    <col min="48" max="48" width="9.15625" customWidth="1"/>
+    <col min="51" max="51" width="9.15625" customWidth="1"/>
+    <col min="54" max="54" width="9.15625" customWidth="1"/>
+    <col min="57" max="57" width="9.15625" customWidth="1"/>
+    <col min="60" max="60" width="9.15625" customWidth="1"/>
+    <col min="63" max="63" width="9.15625" customWidth="1"/>
+    <col min="66" max="66" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1">
-      <c r="B1" s="205" t="s">
+    <row r="1" spans="1:7" ht="26.1" thickBot="1">
+      <c r="B1" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="206"/>
+      <c r="C1" s="229"/>
       <c r="F1">
         <f ca="1">INDIRECT(A6&amp;"!$N$7")</f>
         <v>1</v>
@@ -25140,27 +25107,27 @@
       <c r="A3" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="197"/>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="225" t="s">
+      <c r="C4" s="218"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="198"/>
@@ -25391,67 +25358,67 @@
       <c r="A17" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="224"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="227"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="197"/>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="219" t="s">
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="219" t="s">
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="220"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="220"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="222" t="s">
+      <c r="O18" s="206"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="206"/>
+      <c r="R18" s="206"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="223"/>
-      <c r="V18" s="223"/>
-      <c r="W18" s="223"/>
-      <c r="X18" s="223"/>
-      <c r="Y18" s="224"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="227"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="198"/>
@@ -26532,67 +26499,67 @@
       <c r="A31" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="217"/>
-      <c r="M31" s="217"/>
-      <c r="N31" s="217"/>
-      <c r="O31" s="217"/>
-      <c r="P31" s="217"/>
-      <c r="Q31" s="217"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="218"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
+      <c r="R31" s="215"/>
+      <c r="S31" s="215"/>
+      <c r="T31" s="215"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="215"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="216"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="197"/>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="214"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="213" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="215"/>
-      <c r="N32" s="213" t="s">
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="O32" s="214"/>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="215"/>
-      <c r="T32" s="216" t="s">
+      <c r="O32" s="209"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="209"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="218"/>
+      <c r="U32" s="215"/>
+      <c r="V32" s="215"/>
+      <c r="W32" s="215"/>
+      <c r="X32" s="215"/>
+      <c r="Y32" s="216"/>
     </row>
     <row r="33" spans="1:57">
       <c r="A33" s="198"/>
@@ -27739,67 +27706,67 @@
       <c r="A45" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="235" t="s">
+      <c r="B45" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="236"/>
-      <c r="M45" s="236"/>
-      <c r="N45" s="236"/>
-      <c r="O45" s="236"/>
-      <c r="P45" s="236"/>
-      <c r="Q45" s="236"/>
-      <c r="R45" s="236"/>
-      <c r="S45" s="236"/>
-      <c r="T45" s="236"/>
-      <c r="U45" s="236"/>
-      <c r="V45" s="236"/>
-      <c r="W45" s="236"/>
-      <c r="X45" s="236"/>
-      <c r="Y45" s="237"/>
+      <c r="C45" s="223"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="223"/>
+      <c r="G45" s="223"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="223"/>
+      <c r="K45" s="223"/>
+      <c r="L45" s="223"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="223"/>
+      <c r="O45" s="223"/>
+      <c r="P45" s="223"/>
+      <c r="Q45" s="223"/>
+      <c r="R45" s="223"/>
+      <c r="S45" s="223"/>
+      <c r="T45" s="223"/>
+      <c r="U45" s="223"/>
+      <c r="V45" s="223"/>
+      <c r="W45" s="223"/>
+      <c r="X45" s="223"/>
+      <c r="Y45" s="224"/>
     </row>
     <row r="46" spans="1:57">
       <c r="A46" s="197"/>
-      <c r="B46" s="227" t="s">
+      <c r="B46" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="228"/>
-      <c r="D46" s="228"/>
-      <c r="E46" s="228"/>
-      <c r="F46" s="228"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="227" t="s">
+      <c r="C46" s="212"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="228"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="228"/>
-      <c r="L46" s="228"/>
-      <c r="M46" s="229"/>
-      <c r="N46" s="227" t="s">
+      <c r="I46" s="212"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="212"/>
+      <c r="L46" s="212"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="228"/>
-      <c r="P46" s="228"/>
-      <c r="Q46" s="228"/>
-      <c r="R46" s="228"/>
-      <c r="S46" s="229"/>
-      <c r="T46" s="235" t="s">
+      <c r="O46" s="212"/>
+      <c r="P46" s="212"/>
+      <c r="Q46" s="212"/>
+      <c r="R46" s="212"/>
+      <c r="S46" s="213"/>
+      <c r="T46" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="236"/>
-      <c r="V46" s="236"/>
-      <c r="W46" s="236"/>
-      <c r="X46" s="236"/>
-      <c r="Y46" s="237"/>
+      <c r="U46" s="223"/>
+      <c r="V46" s="223"/>
+      <c r="W46" s="223"/>
+      <c r="X46" s="223"/>
+      <c r="Y46" s="224"/>
     </row>
     <row r="47" spans="1:57">
       <c r="A47" s="198"/>
@@ -28880,67 +28847,67 @@
       <c r="A59" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="238" t="s">
+      <c r="B59" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="239"/>
-      <c r="D59" s="239"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="239"/>
-      <c r="G59" s="239"/>
-      <c r="H59" s="239"/>
-      <c r="I59" s="239"/>
-      <c r="J59" s="239"/>
-      <c r="K59" s="239"/>
-      <c r="L59" s="239"/>
-      <c r="M59" s="239"/>
-      <c r="N59" s="239"/>
-      <c r="O59" s="239"/>
-      <c r="P59" s="239"/>
-      <c r="Q59" s="239"/>
-      <c r="R59" s="239"/>
-      <c r="S59" s="239"/>
-      <c r="T59" s="239"/>
-      <c r="U59" s="239"/>
-      <c r="V59" s="239"/>
-      <c r="W59" s="239"/>
-      <c r="X59" s="239"/>
-      <c r="Y59" s="240"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="200"/>
+      <c r="G59" s="200"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="200"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="200"/>
+      <c r="N59" s="200"/>
+      <c r="O59" s="200"/>
+      <c r="P59" s="200"/>
+      <c r="Q59" s="200"/>
+      <c r="R59" s="200"/>
+      <c r="S59" s="200"/>
+      <c r="T59" s="200"/>
+      <c r="U59" s="200"/>
+      <c r="V59" s="200"/>
+      <c r="W59" s="200"/>
+      <c r="X59" s="200"/>
+      <c r="Y59" s="201"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="197"/>
-      <c r="B60" s="241" t="s">
+      <c r="B60" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="242"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="242"/>
-      <c r="F60" s="242"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="241" t="s">
+      <c r="C60" s="203"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="203"/>
+      <c r="F60" s="203"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
-      <c r="K60" s="242"/>
-      <c r="L60" s="242"/>
-      <c r="M60" s="243"/>
-      <c r="N60" s="241" t="s">
+      <c r="I60" s="203"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="203"/>
+      <c r="L60" s="203"/>
+      <c r="M60" s="204"/>
+      <c r="N60" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="242"/>
-      <c r="P60" s="242"/>
-      <c r="Q60" s="242"/>
-      <c r="R60" s="242"/>
-      <c r="S60" s="243"/>
-      <c r="T60" s="238" t="s">
+      <c r="O60" s="203"/>
+      <c r="P60" s="203"/>
+      <c r="Q60" s="203"/>
+      <c r="R60" s="203"/>
+      <c r="S60" s="204"/>
+      <c r="T60" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="U60" s="239"/>
-      <c r="V60" s="239"/>
-      <c r="W60" s="239"/>
-      <c r="X60" s="239"/>
-      <c r="Y60" s="240"/>
+      <c r="U60" s="200"/>
+      <c r="V60" s="200"/>
+      <c r="W60" s="200"/>
+      <c r="X60" s="200"/>
+      <c r="Y60" s="201"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="198"/>
@@ -29781,67 +29748,67 @@
       <c r="A73" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="207" t="s">
+      <c r="B73" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="208"/>
-      <c r="D73" s="208"/>
-      <c r="E73" s="208"/>
-      <c r="F73" s="208"/>
-      <c r="G73" s="208"/>
-      <c r="H73" s="208"/>
-      <c r="I73" s="208"/>
-      <c r="J73" s="208"/>
-      <c r="K73" s="208"/>
-      <c r="L73" s="208"/>
-      <c r="M73" s="208"/>
-      <c r="N73" s="208"/>
-      <c r="O73" s="208"/>
-      <c r="P73" s="208"/>
-      <c r="Q73" s="208"/>
-      <c r="R73" s="208"/>
-      <c r="S73" s="208"/>
-      <c r="T73" s="208"/>
-      <c r="U73" s="208"/>
-      <c r="V73" s="208"/>
-      <c r="W73" s="208"/>
-      <c r="X73" s="208"/>
-      <c r="Y73" s="209"/>
+      <c r="C73" s="231"/>
+      <c r="D73" s="231"/>
+      <c r="E73" s="231"/>
+      <c r="F73" s="231"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="231"/>
+      <c r="I73" s="231"/>
+      <c r="J73" s="231"/>
+      <c r="K73" s="231"/>
+      <c r="L73" s="231"/>
+      <c r="M73" s="231"/>
+      <c r="N73" s="231"/>
+      <c r="O73" s="231"/>
+      <c r="P73" s="231"/>
+      <c r="Q73" s="231"/>
+      <c r="R73" s="231"/>
+      <c r="S73" s="231"/>
+      <c r="T73" s="231"/>
+      <c r="U73" s="231"/>
+      <c r="V73" s="231"/>
+      <c r="W73" s="231"/>
+      <c r="X73" s="231"/>
+      <c r="Y73" s="232"/>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="197"/>
-      <c r="B74" s="210" t="s">
+      <c r="B74" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="211"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="211"/>
-      <c r="F74" s="211"/>
-      <c r="G74" s="212"/>
-      <c r="H74" s="210" t="s">
+      <c r="C74" s="234"/>
+      <c r="D74" s="234"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="234"/>
+      <c r="G74" s="235"/>
+      <c r="H74" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="211"/>
-      <c r="J74" s="211"/>
-      <c r="K74" s="211"/>
-      <c r="L74" s="211"/>
-      <c r="M74" s="212"/>
-      <c r="N74" s="210" t="s">
+      <c r="I74" s="234"/>
+      <c r="J74" s="234"/>
+      <c r="K74" s="234"/>
+      <c r="L74" s="234"/>
+      <c r="M74" s="235"/>
+      <c r="N74" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="211"/>
-      <c r="P74" s="211"/>
-      <c r="Q74" s="211"/>
-      <c r="R74" s="211"/>
-      <c r="S74" s="212"/>
-      <c r="T74" s="207" t="s">
+      <c r="O74" s="234"/>
+      <c r="P74" s="234"/>
+      <c r="Q74" s="234"/>
+      <c r="R74" s="234"/>
+      <c r="S74" s="235"/>
+      <c r="T74" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="U74" s="208"/>
-      <c r="V74" s="208"/>
-      <c r="W74" s="208"/>
-      <c r="X74" s="208"/>
-      <c r="Y74" s="209"/>
+      <c r="U74" s="231"/>
+      <c r="V74" s="231"/>
+      <c r="W74" s="231"/>
+      <c r="X74" s="231"/>
+      <c r="Y74" s="232"/>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="198"/>
@@ -30682,67 +30649,67 @@
       <c r="A87" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="199" t="s">
+      <c r="B87" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="200"/>
-      <c r="D87" s="200"/>
-      <c r="E87" s="200"/>
-      <c r="F87" s="200"/>
-      <c r="G87" s="200"/>
-      <c r="H87" s="200"/>
-      <c r="I87" s="200"/>
-      <c r="J87" s="200"/>
-      <c r="K87" s="200"/>
-      <c r="L87" s="200"/>
-      <c r="M87" s="200"/>
-      <c r="N87" s="200"/>
-      <c r="O87" s="200"/>
-      <c r="P87" s="200"/>
-      <c r="Q87" s="200"/>
-      <c r="R87" s="200"/>
-      <c r="S87" s="200"/>
-      <c r="T87" s="200"/>
-      <c r="U87" s="200"/>
-      <c r="V87" s="200"/>
-      <c r="W87" s="200"/>
-      <c r="X87" s="200"/>
-      <c r="Y87" s="201"/>
+      <c r="C87" s="239"/>
+      <c r="D87" s="239"/>
+      <c r="E87" s="239"/>
+      <c r="F87" s="239"/>
+      <c r="G87" s="239"/>
+      <c r="H87" s="239"/>
+      <c r="I87" s="239"/>
+      <c r="J87" s="239"/>
+      <c r="K87" s="239"/>
+      <c r="L87" s="239"/>
+      <c r="M87" s="239"/>
+      <c r="N87" s="239"/>
+      <c r="O87" s="239"/>
+      <c r="P87" s="239"/>
+      <c r="Q87" s="239"/>
+      <c r="R87" s="239"/>
+      <c r="S87" s="239"/>
+      <c r="T87" s="239"/>
+      <c r="U87" s="239"/>
+      <c r="V87" s="239"/>
+      <c r="W87" s="239"/>
+      <c r="X87" s="239"/>
+      <c r="Y87" s="240"/>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="197"/>
-      <c r="B88" s="202" t="s">
+      <c r="B88" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
-      <c r="G88" s="204"/>
-      <c r="H88" s="202" t="s">
+      <c r="C88" s="242"/>
+      <c r="D88" s="242"/>
+      <c r="E88" s="242"/>
+      <c r="F88" s="242"/>
+      <c r="G88" s="243"/>
+      <c r="H88" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="203"/>
-      <c r="J88" s="203"/>
-      <c r="K88" s="203"/>
-      <c r="L88" s="203"/>
-      <c r="M88" s="204"/>
-      <c r="N88" s="202" t="s">
+      <c r="I88" s="242"/>
+      <c r="J88" s="242"/>
+      <c r="K88" s="242"/>
+      <c r="L88" s="242"/>
+      <c r="M88" s="243"/>
+      <c r="N88" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="203"/>
-      <c r="P88" s="203"/>
-      <c r="Q88" s="203"/>
-      <c r="R88" s="203"/>
-      <c r="S88" s="204"/>
-      <c r="T88" s="199" t="s">
+      <c r="O88" s="242"/>
+      <c r="P88" s="242"/>
+      <c r="Q88" s="242"/>
+      <c r="R88" s="242"/>
+      <c r="S88" s="243"/>
+      <c r="T88" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="U88" s="200"/>
-      <c r="V88" s="200"/>
-      <c r="W88" s="200"/>
-      <c r="X88" s="200"/>
-      <c r="Y88" s="201"/>
+      <c r="U88" s="239"/>
+      <c r="V88" s="239"/>
+      <c r="W88" s="239"/>
+      <c r="X88" s="239"/>
+      <c r="Y88" s="240"/>
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="198"/>
@@ -31581,25 +31548,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:Y59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="N60:S60"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="N46:S46"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B45:Y45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:Y87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="N88:S88"/>
+    <mergeCell ref="T88:Y88"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:Y73"/>
@@ -31616,12 +31570,25 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:Y87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="N88:S88"/>
-    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="N46:S46"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B45:Y45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:Y59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="N60:S60"/>
+    <mergeCell ref="T60:Y60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31638,18 +31605,18 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.26171875" customWidth="1"/>
+    <col min="23" max="23" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:26">
@@ -33367,33 +33334,33 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="37" width="9.28515625" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="28" max="37" width="9.26171875" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -33409,77 +33376,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -35189,10 +35156,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -35204,78 +35171,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -36961,10 +36928,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -36976,112 +36943,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -37882,7 +37849,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -37898,7 +37865,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -37914,7 +37881,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -37930,7 +37897,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -37946,7 +37913,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -37962,7 +37929,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -38005,7 +37972,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -38019,7 +37986,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -38033,7 +38000,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -38047,7 +38014,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -38061,7 +38028,7 @@
         <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -38075,7 +38042,7 @@
         <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -39545,6 +39512,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AR5:BF5"/>
+    <mergeCell ref="AR30:BF30"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="CC59:CC60"/>
+    <mergeCell ref="CR59:CR60"/>
+    <mergeCell ref="BN59:BN60"/>
+    <mergeCell ref="AY59:AY60"/>
+    <mergeCell ref="AJ59:AJ60"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A28:B28"/>
@@ -39561,14 +39536,6 @@
     <mergeCell ref="N30:AB30"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
-    <mergeCell ref="AR5:BF5"/>
-    <mergeCell ref="AR30:BF30"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="CC59:CC60"/>
-    <mergeCell ref="CR59:CR60"/>
-    <mergeCell ref="BN59:BN60"/>
-    <mergeCell ref="AY59:AY60"/>
-    <mergeCell ref="AJ59:AJ60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39583,32 +39550,32 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -39624,77 +39591,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -41405,10 +41372,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -41420,78 +41387,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -43177,10 +43144,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -43192,112 +43159,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -44098,7 +44065,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -44114,7 +44081,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -44130,7 +44097,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -44146,7 +44113,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -44162,7 +44129,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -44178,7 +44145,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -44221,7 +44188,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -44235,7 +44202,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -44249,7 +44216,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -44263,7 +44230,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -44277,7 +44244,7 @@
         <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -44291,7 +44258,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -45761,18 +45728,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -45785,6 +45740,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -45800,33 +45767,33 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -45842,77 +45809,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -47628,10 +47595,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -47643,78 +47610,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -49400,10 +49367,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -49415,112 +49382,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -50321,7 +50288,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -50337,7 +50304,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -50353,7 +50320,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -50369,7 +50336,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -50385,7 +50352,7 @@
         <f t="shared" si="25"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -50401,7 +50368,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -50444,7 +50411,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -50458,7 +50425,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -50472,7 +50439,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -50486,7 +50453,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -50500,7 +50467,7 @@
         <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -50514,7 +50481,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -51984,18 +51951,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -52008,6 +51963,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -52023,44 +51990,44 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="21" width="7.42578125" customWidth="1"/>
-    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" customWidth="1"/>
-    <col min="30" max="32" width="9.140625" customWidth="1"/>
-    <col min="33" max="37" width="7.140625" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.85546875" customWidth="1"/>
-    <col min="76" max="76" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26171875" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.68359375" customWidth="1"/>
+    <col min="21" max="21" width="7.41796875" customWidth="1"/>
+    <col min="24" max="24" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.15625" customWidth="1"/>
+    <col min="30" max="32" width="9.15625" customWidth="1"/>
+    <col min="33" max="37" width="7.15625" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.83984375" customWidth="1"/>
+    <col min="76" max="76" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -52076,77 +52043,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="75">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="57.6">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -53862,10 +53829,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -53877,78 +53844,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="75">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="57.6">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -55634,10 +55601,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -55649,112 +55616,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="75">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="72">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -56555,7 +56522,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -56571,7 +56538,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -56587,7 +56554,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -56603,7 +56570,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -56619,7 +56586,7 @@
         <f t="shared" si="26"/>
         <v>0.82</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -56635,7 +56602,7 @@
         <f t="shared" si="27"/>
         <v>0.12</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -56678,7 +56645,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -56692,7 +56659,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -56706,7 +56673,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -56720,7 +56687,7 @@
         <f t="shared" si="25"/>
         <v>0.94</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -56734,7 +56701,7 @@
         <f t="shared" si="26"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -56748,7 +56715,7 @@
         <f t="shared" si="27"/>
         <v>0.04</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -58219,18 +58186,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -58243,6 +58198,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -58258,32 +58225,32 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -58299,77 +58266,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -60085,10 +60052,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -60100,78 +60067,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -61857,10 +61824,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -61872,112 +61839,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -62778,7 +62745,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -62794,7 +62761,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -62810,7 +62777,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -62826,7 +62793,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -62842,7 +62809,7 @@
         <f t="shared" si="24"/>
         <v>0.5625</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -62858,7 +62825,7 @@
         <f t="shared" si="25"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -62901,7 +62868,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -62915,7 +62882,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -62929,7 +62896,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -62943,7 +62910,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -62957,7 +62924,7 @@
         <f t="shared" si="24"/>
         <v>0.625</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -62971,7 +62938,7 @@
         <f t="shared" si="25"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -64441,18 +64408,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -64465,6 +64420,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -64479,33 +64446,33 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="69" max="69" width="9.7109375" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="69" max="69" width="9.68359375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -64521,77 +64488,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -66307,10 +66274,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -66322,78 +66289,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -68078,10 +68045,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -68093,112 +68060,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -68999,7 +68966,7 @@
         <f t="shared" si="27"/>
         <v>0.99</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -69015,7 +68982,7 @@
         <f t="shared" si="20"/>
         <v>0.99</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -69031,7 +68998,7 @@
         <f t="shared" si="21"/>
         <v>0.99</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -69047,7 +69014,7 @@
         <f t="shared" si="22"/>
         <v>0.99</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -69063,7 +69030,7 @@
         <f t="shared" si="23"/>
         <v>0.39</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -69079,7 +69046,7 @@
         <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -69122,7 +69089,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -69136,7 +69103,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -69150,7 +69117,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -69164,7 +69131,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -69178,7 +69145,7 @@
         <f t="shared" si="23"/>
         <v>0.52</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -69192,7 +69159,7 @@
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -70666,18 +70633,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -70690,6 +70645,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70704,33 +70671,33 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.15625" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -70746,77 +70713,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="164" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -72532,10 +72499,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -72547,78 +72514,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="164" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="166"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="175"/>
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="175"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -74304,10 +74271,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -74319,112 +74286,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="164" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="165"/>
-      <c r="AE55" s="165"/>
-      <c r="AF55" s="165"/>
-      <c r="AG55" s="165"/>
-      <c r="AH55" s="165"/>
-      <c r="AI55" s="165"/>
-      <c r="AJ55" s="165"/>
-      <c r="AK55" s="165"/>
-      <c r="AL55" s="165"/>
-      <c r="AM55" s="165"/>
-      <c r="AN55" s="165"/>
-      <c r="AO55" s="165"/>
-      <c r="AP55" s="165"/>
-      <c r="AQ55" s="166"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="175"/>
+      <c r="AE55" s="175"/>
+      <c r="AF55" s="175"/>
+      <c r="AG55" s="175"/>
+      <c r="AH55" s="175"/>
+      <c r="AI55" s="175"/>
+      <c r="AJ55" s="175"/>
+      <c r="AK55" s="175"/>
+      <c r="AL55" s="175"/>
+      <c r="AM55" s="175"/>
+      <c r="AN55" s="175"/>
+      <c r="AO55" s="175"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="176"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -75225,7 +75192,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -75241,7 +75208,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -75257,7 +75224,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -75273,7 +75240,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -75289,7 +75256,7 @@
         <f t="shared" si="23"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -75305,7 +75272,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -75348,7 +75315,7 @@
         <f t="shared" si="27"/>
         <v>0.98</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -75362,7 +75329,7 @@
         <f t="shared" si="20"/>
         <v>0.98</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -75376,7 +75343,7 @@
         <f t="shared" si="21"/>
         <v>0.98</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -75390,7 +75357,7 @@
         <f t="shared" si="22"/>
         <v>0.98</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -75404,7 +75371,7 @@
         <f t="shared" si="23"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -75418,7 +75385,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -76893,18 +76860,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -76917,6 +76872,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -76931,32 +76898,32 @@
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.85546875" customWidth="1"/>
-    <col min="72" max="73" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.83984375" customWidth="1"/>
+    <col min="72" max="73" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="24" thickBot="1">
-      <c r="B1" s="179" t="s">
+    <row r="1" spans="1:73" ht="23.4" thickBot="1">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -76972,77 +76939,77 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="15.75">
-      <c r="N5" s="183" t="s">
+    <row r="5" spans="1:73" ht="15.6">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
-    </row>
-    <row r="6" spans="1:73" ht="60">
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
+    </row>
+    <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -78758,10 +78725,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -78773,78 +78740,78 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:73" ht="15.75">
+    <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
-    </row>
-    <row r="31" spans="1:73" ht="60">
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
+    </row>
+    <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -80531,10 +80498,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -80546,112 +80513,112 @@
       </c>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:103" ht="15.75">
+    <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
-    </row>
-    <row r="56" spans="1:103" ht="60">
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
+    </row>
+    <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -81452,7 +81419,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -81468,7 +81435,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -81484,7 +81451,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -81500,7 +81467,7 @@
         <f t="shared" si="22"/>
         <v>0.97599999999999998</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -81516,7 +81483,7 @@
         <f t="shared" si="23"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -81532,7 +81499,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -81575,7 +81542,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -81589,7 +81556,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -81603,7 +81570,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -81617,7 +81584,7 @@
         <f t="shared" si="22"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -81631,7 +81598,7 @@
         <f t="shared" si="23"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -81645,7 +81612,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -83117,18 +83084,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -83141,6 +83096,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/altri_doc/Raccolta_Dati.xlsx
+++ b/altri_doc/Raccolta_Dati.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18738" windowHeight="7338" tabRatio="619" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18738" windowHeight="7338" tabRatio="619" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2" sheetId="4" r:id="rId1"/>
@@ -1138,6 +1138,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,34 +1207,13 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,18 +1225,6 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,6 +1233,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1246,22 +1246,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1288,97 +1357,28 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,7 +1442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1618,11 +1617,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="190616320"/>
-        <c:axId val="190618240"/>
+        <c:axId val="78851456"/>
+        <c:axId val="78894592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190616320"/>
+        <c:axId val="78851456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1644,17 +1643,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190618240"/>
+        <c:crossAx val="78894592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190618240"/>
+        <c:axId val="78894592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,24 +1674,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190616320"/>
+        <c:crossAx val="78851456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1919,11 +1915,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="218393984"/>
-        <c:axId val="72885760"/>
+        <c:axId val="92424448"/>
+        <c:axId val="92426624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218393984"/>
+        <c:axId val="92424448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1950,12 +1946,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72885760"/>
+        <c:crossAx val="92426624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72885760"/>
+        <c:axId val="92426624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,7 +1982,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218393984"/>
+        <c:crossAx val="92424448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1999,7 +1995,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2217,11 +2213,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72911104"/>
-        <c:axId val="72925568"/>
+        <c:axId val="92447872"/>
+        <c:axId val="92449792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72911104"/>
+        <c:axId val="92447872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2248,12 +2244,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72925568"/>
+        <c:crossAx val="92449792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72925568"/>
+        <c:axId val="92449792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2280,13 +2276,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2393308088359449E-2"/>
-              <c:y val="0.19448379629629656"/>
+              <c:y val="0.19448379629629658"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72911104"/>
+        <c:crossAx val="92447872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2299,7 +2295,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2525,11 +2521,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88425600"/>
-        <c:axId val="88427520"/>
+        <c:axId val="92385280"/>
+        <c:axId val="92387200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88425600"/>
+        <c:axId val="92385280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2556,12 +2552,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88427520"/>
+        <c:crossAx val="92387200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88427520"/>
+        <c:axId val="92387200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2593,7 +2589,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88425600"/>
+        <c:crossAx val="92385280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2606,7 +2602,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2818,11 +2814,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88444288"/>
-        <c:axId val="218428928"/>
+        <c:axId val="92612864"/>
+        <c:axId val="92623232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88444288"/>
+        <c:axId val="92612864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2849,12 +2845,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218428928"/>
+        <c:crossAx val="92623232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218428928"/>
+        <c:axId val="92623232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,14 +2876,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329574E-2"/>
-              <c:y val="0.18272453703703734"/>
+              <c:x val="3.8860532414329588E-2"/>
+              <c:y val="0.18272453703703737"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88444288"/>
+        <c:crossAx val="92612864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2900,7 +2896,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3120,11 +3116,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72836992"/>
-        <c:axId val="72839168"/>
+        <c:axId val="92640000"/>
+        <c:axId val="92641920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72836992"/>
+        <c:axId val="92640000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3151,12 +3147,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72839168"/>
+        <c:crossAx val="92641920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72839168"/>
+        <c:axId val="92641920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3188,7 +3184,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72836992"/>
+        <c:crossAx val="92640000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3201,7 +3197,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4211,11 +4207,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="101619584"/>
-        <c:axId val="101634048"/>
+        <c:axId val="92685056"/>
+        <c:axId val="92686976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101619584"/>
+        <c:axId val="92685056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4249,12 +4245,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101634048"/>
+        <c:crossAx val="92686976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101634048"/>
+        <c:axId val="92686976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="620"/>
@@ -4282,7 +4278,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101619584"/>
+        <c:crossAx val="92685056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -4296,7 +4292,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5296,11 +5292,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="114468352"/>
-        <c:axId val="114470272"/>
+        <c:axId val="108745088"/>
+        <c:axId val="108747008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114468352"/>
+        <c:axId val="108745088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5329,12 +5325,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114470272"/>
+        <c:crossAx val="108747008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114470272"/>
+        <c:axId val="108747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5367,7 +5363,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114468352"/>
+        <c:crossAx val="108745088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5380,7 +5376,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6029,11 +6025,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="90594688"/>
-        <c:axId val="114486656"/>
+        <c:axId val="108791680"/>
+        <c:axId val="108798336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90594688"/>
+        <c:axId val="108791680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6065,12 +6061,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114486656"/>
+        <c:crossAx val="108798336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114486656"/>
+        <c:axId val="108798336"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6103,7 +6099,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90594688"/>
+        <c:crossAx val="108791680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6116,7 +6112,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6765,11 +6761,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="114513024"/>
-        <c:axId val="114515328"/>
+        <c:axId val="108855296"/>
+        <c:axId val="108857600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114513024"/>
+        <c:axId val="108855296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,12 +6796,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114515328"/>
+        <c:crossAx val="108857600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114515328"/>
+        <c:axId val="108857600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6836,7 +6832,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114513024"/>
+        <c:crossAx val="108855296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6849,7 +6845,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7497,11 +7493,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="114699264"/>
-        <c:axId val="114718208"/>
+        <c:axId val="108906368"/>
+        <c:axId val="108925312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="114699264"/>
+        <c:axId val="108906368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7535,12 +7531,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114718208"/>
+        <c:crossAx val="108925312"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114718208"/>
+        <c:axId val="108925312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7569,7 +7565,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114699264"/>
+        <c:crossAx val="108906368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7582,7 +7578,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7963,11 +7959,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="190993536"/>
-        <c:axId val="190995456"/>
+        <c:axId val="91803648"/>
+        <c:axId val="91805568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190993536"/>
+        <c:axId val="91803648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7994,12 +7990,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190995456"/>
+        <c:crossAx val="91805568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190995456"/>
+        <c:axId val="91805568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8025,14 +8021,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329574E-2"/>
+              <c:x val="3.8860532414329588E-2"/>
               <c:y val="0.15693467965035673"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190993536"/>
+        <c:crossAx val="91803648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8045,7 +8041,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8693,11 +8689,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="150410752"/>
-        <c:axId val="150425600"/>
+        <c:axId val="108970368"/>
+        <c:axId val="108972672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150410752"/>
+        <c:axId val="108970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -8729,12 +8725,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150425600"/>
+        <c:crossAx val="108972672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150425600"/>
+        <c:axId val="108972672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8767,7 +8763,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150410752"/>
+        <c:crossAx val="108970368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8780,7 +8776,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9786,11 +9782,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="189804544"/>
-        <c:axId val="189806464"/>
+        <c:axId val="109143936"/>
+        <c:axId val="109166592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189804544"/>
+        <c:axId val="109143936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9820,12 +9816,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189806464"/>
+        <c:crossAx val="109166592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189806464"/>
+        <c:axId val="109166592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="620"/>
@@ -9861,7 +9857,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189804544"/>
+        <c:crossAx val="109143936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -9875,7 +9871,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10875,11 +10871,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="189857152"/>
-        <c:axId val="190109184"/>
+        <c:axId val="109174144"/>
+        <c:axId val="109096320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189857152"/>
+        <c:axId val="109174144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10908,12 +10904,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190109184"/>
+        <c:crossAx val="109096320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190109184"/>
+        <c:axId val="109096320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10942,7 +10938,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189857152"/>
+        <c:crossAx val="109174144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10955,7 +10951,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11603,11 +11599,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="189507072"/>
-        <c:axId val="189508992"/>
+        <c:axId val="109206528"/>
+        <c:axId val="109217280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189507072"/>
+        <c:axId val="109206528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11641,12 +11637,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189508992"/>
+        <c:crossAx val="109217280"/>
         <c:crossesAt val="0.1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189508992"/>
+        <c:axId val="109217280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11680,7 +11676,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189507072"/>
+        <c:crossAx val="109206528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11693,7 +11689,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11742,7 +11738,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -11918,11 +11913,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="190988288"/>
-        <c:axId val="190990208"/>
+        <c:axId val="78887552"/>
+        <c:axId val="91779840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190988288"/>
+        <c:axId val="78887552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11944,17 +11939,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190990208"/>
+        <c:crossAx val="91779840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190990208"/>
+        <c:axId val="91779840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11982,24 +11976,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190988288"/>
+        <c:crossAx val="78887552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12391,11 +12383,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="191222144"/>
-        <c:axId val="191224064"/>
+        <c:axId val="91913216"/>
+        <c:axId val="91939968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191222144"/>
+        <c:axId val="91913216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12422,12 +12414,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191224064"/>
+        <c:crossAx val="91939968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191224064"/>
+        <c:axId val="91939968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -12459,7 +12451,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191222144"/>
+        <c:crossAx val="91913216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12472,7 +12464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12853,11 +12845,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="216822528"/>
-        <c:axId val="216824448"/>
+        <c:axId val="92056960"/>
+        <c:axId val="92063232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216822528"/>
+        <c:axId val="92056960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12884,12 +12876,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216824448"/>
+        <c:crossAx val="92063232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216824448"/>
+        <c:axId val="92063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12915,7 +12907,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216822528"/>
+        <c:crossAx val="92056960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12928,7 +12920,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13317,11 +13309,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="216810624"/>
-        <c:axId val="216812544"/>
+        <c:axId val="92188672"/>
+        <c:axId val="92190592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216810624"/>
+        <c:axId val="92188672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13348,12 +13340,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216812544"/>
+        <c:crossAx val="92190592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216812544"/>
+        <c:axId val="92190592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -13385,7 +13377,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216810624"/>
+        <c:crossAx val="92188672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13398,7 +13390,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13779,11 +13771,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="218215936"/>
-        <c:axId val="218217856"/>
+        <c:axId val="92217728"/>
+        <c:axId val="92219648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218215936"/>
+        <c:axId val="92217728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13810,12 +13802,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218217856"/>
+        <c:crossAx val="92219648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218217856"/>
+        <c:axId val="92219648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13841,14 +13833,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.887155081070981E-2"/>
+              <c:x val="3.8871550810709816E-2"/>
               <c:y val="0.15920601851851851"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218215936"/>
+        <c:crossAx val="92217728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13861,7 +13853,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14253,11 +14245,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="218265472"/>
-        <c:axId val="218271744"/>
+        <c:axId val="92275456"/>
+        <c:axId val="92277376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218265472"/>
+        <c:axId val="92275456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14284,12 +14276,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218271744"/>
+        <c:crossAx val="92277376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218271744"/>
+        <c:axId val="92277376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -14321,7 +14313,7 @@
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218265472"/>
+        <c:crossAx val="92275456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14334,7 +14326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14552,11 +14544,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="218313472"/>
-        <c:axId val="218315392"/>
+        <c:axId val="92257664"/>
+        <c:axId val="92317184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218313472"/>
+        <c:axId val="92257664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14583,12 +14575,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218315392"/>
+        <c:crossAx val="92317184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218315392"/>
+        <c:axId val="92317184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14614,14 +14606,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.8860532414329574E-2"/>
-              <c:y val="0.20624305555555583"/>
+              <c:x val="3.8860532414329588E-2"/>
+              <c:y val="0.20624305555555586"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218313472"/>
+        <c:crossAx val="92257664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14634,7 +14626,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15628,7 +15620,7 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:CY76"/>
   <sheetViews>
-    <sheetView topLeftCell="BB43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="BB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BM70" sqref="BM70"/>
     </sheetView>
   </sheetViews>
@@ -15659,19 +15651,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -15688,74 +15680,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="164" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="167" t="s">
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="168"/>
-      <c r="AT5" s="168"/>
-      <c r="AU5" s="168"/>
-      <c r="AV5" s="168"/>
-      <c r="AW5" s="168"/>
-      <c r="AX5" s="168"/>
-      <c r="AY5" s="168"/>
-      <c r="AZ5" s="168"/>
-      <c r="BA5" s="168"/>
-      <c r="BB5" s="168"/>
-      <c r="BC5" s="168"/>
-      <c r="BD5" s="168"/>
-      <c r="BE5" s="168"/>
-      <c r="BF5" s="169"/>
-      <c r="BG5" s="176" t="s">
+      <c r="AS5" s="178"/>
+      <c r="AT5" s="178"/>
+      <c r="AU5" s="178"/>
+      <c r="AV5" s="178"/>
+      <c r="AW5" s="178"/>
+      <c r="AX5" s="178"/>
+      <c r="AY5" s="178"/>
+      <c r="AZ5" s="178"/>
+      <c r="BA5" s="178"/>
+      <c r="BB5" s="178"/>
+      <c r="BC5" s="178"/>
+      <c r="BD5" s="178"/>
+      <c r="BE5" s="178"/>
+      <c r="BF5" s="179"/>
+      <c r="BG5" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="177"/>
-      <c r="BI5" s="177"/>
-      <c r="BJ5" s="177"/>
-      <c r="BK5" s="177"/>
-      <c r="BL5" s="177"/>
-      <c r="BM5" s="177"/>
-      <c r="BN5" s="177"/>
-      <c r="BO5" s="177"/>
-      <c r="BP5" s="177"/>
-      <c r="BQ5" s="177"/>
-      <c r="BR5" s="177"/>
-      <c r="BS5" s="177"/>
-      <c r="BT5" s="177"/>
-      <c r="BU5" s="178"/>
+      <c r="BH5" s="164"/>
+      <c r="BI5" s="164"/>
+      <c r="BJ5" s="164"/>
+      <c r="BK5" s="164"/>
+      <c r="BL5" s="164"/>
+      <c r="BM5" s="164"/>
+      <c r="BN5" s="164"/>
+      <c r="BO5" s="164"/>
+      <c r="BP5" s="164"/>
+      <c r="BQ5" s="164"/>
+      <c r="BR5" s="164"/>
+      <c r="BS5" s="164"/>
+      <c r="BT5" s="164"/>
+      <c r="BU5" s="165"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -17478,10 +17470,10 @@
       <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="F28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="4"/>
@@ -17501,74 +17493,74 @@
     <row r="30" spans="1:73" ht="15.6">
       <c r="G30" s="1"/>
       <c r="J30" s="6"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="164" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="166"/>
-      <c r="AR30" s="167" t="s">
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="175"/>
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="175"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="168"/>
-      <c r="AT30" s="168"/>
-      <c r="AU30" s="168"/>
-      <c r="AV30" s="168"/>
-      <c r="AW30" s="168"/>
-      <c r="AX30" s="168"/>
-      <c r="AY30" s="168"/>
-      <c r="AZ30" s="168"/>
-      <c r="BA30" s="168"/>
-      <c r="BB30" s="168"/>
-      <c r="BC30" s="168"/>
-      <c r="BD30" s="168"/>
-      <c r="BE30" s="168"/>
-      <c r="BF30" s="169"/>
-      <c r="BG30" s="176" t="s">
+      <c r="AS30" s="178"/>
+      <c r="AT30" s="178"/>
+      <c r="AU30" s="178"/>
+      <c r="AV30" s="178"/>
+      <c r="AW30" s="178"/>
+      <c r="AX30" s="178"/>
+      <c r="AY30" s="178"/>
+      <c r="AZ30" s="178"/>
+      <c r="BA30" s="178"/>
+      <c r="BB30" s="178"/>
+      <c r="BC30" s="178"/>
+      <c r="BD30" s="178"/>
+      <c r="BE30" s="178"/>
+      <c r="BF30" s="179"/>
+      <c r="BG30" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="177"/>
-      <c r="BI30" s="177"/>
-      <c r="BJ30" s="177"/>
-      <c r="BK30" s="177"/>
-      <c r="BL30" s="177"/>
-      <c r="BM30" s="177"/>
-      <c r="BN30" s="177"/>
-      <c r="BO30" s="177"/>
-      <c r="BP30" s="177"/>
-      <c r="BQ30" s="177"/>
-      <c r="BR30" s="177"/>
-      <c r="BS30" s="177"/>
-      <c r="BT30" s="177"/>
-      <c r="BU30" s="178"/>
+      <c r="BH30" s="164"/>
+      <c r="BI30" s="164"/>
+      <c r="BJ30" s="164"/>
+      <c r="BK30" s="164"/>
+      <c r="BL30" s="164"/>
+      <c r="BM30" s="164"/>
+      <c r="BN30" s="164"/>
+      <c r="BO30" s="164"/>
+      <c r="BP30" s="164"/>
+      <c r="BQ30" s="164"/>
+      <c r="BR30" s="164"/>
+      <c r="BS30" s="164"/>
+      <c r="BT30" s="164"/>
+      <c r="BU30" s="165"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -19258,10 +19250,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="F53" s="4"/>
       <c r="G53" s="1"/>
       <c r="H53" s="4"/>
@@ -19281,108 +19273,108 @@
     <row r="55" spans="1:103" ht="15.6">
       <c r="G55" s="1"/>
       <c r="J55" s="6"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="164" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="165"/>
-      <c r="AE55" s="165"/>
-      <c r="AF55" s="165"/>
-      <c r="AG55" s="165"/>
-      <c r="AH55" s="165"/>
-      <c r="AI55" s="165"/>
-      <c r="AJ55" s="165"/>
-      <c r="AK55" s="165"/>
-      <c r="AL55" s="165"/>
-      <c r="AM55" s="165"/>
-      <c r="AN55" s="165"/>
-      <c r="AO55" s="165"/>
-      <c r="AP55" s="165"/>
-      <c r="AQ55" s="166"/>
-      <c r="AR55" s="167" t="s">
+      <c r="AD55" s="175"/>
+      <c r="AE55" s="175"/>
+      <c r="AF55" s="175"/>
+      <c r="AG55" s="175"/>
+      <c r="AH55" s="175"/>
+      <c r="AI55" s="175"/>
+      <c r="AJ55" s="175"/>
+      <c r="AK55" s="175"/>
+      <c r="AL55" s="175"/>
+      <c r="AM55" s="175"/>
+      <c r="AN55" s="175"/>
+      <c r="AO55" s="175"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="176"/>
+      <c r="AR55" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="168"/>
-      <c r="AT55" s="168"/>
-      <c r="AU55" s="168"/>
-      <c r="AV55" s="168"/>
-      <c r="AW55" s="168"/>
-      <c r="AX55" s="168"/>
-      <c r="AY55" s="168"/>
-      <c r="AZ55" s="168"/>
-      <c r="BA55" s="168"/>
-      <c r="BB55" s="168"/>
-      <c r="BC55" s="168"/>
-      <c r="BD55" s="168"/>
-      <c r="BE55" s="168"/>
-      <c r="BF55" s="169"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="178"/>
+      <c r="AT55" s="178"/>
+      <c r="AU55" s="178"/>
+      <c r="AV55" s="178"/>
+      <c r="AW55" s="178"/>
+      <c r="AX55" s="178"/>
+      <c r="AY55" s="178"/>
+      <c r="AZ55" s="178"/>
+      <c r="BA55" s="178"/>
+      <c r="BB55" s="178"/>
+      <c r="BC55" s="178"/>
+      <c r="BD55" s="178"/>
+      <c r="BE55" s="178"/>
+      <c r="BF55" s="179"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -20187,7 +20179,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="163" t="s">
+      <c r="U59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -20203,7 +20195,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="163" t="s">
+      <c r="AJ59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -20219,7 +20211,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="163" t="s">
+      <c r="AY59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -20235,7 +20227,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="163" t="s">
+      <c r="BN59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -20251,7 +20243,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC59" s="163" t="s">
+      <c r="CC59" s="173" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -20267,7 +20259,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR59" s="163" t="s">
+      <c r="CR59" s="173" t="s">
         <v>52</v>
       </c>
     </row>
@@ -20310,7 +20302,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -20324,7 +20316,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -20338,7 +20330,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -20352,7 +20344,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -20366,7 +20358,7 @@
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -20380,7 +20372,7 @@
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -21848,14 +21840,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
@@ -21872,6 +21856,14 @@
     <mergeCell ref="AR55:BF55"/>
     <mergeCell ref="BG5:BU5"/>
     <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -21883,8 +21875,8 @@
   <sheetPr codeName="Foglio10"/>
   <dimension ref="A1:CY76"/>
   <sheetViews>
-    <sheetView topLeftCell="BH47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BN61" sqref="BN61"/>
+    <sheetView topLeftCell="BH12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BQ72" sqref="BQ72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21901,19 +21893,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -21930,74 +21922,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -23715,10 +23707,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -23732,74 +23724,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -25487,10 +25479,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -25504,108 +25496,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -26408,7 +26400,7 @@
         <f t="shared" si="27"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -26424,7 +26416,7 @@
         <f t="shared" si="20"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -26440,7 +26432,7 @@
         <f t="shared" si="21"/>
         <v>0.98699999999999999</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -26456,7 +26448,7 @@
         <f t="shared" si="22"/>
         <v>0.96099999999999997</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -26472,7 +26464,7 @@
         <f t="shared" si="23"/>
         <v>0.317</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -26488,7 +26480,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -26531,7 +26523,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -26545,7 +26537,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -26559,7 +26551,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -26573,7 +26565,7 @@
         <f t="shared" si="22"/>
         <v>0.89900000000000002</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -26587,7 +26579,7 @@
         <f t="shared" si="23"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -26601,7 +26593,7 @@
         <f t="shared" si="24"/>
         <v>1E-3</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -28071,18 +28063,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N30:AB30"/>
-    <mergeCell ref="N5:AB5"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -28095,6 +28075,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -28106,7 +28098,7 @@
   <sheetPr codeName="Foglio11"/>
   <dimension ref="A1:BE99"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="BA63" sqref="BA63"/>
     </sheetView>
   </sheetViews>
@@ -28154,10 +28146,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.1" thickBot="1">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="206"/>
+      <c r="C1" s="229"/>
       <c r="F1">
         <f ca="1">INDIRECT(A6&amp;"!$N$7")</f>
         <v>1</v>
@@ -28167,27 +28159,27 @@
       <c r="A3" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="233" t="s">
+      <c r="B3" s="220" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="221"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="197"/>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="225" t="s">
+      <c r="C4" s="218"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="198"/>
@@ -28418,67 +28410,67 @@
       <c r="A17" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="222" t="s">
+      <c r="B17" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="223"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="223"/>
-      <c r="T17" s="223"/>
-      <c r="U17" s="223"/>
-      <c r="V17" s="223"/>
-      <c r="W17" s="223"/>
-      <c r="X17" s="223"/>
-      <c r="Y17" s="224"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="226"/>
+      <c r="O17" s="226"/>
+      <c r="P17" s="226"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="226"/>
+      <c r="S17" s="226"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="227"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="197"/>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="205" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="219" t="s">
+      <c r="C18" s="206"/>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="219" t="s">
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="207"/>
+      <c r="N18" s="205" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="220"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="220"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="222" t="s">
+      <c r="O18" s="206"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="206"/>
+      <c r="R18" s="206"/>
+      <c r="S18" s="207"/>
+      <c r="T18" s="225" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="223"/>
-      <c r="V18" s="223"/>
-      <c r="W18" s="223"/>
-      <c r="X18" s="223"/>
-      <c r="Y18" s="224"/>
+      <c r="U18" s="226"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="226"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="227"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="198"/>
@@ -29559,67 +29551,67 @@
       <c r="A31" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="217"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="217"/>
-      <c r="M31" s="217"/>
-      <c r="N31" s="217"/>
-      <c r="O31" s="217"/>
-      <c r="P31" s="217"/>
-      <c r="Q31" s="217"/>
-      <c r="R31" s="217"/>
-      <c r="S31" s="217"/>
-      <c r="T31" s="217"/>
-      <c r="U31" s="217"/>
-      <c r="V31" s="217"/>
-      <c r="W31" s="217"/>
-      <c r="X31" s="217"/>
-      <c r="Y31" s="218"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="215"/>
+      <c r="R31" s="215"/>
+      <c r="S31" s="215"/>
+      <c r="T31" s="215"/>
+      <c r="U31" s="215"/>
+      <c r="V31" s="215"/>
+      <c r="W31" s="215"/>
+      <c r="X31" s="215"/>
+      <c r="Y31" s="216"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="197"/>
-      <c r="B32" s="213" t="s">
+      <c r="B32" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="214"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="213" t="s">
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="215"/>
-      <c r="N32" s="213" t="s">
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="210"/>
+      <c r="N32" s="208" t="s">
         <v>43</v>
       </c>
-      <c r="O32" s="214"/>
-      <c r="P32" s="214"/>
-      <c r="Q32" s="214"/>
-      <c r="R32" s="214"/>
-      <c r="S32" s="215"/>
-      <c r="T32" s="216" t="s">
+      <c r="O32" s="209"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="209"/>
+      <c r="S32" s="210"/>
+      <c r="T32" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="218"/>
+      <c r="U32" s="215"/>
+      <c r="V32" s="215"/>
+      <c r="W32" s="215"/>
+      <c r="X32" s="215"/>
+      <c r="Y32" s="216"/>
     </row>
     <row r="33" spans="1:57">
       <c r="A33" s="198"/>
@@ -30766,67 +30758,67 @@
       <c r="A45" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="235" t="s">
+      <c r="B45" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="236"/>
-      <c r="D45" s="236"/>
-      <c r="E45" s="236"/>
-      <c r="F45" s="236"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="236"/>
-      <c r="K45" s="236"/>
-      <c r="L45" s="236"/>
-      <c r="M45" s="236"/>
-      <c r="N45" s="236"/>
-      <c r="O45" s="236"/>
-      <c r="P45" s="236"/>
-      <c r="Q45" s="236"/>
-      <c r="R45" s="236"/>
-      <c r="S45" s="236"/>
-      <c r="T45" s="236"/>
-      <c r="U45" s="236"/>
-      <c r="V45" s="236"/>
-      <c r="W45" s="236"/>
-      <c r="X45" s="236"/>
-      <c r="Y45" s="237"/>
+      <c r="C45" s="223"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="223"/>
+      <c r="G45" s="223"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="223"/>
+      <c r="K45" s="223"/>
+      <c r="L45" s="223"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="223"/>
+      <c r="O45" s="223"/>
+      <c r="P45" s="223"/>
+      <c r="Q45" s="223"/>
+      <c r="R45" s="223"/>
+      <c r="S45" s="223"/>
+      <c r="T45" s="223"/>
+      <c r="U45" s="223"/>
+      <c r="V45" s="223"/>
+      <c r="W45" s="223"/>
+      <c r="X45" s="223"/>
+      <c r="Y45" s="224"/>
     </row>
     <row r="46" spans="1:57">
       <c r="A46" s="197"/>
-      <c r="B46" s="227" t="s">
+      <c r="B46" s="211" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="228"/>
-      <c r="D46" s="228"/>
-      <c r="E46" s="228"/>
-      <c r="F46" s="228"/>
-      <c r="G46" s="229"/>
-      <c r="H46" s="227" t="s">
+      <c r="C46" s="212"/>
+      <c r="D46" s="212"/>
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="211" t="s">
         <v>25</v>
       </c>
-      <c r="I46" s="228"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="228"/>
-      <c r="L46" s="228"/>
-      <c r="M46" s="229"/>
-      <c r="N46" s="227" t="s">
+      <c r="I46" s="212"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="212"/>
+      <c r="L46" s="212"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="O46" s="228"/>
-      <c r="P46" s="228"/>
-      <c r="Q46" s="228"/>
-      <c r="R46" s="228"/>
-      <c r="S46" s="229"/>
-      <c r="T46" s="235" t="s">
+      <c r="O46" s="212"/>
+      <c r="P46" s="212"/>
+      <c r="Q46" s="212"/>
+      <c r="R46" s="212"/>
+      <c r="S46" s="213"/>
+      <c r="T46" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="U46" s="236"/>
-      <c r="V46" s="236"/>
-      <c r="W46" s="236"/>
-      <c r="X46" s="236"/>
-      <c r="Y46" s="237"/>
+      <c r="U46" s="223"/>
+      <c r="V46" s="223"/>
+      <c r="W46" s="223"/>
+      <c r="X46" s="223"/>
+      <c r="Y46" s="224"/>
     </row>
     <row r="47" spans="1:57">
       <c r="A47" s="198"/>
@@ -31907,67 +31899,67 @@
       <c r="A59" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="238" t="s">
+      <c r="B59" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="C59" s="239"/>
-      <c r="D59" s="239"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="239"/>
-      <c r="G59" s="239"/>
-      <c r="H59" s="239"/>
-      <c r="I59" s="239"/>
-      <c r="J59" s="239"/>
-      <c r="K59" s="239"/>
-      <c r="L59" s="239"/>
-      <c r="M59" s="239"/>
-      <c r="N59" s="239"/>
-      <c r="O59" s="239"/>
-      <c r="P59" s="239"/>
-      <c r="Q59" s="239"/>
-      <c r="R59" s="239"/>
-      <c r="S59" s="239"/>
-      <c r="T59" s="239"/>
-      <c r="U59" s="239"/>
-      <c r="V59" s="239"/>
-      <c r="W59" s="239"/>
-      <c r="X59" s="239"/>
-      <c r="Y59" s="240"/>
+      <c r="C59" s="200"/>
+      <c r="D59" s="200"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="200"/>
+      <c r="G59" s="200"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="200"/>
+      <c r="J59" s="200"/>
+      <c r="K59" s="200"/>
+      <c r="L59" s="200"/>
+      <c r="M59" s="200"/>
+      <c r="N59" s="200"/>
+      <c r="O59" s="200"/>
+      <c r="P59" s="200"/>
+      <c r="Q59" s="200"/>
+      <c r="R59" s="200"/>
+      <c r="S59" s="200"/>
+      <c r="T59" s="200"/>
+      <c r="U59" s="200"/>
+      <c r="V59" s="200"/>
+      <c r="W59" s="200"/>
+      <c r="X59" s="200"/>
+      <c r="Y59" s="201"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="197"/>
-      <c r="B60" s="241" t="s">
+      <c r="B60" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="242"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="242"/>
-      <c r="F60" s="242"/>
-      <c r="G60" s="243"/>
-      <c r="H60" s="241" t="s">
+      <c r="C60" s="203"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="203"/>
+      <c r="F60" s="203"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
-      <c r="K60" s="242"/>
-      <c r="L60" s="242"/>
-      <c r="M60" s="243"/>
-      <c r="N60" s="241" t="s">
+      <c r="I60" s="203"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="203"/>
+      <c r="L60" s="203"/>
+      <c r="M60" s="204"/>
+      <c r="N60" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="242"/>
-      <c r="P60" s="242"/>
-      <c r="Q60" s="242"/>
-      <c r="R60" s="242"/>
-      <c r="S60" s="243"/>
-      <c r="T60" s="238" t="s">
+      <c r="O60" s="203"/>
+      <c r="P60" s="203"/>
+      <c r="Q60" s="203"/>
+      <c r="R60" s="203"/>
+      <c r="S60" s="204"/>
+      <c r="T60" s="199" t="s">
         <v>34</v>
       </c>
-      <c r="U60" s="239"/>
-      <c r="V60" s="239"/>
-      <c r="W60" s="239"/>
-      <c r="X60" s="239"/>
-      <c r="Y60" s="240"/>
+      <c r="U60" s="200"/>
+      <c r="V60" s="200"/>
+      <c r="W60" s="200"/>
+      <c r="X60" s="200"/>
+      <c r="Y60" s="201"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="198"/>
@@ -32808,67 +32800,67 @@
       <c r="A73" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="207" t="s">
+      <c r="B73" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="C73" s="208"/>
-      <c r="D73" s="208"/>
-      <c r="E73" s="208"/>
-      <c r="F73" s="208"/>
-      <c r="G73" s="208"/>
-      <c r="H73" s="208"/>
-      <c r="I73" s="208"/>
-      <c r="J73" s="208"/>
-      <c r="K73" s="208"/>
-      <c r="L73" s="208"/>
-      <c r="M73" s="208"/>
-      <c r="N73" s="208"/>
-      <c r="O73" s="208"/>
-      <c r="P73" s="208"/>
-      <c r="Q73" s="208"/>
-      <c r="R73" s="208"/>
-      <c r="S73" s="208"/>
-      <c r="T73" s="208"/>
-      <c r="U73" s="208"/>
-      <c r="V73" s="208"/>
-      <c r="W73" s="208"/>
-      <c r="X73" s="208"/>
-      <c r="Y73" s="209"/>
+      <c r="C73" s="231"/>
+      <c r="D73" s="231"/>
+      <c r="E73" s="231"/>
+      <c r="F73" s="231"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="231"/>
+      <c r="I73" s="231"/>
+      <c r="J73" s="231"/>
+      <c r="K73" s="231"/>
+      <c r="L73" s="231"/>
+      <c r="M73" s="231"/>
+      <c r="N73" s="231"/>
+      <c r="O73" s="231"/>
+      <c r="P73" s="231"/>
+      <c r="Q73" s="231"/>
+      <c r="R73" s="231"/>
+      <c r="S73" s="231"/>
+      <c r="T73" s="231"/>
+      <c r="U73" s="231"/>
+      <c r="V73" s="231"/>
+      <c r="W73" s="231"/>
+      <c r="X73" s="231"/>
+      <c r="Y73" s="232"/>
     </row>
     <row r="74" spans="1:27">
       <c r="A74" s="197"/>
-      <c r="B74" s="210" t="s">
+      <c r="B74" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="211"/>
-      <c r="D74" s="211"/>
-      <c r="E74" s="211"/>
-      <c r="F74" s="211"/>
-      <c r="G74" s="212"/>
-      <c r="H74" s="210" t="s">
+      <c r="C74" s="234"/>
+      <c r="D74" s="234"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="234"/>
+      <c r="G74" s="235"/>
+      <c r="H74" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="I74" s="211"/>
-      <c r="J74" s="211"/>
-      <c r="K74" s="211"/>
-      <c r="L74" s="211"/>
-      <c r="M74" s="212"/>
-      <c r="N74" s="210" t="s">
+      <c r="I74" s="234"/>
+      <c r="J74" s="234"/>
+      <c r="K74" s="234"/>
+      <c r="L74" s="234"/>
+      <c r="M74" s="235"/>
+      <c r="N74" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="O74" s="211"/>
-      <c r="P74" s="211"/>
-      <c r="Q74" s="211"/>
-      <c r="R74" s="211"/>
-      <c r="S74" s="212"/>
-      <c r="T74" s="207" t="s">
+      <c r="O74" s="234"/>
+      <c r="P74" s="234"/>
+      <c r="Q74" s="234"/>
+      <c r="R74" s="234"/>
+      <c r="S74" s="235"/>
+      <c r="T74" s="230" t="s">
         <v>34</v>
       </c>
-      <c r="U74" s="208"/>
-      <c r="V74" s="208"/>
-      <c r="W74" s="208"/>
-      <c r="X74" s="208"/>
-      <c r="Y74" s="209"/>
+      <c r="U74" s="231"/>
+      <c r="V74" s="231"/>
+      <c r="W74" s="231"/>
+      <c r="X74" s="231"/>
+      <c r="Y74" s="232"/>
     </row>
     <row r="75" spans="1:27">
       <c r="A75" s="198"/>
@@ -33709,67 +33701,67 @@
       <c r="A87" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="199" t="s">
+      <c r="B87" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="C87" s="200"/>
-      <c r="D87" s="200"/>
-      <c r="E87" s="200"/>
-      <c r="F87" s="200"/>
-      <c r="G87" s="200"/>
-      <c r="H87" s="200"/>
-      <c r="I87" s="200"/>
-      <c r="J87" s="200"/>
-      <c r="K87" s="200"/>
-      <c r="L87" s="200"/>
-      <c r="M87" s="200"/>
-      <c r="N87" s="200"/>
-      <c r="O87" s="200"/>
-      <c r="P87" s="200"/>
-      <c r="Q87" s="200"/>
-      <c r="R87" s="200"/>
-      <c r="S87" s="200"/>
-      <c r="T87" s="200"/>
-      <c r="U87" s="200"/>
-      <c r="V87" s="200"/>
-      <c r="W87" s="200"/>
-      <c r="X87" s="200"/>
-      <c r="Y87" s="201"/>
+      <c r="C87" s="239"/>
+      <c r="D87" s="239"/>
+      <c r="E87" s="239"/>
+      <c r="F87" s="239"/>
+      <c r="G87" s="239"/>
+      <c r="H87" s="239"/>
+      <c r="I87" s="239"/>
+      <c r="J87" s="239"/>
+      <c r="K87" s="239"/>
+      <c r="L87" s="239"/>
+      <c r="M87" s="239"/>
+      <c r="N87" s="239"/>
+      <c r="O87" s="239"/>
+      <c r="P87" s="239"/>
+      <c r="Q87" s="239"/>
+      <c r="R87" s="239"/>
+      <c r="S87" s="239"/>
+      <c r="T87" s="239"/>
+      <c r="U87" s="239"/>
+      <c r="V87" s="239"/>
+      <c r="W87" s="239"/>
+      <c r="X87" s="239"/>
+      <c r="Y87" s="240"/>
     </row>
     <row r="88" spans="1:27">
       <c r="A88" s="197"/>
-      <c r="B88" s="202" t="s">
+      <c r="B88" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="C88" s="203"/>
-      <c r="D88" s="203"/>
-      <c r="E88" s="203"/>
-      <c r="F88" s="203"/>
-      <c r="G88" s="204"/>
-      <c r="H88" s="202" t="s">
+      <c r="C88" s="242"/>
+      <c r="D88" s="242"/>
+      <c r="E88" s="242"/>
+      <c r="F88" s="242"/>
+      <c r="G88" s="243"/>
+      <c r="H88" s="241" t="s">
         <v>25</v>
       </c>
-      <c r="I88" s="203"/>
-      <c r="J88" s="203"/>
-      <c r="K88" s="203"/>
-      <c r="L88" s="203"/>
-      <c r="M88" s="204"/>
-      <c r="N88" s="202" t="s">
+      <c r="I88" s="242"/>
+      <c r="J88" s="242"/>
+      <c r="K88" s="242"/>
+      <c r="L88" s="242"/>
+      <c r="M88" s="243"/>
+      <c r="N88" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="O88" s="203"/>
-      <c r="P88" s="203"/>
-      <c r="Q88" s="203"/>
-      <c r="R88" s="203"/>
-      <c r="S88" s="204"/>
-      <c r="T88" s="199" t="s">
+      <c r="O88" s="242"/>
+      <c r="P88" s="242"/>
+      <c r="Q88" s="242"/>
+      <c r="R88" s="242"/>
+      <c r="S88" s="243"/>
+      <c r="T88" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="U88" s="200"/>
-      <c r="V88" s="200"/>
-      <c r="W88" s="200"/>
-      <c r="X88" s="200"/>
-      <c r="Y88" s="201"/>
+      <c r="U88" s="239"/>
+      <c r="V88" s="239"/>
+      <c r="W88" s="239"/>
+      <c r="X88" s="239"/>
+      <c r="Y88" s="240"/>
     </row>
     <row r="89" spans="1:27">
       <c r="A89" s="198"/>
@@ -34608,25 +34600,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:Y59"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="N60:S60"/>
-    <mergeCell ref="T60:Y60"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="N32:S32"/>
-    <mergeCell ref="N46:S46"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B31:Y31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B45:Y45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:Y87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="N88:S88"/>
+    <mergeCell ref="T88:Y88"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:Y73"/>
@@ -34643,12 +34622,25 @@
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:Y87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="N88:S88"/>
-    <mergeCell ref="T88:Y88"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="N32:S32"/>
+    <mergeCell ref="N46:S46"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B31:Y31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B45:Y45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="B17:Y17"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:Y59"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="N60:S60"/>
+    <mergeCell ref="T60:Y60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -34660,7 +34652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
@@ -36428,19 +36420,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -36457,74 +36449,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -38236,10 +38228,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -38253,74 +38245,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -40008,10 +40000,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -40025,108 +40017,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -40929,7 +40921,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -40945,7 +40937,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -40961,7 +40953,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -40977,7 +40969,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -40993,7 +40985,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -41009,7 +41001,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -41052,7 +41044,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -41066,7 +41058,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -41080,7 +41072,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -41094,7 +41086,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -41108,7 +41100,7 @@
         <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -41122,7 +41114,7 @@
         <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -42592,6 +42584,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AR5:BF5"/>
+    <mergeCell ref="AR30:BF30"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="CC59:CC60"/>
+    <mergeCell ref="CR59:CR60"/>
+    <mergeCell ref="BN59:BN60"/>
+    <mergeCell ref="AY59:AY60"/>
+    <mergeCell ref="AJ59:AJ60"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A28:B28"/>
@@ -42608,14 +42608,6 @@
     <mergeCell ref="N30:AB30"/>
     <mergeCell ref="AC5:AQ5"/>
     <mergeCell ref="AC30:AQ30"/>
-    <mergeCell ref="AR5:BF5"/>
-    <mergeCell ref="AR30:BF30"/>
-    <mergeCell ref="U59:U60"/>
-    <mergeCell ref="CC59:CC60"/>
-    <mergeCell ref="CR59:CR60"/>
-    <mergeCell ref="BN59:BN60"/>
-    <mergeCell ref="AY59:AY60"/>
-    <mergeCell ref="AJ59:AJ60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42643,19 +42635,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -42672,74 +42664,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -44452,10 +44444,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -44469,74 +44461,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -46224,10 +46216,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -46241,108 +46233,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -47145,7 +47137,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -47161,7 +47153,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -47177,7 +47169,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -47193,7 +47185,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -47209,7 +47201,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -47225,7 +47217,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -47268,7 +47260,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -47282,7 +47274,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -47296,7 +47288,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -47310,7 +47302,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -47324,7 +47316,7 @@
         <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -47338,7 +47330,7 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -48808,18 +48800,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -48832,6 +48812,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -48861,19 +48853,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -48890,74 +48882,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -50675,10 +50667,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -50692,74 +50684,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -52447,10 +52439,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -52464,108 +52456,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -53368,7 +53360,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -53384,7 +53376,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -53400,7 +53392,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -53416,7 +53408,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -53432,7 +53424,7 @@
         <f t="shared" si="25"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -53448,7 +53440,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -53491,7 +53483,7 @@
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -53505,7 +53497,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -53519,7 +53511,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -53533,7 +53525,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -53547,7 +53539,7 @@
         <f t="shared" si="25"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -53561,7 +53553,7 @@
         <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -55031,18 +55023,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -55055,6 +55035,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -55095,19 +55087,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -55124,74 +55116,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="57.6">
       <c r="A6" s="3" t="s">
@@ -56909,10 +56901,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -56926,74 +56918,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="57.6">
       <c r="A31" s="3" t="s">
@@ -58681,10 +58673,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -58698,108 +58690,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="72">
       <c r="A56" s="3" t="s">
@@ -59602,7 +59594,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -59618,7 +59610,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -59634,7 +59626,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -59650,7 +59642,7 @@
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -59666,7 +59658,7 @@
         <f t="shared" si="26"/>
         <v>0.82</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -59682,7 +59674,7 @@
         <f t="shared" si="27"/>
         <v>0.12</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -59725,7 +59717,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -59739,7 +59731,7 @@
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -59753,7 +59745,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -59767,7 +59759,7 @@
         <f t="shared" si="25"/>
         <v>0.94</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -59781,7 +59773,7 @@
         <f t="shared" si="26"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -59795,7 +59787,7 @@
         <f t="shared" si="27"/>
         <v>0.04</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -61266,18 +61258,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -61290,6 +61270,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -61318,19 +61310,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -61347,74 +61339,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -63132,10 +63124,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -63149,74 +63141,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -64904,10 +64896,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -64921,108 +64913,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -65825,7 +65817,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -65841,7 +65833,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -65857,7 +65849,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -65873,7 +65865,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -65889,7 +65881,7 @@
         <f t="shared" si="24"/>
         <v>0.5625</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -65905,7 +65897,7 @@
         <f t="shared" si="25"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -65948,7 +65940,7 @@
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -65962,7 +65954,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -65976,7 +65968,7 @@
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -65990,7 +65982,7 @@
         <f t="shared" si="23"/>
         <v>0.98750000000000004</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -66004,7 +65996,7 @@
         <f t="shared" si="24"/>
         <v>0.625</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -66018,7 +66010,7 @@
         <f t="shared" si="25"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -67488,18 +67480,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -67512,6 +67492,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67540,19 +67532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -67569,74 +67561,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -69354,10 +69346,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -69371,74 +69363,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -71125,10 +71117,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -71142,108 +71134,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -72046,7 +72038,7 @@
         <f t="shared" si="27"/>
         <v>0.99</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -72062,7 +72054,7 @@
         <f t="shared" si="20"/>
         <v>0.99</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -72078,7 +72070,7 @@
         <f t="shared" si="21"/>
         <v>0.99</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -72094,7 +72086,7 @@
         <f t="shared" si="22"/>
         <v>0.99</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -72110,7 +72102,7 @@
         <f t="shared" si="23"/>
         <v>0.39</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -72126,7 +72118,7 @@
         <f t="shared" si="24"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -72169,7 +72161,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -72183,7 +72175,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -72197,7 +72189,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -72211,7 +72203,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -72225,7 +72217,7 @@
         <f t="shared" si="23"/>
         <v>0.52</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -72239,7 +72231,7 @@
         <f t="shared" si="24"/>
         <v>0.01</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -73713,18 +73705,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -73737,6 +73717,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -73765,19 +73757,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -73794,74 +73786,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="164" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="165"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="165"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="165"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="166"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="175"/>
+      <c r="AE5" s="175"/>
+      <c r="AF5" s="175"/>
+      <c r="AG5" s="175"/>
+      <c r="AH5" s="175"/>
+      <c r="AI5" s="175"/>
+      <c r="AJ5" s="175"/>
+      <c r="AK5" s="175"/>
+      <c r="AL5" s="175"/>
+      <c r="AM5" s="175"/>
+      <c r="AN5" s="175"/>
+      <c r="AO5" s="175"/>
+      <c r="AP5" s="175"/>
+      <c r="AQ5" s="176"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -75579,10 +75571,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -75596,74 +75588,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="164" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="166"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="175"/>
+      <c r="AM30" s="175"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="175"/>
+      <c r="AQ30" s="176"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -77351,10 +77343,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -77368,108 +77360,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="164" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="165"/>
-      <c r="AE55" s="165"/>
-      <c r="AF55" s="165"/>
-      <c r="AG55" s="165"/>
-      <c r="AH55" s="165"/>
-      <c r="AI55" s="165"/>
-      <c r="AJ55" s="165"/>
-      <c r="AK55" s="165"/>
-      <c r="AL55" s="165"/>
-      <c r="AM55" s="165"/>
-      <c r="AN55" s="165"/>
-      <c r="AO55" s="165"/>
-      <c r="AP55" s="165"/>
-      <c r="AQ55" s="166"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="175"/>
+      <c r="AE55" s="175"/>
+      <c r="AF55" s="175"/>
+      <c r="AG55" s="175"/>
+      <c r="AH55" s="175"/>
+      <c r="AI55" s="175"/>
+      <c r="AJ55" s="175"/>
+      <c r="AK55" s="175"/>
+      <c r="AL55" s="175"/>
+      <c r="AM55" s="175"/>
+      <c r="AN55" s="175"/>
+      <c r="AO55" s="175"/>
+      <c r="AP55" s="175"/>
+      <c r="AQ55" s="176"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -78272,7 +78264,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -78288,7 +78280,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -78304,7 +78296,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -78320,7 +78312,7 @@
         <f t="shared" si="22"/>
         <v>0.97</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -78336,7 +78328,7 @@
         <f t="shared" si="23"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -78352,7 +78344,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -78395,7 +78387,7 @@
         <f t="shared" si="27"/>
         <v>0.98</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -78409,7 +78401,7 @@
         <f t="shared" si="20"/>
         <v>0.98</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -78423,7 +78415,7 @@
         <f t="shared" si="21"/>
         <v>0.98</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -78437,7 +78429,7 @@
         <f t="shared" si="22"/>
         <v>0.98</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -78451,7 +78443,7 @@
         <f t="shared" si="23"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -78465,7 +78457,7 @@
         <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -79940,18 +79932,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -79964,6 +79944,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79991,19 +79983,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="23.4" thickBot="1">
-      <c r="B1" s="179" t="s">
+      <c r="B1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="181"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168"/>
     </row>
     <row r="3" spans="1:73">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="182"/>
+      <c r="B3" s="169"/>
       <c r="D3" s="109" t="s">
         <v>45</v>
       </c>
@@ -80020,74 +80012,74 @@
       </c>
     </row>
     <row r="5" spans="1:73" ht="15.6">
-      <c r="N5" s="183" t="s">
+      <c r="N5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="184"/>
-      <c r="W5" s="184"/>
-      <c r="X5" s="184"/>
-      <c r="Y5" s="184"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="185"/>
-      <c r="AC5" s="190" t="s">
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="172"/>
+      <c r="AC5" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="191"/>
-      <c r="AE5" s="191"/>
-      <c r="AF5" s="191"/>
-      <c r="AG5" s="191"/>
-      <c r="AH5" s="191"/>
-      <c r="AI5" s="191"/>
-      <c r="AJ5" s="191"/>
-      <c r="AK5" s="191"/>
-      <c r="AL5" s="191"/>
-      <c r="AM5" s="191"/>
-      <c r="AN5" s="191"/>
-      <c r="AO5" s="191"/>
-      <c r="AP5" s="191"/>
-      <c r="AQ5" s="192"/>
-      <c r="AR5" s="186" t="s">
+      <c r="AD5" s="187"/>
+      <c r="AE5" s="187"/>
+      <c r="AF5" s="187"/>
+      <c r="AG5" s="187"/>
+      <c r="AH5" s="187"/>
+      <c r="AI5" s="187"/>
+      <c r="AJ5" s="187"/>
+      <c r="AK5" s="187"/>
+      <c r="AL5" s="187"/>
+      <c r="AM5" s="187"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="188"/>
+      <c r="AR5" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS5" s="187"/>
-      <c r="AT5" s="187"/>
-      <c r="AU5" s="187"/>
-      <c r="AV5" s="187"/>
-      <c r="AW5" s="187"/>
-      <c r="AX5" s="187"/>
-      <c r="AY5" s="187"/>
-      <c r="AZ5" s="187"/>
-      <c r="BA5" s="187"/>
-      <c r="BB5" s="187"/>
-      <c r="BC5" s="187"/>
-      <c r="BD5" s="187"/>
-      <c r="BE5" s="187"/>
-      <c r="BF5" s="188"/>
-      <c r="BG5" s="193" t="s">
+      <c r="AS5" s="190"/>
+      <c r="AT5" s="190"/>
+      <c r="AU5" s="190"/>
+      <c r="AV5" s="190"/>
+      <c r="AW5" s="190"/>
+      <c r="AX5" s="190"/>
+      <c r="AY5" s="190"/>
+      <c r="AZ5" s="190"/>
+      <c r="BA5" s="190"/>
+      <c r="BB5" s="190"/>
+      <c r="BC5" s="190"/>
+      <c r="BD5" s="190"/>
+      <c r="BE5" s="190"/>
+      <c r="BF5" s="191"/>
+      <c r="BG5" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH5" s="194"/>
-      <c r="BI5" s="194"/>
-      <c r="BJ5" s="194"/>
-      <c r="BK5" s="194"/>
-      <c r="BL5" s="194"/>
-      <c r="BM5" s="194"/>
-      <c r="BN5" s="194"/>
-      <c r="BO5" s="194"/>
-      <c r="BP5" s="194"/>
-      <c r="BQ5" s="194"/>
-      <c r="BR5" s="194"/>
-      <c r="BS5" s="194"/>
-      <c r="BT5" s="194"/>
-      <c r="BU5" s="195"/>
+      <c r="BH5" s="193"/>
+      <c r="BI5" s="193"/>
+      <c r="BJ5" s="193"/>
+      <c r="BK5" s="193"/>
+      <c r="BL5" s="193"/>
+      <c r="BM5" s="193"/>
+      <c r="BN5" s="193"/>
+      <c r="BO5" s="193"/>
+      <c r="BP5" s="193"/>
+      <c r="BQ5" s="193"/>
+      <c r="BR5" s="193"/>
+      <c r="BS5" s="193"/>
+      <c r="BT5" s="193"/>
+      <c r="BU5" s="194"/>
     </row>
     <row r="6" spans="1:73" ht="43.2">
       <c r="A6" s="3" t="s">
@@ -81805,10 +81797,10 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:73">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="169"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:73">
@@ -81822,74 +81814,74 @@
     </row>
     <row r="30" spans="1:73" ht="15.6">
       <c r="H30" s="1"/>
-      <c r="N30" s="183" t="s">
+      <c r="N30" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O30" s="184"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="184"/>
-      <c r="S30" s="184"/>
-      <c r="T30" s="184"/>
-      <c r="U30" s="184"/>
-      <c r="V30" s="184"/>
-      <c r="W30" s="184"/>
-      <c r="X30" s="184"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="184"/>
-      <c r="AA30" s="184"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="190" t="s">
+      <c r="O30" s="171"/>
+      <c r="P30" s="171"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="171"/>
+      <c r="S30" s="171"/>
+      <c r="T30" s="171"/>
+      <c r="U30" s="171"/>
+      <c r="V30" s="171"/>
+      <c r="W30" s="171"/>
+      <c r="X30" s="171"/>
+      <c r="Y30" s="171"/>
+      <c r="Z30" s="171"/>
+      <c r="AA30" s="171"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD30" s="191"/>
-      <c r="AE30" s="191"/>
-      <c r="AF30" s="191"/>
-      <c r="AG30" s="191"/>
-      <c r="AH30" s="191"/>
-      <c r="AI30" s="191"/>
-      <c r="AJ30" s="191"/>
-      <c r="AK30" s="191"/>
-      <c r="AL30" s="191"/>
-      <c r="AM30" s="191"/>
-      <c r="AN30" s="191"/>
-      <c r="AO30" s="191"/>
-      <c r="AP30" s="191"/>
-      <c r="AQ30" s="192"/>
-      <c r="AR30" s="186" t="s">
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="187"/>
+      <c r="AF30" s="187"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="187"/>
+      <c r="AJ30" s="187"/>
+      <c r="AK30" s="187"/>
+      <c r="AL30" s="187"/>
+      <c r="AM30" s="187"/>
+      <c r="AN30" s="187"/>
+      <c r="AO30" s="187"/>
+      <c r="AP30" s="187"/>
+      <c r="AQ30" s="188"/>
+      <c r="AR30" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS30" s="187"/>
-      <c r="AT30" s="187"/>
-      <c r="AU30" s="187"/>
-      <c r="AV30" s="187"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="187"/>
-      <c r="AY30" s="187"/>
-      <c r="AZ30" s="187"/>
-      <c r="BA30" s="187"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="187"/>
-      <c r="BD30" s="187"/>
-      <c r="BE30" s="187"/>
-      <c r="BF30" s="188"/>
-      <c r="BG30" s="193" t="s">
+      <c r="AS30" s="190"/>
+      <c r="AT30" s="190"/>
+      <c r="AU30" s="190"/>
+      <c r="AV30" s="190"/>
+      <c r="AW30" s="190"/>
+      <c r="AX30" s="190"/>
+      <c r="AY30" s="190"/>
+      <c r="AZ30" s="190"/>
+      <c r="BA30" s="190"/>
+      <c r="BB30" s="190"/>
+      <c r="BC30" s="190"/>
+      <c r="BD30" s="190"/>
+      <c r="BE30" s="190"/>
+      <c r="BF30" s="191"/>
+      <c r="BG30" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="BH30" s="194"/>
-      <c r="BI30" s="194"/>
-      <c r="BJ30" s="194"/>
-      <c r="BK30" s="194"/>
-      <c r="BL30" s="194"/>
-      <c r="BM30" s="194"/>
-      <c r="BN30" s="194"/>
-      <c r="BO30" s="194"/>
-      <c r="BP30" s="194"/>
-      <c r="BQ30" s="194"/>
-      <c r="BR30" s="194"/>
-      <c r="BS30" s="194"/>
-      <c r="BT30" s="194"/>
-      <c r="BU30" s="195"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="193"/>
+      <c r="BN30" s="193"/>
+      <c r="BO30" s="193"/>
+      <c r="BP30" s="193"/>
+      <c r="BQ30" s="193"/>
+      <c r="BR30" s="193"/>
+      <c r="BS30" s="193"/>
+      <c r="BT30" s="193"/>
+      <c r="BU30" s="194"/>
     </row>
     <row r="31" spans="1:73" ht="43.2">
       <c r="A31" s="3" t="s">
@@ -83578,10 +83570,10 @@
       </c>
     </row>
     <row r="53" spans="1:103">
-      <c r="A53" s="182" t="s">
+      <c r="A53" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="182"/>
+      <c r="B53" s="169"/>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:103">
@@ -83595,108 +83587,108 @@
     </row>
     <row r="55" spans="1:103" ht="15.6">
       <c r="H55" s="1"/>
-      <c r="N55" s="183" t="s">
+      <c r="N55" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="O55" s="184"/>
-      <c r="P55" s="184"/>
-      <c r="Q55" s="184"/>
-      <c r="R55" s="184"/>
-      <c r="S55" s="184"/>
-      <c r="T55" s="184"/>
-      <c r="U55" s="184"/>
-      <c r="V55" s="184"/>
-      <c r="W55" s="184"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
-      <c r="Z55" s="184"/>
-      <c r="AA55" s="184"/>
-      <c r="AB55" s="185"/>
-      <c r="AC55" s="190" t="s">
+      <c r="O55" s="171"/>
+      <c r="P55" s="171"/>
+      <c r="Q55" s="171"/>
+      <c r="R55" s="171"/>
+      <c r="S55" s="171"/>
+      <c r="T55" s="171"/>
+      <c r="U55" s="171"/>
+      <c r="V55" s="171"/>
+      <c r="W55" s="171"/>
+      <c r="X55" s="171"/>
+      <c r="Y55" s="171"/>
+      <c r="Z55" s="171"/>
+      <c r="AA55" s="171"/>
+      <c r="AB55" s="172"/>
+      <c r="AC55" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="AD55" s="191"/>
-      <c r="AE55" s="191"/>
-      <c r="AF55" s="191"/>
-      <c r="AG55" s="191"/>
-      <c r="AH55" s="191"/>
-      <c r="AI55" s="191"/>
-      <c r="AJ55" s="191"/>
-      <c r="AK55" s="191"/>
-      <c r="AL55" s="191"/>
-      <c r="AM55" s="191"/>
-      <c r="AN55" s="191"/>
-      <c r="AO55" s="191"/>
-      <c r="AP55" s="191"/>
-      <c r="AQ55" s="192"/>
-      <c r="AR55" s="186" t="s">
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="188"/>
+      <c r="AR55" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="AS55" s="187"/>
-      <c r="AT55" s="187"/>
-      <c r="AU55" s="187"/>
-      <c r="AV55" s="187"/>
-      <c r="AW55" s="187"/>
-      <c r="AX55" s="187"/>
-      <c r="AY55" s="187"/>
-      <c r="AZ55" s="187"/>
-      <c r="BA55" s="187"/>
-      <c r="BB55" s="187"/>
-      <c r="BC55" s="187"/>
-      <c r="BD55" s="187"/>
-      <c r="BE55" s="187"/>
-      <c r="BF55" s="188"/>
-      <c r="BG55" s="176" t="s">
+      <c r="AS55" s="190"/>
+      <c r="AT55" s="190"/>
+      <c r="AU55" s="190"/>
+      <c r="AV55" s="190"/>
+      <c r="AW55" s="190"/>
+      <c r="AX55" s="190"/>
+      <c r="AY55" s="190"/>
+      <c r="AZ55" s="190"/>
+      <c r="BA55" s="190"/>
+      <c r="BB55" s="190"/>
+      <c r="BC55" s="190"/>
+      <c r="BD55" s="190"/>
+      <c r="BE55" s="190"/>
+      <c r="BF55" s="191"/>
+      <c r="BG55" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BH55" s="177"/>
-      <c r="BI55" s="177"/>
-      <c r="BJ55" s="177"/>
-      <c r="BK55" s="177"/>
-      <c r="BL55" s="177"/>
-      <c r="BM55" s="177"/>
-      <c r="BN55" s="177"/>
-      <c r="BO55" s="177"/>
-      <c r="BP55" s="177"/>
-      <c r="BQ55" s="177"/>
-      <c r="BR55" s="177"/>
-      <c r="BS55" s="177"/>
-      <c r="BT55" s="177"/>
-      <c r="BU55" s="178"/>
-      <c r="BV55" s="170" t="s">
+      <c r="BH55" s="164"/>
+      <c r="BI55" s="164"/>
+      <c r="BJ55" s="164"/>
+      <c r="BK55" s="164"/>
+      <c r="BL55" s="164"/>
+      <c r="BM55" s="164"/>
+      <c r="BN55" s="164"/>
+      <c r="BO55" s="164"/>
+      <c r="BP55" s="164"/>
+      <c r="BQ55" s="164"/>
+      <c r="BR55" s="164"/>
+      <c r="BS55" s="164"/>
+      <c r="BT55" s="164"/>
+      <c r="BU55" s="165"/>
+      <c r="BV55" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="BW55" s="171"/>
-      <c r="BX55" s="171"/>
-      <c r="BY55" s="171"/>
-      <c r="BZ55" s="171"/>
-      <c r="CA55" s="171"/>
-      <c r="CB55" s="171"/>
-      <c r="CC55" s="171"/>
-      <c r="CD55" s="171"/>
-      <c r="CE55" s="171"/>
-      <c r="CF55" s="171"/>
-      <c r="CG55" s="171"/>
-      <c r="CH55" s="171"/>
-      <c r="CI55" s="171"/>
-      <c r="CJ55" s="172"/>
-      <c r="CK55" s="173" t="s">
+      <c r="BW55" s="181"/>
+      <c r="BX55" s="181"/>
+      <c r="BY55" s="181"/>
+      <c r="BZ55" s="181"/>
+      <c r="CA55" s="181"/>
+      <c r="CB55" s="181"/>
+      <c r="CC55" s="181"/>
+      <c r="CD55" s="181"/>
+      <c r="CE55" s="181"/>
+      <c r="CF55" s="181"/>
+      <c r="CG55" s="181"/>
+      <c r="CH55" s="181"/>
+      <c r="CI55" s="181"/>
+      <c r="CJ55" s="182"/>
+      <c r="CK55" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="CL55" s="174"/>
-      <c r="CM55" s="174"/>
-      <c r="CN55" s="174"/>
-      <c r="CO55" s="174"/>
-      <c r="CP55" s="174"/>
-      <c r="CQ55" s="174"/>
-      <c r="CR55" s="174"/>
-      <c r="CS55" s="174"/>
-      <c r="CT55" s="174"/>
-      <c r="CU55" s="174"/>
-      <c r="CV55" s="174"/>
-      <c r="CW55" s="174"/>
-      <c r="CX55" s="174"/>
-      <c r="CY55" s="175"/>
+      <c r="CL55" s="184"/>
+      <c r="CM55" s="184"/>
+      <c r="CN55" s="184"/>
+      <c r="CO55" s="184"/>
+      <c r="CP55" s="184"/>
+      <c r="CQ55" s="184"/>
+      <c r="CR55" s="184"/>
+      <c r="CS55" s="184"/>
+      <c r="CT55" s="184"/>
+      <c r="CU55" s="184"/>
+      <c r="CV55" s="184"/>
+      <c r="CW55" s="184"/>
+      <c r="CX55" s="184"/>
+      <c r="CY55" s="185"/>
     </row>
     <row r="56" spans="1:103" ht="43.2">
       <c r="A56" s="3" t="s">
@@ -84499,7 +84491,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U59" s="189" t="s">
+      <c r="U59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AC59" s="4">
@@ -84515,7 +84507,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ59" s="189" t="s">
+      <c r="AJ59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="AR59" s="4">
@@ -84531,7 +84523,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY59" s="189" t="s">
+      <c r="AY59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BG59" s="4">
@@ -84547,7 +84539,7 @@
         <f t="shared" si="22"/>
         <v>0.97599999999999998</v>
       </c>
-      <c r="BN59" s="189" t="s">
+      <c r="BN59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="BV59" s="4">
@@ -84563,7 +84555,7 @@
         <f t="shared" si="23"/>
         <v>0.32600000000000001</v>
       </c>
-      <c r="CC59" s="189" t="s">
+      <c r="CC59" s="195" t="s">
         <v>52</v>
       </c>
       <c r="CK59" s="4">
@@ -84579,7 +84571,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR59" s="189" t="s">
+      <c r="CR59" s="195" t="s">
         <v>52</v>
       </c>
     </row>
@@ -84622,7 +84614,7 @@
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U60" s="163"/>
+      <c r="U60" s="173"/>
       <c r="AC60" s="4">
         <v>4</v>
       </c>
@@ -84636,7 +84628,7 @@
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AJ60" s="163"/>
+      <c r="AJ60" s="173"/>
       <c r="AR60" s="4">
         <v>4</v>
       </c>
@@ -84650,7 +84642,7 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AY60" s="163"/>
+      <c r="AY60" s="173"/>
       <c r="BG60" s="4">
         <v>4</v>
       </c>
@@ -84664,7 +84656,7 @@
         <f t="shared" si="22"/>
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="BN60" s="163"/>
+      <c r="BN60" s="173"/>
       <c r="BV60" s="4">
         <v>4</v>
       </c>
@@ -84678,7 +84670,7 @@
         <f t="shared" si="23"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="CC60" s="163"/>
+      <c r="CC60" s="173"/>
       <c r="CK60" s="4">
         <v>4</v>
       </c>
@@ -84692,7 +84684,7 @@
         <f t="shared" si="24"/>
         <v>2E-3</v>
       </c>
-      <c r="CR60" s="163"/>
+      <c r="CR60" s="173"/>
     </row>
     <row r="61" spans="1:103">
       <c r="A61" s="4">
@@ -86164,18 +86156,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="N55:AB55"/>
-    <mergeCell ref="AC55:AQ55"/>
-    <mergeCell ref="AR55:BF55"/>
-    <mergeCell ref="BG5:BU5"/>
-    <mergeCell ref="BG30:BU30"/>
-    <mergeCell ref="BG55:BU55"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="N5:AB5"/>
-    <mergeCell ref="N30:AB30"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="AR30:BF30"/>
     <mergeCell ref="AC5:AQ5"/>
@@ -86188,6 +86168,18 @@
     <mergeCell ref="AR5:BF5"/>
     <mergeCell ref="BV55:CJ55"/>
     <mergeCell ref="CK55:CY55"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="N30:AB30"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="N55:AB55"/>
+    <mergeCell ref="AC55:AQ55"/>
+    <mergeCell ref="AR55:BF55"/>
+    <mergeCell ref="BG5:BU5"/>
+    <mergeCell ref="BG30:BU30"/>
+    <mergeCell ref="BG55:BU55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
